--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Área de Trabalho\GitHub\4-Ranking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Área de Trabalho\GitHub\6-Ranking-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -266,9 +266,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4704,17 +4703,17 @@
       <c r="G58" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="1">
-        <v>1.91208943328346E+16</v>
+      <c r="H58">
+        <v>1.91208943330709E+16</v>
       </c>
       <c r="I58">
-        <v>54.545454545454497</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J58">
-        <v>4.4676948388363202</v>
+        <v>4.4676900000000002</v>
       </c>
       <c r="K58">
-        <v>0.60913573940416499</v>
+        <v>0.751</v>
       </c>
       <c r="L58">
         <v>4.76391896568982</v>
@@ -5713,13 +5712,16 @@
         <v>65</v>
       </c>
       <c r="H72">
-        <v>5761258045689000</v>
+        <v>5761257970811370</v>
       </c>
       <c r="I72">
-        <v>54.545454545454497</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J72">
-        <v>10.980247168986301</v>
+        <v>-10.98025</v>
+      </c>
+      <c r="K72">
+        <v>0.92029000000000005</v>
       </c>
       <c r="L72">
         <v>63.890985000000001</v>
@@ -6286,13 +6288,16 @@
         <v>65</v>
       </c>
       <c r="H80">
-        <v>1801682498704720</v>
+        <v>1801682294728140</v>
       </c>
       <c r="I80">
-        <v>54.545454545454497</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J80">
-        <v>-48.725180361120501</v>
+        <v>48.725180000000002</v>
+      </c>
+      <c r="K80">
+        <v>0.81691999999999998</v>
       </c>
       <c r="L80">
         <v>2.7969780000000002</v>
@@ -9450,17 +9455,17 @@
       <c r="G124" t="s">
         <v>65</v>
       </c>
-      <c r="H124" s="1">
-        <v>6.35888296825002E+16</v>
+      <c r="H124">
+        <v>6.35888296810176E+16</v>
       </c>
       <c r="I124">
-        <v>27.272727272727199</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J124">
-        <v>95.085877216106596</v>
+        <v>95.085880000000003</v>
       </c>
       <c r="K124">
-        <v>0.95263442583657798</v>
+        <v>0.95262999999999998</v>
       </c>
       <c r="L124">
         <v>25.575860728853598</v>
@@ -14481,7 +14486,7 @@
         <v>4</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" ref="E194:E257" si="3">D194&amp;"_"&amp;F194</f>
+        <f t="shared" ref="E194:E217" si="3">D194&amp;"_"&amp;F194</f>
         <v>RawData_12</v>
       </c>
       <c r="F194">
@@ -16074,17 +16079,17 @@
       <c r="G216" t="s">
         <v>65</v>
       </c>
-      <c r="H216" s="1">
-        <v>1.14307924407566E+16</v>
+      <c r="H216">
+        <v>1.14307924408113E+16</v>
       </c>
       <c r="I216">
-        <v>18.181818181818102</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J216">
-        <v>-74.928658667739697</v>
+        <v>-74.928659999999994</v>
       </c>
       <c r="K216">
-        <v>0.228697872659954</v>
+        <v>0.41781000000000001</v>
       </c>
       <c r="L216">
         <v>2.4990219215628802</v>

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -266,8 +266,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5555,65 +5556,62 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+        <f>D70&amp;"_"&amp;F70</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
       </c>
       <c r="H70">
-        <v>1409082123112030</v>
+        <v>1426095575271800</v>
       </c>
       <c r="I70">
-        <v>54.545450000000002</v>
+        <v>36.363636363636303</v>
       </c>
       <c r="J70">
-        <v>-29.812799999999999</v>
-      </c>
-      <c r="K70">
-        <v>1.1342399999999999</v>
+        <v>-4.2207413412035502</v>
       </c>
       <c r="L70">
-        <v>18.362546999999999</v>
+        <v>8.9671210000000006</v>
       </c>
       <c r="M70">
-        <v>2.9055749999999998</v>
+        <v>3.0900059999999998</v>
       </c>
       <c r="N70">
-        <v>4.7628320000000004</v>
+        <v>2.528708</v>
       </c>
       <c r="O70">
-        <v>-0.27858100000000002</v>
+        <v>10.832610000000001</v>
       </c>
       <c r="P70">
-        <v>3.7545489999999999</v>
+        <v>3.7998820000000002</v>
       </c>
       <c r="Q70">
-        <v>-0.27858100000000002</v>
+        <v>3.7173379999999998</v>
       </c>
       <c r="R70">
-        <v>18.238529</v>
+        <v>7.2887320000000004</v>
       </c>
       <c r="S70">
-        <v>19.887070999999999</v>
+        <v>12.301888999999999</v>
       </c>
       <c r="T70">
-        <v>38.036157000000003</v>
+        <v>12.929221999999999</v>
       </c>
       <c r="U70">
-        <v>14.937411000000001</v>
+        <v>13.220876000000001</v>
       </c>
       <c r="V70">
-        <v>0.23765900000000001</v>
+        <v>20.226089999999999</v>
       </c>
       <c r="W70">
-        <v>29.094707</v>
+        <v>11.520474999999999</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -5912,68 +5910,68 @@
         <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+        <f>D75&amp;"_"&amp;F75</f>
+        <v>RawData_108</v>
       </c>
       <c r="F75">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
         <v>65</v>
       </c>
       <c r="H75">
-        <v>1.04891</v>
+        <v>1.35515193178761</v>
       </c>
       <c r="I75">
-        <v>72.727270000000004</v>
+        <v>45.454545454545404</v>
       </c>
       <c r="J75">
-        <v>31.714469999999999</v>
+        <v>69.584347386149403</v>
       </c>
       <c r="K75">
-        <v>0.85236999999999996</v>
+        <v>1.0499029710171699</v>
       </c>
       <c r="L75">
-        <v>10.56921</v>
+        <v>2.3119213014793099</v>
       </c>
       <c r="M75">
-        <v>9.9386109999999999</v>
+        <v>2.5243259249238701</v>
       </c>
       <c r="N75">
-        <v>-0.15098200000000001</v>
+        <v>2.1352640169547601</v>
       </c>
       <c r="O75">
-        <v>-0.15098200000000001</v>
+        <v>3.9676413093243701</v>
       </c>
       <c r="P75">
-        <v>0.22838700000000001</v>
+        <v>1.8893236437571601</v>
       </c>
       <c r="Q75">
-        <v>7.1296679999999997</v>
+        <v>4.2124113598783701</v>
       </c>
       <c r="R75">
-        <v>5.7443669999999996</v>
+        <v>3.8993805608694299</v>
       </c>
       <c r="S75">
-        <v>7.3677820000000001</v>
+        <v>2.2164150601406698</v>
       </c>
       <c r="T75">
-        <v>7.6169950000000002</v>
+        <v>5.10555567458242</v>
       </c>
       <c r="U75">
-        <v>16.081154999999999</v>
+        <v>2.8497717909922899</v>
       </c>
       <c r="V75">
-        <v>0.31717499999999998</v>
+        <v>3.11241811526016</v>
       </c>
       <c r="W75">
-        <v>17.001325999999999</v>
+        <v>2.1630330898911501</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -8936,68 +8934,65 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+        <f>D117&amp;"_"&amp;F117</f>
+        <v>RawData_12</v>
       </c>
       <c r="F117">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
         <v>65</v>
       </c>
-      <c r="H117">
-        <v>1.3228957387451101E+17</v>
+      <c r="H117" s="1">
+        <v>1.9427094380939699E+17</v>
       </c>
       <c r="I117">
-        <v>45.454549999999998</v>
+        <v>54.545454545454497</v>
       </c>
       <c r="J117">
-        <v>85.984579999999994</v>
-      </c>
-      <c r="K117">
-        <v>1.75387</v>
+        <v>35.169919769017397</v>
       </c>
       <c r="L117">
-        <v>-3515.696289</v>
+        <v>766.06233299999997</v>
       </c>
       <c r="M117">
-        <v>-1981.1103519999999</v>
+        <v>374.76171799999997</v>
       </c>
       <c r="N117">
-        <v>-646.61425799999995</v>
+        <v>208.40535800000001</v>
       </c>
       <c r="O117">
-        <v>-2070.060547</v>
+        <v>814.36927700000001</v>
       </c>
       <c r="P117">
-        <v>2084.1899410000001</v>
+        <v>551.31263100000001</v>
       </c>
       <c r="Q117">
-        <v>352.49023399999999</v>
+        <v>517.64178000000004</v>
       </c>
       <c r="R117">
-        <v>824.08007799999996</v>
+        <v>1585.1382599999999</v>
       </c>
       <c r="S117">
-        <v>249.18554700000001</v>
+        <v>1494.2966289999999</v>
       </c>
       <c r="T117">
-        <v>2261.4975589999999</v>
+        <v>3791.049833</v>
       </c>
       <c r="U117">
-        <v>-1929.0517580000001</v>
+        <v>2351.775091</v>
       </c>
       <c r="V117">
-        <v>2721.1376949999999</v>
+        <v>2112.3208570000002</v>
       </c>
       <c r="W117">
-        <v>3389.1762699999999</v>
+        <v>2206.5881909999998</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
@@ -9224,68 +9219,65 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+        <f>D121&amp;"_"&amp;F121</f>
+        <v>RawData_12</v>
       </c>
       <c r="F121">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
         <v>65</v>
       </c>
-      <c r="H121">
-        <v>5744621906473850</v>
+      <c r="H121" s="1">
+        <v>2.8206225268902E+16</v>
       </c>
       <c r="I121">
-        <v>72.727270000000004</v>
+        <v>63.636363636363598</v>
       </c>
       <c r="J121">
-        <v>51.621879999999997</v>
-      </c>
-      <c r="K121">
-        <v>0.61309000000000002</v>
+        <v>-13.2045109790241</v>
       </c>
       <c r="L121">
-        <v>366.94281755061701</v>
+        <v>873.33262100000002</v>
       </c>
       <c r="M121">
-        <v>181.73741659307001</v>
+        <v>373.02698500000002</v>
       </c>
       <c r="N121">
-        <v>165.85072973968499</v>
+        <v>205.29855000000001</v>
       </c>
       <c r="O121">
-        <v>337.61097336296399</v>
+        <v>474.84681</v>
       </c>
       <c r="P121">
-        <v>155.660872211266</v>
+        <v>262.59446300000002</v>
       </c>
       <c r="Q121">
-        <v>152.965746380289</v>
+        <v>287.087536</v>
       </c>
       <c r="R121">
-        <v>85.795325237302706</v>
+        <v>95.412638000000001</v>
       </c>
       <c r="S121">
-        <v>-2.9676775713799</v>
+        <v>207.852237</v>
       </c>
       <c r="T121">
-        <v>35.833799294205001</v>
+        <v>235.83931999999999</v>
       </c>
       <c r="U121">
-        <v>-15.306747621960101</v>
+        <v>75.156481999999997</v>
       </c>
       <c r="V121">
-        <v>166.174052866219</v>
+        <v>242.96820199999999</v>
       </c>
       <c r="W121">
-        <v>322.85889531173399</v>
+        <v>170.754133</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
@@ -10166,62 +10158,62 @@
         <v>4</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_60</v>
+        <f>D134&amp;"_"&amp;F134</f>
+        <v>RawData_24</v>
       </c>
       <c r="F134">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G134" t="s">
         <v>65</v>
       </c>
       <c r="H134">
-        <v>80017934186387</v>
+        <v>1143217900371790</v>
       </c>
       <c r="I134">
-        <v>54.545450000000002</v>
+        <v>36.363636363636303</v>
       </c>
       <c r="J134">
-        <v>32.163730000000001</v>
+        <v>54.193504838694501</v>
       </c>
       <c r="K134">
-        <v>1.0747</v>
+        <v>0.51607849652021098</v>
       </c>
       <c r="L134">
-        <v>5.2341420405658496</v>
+        <v>7.4510580548049798</v>
       </c>
       <c r="M134">
-        <v>0.213210607419064</v>
+        <v>3.0461444043753398</v>
       </c>
       <c r="N134">
-        <v>4.6907382800662196</v>
+        <v>0.142073743594508</v>
       </c>
       <c r="O134">
-        <v>3.1575169063771402</v>
+        <v>2.4328019032346502</v>
       </c>
       <c r="P134">
-        <v>14.9751544403621</v>
+        <v>14.2922274796789</v>
       </c>
       <c r="Q134">
-        <v>16.262222803902301</v>
+        <v>14.0012458260397</v>
       </c>
       <c r="R134">
-        <v>26.958108170382701</v>
+        <v>15.8184905273837</v>
       </c>
       <c r="S134">
-        <v>36.073809064655897</v>
+        <v>15.7681636942553</v>
       </c>
       <c r="T134">
-        <v>20.0676675468643</v>
+        <v>11.396410736711299</v>
       </c>
       <c r="U134">
-        <v>29.914353226416999</v>
+        <v>18.053616163714999</v>
       </c>
       <c r="V134">
-        <v>20.5434738757587</v>
+        <v>15.1887914798744</v>
       </c>
       <c r="W134">
-        <v>-1.01060507263549</v>
+        <v>1.98225095540341</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
@@ -10307,11 +10299,11 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_12</v>
+        <f>D136&amp;"_"&amp;F136</f>
+        <v>RawData_12</v>
       </c>
       <c r="F136">
         <v>12</v>
@@ -10319,53 +10311,53 @@
       <c r="G136" t="s">
         <v>65</v>
       </c>
-      <c r="H136">
-        <v>2.8150214183814E+16</v>
+      <c r="H136" s="1">
+        <v>4.1300915802431296E+16</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
-      <c r="J136">
-        <v>-7.2880134327999998E+23</v>
+      <c r="J136" s="1">
+        <v>-1.10047746388714E+24</v>
       </c>
       <c r="K136">
-        <v>0.60655999999999999</v>
+        <v>0.88992193424481802</v>
       </c>
       <c r="L136">
-        <v>15.174284986718201</v>
+        <v>10.734066536320899</v>
       </c>
       <c r="M136">
-        <v>7.8274734293911301</v>
+        <v>5.5293556874180902</v>
       </c>
       <c r="N136">
-        <v>7.93647144358318</v>
+        <v>8.2291555198485309</v>
       </c>
       <c r="O136">
-        <v>6.5722091329306203</v>
+        <v>9.1026082748203496</v>
       </c>
       <c r="P136">
-        <v>13.1277330479874</v>
+        <v>15.106671834839201</v>
       </c>
       <c r="Q136">
-        <v>9.7624834293703202</v>
+        <v>13.4810997500142</v>
       </c>
       <c r="R136">
-        <v>4.43430510116126</v>
+        <v>10.2447020331393</v>
       </c>
       <c r="S136">
-        <v>4.4268046605185001</v>
+        <v>7.0778617336749603</v>
       </c>
       <c r="T136">
-        <v>2.1249461773279101</v>
+        <v>7.6239463189301802</v>
       </c>
       <c r="U136">
-        <v>-0.86276734524014498</v>
+        <v>5.4758639769369202</v>
       </c>
       <c r="V136">
-        <v>2.5569748719946301</v>
+        <v>10.9291015092479</v>
       </c>
       <c r="W136">
-        <v>-0.20078461347977</v>
+        <v>6.5133132135235696</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
@@ -15560,13 +15552,13 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="3"/>
+        <f>D209&amp;"_"&amp;F209</f>
         <v>RawData_12</v>
       </c>
       <c r="F209">
@@ -15576,52 +15568,49 @@
         <v>65</v>
       </c>
       <c r="H209">
-        <v>174043376013186</v>
+        <v>799835261772126</v>
       </c>
       <c r="I209">
-        <v>36.363639999999997</v>
+        <v>36.363636363636303</v>
       </c>
       <c r="J209">
-        <v>89.795330000000007</v>
-      </c>
-      <c r="K209">
-        <v>1.05253</v>
+        <v>-64.007146922898997</v>
       </c>
       <c r="L209">
-        <v>4.5062378174302697E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="M209">
-        <v>6.7269460073646606E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="N209">
-        <v>9.7340333223643896E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="O209">
-        <v>-6.8317862374190394E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="P209">
-        <v>2.51549171134232E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="Q209">
-        <v>-1.8504983204099899E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="R209">
-        <v>5.7836789900897398E-3</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="S209">
-        <v>5.63126409093819E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="T209">
-        <v>0.13801792046417</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="U209">
-        <v>5.6788780637508599E-2</v>
+        <v>2.081521</v>
       </c>
       <c r="V209">
-        <v>0.19250420247507</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="W209">
-        <v>1.48686543289263E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Área de Trabalho\GitHub\6-Ranking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Área de Trabalho\GitHub\4-Ranking-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
   </bookViews>
   <sheets>
-    <sheet name="ALL" sheetId="10" r:id="rId1"/>
+    <sheet name="ALL" sheetId="11" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALL!$A$1:$W$217</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="74">
   <si>
     <t>etanolhidratado</t>
   </si>
@@ -232,6 +229,24 @@
   <si>
     <t>MLP</t>
   </si>
+  <si>
+    <t>Catch22_36</t>
+  </si>
+  <si>
+    <t>Catch22_12</t>
+  </si>
+  <si>
+    <t>RawData_24</t>
+  </si>
+  <si>
+    <t>Catch22_24</t>
+  </si>
+  <si>
+    <t>RawData_36</t>
+  </si>
+  <si>
+    <t>RawData_12</t>
+  </si>
 </sst>
 </file>
 
@@ -266,9 +281,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,24 +570,18 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -662,9 +670,8 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="0">D2&amp;"_"&amp;F2</f>
-        <v>Catch22_36</v>
+      <c r="E2" t="s">
+        <v>68</v>
       </c>
       <c r="F2">
         <v>36</v>
@@ -729,68 +736,67 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_84</v>
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>65</v>
       </c>
       <c r="H3">
-        <v>0.12461999999999999</v>
+        <v>0.13122</v>
       </c>
       <c r="I3">
         <v>45.454549999999998</v>
       </c>
       <c r="J3">
-        <v>-2.2916599999999998</v>
+        <v>-0.72194000000000003</v>
       </c>
       <c r="K3">
-        <v>0.35854000000000003</v>
+        <v>0.39217000000000002</v>
       </c>
       <c r="L3">
-        <v>6033.8720592284899</v>
+        <v>4915.2608810000002</v>
       </c>
       <c r="M3">
-        <v>5563.1136639818797</v>
+        <v>5268.1611030000004</v>
       </c>
       <c r="N3">
-        <v>5350.9143754175802</v>
+        <v>6580.8340420000004</v>
       </c>
       <c r="O3">
-        <v>5468.9155257688899</v>
+        <v>5164.0781399999996</v>
       </c>
       <c r="P3">
-        <v>5631.8596181801904</v>
+        <v>5110.7244140000003</v>
       </c>
       <c r="Q3">
-        <v>5750.3390517787302</v>
+        <v>5387.6804220000004</v>
       </c>
       <c r="R3">
-        <v>5951.9661719495098</v>
+        <v>5374.9305130000002</v>
       </c>
       <c r="S3">
-        <v>6279.4449296059302</v>
+        <v>6037.55116</v>
       </c>
       <c r="T3">
-        <v>6121.5242361772798</v>
+        <v>6202.3826550000003</v>
       </c>
       <c r="U3">
-        <v>6807.0321078809102</v>
+        <v>5504.2601430000004</v>
       </c>
       <c r="V3">
-        <v>6389.3221589713803</v>
+        <v>7464.1237920000003</v>
       </c>
       <c r="W3">
-        <v>5535.0327823784801</v>
+        <v>6785.608671</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -806,9 +812,8 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E4" t="s">
+        <v>70</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -878,9 +883,8 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E5" t="s">
+        <v>71</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -950,9 +954,8 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E6" t="s">
+        <v>72</v>
       </c>
       <c r="F6">
         <v>36</v>
@@ -1022,9 +1025,8 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E7" t="s">
+        <v>71</v>
       </c>
       <c r="F7">
         <v>24</v>
@@ -1089,68 +1091,67 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_60</v>
+      <c r="E8" t="s">
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
       </c>
       <c r="H8">
-        <v>0.28854000000000002</v>
+        <v>0.33885999999999999</v>
       </c>
       <c r="I8">
-        <v>81.818179999999998</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J8">
-        <v>30.908799999999999</v>
+        <v>29.927240000000001</v>
       </c>
       <c r="K8">
-        <v>0.58018999999999998</v>
+        <v>0.52925</v>
       </c>
       <c r="L8">
-        <v>12621.4631623402</v>
+        <v>6207.8077839999996</v>
       </c>
       <c r="M8">
-        <v>11438.2791022617</v>
+        <v>8215.0036579999996</v>
       </c>
       <c r="N8">
-        <v>12655.133023398501</v>
+        <v>9133.6590080000005</v>
       </c>
       <c r="O8">
-        <v>12946.0589503999</v>
+        <v>8274.0812339999993</v>
       </c>
       <c r="P8">
-        <v>14142.3070894067</v>
+        <v>6779.3026579999996</v>
       </c>
       <c r="Q8">
-        <v>15754.224638315</v>
+        <v>5466.149703</v>
       </c>
       <c r="R8">
-        <v>15801.471457154201</v>
+        <v>10221.045568</v>
       </c>
       <c r="S8">
-        <v>16400.387111034001</v>
+        <v>13580.688786000001</v>
       </c>
       <c r="T8">
-        <v>14319.903767817001</v>
+        <v>18941.552199999998</v>
       </c>
       <c r="U8">
-        <v>15008.760656812499</v>
+        <v>29111.584588999998</v>
       </c>
       <c r="V8">
-        <v>10182.6273329577</v>
+        <v>27776.898850000001</v>
       </c>
       <c r="W8">
-        <v>10666.5081431852</v>
+        <v>20529.952374</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1166,9 +1167,8 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_12</v>
+      <c r="E9" t="s">
+        <v>69</v>
       </c>
       <c r="F9">
         <v>12</v>
@@ -1238,9 +1238,8 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E10" t="s">
+        <v>72</v>
       </c>
       <c r="F10">
         <v>36</v>
@@ -1310,9 +1309,8 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E11" t="s">
+        <v>70</v>
       </c>
       <c r="F11">
         <v>24</v>
@@ -1382,9 +1380,8 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E12" t="s">
+        <v>72</v>
       </c>
       <c r="F12">
         <v>36</v>
@@ -1454,9 +1451,8 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E13" t="s">
+        <v>71</v>
       </c>
       <c r="F13">
         <v>24</v>
@@ -1526,9 +1522,8 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -1598,9 +1593,8 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E15" t="s">
+        <v>70</v>
       </c>
       <c r="F15">
         <v>24</v>
@@ -1670,9 +1664,8 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E16" t="s">
+        <v>68</v>
       </c>
       <c r="F16">
         <v>36</v>
@@ -1742,9 +1735,8 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E17" t="s">
+        <v>72</v>
       </c>
       <c r="F17">
         <v>36</v>
@@ -1814,9 +1806,8 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E18" t="s">
+        <v>72</v>
       </c>
       <c r="F18">
         <v>36</v>
@@ -1886,9 +1877,8 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_12</v>
+      <c r="E19" t="s">
+        <v>69</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1958,9 +1948,8 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E20" t="s">
+        <v>68</v>
       </c>
       <c r="F20">
         <v>36</v>
@@ -2030,9 +2019,8 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E21" t="s">
+        <v>68</v>
       </c>
       <c r="F21">
         <v>36</v>
@@ -2102,9 +2090,8 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E22" t="s">
+        <v>72</v>
       </c>
       <c r="F22">
         <v>36</v>
@@ -2174,9 +2161,8 @@
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E23" t="s">
+        <v>70</v>
       </c>
       <c r="F23">
         <v>24</v>
@@ -2246,9 +2232,8 @@
       <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E24" t="s">
+        <v>71</v>
       </c>
       <c r="F24">
         <v>24</v>
@@ -2318,9 +2303,8 @@
       <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E25" t="s">
+        <v>68</v>
       </c>
       <c r="F25">
         <v>36</v>
@@ -2390,9 +2374,8 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E26" t="s">
+        <v>72</v>
       </c>
       <c r="F26">
         <v>36</v>
@@ -2462,9 +2445,8 @@
       <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E27" t="s">
+        <v>72</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -2534,9 +2516,8 @@
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E28" t="s">
+        <v>72</v>
       </c>
       <c r="F28">
         <v>36</v>
@@ -2606,9 +2587,8 @@
       <c r="D29" t="s">
         <v>4</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E29" t="s">
+        <v>70</v>
       </c>
       <c r="F29">
         <v>24</v>
@@ -2678,9 +2658,8 @@
       <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E30" t="s">
+        <v>68</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -2745,68 +2724,67 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_84</v>
+      <c r="E31" t="s">
+        <v>70</v>
       </c>
       <c r="F31">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
         <v>65</v>
       </c>
       <c r="H31">
-        <v>3.9100000000000003E-2</v>
+        <v>4.564E-2</v>
       </c>
       <c r="I31">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J31">
-        <v>-5.1790000000000003E-2</v>
+        <v>-1.44129</v>
       </c>
       <c r="K31">
-        <v>0.36743999999999999</v>
+        <v>0.42432999999999998</v>
       </c>
       <c r="L31">
-        <v>50920.884906665102</v>
+        <v>49118.897477999999</v>
       </c>
       <c r="M31">
-        <v>50114.590296329603</v>
+        <v>45156.916808000002</v>
       </c>
       <c r="N31">
-        <v>51879.652907393604</v>
+        <v>50939.216289000004</v>
       </c>
       <c r="O31">
-        <v>50521.500424451202</v>
+        <v>53195.861953</v>
       </c>
       <c r="P31">
-        <v>52130.406509861001</v>
+        <v>55491.139038000001</v>
       </c>
       <c r="Q31">
-        <v>55563.551167973397</v>
+        <v>56633.023953999997</v>
       </c>
       <c r="R31">
-        <v>53001.401125155899</v>
+        <v>55069.849350999997</v>
       </c>
       <c r="S31">
-        <v>54500.206914431903</v>
+        <v>53907.950506000001</v>
       </c>
       <c r="T31">
-        <v>50859.616528538398</v>
+        <v>55566.017349000002</v>
       </c>
       <c r="U31">
-        <v>54816.448887760998</v>
+        <v>49856.885165</v>
       </c>
       <c r="V31">
-        <v>47096.890370945803</v>
+        <v>55976.248457000002</v>
       </c>
       <c r="W31">
-        <v>46049.659033211799</v>
+        <v>45117.874018000002</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -2822,9 +2800,8 @@
       <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E32" t="s">
+        <v>70</v>
       </c>
       <c r="F32">
         <v>24</v>
@@ -2894,9 +2871,8 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E33" t="s">
+        <v>73</v>
       </c>
       <c r="F33">
         <v>12</v>
@@ -2966,9 +2942,8 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E34" t="s">
+        <v>73</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -3038,9 +3013,8 @@
       <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E35" t="s">
+        <v>68</v>
       </c>
       <c r="F35">
         <v>36</v>
@@ -3110,9 +3084,8 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E36" t="s">
+        <v>72</v>
       </c>
       <c r="F36">
         <v>36</v>
@@ -3182,9 +3155,8 @@
       <c r="D37" t="s">
         <v>4</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E37" t="s">
+        <v>70</v>
       </c>
       <c r="F37">
         <v>24</v>
@@ -3254,9 +3226,8 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E38" t="s">
+        <v>72</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -3326,9 +3297,8 @@
       <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E39" t="s">
+        <v>68</v>
       </c>
       <c r="F39">
         <v>36</v>
@@ -3398,9 +3368,8 @@
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E40" t="s">
+        <v>70</v>
       </c>
       <c r="F40">
         <v>24</v>
@@ -3470,9 +3439,8 @@
       <c r="D41" t="s">
         <v>46</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E41" t="s">
+        <v>68</v>
       </c>
       <c r="F41">
         <v>36</v>
@@ -3542,9 +3510,8 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E42" t="s">
+        <v>72</v>
       </c>
       <c r="F42">
         <v>36</v>
@@ -3614,9 +3581,8 @@
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E43" t="s">
+        <v>70</v>
       </c>
       <c r="F43">
         <v>24</v>
@@ -3686,9 +3652,8 @@
       <c r="D44" t="s">
         <v>46</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E44" t="s">
+        <v>71</v>
       </c>
       <c r="F44">
         <v>24</v>
@@ -3758,9 +3723,8 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E45" t="s">
+        <v>70</v>
       </c>
       <c r="F45">
         <v>24</v>
@@ -3830,9 +3794,8 @@
       <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E46" t="s">
+        <v>72</v>
       </c>
       <c r="F46">
         <v>36</v>
@@ -3902,9 +3865,8 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E47" t="s">
+        <v>72</v>
       </c>
       <c r="F47">
         <v>36</v>
@@ -3974,9 +3936,8 @@
       <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E48" t="s">
+        <v>70</v>
       </c>
       <c r="F48">
         <v>24</v>
@@ -4046,9 +4007,8 @@
       <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E49" t="s">
+        <v>73</v>
       </c>
       <c r="F49">
         <v>12</v>
@@ -4113,68 +4073,67 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_108</v>
+      <c r="E50" t="s">
+        <v>70</v>
       </c>
       <c r="F50">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
         <v>65</v>
       </c>
       <c r="H50">
-        <v>4.1500000000000002E-2</v>
+        <v>4.4540000000000003E-2</v>
       </c>
       <c r="I50">
-        <v>63.636360000000003</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J50">
-        <v>-2.82267</v>
+        <v>-0.95294999999999996</v>
       </c>
       <c r="K50">
-        <v>0.73555000000000004</v>
+        <v>0.80252999999999997</v>
       </c>
       <c r="L50">
-        <v>15896.118886992999</v>
+        <v>15938.966700999999</v>
       </c>
       <c r="M50">
-        <v>15459.296972010199</v>
+        <v>15785.707206999999</v>
       </c>
       <c r="N50">
-        <v>15376.529853935601</v>
+        <v>15611.040121</v>
       </c>
       <c r="O50">
-        <v>14958.681300644699</v>
+        <v>15108.417092</v>
       </c>
       <c r="P50">
-        <v>15390.0614932436</v>
+        <v>15295.548580000001</v>
       </c>
       <c r="Q50">
-        <v>16177.273844441999</v>
+        <v>15639.312596</v>
       </c>
       <c r="R50">
-        <v>16351.635482239601</v>
+        <v>15526.270557</v>
       </c>
       <c r="S50">
-        <v>16176.497967253599</v>
+        <v>15638.585472999999</v>
       </c>
       <c r="T50">
-        <v>15838.696999756599</v>
+        <v>15311.777636000001</v>
       </c>
       <c r="U50">
-        <v>16575.023402746301</v>
+        <v>15682.657117000001</v>
       </c>
       <c r="V50">
-        <v>15236.9680796746</v>
+        <v>14575.364817</v>
       </c>
       <c r="W50">
-        <v>14833.0087663473</v>
+        <v>14732.6626</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4190,9 +4149,8 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E51" t="s">
+        <v>73</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -4262,9 +4220,8 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E52" t="s">
+        <v>73</v>
       </c>
       <c r="F52">
         <v>12</v>
@@ -4334,9 +4291,8 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_24</v>
+      <c r="E53" t="s">
+        <v>70</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4406,9 +4362,8 @@
       <c r="D54" t="s">
         <v>46</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_12</v>
+      <c r="E54" t="s">
+        <v>69</v>
       </c>
       <c r="F54">
         <v>12</v>
@@ -4478,9 +4433,8 @@
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E55" t="s">
+        <v>72</v>
       </c>
       <c r="F55">
         <v>36</v>
@@ -4550,9 +4504,8 @@
       <c r="D56" t="s">
         <v>46</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_12</v>
+      <c r="E56" t="s">
+        <v>69</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -4622,9 +4575,8 @@
       <c r="D57" t="s">
         <v>46</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_12</v>
+      <c r="E57" t="s">
+        <v>69</v>
       </c>
       <c r="F57">
         <v>12</v>
@@ -4689,14 +4641,13 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E58" t="s">
+        <v>71</v>
       </c>
       <c r="F58">
         <v>24</v>
@@ -4705,52 +4656,52 @@
         <v>65</v>
       </c>
       <c r="H58">
-        <v>1.91208943330709E+16</v>
+        <v>1.7883736699393E+16</v>
       </c>
       <c r="I58">
-        <v>54.545450000000002</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J58">
-        <v>4.4676900000000002</v>
+        <v>23.08231</v>
       </c>
       <c r="K58">
-        <v>0.751</v>
+        <v>1.2592000000000001</v>
       </c>
       <c r="L58">
-        <v>4.76391896568982</v>
+        <v>9.3648579999999999</v>
       </c>
       <c r="M58">
-        <v>6.8815188544535104</v>
+        <v>7.1887949999999998</v>
       </c>
       <c r="N58">
-        <v>13.3171644905002</v>
+        <v>17.241683999999999</v>
       </c>
       <c r="O58">
-        <v>13.3593618887807</v>
+        <v>9.9349340000000002</v>
       </c>
       <c r="P58">
-        <v>12.6160535301102</v>
+        <v>6.8532640000000002</v>
       </c>
       <c r="Q58">
-        <v>17.954277429300799</v>
+        <v>-7.7993259999999998</v>
       </c>
       <c r="R58">
-        <v>15.037785400889399</v>
+        <v>3.9931100000000002</v>
       </c>
       <c r="S58">
-        <v>13.5964398272249</v>
+        <v>4.3563299999999998</v>
       </c>
       <c r="T58">
-        <v>3.7815156825699798</v>
+        <v>1.472558</v>
       </c>
       <c r="U58">
-        <v>24.950397310421099</v>
+        <v>5.861332</v>
       </c>
       <c r="V58">
-        <v>7.1241963429868997</v>
+        <v>15.697592</v>
       </c>
       <c r="W58">
-        <v>8.2048444333811794</v>
+        <v>39.83381</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -4766,9 +4717,8 @@
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E59" t="s">
+        <v>72</v>
       </c>
       <c r="F59">
         <v>36</v>
@@ -4838,9 +4788,8 @@
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E60" t="s">
+        <v>73</v>
       </c>
       <c r="F60">
         <v>12</v>
@@ -4910,9 +4859,8 @@
       <c r="D61" t="s">
         <v>46</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_24</v>
+      <c r="E61" t="s">
+        <v>71</v>
       </c>
       <c r="F61">
         <v>24</v>
@@ -4982,9 +4930,8 @@
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E62" t="s">
+        <v>73</v>
       </c>
       <c r="F62">
         <v>12</v>
@@ -5054,9 +5001,8 @@
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_12</v>
+      <c r="E63" t="s">
+        <v>73</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5126,9 +5072,8 @@
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>RawData_36</v>
+      <c r="E64" t="s">
+        <v>72</v>
       </c>
       <c r="F64">
         <v>36</v>
@@ -5198,9 +5143,8 @@
       <c r="D65" t="s">
         <v>46</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>Catch22_36</v>
+      <c r="E65" t="s">
+        <v>68</v>
       </c>
       <c r="F65">
         <v>36</v>
@@ -5265,68 +5209,67 @@
         <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" ref="E66:E129" si="1">D66&amp;"_"&amp;F66</f>
-        <v>RawData_84</v>
+      <c r="E66" t="s">
+        <v>70</v>
       </c>
       <c r="F66">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>65</v>
       </c>
       <c r="H66">
-        <v>0.19678999999999999</v>
+        <v>0.21678</v>
       </c>
       <c r="I66">
-        <v>54.545450000000002</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J66">
-        <v>4.4265499999999998</v>
+        <v>-12.07001</v>
       </c>
       <c r="K66">
-        <v>0.73502999999999996</v>
+        <v>0.71958999999999995</v>
       </c>
       <c r="L66">
-        <v>281.08327343280899</v>
+        <v>299.42816199999999</v>
       </c>
       <c r="M66">
-        <v>275.92680084216198</v>
+        <v>308.59146099999998</v>
       </c>
       <c r="N66">
-        <v>282.84226805191901</v>
+        <v>312.56716899999998</v>
       </c>
       <c r="O66">
-        <v>276.87225345003299</v>
+        <v>352.13253800000001</v>
       </c>
       <c r="P66">
-        <v>295.07797011456199</v>
+        <v>349.24807700000002</v>
       </c>
       <c r="Q66">
-        <v>285.41902454674403</v>
+        <v>398.71402</v>
       </c>
       <c r="R66">
-        <v>290.96641042944299</v>
+        <v>335.029785</v>
       </c>
       <c r="S66">
-        <v>243.29610711731601</v>
+        <v>345.39547700000003</v>
       </c>
       <c r="T66">
-        <v>207.62981410984</v>
+        <v>254.91842700000001</v>
       </c>
       <c r="U66">
-        <v>237.23126900578501</v>
+        <v>232.110443</v>
       </c>
       <c r="V66">
-        <v>266.798432031983</v>
+        <v>308.85943600000002</v>
       </c>
       <c r="W66">
-        <v>255.317423322905</v>
+        <v>253.539917</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5342,9 +5285,8 @@
       <c r="D67" t="s">
         <v>46</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E67" t="s">
+        <v>68</v>
       </c>
       <c r="F67">
         <v>36</v>
@@ -5414,9 +5356,8 @@
       <c r="D68" t="s">
         <v>4</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E68" t="s">
+        <v>70</v>
       </c>
       <c r="F68">
         <v>24</v>
@@ -5486,9 +5427,8 @@
       <c r="D69" t="s">
         <v>4</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E69" t="s">
+        <v>72</v>
       </c>
       <c r="F69">
         <v>36</v>
@@ -5556,62 +5496,64 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" t="str">
-        <f>D70&amp;"_"&amp;F70</f>
-        <v>Catch22_24</v>
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
       </c>
       <c r="F70">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
       </c>
       <c r="H70">
-        <v>1426095575271800</v>
+        <v>1409082123112030</v>
       </c>
       <c r="I70">
-        <v>36.363636363636303</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J70">
-        <v>-4.2207413412035502</v>
+        <v>-29.812799999999999</v>
+      </c>
+      <c r="K70">
+        <v>1.1342399999999999</v>
       </c>
       <c r="L70">
-        <v>8.9671210000000006</v>
+        <v>18.362546999999999</v>
       </c>
       <c r="M70">
-        <v>3.0900059999999998</v>
+        <v>2.9055749999999998</v>
       </c>
       <c r="N70">
-        <v>2.528708</v>
+        <v>4.7628320000000004</v>
       </c>
       <c r="O70">
-        <v>10.832610000000001</v>
+        <v>-0.27858100000000002</v>
       </c>
       <c r="P70">
-        <v>3.7998820000000002</v>
+        <v>3.7545489999999999</v>
       </c>
       <c r="Q70">
-        <v>3.7173379999999998</v>
+        <v>-0.27858100000000002</v>
       </c>
       <c r="R70">
-        <v>7.2887320000000004</v>
+        <v>18.238529</v>
       </c>
       <c r="S70">
-        <v>12.301888999999999</v>
+        <v>19.887070999999999</v>
       </c>
       <c r="T70">
-        <v>12.929221999999999</v>
+        <v>38.036157000000003</v>
       </c>
       <c r="U70">
-        <v>13.220876000000001</v>
+        <v>14.937411000000001</v>
       </c>
       <c r="V70">
-        <v>20.226089999999999</v>
+        <v>0.23765900000000001</v>
       </c>
       <c r="W70">
-        <v>11.520474999999999</v>
+        <v>29.094707</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -5627,9 +5569,8 @@
       <c r="D71" t="s">
         <v>46</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_24</v>
+      <c r="E71" t="s">
+        <v>71</v>
       </c>
       <c r="F71">
         <v>24</v>
@@ -5694,14 +5635,13 @@
         <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
       </c>
       <c r="F72">
         <v>36</v>
@@ -5710,52 +5650,52 @@
         <v>65</v>
       </c>
       <c r="H72">
-        <v>5761257970811370</v>
+        <v>846471440862640</v>
       </c>
       <c r="I72">
-        <v>54.545450000000002</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J72">
-        <v>-10.98025</v>
+        <v>107.48063</v>
       </c>
       <c r="K72">
-        <v>0.92029000000000005</v>
+        <v>1.6435299999999999</v>
       </c>
       <c r="L72">
-        <v>63.890985000000001</v>
+        <v>-9.0073779999999992</v>
       </c>
       <c r="M72">
-        <v>27.645797000000002</v>
+        <v>-6.9176849999999996</v>
       </c>
       <c r="N72">
-        <v>28.419529000000001</v>
+        <v>-18.779765999999999</v>
       </c>
       <c r="O72">
-        <v>36.229505000000003</v>
+        <v>-11.773148000000001</v>
       </c>
       <c r="P72">
-        <v>30.494178000000002</v>
+        <v>-20.101189999999999</v>
       </c>
       <c r="Q72">
-        <v>28.871023000000001</v>
+        <v>7.8619000000000003</v>
       </c>
       <c r="R72">
-        <v>15.351075</v>
+        <v>2.2554530000000002</v>
       </c>
       <c r="S72">
-        <v>18.423062000000002</v>
+        <v>-3.3989999999999999E-2</v>
       </c>
       <c r="T72">
-        <v>9.1032510000000002</v>
+        <v>-1.009692</v>
       </c>
       <c r="U72">
-        <v>8.3115609999999993</v>
+        <v>5.4821850000000003</v>
       </c>
       <c r="V72">
-        <v>24.665904999999999</v>
+        <v>13.608976</v>
       </c>
       <c r="W72">
-        <v>37.823692000000001</v>
+        <v>16.222593</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -5766,68 +5706,67 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_84</v>
+      <c r="E73" t="s">
+        <v>72</v>
       </c>
       <c r="F73">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>65</v>
       </c>
       <c r="H73">
-        <v>0.14965999999999999</v>
+        <v>0.16889000000000001</v>
       </c>
       <c r="I73">
-        <v>45.454549999999998</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J73">
-        <v>1.3596299999999999</v>
+        <v>-3.93024</v>
       </c>
       <c r="K73">
-        <v>0.32504</v>
+        <v>0.34276000000000001</v>
       </c>
       <c r="L73">
-        <v>290.59152057348501</v>
+        <v>250.69456099999999</v>
       </c>
       <c r="M73">
-        <v>259.08707856544697</v>
+        <v>248.696563</v>
       </c>
       <c r="N73">
-        <v>247.83966867006399</v>
+        <v>247.417509</v>
       </c>
       <c r="O73">
-        <v>223.634849432511</v>
+        <v>243.82199700000001</v>
       </c>
       <c r="P73">
-        <v>220.913938875398</v>
+        <v>253.59989400000001</v>
       </c>
       <c r="Q73">
-        <v>225.82122044085401</v>
+        <v>252.14765600000001</v>
       </c>
       <c r="R73">
-        <v>225.67795851719299</v>
+        <v>277.43493799999999</v>
       </c>
       <c r="S73">
-        <v>228.607968780683</v>
+        <v>256.89123499999999</v>
       </c>
       <c r="T73">
-        <v>234.79226853254099</v>
+        <v>262.05104299999999</v>
       </c>
       <c r="U73">
-        <v>251.73876791351</v>
+        <v>257.370002</v>
       </c>
       <c r="V73">
-        <v>259.746283653685</v>
+        <v>261.26950399999998</v>
       </c>
       <c r="W73">
-        <v>249.437031512413</v>
+        <v>262.97382700000003</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -5843,9 +5782,8 @@
       <c r="D74" t="s">
         <v>46</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_12</v>
+      <c r="E74" t="s">
+        <v>69</v>
       </c>
       <c r="F74">
         <v>12</v>
@@ -5910,68 +5848,67 @@
         <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
-      <c r="E75" t="str">
-        <f>D75&amp;"_"&amp;F75</f>
-        <v>RawData_108</v>
+      <c r="E75" t="s">
+        <v>72</v>
       </c>
       <c r="F75">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>65</v>
       </c>
       <c r="H75">
-        <v>1.35515193178761</v>
+        <v>1.04891</v>
       </c>
       <c r="I75">
-        <v>45.454545454545404</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J75">
-        <v>69.584347386149403</v>
+        <v>31.714469999999999</v>
       </c>
       <c r="K75">
-        <v>1.0499029710171699</v>
+        <v>0.85236999999999996</v>
       </c>
       <c r="L75">
-        <v>2.3119213014793099</v>
+        <v>10.56921</v>
       </c>
       <c r="M75">
-        <v>2.5243259249238701</v>
+        <v>9.9386109999999999</v>
       </c>
       <c r="N75">
-        <v>2.1352640169547601</v>
+        <v>-0.15098200000000001</v>
       </c>
       <c r="O75">
-        <v>3.9676413093243701</v>
+        <v>-0.15098200000000001</v>
       </c>
       <c r="P75">
-        <v>1.8893236437571601</v>
+        <v>0.22838700000000001</v>
       </c>
       <c r="Q75">
-        <v>4.2124113598783701</v>
+        <v>7.1296679999999997</v>
       </c>
       <c r="R75">
-        <v>3.8993805608694299</v>
+        <v>5.7443669999999996</v>
       </c>
       <c r="S75">
-        <v>2.2164150601406698</v>
+        <v>7.3677820000000001</v>
       </c>
       <c r="T75">
-        <v>5.10555567458242</v>
+        <v>7.6169950000000002</v>
       </c>
       <c r="U75">
-        <v>2.8497717909922899</v>
+        <v>16.081154999999999</v>
       </c>
       <c r="V75">
-        <v>3.11241811526016</v>
+        <v>0.31717499999999998</v>
       </c>
       <c r="W75">
-        <v>2.1630330898911501</v>
+        <v>17.001325999999999</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -5987,9 +5924,8 @@
       <c r="D76" t="s">
         <v>46</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E76" t="s">
+        <v>68</v>
       </c>
       <c r="F76">
         <v>36</v>
@@ -6059,9 +5995,8 @@
       <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E77" t="s">
+        <v>72</v>
       </c>
       <c r="F77">
         <v>36</v>
@@ -6131,9 +6066,8 @@
       <c r="D78" t="s">
         <v>46</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_12</v>
+      <c r="E78" t="s">
+        <v>69</v>
       </c>
       <c r="F78">
         <v>12</v>
@@ -6203,9 +6137,8 @@
       <c r="D79" t="s">
         <v>46</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_24</v>
+      <c r="E79" t="s">
+        <v>71</v>
       </c>
       <c r="F79">
         <v>24</v>
@@ -6270,14 +6203,13 @@
         <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>68</v>
       </c>
       <c r="F80">
         <v>36</v>
@@ -6286,52 +6218,52 @@
         <v>65</v>
       </c>
       <c r="H80">
-        <v>1801682294728140</v>
+        <v>1529820799360060</v>
       </c>
       <c r="I80">
-        <v>54.545450000000002</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J80">
-        <v>48.725180000000002</v>
+        <v>87.846440000000001</v>
       </c>
       <c r="K80">
-        <v>0.81691999999999998</v>
+        <v>0.99692000000000003</v>
       </c>
       <c r="L80">
-        <v>2.7969780000000002</v>
+        <v>0.68421165836027997</v>
       </c>
       <c r="M80">
-        <v>1.162506</v>
+        <v>0.89352394966308202</v>
       </c>
       <c r="N80">
-        <v>1.6909970000000001</v>
+        <v>0.56320163077669905</v>
       </c>
       <c r="O80">
-        <v>1.8739250000000001</v>
+        <v>-0.49394400778289599</v>
       </c>
       <c r="P80">
-        <v>1.002936</v>
+        <v>-0.73545258495982102</v>
       </c>
       <c r="Q80">
-        <v>0.39985399999999999</v>
+        <v>-0.90045717757369603</v>
       </c>
       <c r="R80">
-        <v>1.808508</v>
+        <v>-3.0316110290029501E-2</v>
       </c>
       <c r="S80">
-        <v>0.361425</v>
+        <v>1.0528837390186001</v>
       </c>
       <c r="T80">
-        <v>1.5578160000000001</v>
+        <v>-4.7785318758552997E-3</v>
       </c>
       <c r="U80">
-        <v>0.65717199999999998</v>
+        <v>-0.33706853448322199</v>
       </c>
       <c r="V80">
-        <v>1.2291510000000001</v>
+        <v>2.5848805624282001</v>
       </c>
       <c r="W80">
-        <v>2.060492</v>
+        <v>0.65839538743469905</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6347,9 +6279,8 @@
       <c r="D81" t="s">
         <v>46</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E81" t="s">
+        <v>68</v>
       </c>
       <c r="F81">
         <v>36</v>
@@ -6419,9 +6350,8 @@
       <c r="D82" t="s">
         <v>46</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E82" t="s">
+        <v>68</v>
       </c>
       <c r="F82">
         <v>36</v>
@@ -6491,63 +6421,62 @@
       <c r="D83" t="s">
         <v>4</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_60</v>
+      <c r="E83" t="s">
+        <v>72</v>
       </c>
       <c r="F83">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>65</v>
       </c>
       <c r="H83">
-        <v>2.947E-2</v>
+        <v>3.041E-2</v>
       </c>
       <c r="I83">
-        <v>81.818179999999998</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J83">
-        <v>-0.79408999999999996</v>
+        <v>-0.63258999999999999</v>
       </c>
       <c r="K83">
-        <v>0.61665999999999999</v>
+        <v>0.63866000000000001</v>
       </c>
       <c r="L83">
-        <v>3303.33079572612</v>
+        <v>3316.8375378563201</v>
       </c>
       <c r="M83">
-        <v>3240.4495854127699</v>
+        <v>3246.7742174003401</v>
       </c>
       <c r="N83">
-        <v>3287.3618283771102</v>
+        <v>3285.8182555578101</v>
       </c>
       <c r="O83">
-        <v>3196.6096023407599</v>
+        <v>3192.9001269663099</v>
       </c>
       <c r="P83">
-        <v>3250.4233104335099</v>
+        <v>3249.68029270242</v>
       </c>
       <c r="Q83">
-        <v>3225.9865918527898</v>
+        <v>3203.3658752945798</v>
       </c>
       <c r="R83">
-        <v>3140.4109129823801</v>
+        <v>3127.61076281736</v>
       </c>
       <c r="S83">
-        <v>3251.3514923243802</v>
+        <v>3235.9770435002602</v>
       </c>
       <c r="T83">
-        <v>3222.4178634793602</v>
+        <v>3209.9716277069801</v>
       </c>
       <c r="U83">
-        <v>3366.06132153511</v>
+        <v>3368.0747130670202</v>
       </c>
       <c r="V83">
-        <v>3147.16124775247</v>
+        <v>3137.683992877</v>
       </c>
       <c r="W83">
-        <v>3145.4269808296099</v>
+        <v>3140.16607427796</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -6563,9 +6492,8 @@
       <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E84" t="s">
+        <v>72</v>
       </c>
       <c r="F84">
         <v>36</v>
@@ -6635,9 +6563,8 @@
       <c r="D85" t="s">
         <v>4</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E85" t="s">
+        <v>73</v>
       </c>
       <c r="F85">
         <v>12</v>
@@ -6707,9 +6634,8 @@
       <c r="D86" t="s">
         <v>46</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E86" t="s">
+        <v>68</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6779,9 +6705,8 @@
       <c r="D87" t="s">
         <v>46</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E87" t="s">
+        <v>68</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6851,9 +6776,8 @@
       <c r="D88" t="s">
         <v>4</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E88" t="s">
+        <v>73</v>
       </c>
       <c r="F88">
         <v>12</v>
@@ -6918,68 +6842,67 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_60</v>
+      <c r="E89" t="s">
+        <v>73</v>
       </c>
       <c r="F89">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
         <v>65</v>
       </c>
       <c r="H89">
-        <v>2.529E-2</v>
+        <v>2.6040000000000001E-2</v>
       </c>
       <c r="I89">
         <v>72.727270000000004</v>
       </c>
       <c r="J89">
-        <v>-0.58875999999999995</v>
+        <v>-0.85099000000000002</v>
       </c>
       <c r="K89">
-        <v>0.55769000000000002</v>
+        <v>0.57709999999999995</v>
       </c>
       <c r="L89">
-        <v>14791.133087177799</v>
+        <v>14872.944927</v>
       </c>
       <c r="M89">
-        <v>14456.0027496231</v>
+        <v>14605.062432000001</v>
       </c>
       <c r="N89">
-        <v>14632.3301930834</v>
+        <v>14859.547639</v>
       </c>
       <c r="O89">
-        <v>14930.045617563799</v>
+        <v>14776.512537000001</v>
       </c>
       <c r="P89">
-        <v>15139.8032216018</v>
+        <v>14920.451655000001</v>
       </c>
       <c r="Q89">
-        <v>15105.425026053401</v>
+        <v>15333.069562000001</v>
       </c>
       <c r="R89">
-        <v>14342.2354314853</v>
+        <v>14228.896278</v>
       </c>
       <c r="S89">
-        <v>14392.588913552199</v>
+        <v>14328.399406</v>
       </c>
       <c r="T89">
-        <v>14164.133509400801</v>
+        <v>13908.452422</v>
       </c>
       <c r="U89">
-        <v>14995.1364757133</v>
+        <v>15445.415077</v>
       </c>
       <c r="V89">
-        <v>13277.056872200301</v>
+        <v>13347.286397</v>
       </c>
       <c r="W89">
-        <v>13348.1662449218</v>
+        <v>13400.514219999999</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -6995,9 +6918,8 @@
       <c r="D90" t="s">
         <v>4</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E90" t="s">
+        <v>72</v>
       </c>
       <c r="F90">
         <v>36</v>
@@ -7067,9 +6989,8 @@
       <c r="D91" t="s">
         <v>4</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E91" t="s">
+        <v>70</v>
       </c>
       <c r="F91">
         <v>24</v>
@@ -7139,9 +7060,8 @@
       <c r="D92" t="s">
         <v>4</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E92" t="s">
+        <v>72</v>
       </c>
       <c r="F92">
         <v>36</v>
@@ -7211,9 +7131,8 @@
       <c r="D93" t="s">
         <v>46</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E93" t="s">
+        <v>68</v>
       </c>
       <c r="F93">
         <v>36</v>
@@ -7283,9 +7202,8 @@
       <c r="D94" t="s">
         <v>4</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E94" t="s">
+        <v>73</v>
       </c>
       <c r="F94">
         <v>12</v>
@@ -7355,9 +7273,8 @@
       <c r="D95" t="s">
         <v>4</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E95" t="s">
+        <v>72</v>
       </c>
       <c r="F95">
         <v>36</v>
@@ -7427,9 +7344,8 @@
       <c r="D96" t="s">
         <v>4</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E96" t="s">
+        <v>72</v>
       </c>
       <c r="F96">
         <v>36</v>
@@ -7499,9 +7415,8 @@
       <c r="D97" t="s">
         <v>4</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E97" t="s">
+        <v>72</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -7571,9 +7486,8 @@
       <c r="D98" t="s">
         <v>4</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E98" t="s">
+        <v>72</v>
       </c>
       <c r="F98">
         <v>36</v>
@@ -7643,9 +7557,8 @@
       <c r="D99" t="s">
         <v>4</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E99" t="s">
+        <v>72</v>
       </c>
       <c r="F99">
         <v>36</v>
@@ -7715,9 +7628,8 @@
       <c r="D100" t="s">
         <v>4</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E100" t="s">
+        <v>72</v>
       </c>
       <c r="F100">
         <v>36</v>
@@ -7787,9 +7699,8 @@
       <c r="D101" t="s">
         <v>4</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E101" t="s">
+        <v>73</v>
       </c>
       <c r="F101">
         <v>12</v>
@@ -7859,9 +7770,8 @@
       <c r="D102" t="s">
         <v>4</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E102" t="s">
+        <v>70</v>
       </c>
       <c r="F102">
         <v>24</v>
@@ -7931,9 +7841,8 @@
       <c r="D103" t="s">
         <v>4</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E103" t="s">
+        <v>70</v>
       </c>
       <c r="F103">
         <v>24</v>
@@ -8003,9 +7912,8 @@
       <c r="D104" t="s">
         <v>46</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_12</v>
+      <c r="E104" t="s">
+        <v>69</v>
       </c>
       <c r="F104">
         <v>12</v>
@@ -8075,9 +7983,8 @@
       <c r="D105" t="s">
         <v>4</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E105" t="s">
+        <v>72</v>
       </c>
       <c r="F105">
         <v>36</v>
@@ -8147,9 +8054,8 @@
       <c r="D106" t="s">
         <v>4</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E106" t="s">
+        <v>70</v>
       </c>
       <c r="F106">
         <v>24</v>
@@ -8219,9 +8125,8 @@
       <c r="D107" t="s">
         <v>4</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E107" t="s">
+        <v>72</v>
       </c>
       <c r="F107">
         <v>36</v>
@@ -8291,9 +8196,8 @@
       <c r="D108" t="s">
         <v>4</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E108" t="s">
+        <v>70</v>
       </c>
       <c r="F108">
         <v>24</v>
@@ -8363,9 +8267,8 @@
       <c r="D109" t="s">
         <v>4</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E109" t="s">
+        <v>73</v>
       </c>
       <c r="F109">
         <v>12</v>
@@ -8430,14 +8333,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E110" t="s">
+        <v>69</v>
       </c>
       <c r="F110">
         <v>12</v>
@@ -8507,9 +8409,8 @@
       <c r="D111" t="s">
         <v>4</v>
       </c>
-      <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E111" t="s">
+        <v>73</v>
       </c>
       <c r="F111">
         <v>12</v>
@@ -8579,9 +8480,8 @@
       <c r="D112" t="s">
         <v>4</v>
       </c>
-      <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E112" t="s">
+        <v>73</v>
       </c>
       <c r="F112">
         <v>12</v>
@@ -8646,14 +8546,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>69</v>
       </c>
       <c r="F113">
         <v>12</v>
@@ -8723,9 +8622,8 @@
       <c r="D114" t="s">
         <v>4</v>
       </c>
-      <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E114" t="s">
+        <v>70</v>
       </c>
       <c r="F114">
         <v>24</v>
@@ -8795,9 +8693,8 @@
       <c r="D115" t="s">
         <v>4</v>
       </c>
-      <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E115" t="s">
+        <v>73</v>
       </c>
       <c r="F115">
         <v>12</v>
@@ -8865,65 +8762,64 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_108</v>
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>68</v>
       </c>
       <c r="F116">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>65</v>
       </c>
       <c r="H116">
-        <v>0.27842</v>
+        <v>0.38841999999999999</v>
       </c>
       <c r="I116">
         <v>72.727270000000004</v>
       </c>
       <c r="J116">
-        <v>10.97899</v>
+        <v>10.36412</v>
       </c>
       <c r="K116">
-        <v>0.63049999999999995</v>
+        <v>0.79357999999999995</v>
       </c>
       <c r="L116">
-        <v>29.571660328553801</v>
+        <v>30.768422258248101</v>
       </c>
       <c r="M116">
-        <v>26.953283117817801</v>
+        <v>36.3493597775485</v>
       </c>
       <c r="N116">
-        <v>27.957629590721101</v>
+        <v>23.536240646665298</v>
       </c>
       <c r="O116">
-        <v>29.042476068558098</v>
+        <v>34.796908580537497</v>
       </c>
       <c r="P116">
-        <v>23.071381254948399</v>
+        <v>28.764470991478799</v>
       </c>
       <c r="Q116">
-        <v>27.7394824422075</v>
+        <v>31.103598247169799</v>
       </c>
       <c r="R116">
-        <v>30.504302913502599</v>
+        <v>33.729937154636403</v>
       </c>
       <c r="S116">
-        <v>27.613028435204299</v>
+        <v>28.8863054588073</v>
       </c>
       <c r="T116">
-        <v>32.1432164789084</v>
+        <v>37.914196144347301</v>
       </c>
       <c r="U116">
-        <v>33.5928342433035</v>
+        <v>31.458157135299299</v>
       </c>
       <c r="V116">
-        <v>41.6614681266758</v>
+        <v>30.604197164932799</v>
       </c>
       <c r="W116">
-        <v>29.6133915005082</v>
+        <v>14.0352127620834</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
@@ -8934,65 +8830,67 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
-      <c r="E117" t="str">
-        <f>D117&amp;"_"&amp;F117</f>
-        <v>RawData_12</v>
+      <c r="E117" t="s">
+        <v>72</v>
       </c>
       <c r="F117">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>65</v>
       </c>
-      <c r="H117" s="1">
-        <v>1.9427094380939699E+17</v>
+      <c r="H117">
+        <v>1.3228957387451101E+17</v>
       </c>
       <c r="I117">
-        <v>54.545454545454497</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J117">
-        <v>35.169919769017397</v>
+        <v>85.984579999999994</v>
+      </c>
+      <c r="K117">
+        <v>1.75387</v>
       </c>
       <c r="L117">
-        <v>766.06233299999997</v>
+        <v>-3515.696289</v>
       </c>
       <c r="M117">
-        <v>374.76171799999997</v>
+        <v>-1981.1103519999999</v>
       </c>
       <c r="N117">
-        <v>208.40535800000001</v>
+        <v>-646.61425799999995</v>
       </c>
       <c r="O117">
-        <v>814.36927700000001</v>
+        <v>-2070.060547</v>
       </c>
       <c r="P117">
-        <v>551.31263100000001</v>
+        <v>2084.1899410000001</v>
       </c>
       <c r="Q117">
-        <v>517.64178000000004</v>
+        <v>352.49023399999999</v>
       </c>
       <c r="R117">
-        <v>1585.1382599999999</v>
+        <v>824.08007799999996</v>
       </c>
       <c r="S117">
-        <v>1494.2966289999999</v>
+        <v>249.18554700000001</v>
       </c>
       <c r="T117">
-        <v>3791.049833</v>
+        <v>2261.4975589999999</v>
       </c>
       <c r="U117">
-        <v>2351.775091</v>
+        <v>-1929.0517580000001</v>
       </c>
       <c r="V117">
-        <v>2112.3208570000002</v>
+        <v>2721.1376949999999</v>
       </c>
       <c r="W117">
-        <v>2206.5881909999998</v>
+        <v>3389.1762699999999</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
@@ -9008,9 +8906,8 @@
       <c r="D118" t="s">
         <v>4</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_36</v>
+      <c r="E118" t="s">
+        <v>72</v>
       </c>
       <c r="F118">
         <v>36</v>
@@ -9080,9 +8977,8 @@
       <c r="D119" t="s">
         <v>46</v>
       </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_12</v>
+      <c r="E119" t="s">
+        <v>69</v>
       </c>
       <c r="F119">
         <v>12</v>
@@ -9152,63 +9048,62 @@
       <c r="D120" t="s">
         <v>4</v>
       </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_84</v>
+      <c r="E120" t="s">
+        <v>70</v>
       </c>
       <c r="F120">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G120" t="s">
         <v>65</v>
       </c>
       <c r="H120">
-        <v>9.4799999999999995E-2</v>
+        <v>0.10866000000000001</v>
       </c>
       <c r="I120">
         <v>63.636360000000003</v>
       </c>
       <c r="J120">
-        <v>3.26031</v>
+        <v>0.96989000000000003</v>
       </c>
       <c r="K120">
-        <v>0.26208999999999999</v>
+        <v>0.29912</v>
       </c>
       <c r="L120">
-        <v>9949.0691244200098</v>
+        <v>10326.352865065301</v>
       </c>
       <c r="M120">
-        <v>9741.7321904113905</v>
+        <v>9467.9371402062607</v>
       </c>
       <c r="N120">
-        <v>10389.174986326199</v>
+        <v>10639.8798987554</v>
       </c>
       <c r="O120">
-        <v>10499.821467330101</v>
+        <v>10934.485527774401</v>
       </c>
       <c r="P120">
-        <v>10424.277291115101</v>
+        <v>11115.194058589601</v>
       </c>
       <c r="Q120">
-        <v>10796.035173156601</v>
+        <v>12140.5093247677</v>
       </c>
       <c r="R120">
-        <v>10089.150957988701</v>
+        <v>10875.597077579499</v>
       </c>
       <c r="S120">
-        <v>10107.1118063011</v>
+        <v>10429.5474082112</v>
       </c>
       <c r="T120">
-        <v>9456.23826862645</v>
+        <v>9588.7292985743807</v>
       </c>
       <c r="U120">
-        <v>9596.0436917128209</v>
+        <v>9439.8523696162501</v>
       </c>
       <c r="V120">
-        <v>9526.6512239927597</v>
+        <v>9445.9410680051806</v>
       </c>
       <c r="W120">
-        <v>9216.0444476872999</v>
+        <v>8223.5257560774298</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
@@ -9219,65 +9114,67 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" t="str">
-        <f>D121&amp;"_"&amp;F121</f>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E121" t="s">
+        <v>68</v>
       </c>
       <c r="F121">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>65</v>
       </c>
-      <c r="H121" s="1">
-        <v>2.8206225268902E+16</v>
+      <c r="H121">
+        <v>5744621906473850</v>
       </c>
       <c r="I121">
-        <v>63.636363636363598</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J121">
-        <v>-13.2045109790241</v>
+        <v>51.621879999999997</v>
+      </c>
+      <c r="K121">
+        <v>0.61309000000000002</v>
       </c>
       <c r="L121">
-        <v>873.33262100000002</v>
+        <v>366.94281755061701</v>
       </c>
       <c r="M121">
-        <v>373.02698500000002</v>
+        <v>181.73741659307001</v>
       </c>
       <c r="N121">
-        <v>205.29855000000001</v>
+        <v>165.85072973968499</v>
       </c>
       <c r="O121">
-        <v>474.84681</v>
+        <v>337.61097336296399</v>
       </c>
       <c r="P121">
-        <v>262.59446300000002</v>
+        <v>155.660872211266</v>
       </c>
       <c r="Q121">
-        <v>287.087536</v>
+        <v>152.965746380289</v>
       </c>
       <c r="R121">
-        <v>95.412638000000001</v>
+        <v>85.795325237302706</v>
       </c>
       <c r="S121">
-        <v>207.852237</v>
+        <v>-2.9676775713799</v>
       </c>
       <c r="T121">
-        <v>235.83931999999999</v>
+        <v>35.833799294205001</v>
       </c>
       <c r="U121">
-        <v>75.156481999999997</v>
+        <v>-15.306747621960101</v>
       </c>
       <c r="V121">
-        <v>242.96820199999999</v>
+        <v>166.174052866219</v>
       </c>
       <c r="W121">
-        <v>170.754133</v>
+        <v>322.85889531173399</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
@@ -9293,9 +9190,8 @@
       <c r="D122" t="s">
         <v>46</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_36</v>
+      <c r="E122" t="s">
+        <v>68</v>
       </c>
       <c r="F122">
         <v>36</v>
@@ -9365,9 +9261,8 @@
       <c r="D123" t="s">
         <v>4</v>
       </c>
-      <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E123" t="s">
+        <v>73</v>
       </c>
       <c r="F123">
         <v>12</v>
@@ -9435,11 +9330,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E124" t="s">
+        <v>69</v>
       </c>
       <c r="F124">
         <v>12</v>
@@ -9448,52 +9342,52 @@
         <v>65</v>
       </c>
       <c r="H124">
-        <v>6.35888296810176E+16</v>
+        <v>2.80176892037846E+16</v>
       </c>
       <c r="I124">
         <v>27.272729999999999</v>
       </c>
       <c r="J124">
-        <v>95.085880000000003</v>
+        <v>97.113600000000005</v>
       </c>
       <c r="K124">
-        <v>0.95262999999999998</v>
+        <v>0.92356000000000005</v>
       </c>
       <c r="L124">
-        <v>25.575860728853598</v>
+        <v>4.6343080174596301</v>
       </c>
       <c r="M124">
-        <v>30.1501115105705</v>
+        <v>-4.7774406944234498</v>
       </c>
       <c r="N124">
-        <v>25.947043756233398</v>
+        <v>-13.943978143629799</v>
       </c>
       <c r="O124">
-        <v>11.462400542097701</v>
+        <v>-7.3817526047027204</v>
       </c>
       <c r="P124">
-        <v>11.8327039280392</v>
+        <v>-20.223593183392399</v>
       </c>
       <c r="Q124">
-        <v>20.3394716833091</v>
+        <v>-10.898168972830099</v>
       </c>
       <c r="R124">
-        <v>32.621615691548897</v>
+        <v>4.6218986058897604</v>
       </c>
       <c r="S124">
-        <v>32.883182498637602</v>
+        <v>21.630066127039001</v>
       </c>
       <c r="T124">
-        <v>26.781638118087798</v>
+        <v>46.791730682000903</v>
       </c>
       <c r="U124">
-        <v>25.0730733115467</v>
+        <v>63.446783400650801</v>
       </c>
       <c r="V124">
-        <v>38.552753260220697</v>
+        <v>79.864932921417804</v>
       </c>
       <c r="W124">
-        <v>11.505470933297801</v>
+        <v>8.1729805503170905</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
@@ -9509,9 +9403,8 @@
       <c r="D125" t="s">
         <v>4</v>
       </c>
-      <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+      <c r="E125" t="s">
+        <v>73</v>
       </c>
       <c r="F125">
         <v>12</v>
@@ -9581,9 +9474,8 @@
       <c r="D126" t="s">
         <v>46</v>
       </c>
-      <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_24</v>
+      <c r="E126" t="s">
+        <v>71</v>
       </c>
       <c r="F126">
         <v>24</v>
@@ -9653,9 +9545,8 @@
       <c r="D127" t="s">
         <v>46</v>
       </c>
-      <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v>Catch22_12</v>
+      <c r="E127" t="s">
+        <v>69</v>
       </c>
       <c r="F127">
         <v>12</v>
@@ -9725,9 +9616,8 @@
       <c r="D128" t="s">
         <v>4</v>
       </c>
-      <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_24</v>
+      <c r="E128" t="s">
+        <v>70</v>
       </c>
       <c r="F128">
         <v>24</v>
@@ -9792,14 +9682,13 @@
         <v>50</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E129" t="s">
+        <v>69</v>
       </c>
       <c r="F129">
         <v>12</v>
@@ -9864,14 +9753,13 @@
         <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" ref="E130:E193" si="2">D130&amp;"_"&amp;F130</f>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E130" t="s">
+        <v>69</v>
       </c>
       <c r="F130">
         <v>12</v>
@@ -9936,14 +9824,13 @@
         <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
       </c>
-      <c r="E131" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E131" t="s">
+        <v>73</v>
       </c>
       <c r="F131">
         <v>12</v>
@@ -10013,9 +9900,8 @@
       <c r="D132" t="s">
         <v>4</v>
       </c>
-      <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E132" t="s">
+        <v>73</v>
       </c>
       <c r="F132">
         <v>12</v>
@@ -10085,9 +9971,8 @@
       <c r="D133" t="s">
         <v>46</v>
       </c>
-      <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_36</v>
+      <c r="E133" t="s">
+        <v>68</v>
       </c>
       <c r="F133">
         <v>36</v>
@@ -10157,63 +10042,62 @@
       <c r="D134" t="s">
         <v>4</v>
       </c>
-      <c r="E134" t="str">
-        <f>D134&amp;"_"&amp;F134</f>
-        <v>RawData_24</v>
+      <c r="E134" t="s">
+        <v>72</v>
       </c>
       <c r="F134">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>65</v>
       </c>
       <c r="H134">
-        <v>1143217900371790</v>
+        <v>656809601232630</v>
       </c>
       <c r="I134">
-        <v>36.363636363636303</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J134">
-        <v>54.193504838694501</v>
+        <v>11.03736</v>
       </c>
       <c r="K134">
-        <v>0.51607849652021098</v>
+        <v>1.13089</v>
       </c>
       <c r="L134">
-        <v>7.4510580548049798</v>
+        <v>13.7831967961302</v>
       </c>
       <c r="M134">
-        <v>3.0461444043753398</v>
+        <v>1.7500923413031799</v>
       </c>
       <c r="N134">
-        <v>0.142073743594508</v>
+        <v>-6.3918637151773501</v>
       </c>
       <c r="O134">
-        <v>2.4328019032346502</v>
+        <v>0.38470713248456401</v>
       </c>
       <c r="P134">
-        <v>14.2922274796789</v>
+        <v>29.366326199554099</v>
       </c>
       <c r="Q134">
-        <v>14.0012458260397</v>
+        <v>31.8963688926465</v>
       </c>
       <c r="R134">
-        <v>15.8184905273837</v>
+        <v>35.2234438223403</v>
       </c>
       <c r="S134">
-        <v>15.7681636942553</v>
+        <v>33.937601582805399</v>
       </c>
       <c r="T134">
-        <v>11.396410736711299</v>
+        <v>22.975188243808699</v>
       </c>
       <c r="U134">
-        <v>18.053616163714999</v>
+        <v>43.2447939297112</v>
       </c>
       <c r="V134">
-        <v>15.1887914798744</v>
+        <v>30.3464176579579</v>
       </c>
       <c r="W134">
-        <v>1.98225095540341</v>
+        <v>-4.2882055320113999</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
@@ -10229,9 +10113,8 @@
       <c r="D135" t="s">
         <v>4</v>
       </c>
-      <c r="E135" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E135" t="s">
+        <v>72</v>
       </c>
       <c r="F135">
         <v>36</v>
@@ -10299,11 +10182,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" t="str">
-        <f>D136&amp;"_"&amp;F136</f>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E136" t="s">
+        <v>69</v>
       </c>
       <c r="F136">
         <v>12</v>
@@ -10311,53 +10193,53 @@
       <c r="G136" t="s">
         <v>65</v>
       </c>
-      <c r="H136" s="1">
-        <v>4.1300915802431296E+16</v>
+      <c r="H136">
+        <v>2.8150214183814E+16</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
-      <c r="J136" s="1">
-        <v>-1.10047746388714E+24</v>
+      <c r="J136">
+        <v>-7.2880134327999998E+23</v>
       </c>
       <c r="K136">
-        <v>0.88992193424481802</v>
+        <v>0.60655999999999999</v>
       </c>
       <c r="L136">
-        <v>10.734066536320899</v>
+        <v>15.174284986718201</v>
       </c>
       <c r="M136">
-        <v>5.5293556874180902</v>
+        <v>7.8274734293911301</v>
       </c>
       <c r="N136">
-        <v>8.2291555198485309</v>
+        <v>7.93647144358318</v>
       </c>
       <c r="O136">
-        <v>9.1026082748203496</v>
+        <v>6.5722091329306203</v>
       </c>
       <c r="P136">
-        <v>15.106671834839201</v>
+        <v>13.1277330479874</v>
       </c>
       <c r="Q136">
-        <v>13.4810997500142</v>
+        <v>9.7624834293703202</v>
       </c>
       <c r="R136">
-        <v>10.2447020331393</v>
+        <v>4.43430510116126</v>
       </c>
       <c r="S136">
-        <v>7.0778617336749603</v>
+        <v>4.4268046605185001</v>
       </c>
       <c r="T136">
-        <v>7.6239463189301802</v>
+        <v>2.1249461773279101</v>
       </c>
       <c r="U136">
-        <v>5.4758639769369202</v>
+        <v>-0.86276734524014498</v>
       </c>
       <c r="V136">
-        <v>10.9291015092479</v>
+        <v>2.5569748719946301</v>
       </c>
       <c r="W136">
-        <v>6.5133132135235696</v>
+        <v>-0.20078461347977</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
@@ -10373,9 +10255,8 @@
       <c r="D137" t="s">
         <v>4</v>
       </c>
-      <c r="E137" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E137" t="s">
+        <v>70</v>
       </c>
       <c r="F137">
         <v>24</v>
@@ -10445,9 +10326,8 @@
       <c r="D138" t="s">
         <v>4</v>
       </c>
-      <c r="E138" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E138" t="s">
+        <v>72</v>
       </c>
       <c r="F138">
         <v>36</v>
@@ -10517,9 +10397,8 @@
       <c r="D139" t="s">
         <v>4</v>
       </c>
-      <c r="E139" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E139" t="s">
+        <v>72</v>
       </c>
       <c r="F139">
         <v>36</v>
@@ -10589,9 +10468,8 @@
       <c r="D140" t="s">
         <v>4</v>
       </c>
-      <c r="E140" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E140" t="s">
+        <v>72</v>
       </c>
       <c r="F140">
         <v>36</v>
@@ -10661,9 +10539,8 @@
       <c r="D141" t="s">
         <v>4</v>
       </c>
-      <c r="E141" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E141" t="s">
+        <v>70</v>
       </c>
       <c r="F141">
         <v>24</v>
@@ -10733,9 +10610,8 @@
       <c r="D142" t="s">
         <v>4</v>
       </c>
-      <c r="E142" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E142" t="s">
+        <v>73</v>
       </c>
       <c r="F142">
         <v>12</v>
@@ -10805,9 +10681,8 @@
       <c r="D143" t="s">
         <v>4</v>
       </c>
-      <c r="E143" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E143" t="s">
+        <v>70</v>
       </c>
       <c r="F143">
         <v>24</v>
@@ -10877,9 +10752,8 @@
       <c r="D144" t="s">
         <v>46</v>
       </c>
-      <c r="E144" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_36</v>
+      <c r="E144" t="s">
+        <v>68</v>
       </c>
       <c r="F144">
         <v>36</v>
@@ -10949,9 +10823,8 @@
       <c r="D145" t="s">
         <v>4</v>
       </c>
-      <c r="E145" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E145" t="s">
+        <v>72</v>
       </c>
       <c r="F145">
         <v>36</v>
@@ -11021,9 +10894,8 @@
       <c r="D146" t="s">
         <v>4</v>
       </c>
-      <c r="E146" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E146" t="s">
+        <v>72</v>
       </c>
       <c r="F146">
         <v>36</v>
@@ -11093,9 +10965,8 @@
       <c r="D147" t="s">
         <v>4</v>
       </c>
-      <c r="E147" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E147" t="s">
+        <v>73</v>
       </c>
       <c r="F147">
         <v>12</v>
@@ -11165,9 +11036,8 @@
       <c r="D148" t="s">
         <v>46</v>
       </c>
-      <c r="E148" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_12</v>
+      <c r="E148" t="s">
+        <v>69</v>
       </c>
       <c r="F148">
         <v>12</v>
@@ -11237,9 +11107,8 @@
       <c r="D149" t="s">
         <v>4</v>
       </c>
-      <c r="E149" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E149" t="s">
+        <v>70</v>
       </c>
       <c r="F149">
         <v>24</v>
@@ -11309,63 +11178,62 @@
       <c r="D150" t="s">
         <v>4</v>
       </c>
-      <c r="E150" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_60</v>
+      <c r="E150" t="s">
+        <v>72</v>
       </c>
       <c r="F150">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>65</v>
       </c>
       <c r="H150">
-        <v>3.4200000000000001E-2</v>
+        <v>3.4639999999999997E-2</v>
       </c>
       <c r="I150">
         <v>72.727270000000004</v>
       </c>
       <c r="J150">
-        <v>1.9556199999999999</v>
+        <v>0.86829999999999996</v>
       </c>
       <c r="K150">
-        <v>0.83462999999999998</v>
+        <v>0.83635000000000004</v>
       </c>
       <c r="L150">
-        <v>231502.362261626</v>
+        <v>236212.67854270799</v>
       </c>
       <c r="M150">
-        <v>225416.35023981999</v>
+        <v>230888.91660212501</v>
       </c>
       <c r="N150">
-        <v>236242.444836982</v>
+        <v>239789.50456775399</v>
       </c>
       <c r="O150">
-        <v>247137.768630854</v>
+        <v>249503.90059954199</v>
       </c>
       <c r="P150">
-        <v>261131.83762211099</v>
+        <v>260654.583984953</v>
       </c>
       <c r="Q150">
-        <v>261766.53083221801</v>
+        <v>262701.55819532397</v>
       </c>
       <c r="R150">
-        <v>258381.298751561</v>
+        <v>259945.18253044601</v>
       </c>
       <c r="S150">
-        <v>264918.15174336702</v>
+        <v>264789.57286558801</v>
       </c>
       <c r="T150">
-        <v>252050.51506682101</v>
+        <v>253977.38864903501</v>
       </c>
       <c r="U150">
-        <v>246959.92096128999</v>
+        <v>248920.91657889201</v>
       </c>
       <c r="V150">
-        <v>229737.61546935199</v>
+        <v>234281.12369825799</v>
       </c>
       <c r="W150">
-        <v>217119.74186973201</v>
+        <v>223219.449094165</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
@@ -11381,9 +11249,8 @@
       <c r="D151" t="s">
         <v>4</v>
       </c>
-      <c r="E151" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E151" t="s">
+        <v>72</v>
       </c>
       <c r="F151">
         <v>36</v>
@@ -11453,9 +11320,8 @@
       <c r="D152" t="s">
         <v>4</v>
       </c>
-      <c r="E152" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E152" t="s">
+        <v>73</v>
       </c>
       <c r="F152">
         <v>12</v>
@@ -11525,9 +11391,8 @@
       <c r="D153" t="s">
         <v>4</v>
       </c>
-      <c r="E153" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E153" t="s">
+        <v>73</v>
       </c>
       <c r="F153">
         <v>12</v>
@@ -11597,9 +11462,8 @@
       <c r="D154" t="s">
         <v>46</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_12</v>
+      <c r="E154" t="s">
+        <v>69</v>
       </c>
       <c r="F154">
         <v>12</v>
@@ -11669,9 +11533,8 @@
       <c r="D155" t="s">
         <v>46</v>
       </c>
-      <c r="E155" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_12</v>
+      <c r="E155" t="s">
+        <v>69</v>
       </c>
       <c r="F155">
         <v>12</v>
@@ -11741,9 +11604,8 @@
       <c r="D156" t="s">
         <v>4</v>
       </c>
-      <c r="E156" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E156" t="s">
+        <v>73</v>
       </c>
       <c r="F156">
         <v>12</v>
@@ -11813,9 +11675,8 @@
       <c r="D157" t="s">
         <v>4</v>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E157" t="s">
+        <v>72</v>
       </c>
       <c r="F157">
         <v>36</v>
@@ -11885,9 +11746,8 @@
       <c r="D158" t="s">
         <v>4</v>
       </c>
-      <c r="E158" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E158" t="s">
+        <v>72</v>
       </c>
       <c r="F158">
         <v>36</v>
@@ -11957,9 +11817,8 @@
       <c r="D159" t="s">
         <v>4</v>
       </c>
-      <c r="E159" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E159" t="s">
+        <v>73</v>
       </c>
       <c r="F159">
         <v>12</v>
@@ -12029,9 +11888,8 @@
       <c r="D160" t="s">
         <v>4</v>
       </c>
-      <c r="E160" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E160" t="s">
+        <v>70</v>
       </c>
       <c r="F160">
         <v>24</v>
@@ -12101,9 +11959,8 @@
       <c r="D161" t="s">
         <v>4</v>
       </c>
-      <c r="E161" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E161" t="s">
+        <v>70</v>
       </c>
       <c r="F161">
         <v>24</v>
@@ -12173,9 +12030,8 @@
       <c r="D162" t="s">
         <v>4</v>
       </c>
-      <c r="E162" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E162" t="s">
+        <v>73</v>
       </c>
       <c r="F162">
         <v>12</v>
@@ -12245,9 +12101,8 @@
       <c r="D163" t="s">
         <v>46</v>
       </c>
-      <c r="E163" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_36</v>
+      <c r="E163" t="s">
+        <v>68</v>
       </c>
       <c r="F163">
         <v>36</v>
@@ -12317,9 +12172,8 @@
       <c r="D164" t="s">
         <v>4</v>
       </c>
-      <c r="E164" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E164" t="s">
+        <v>73</v>
       </c>
       <c r="F164">
         <v>12</v>
@@ -12389,9 +12243,8 @@
       <c r="D165" t="s">
         <v>46</v>
       </c>
-      <c r="E165" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_36</v>
+      <c r="E165" t="s">
+        <v>68</v>
       </c>
       <c r="F165">
         <v>36</v>
@@ -12456,68 +12309,67 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
       </c>
-      <c r="E166" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_84</v>
+      <c r="E166" t="s">
+        <v>72</v>
       </c>
       <c r="F166">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>65</v>
       </c>
       <c r="H166">
-        <v>5.9749999999999998E-2</v>
+        <v>0.13094</v>
       </c>
       <c r="I166">
-        <v>81.818179999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J166">
-        <v>-2.4712299999999998</v>
+        <v>-9.6079699999999999</v>
       </c>
       <c r="K166">
-        <v>0.11716</v>
+        <v>0.24346000000000001</v>
       </c>
       <c r="L166">
-        <v>6863.4280661808698</v>
+        <v>8449.4765939999997</v>
       </c>
       <c r="M166">
-        <v>5912.1853245682296</v>
+        <v>8346.4019310000003</v>
       </c>
       <c r="N166">
-        <v>6532.5993990070601</v>
+        <v>7598.4292249999999</v>
       </c>
       <c r="O166">
-        <v>6310.5031848493099</v>
+        <v>7227.2804269999997</v>
       </c>
       <c r="P166">
-        <v>7213.4193843665098</v>
+        <v>7075.4914250000002</v>
       </c>
       <c r="Q166">
-        <v>7089.8606887016404</v>
+        <v>6805.5274390000004</v>
       </c>
       <c r="R166">
-        <v>6723.60449146668</v>
+        <v>7151.5568450000001</v>
       </c>
       <c r="S166">
-        <v>7581.1961124257796</v>
+        <v>7152.1894259999999</v>
       </c>
       <c r="T166">
-        <v>7578.4036190628904</v>
+        <v>6781.4884320000001</v>
       </c>
       <c r="U166">
-        <v>7641.8285288407696</v>
+        <v>7250.5078590000003</v>
       </c>
       <c r="V166">
-        <v>6807.0844956411001</v>
+        <v>7086.3847949999999</v>
       </c>
       <c r="W166">
-        <v>5509.80981551485</v>
+        <v>6533.7385340000001</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.3">
@@ -12533,9 +12385,8 @@
       <c r="D167" t="s">
         <v>4</v>
       </c>
-      <c r="E167" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E167" t="s">
+        <v>70</v>
       </c>
       <c r="F167">
         <v>24</v>
@@ -12605,9 +12456,8 @@
       <c r="D168" t="s">
         <v>4</v>
       </c>
-      <c r="E168" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E168" t="s">
+        <v>73</v>
       </c>
       <c r="F168">
         <v>12</v>
@@ -12677,9 +12527,8 @@
       <c r="D169" t="s">
         <v>4</v>
       </c>
-      <c r="E169" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E169" t="s">
+        <v>73</v>
       </c>
       <c r="F169">
         <v>12</v>
@@ -12749,9 +12598,8 @@
       <c r="D170" t="s">
         <v>4</v>
       </c>
-      <c r="E170" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E170" t="s">
+        <v>73</v>
       </c>
       <c r="F170">
         <v>12</v>
@@ -12821,9 +12669,8 @@
       <c r="D171" t="s">
         <v>4</v>
       </c>
-      <c r="E171" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E171" t="s">
+        <v>72</v>
       </c>
       <c r="F171">
         <v>36</v>
@@ -12888,68 +12735,67 @@
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
       </c>
-      <c r="E172" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_108</v>
+      <c r="E172" t="s">
+        <v>70</v>
       </c>
       <c r="F172">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="G172" t="s">
         <v>65</v>
       </c>
       <c r="H172">
-        <v>5.2319999999999998E-2</v>
+        <v>7.4130000000000001E-2</v>
       </c>
       <c r="I172">
-        <v>81.818179999999998</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J172">
-        <v>0.12531</v>
+        <v>3.8081200000000002</v>
       </c>
       <c r="K172">
-        <v>0.15303</v>
+        <v>0.2213</v>
       </c>
       <c r="L172">
-        <v>4742.7576720416801</v>
+        <v>4410.9721479999998</v>
       </c>
       <c r="M172">
-        <v>4463.1697484317701</v>
+        <v>4782.8529639999997</v>
       </c>
       <c r="N172">
-        <v>4975.5882696364297</v>
+        <v>4874.0291770000003</v>
       </c>
       <c r="O172">
-        <v>5104.2196772200796</v>
+        <v>4920.1889970000002</v>
       </c>
       <c r="P172">
-        <v>5592.8052553776997</v>
+        <v>4889.0858630000002</v>
       </c>
       <c r="Q172">
-        <v>5550.3149343955802</v>
+        <v>5462.4135530000003</v>
       </c>
       <c r="R172">
-        <v>5202.4743171815699</v>
+        <v>4839.7798629999998</v>
       </c>
       <c r="S172">
-        <v>5089.9957966463999</v>
+        <v>4921.8761260000001</v>
       </c>
       <c r="T172">
-        <v>4688.9488949234701</v>
+        <v>4681.4179139999997</v>
       </c>
       <c r="U172">
-        <v>4971.59881980095</v>
+        <v>4525.0736479999996</v>
       </c>
       <c r="V172">
-        <v>4892.8880553114004</v>
+        <v>4646.7785910000002</v>
       </c>
       <c r="W172">
-        <v>4377.9370964027803</v>
+        <v>4498.5809440000003</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.3">
@@ -12965,9 +12811,8 @@
       <c r="D173" t="s">
         <v>4</v>
       </c>
-      <c r="E173" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E173" t="s">
+        <v>70</v>
       </c>
       <c r="F173">
         <v>24</v>
@@ -13037,9 +12882,8 @@
       <c r="D174" t="s">
         <v>4</v>
       </c>
-      <c r="E174" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E174" t="s">
+        <v>70</v>
       </c>
       <c r="F174">
         <v>24</v>
@@ -13109,9 +12953,8 @@
       <c r="D175" t="s">
         <v>4</v>
       </c>
-      <c r="E175" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E175" t="s">
+        <v>72</v>
       </c>
       <c r="F175">
         <v>36</v>
@@ -13181,9 +13024,8 @@
       <c r="D176" t="s">
         <v>4</v>
       </c>
-      <c r="E176" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E176" t="s">
+        <v>72</v>
       </c>
       <c r="F176">
         <v>36</v>
@@ -13248,68 +13090,67 @@
         <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
       </c>
-      <c r="E177" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_60</v>
+      <c r="E177" t="s">
+        <v>70</v>
       </c>
       <c r="F177">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G177" t="s">
         <v>65</v>
       </c>
       <c r="H177">
-        <v>0.1166</v>
+        <v>0.14097999999999999</v>
       </c>
       <c r="I177">
-        <v>81.818179999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J177">
-        <v>-8.4474400000000003</v>
+        <v>-12.32898</v>
       </c>
       <c r="K177">
-        <v>0.19209000000000001</v>
+        <v>0.23713999999999999</v>
       </c>
       <c r="L177">
-        <v>6202.7492721645303</v>
+        <v>5749.8706119999997</v>
       </c>
       <c r="M177">
-        <v>5300.3437632012801</v>
+        <v>4789.2382690000004</v>
       </c>
       <c r="N177">
-        <v>5938.1277703722299</v>
+        <v>5093.5652049999999</v>
       </c>
       <c r="O177">
-        <v>5847.7277695336197</v>
+        <v>5624.8878539999996</v>
       </c>
       <c r="P177">
-        <v>6613.7666004262501</v>
+        <v>6725.5458840000001</v>
       </c>
       <c r="Q177">
-        <v>6542.3814933943004</v>
+        <v>6258.7723059999998</v>
       </c>
       <c r="R177">
-        <v>6291.0361388578003</v>
+        <v>6492.8773209999999</v>
       </c>
       <c r="S177">
-        <v>6937.3044909192504</v>
+        <v>7135.7838670000001</v>
       </c>
       <c r="T177">
-        <v>6448.2415475917796</v>
+        <v>7349.851216</v>
       </c>
       <c r="U177">
-        <v>7555.9434386364801</v>
+        <v>7811.3380070000003</v>
       </c>
       <c r="V177">
-        <v>6484.7693751371698</v>
+        <v>7660.1836169999997</v>
       </c>
       <c r="W177">
-        <v>4782.5746904582402</v>
+        <v>6935.474201</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.3">
@@ -13325,9 +13166,8 @@
       <c r="D178" t="s">
         <v>4</v>
       </c>
-      <c r="E178" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E178" t="s">
+        <v>70</v>
       </c>
       <c r="F178">
         <v>24</v>
@@ -13397,9 +13237,8 @@
       <c r="D179" t="s">
         <v>4</v>
       </c>
-      <c r="E179" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E179" t="s">
+        <v>70</v>
       </c>
       <c r="F179">
         <v>24</v>
@@ -13469,63 +13308,62 @@
       <c r="D180" t="s">
         <v>4</v>
       </c>
-      <c r="E180" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_60</v>
+      <c r="E180" t="s">
+        <v>72</v>
       </c>
       <c r="F180">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>65</v>
       </c>
       <c r="H180">
-        <v>0.11845</v>
+        <v>0.12077</v>
       </c>
       <c r="I180">
-        <v>90.909090000000006</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J180">
-        <v>8.6925799999999995</v>
+        <v>12.167920000000001</v>
       </c>
       <c r="K180">
-        <v>0.75063999999999997</v>
+        <v>0.79615999999999998</v>
       </c>
       <c r="L180">
-        <v>1486.97501235819</v>
+        <v>1425.65418988078</v>
       </c>
       <c r="M180">
-        <v>1207.0985076345</v>
+        <v>1122.3613069113801</v>
       </c>
       <c r="N180">
-        <v>1231.33894038483</v>
+        <v>1161.96990791947</v>
       </c>
       <c r="O180">
-        <v>1203.88908444922</v>
+        <v>1101.9771015477199</v>
       </c>
       <c r="P180">
-        <v>1513.8896842720001</v>
+        <v>1507.32007272079</v>
       </c>
       <c r="Q180">
-        <v>1278.16406729</v>
+        <v>1262.61169649979</v>
       </c>
       <c r="R180">
-        <v>1184.5331043979299</v>
+        <v>1132.69265520059</v>
       </c>
       <c r="S180">
-        <v>1327.7756008958499</v>
+        <v>1288.2658264807101</v>
       </c>
       <c r="T180">
-        <v>1374.34277218224</v>
+        <v>1339.17794907552</v>
       </c>
       <c r="U180">
-        <v>1812.73961223725</v>
+        <v>1810.0053385789799</v>
       </c>
       <c r="V180">
-        <v>1839.8284775777399</v>
+        <v>1804.50617688949</v>
       </c>
       <c r="W180">
-        <v>1311.71833147027</v>
+        <v>1177.3650376682699</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.3">
@@ -13541,9 +13379,8 @@
       <c r="D181" t="s">
         <v>46</v>
       </c>
-      <c r="E181" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_12</v>
+      <c r="E181" t="s">
+        <v>69</v>
       </c>
       <c r="F181">
         <v>12</v>
@@ -13613,9 +13450,8 @@
       <c r="D182" t="s">
         <v>4</v>
       </c>
-      <c r="E182" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E182" t="s">
+        <v>73</v>
       </c>
       <c r="F182">
         <v>12</v>
@@ -13685,9 +13521,8 @@
       <c r="D183" t="s">
         <v>4</v>
       </c>
-      <c r="E183" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E183" t="s">
+        <v>70</v>
       </c>
       <c r="F183">
         <v>24</v>
@@ -13757,9 +13592,8 @@
       <c r="D184" t="s">
         <v>4</v>
       </c>
-      <c r="E184" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E184" t="s">
+        <v>73</v>
       </c>
       <c r="F184">
         <v>12</v>
@@ -13829,9 +13663,8 @@
       <c r="D185" t="s">
         <v>4</v>
       </c>
-      <c r="E185" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+      <c r="E185" t="s">
+        <v>73</v>
       </c>
       <c r="F185">
         <v>12</v>
@@ -13901,9 +13734,8 @@
       <c r="D186" t="s">
         <v>4</v>
       </c>
-      <c r="E186" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E186" t="s">
+        <v>70</v>
       </c>
       <c r="F186">
         <v>24</v>
@@ -13973,9 +13805,8 @@
       <c r="D187" t="s">
         <v>46</v>
       </c>
-      <c r="E187" t="str">
-        <f t="shared" si="2"/>
-        <v>Catch22_24</v>
+      <c r="E187" t="s">
+        <v>71</v>
       </c>
       <c r="F187">
         <v>24</v>
@@ -14045,9 +13876,8 @@
       <c r="D188" t="s">
         <v>4</v>
       </c>
-      <c r="E188" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_24</v>
+      <c r="E188" t="s">
+        <v>70</v>
       </c>
       <c r="F188">
         <v>24</v>
@@ -14115,65 +13945,64 @@
         <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_60</v>
+        <v>46</v>
+      </c>
+      <c r="E189" t="s">
+        <v>69</v>
       </c>
       <c r="F189">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G189" t="s">
         <v>65</v>
       </c>
       <c r="H189">
-        <v>9.4850000000000004E-2</v>
+        <v>0.11691</v>
       </c>
       <c r="I189">
-        <v>90.909090000000006</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J189">
-        <v>9.4806699999999999</v>
+        <v>9.7288700000000006</v>
       </c>
       <c r="K189">
-        <v>0.63782000000000005</v>
+        <v>0.78952</v>
       </c>
       <c r="L189">
-        <v>313203.95862152398</v>
+        <v>311803.43347686902</v>
       </c>
       <c r="M189">
-        <v>257249.16956832199</v>
+        <v>295250.08119249903</v>
       </c>
       <c r="N189">
-        <v>285341.41016173398</v>
+        <v>296367.48910035501</v>
       </c>
       <c r="O189">
-        <v>254482.359765812</v>
+        <v>278149.23895161098</v>
       </c>
       <c r="P189">
-        <v>319263.45083223702</v>
+        <v>309102.081309275</v>
       </c>
       <c r="Q189">
-        <v>281539.74145327002</v>
+        <v>304035.02828994498</v>
       </c>
       <c r="R189">
-        <v>264331.87411355198</v>
+        <v>284758.00012401398</v>
       </c>
       <c r="S189">
-        <v>292686.44612357201</v>
+        <v>302475.99500344298</v>
       </c>
       <c r="T189">
-        <v>281530.76238449197</v>
+        <v>274900.68690340902</v>
       </c>
       <c r="U189">
-        <v>322600.78907365497</v>
+        <v>285840.01313806901</v>
       </c>
       <c r="V189">
-        <v>339593.14014587703</v>
+        <v>270362.365951046</v>
       </c>
       <c r="W189">
-        <v>237552.172887819</v>
+        <v>226872.584824794</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
@@ -14189,9 +14018,8 @@
       <c r="D190" t="s">
         <v>4</v>
       </c>
-      <c r="E190" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_36</v>
+      <c r="E190" t="s">
+        <v>72</v>
       </c>
       <c r="F190">
         <v>36</v>
@@ -14256,14 +14084,13 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
-      </c>
-      <c r="E191" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E191" t="s">
+        <v>69</v>
       </c>
       <c r="F191">
         <v>12</v>
@@ -14328,14 +14155,13 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>4</v>
-      </c>
-      <c r="E192" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E192" t="s">
+        <v>69</v>
       </c>
       <c r="F192">
         <v>12</v>
@@ -14400,14 +14226,13 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>4</v>
-      </c>
-      <c r="E193" t="str">
-        <f t="shared" si="2"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E193" t="s">
+        <v>69</v>
       </c>
       <c r="F193">
         <v>12</v>
@@ -14472,14 +14297,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
-      </c>
-      <c r="E194" t="str">
-        <f t="shared" ref="E194:E217" si="3">D194&amp;"_"&amp;F194</f>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E194" t="s">
+        <v>69</v>
       </c>
       <c r="F194">
         <v>12</v>
@@ -14549,9 +14373,8 @@
       <c r="D195" t="s">
         <v>4</v>
       </c>
-      <c r="E195" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+      <c r="E195" t="s">
+        <v>73</v>
       </c>
       <c r="F195">
         <v>12</v>
@@ -14616,14 +14439,13 @@
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>4</v>
-      </c>
-      <c r="E196" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E196" t="s">
+        <v>69</v>
       </c>
       <c r="F196">
         <v>12</v>
@@ -14688,14 +14510,13 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>4</v>
-      </c>
-      <c r="E197" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E197" t="s">
+        <v>69</v>
       </c>
       <c r="F197">
         <v>12</v>
@@ -14760,14 +14581,13 @@
         <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
       </c>
-      <c r="E198" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+      <c r="E198" t="s">
+        <v>73</v>
       </c>
       <c r="F198">
         <v>12</v>
@@ -14832,14 +14652,13 @@
         <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>4</v>
-      </c>
-      <c r="E199" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E199" t="s">
+        <v>69</v>
       </c>
       <c r="F199">
         <v>12</v>
@@ -14904,14 +14723,13 @@
         <v>39</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>4</v>
-      </c>
-      <c r="E200" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E200" t="s">
+        <v>69</v>
       </c>
       <c r="F200">
         <v>12</v>
@@ -14981,9 +14799,8 @@
       <c r="D201" t="s">
         <v>4</v>
       </c>
-      <c r="E201" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_36</v>
+      <c r="E201" t="s">
+        <v>72</v>
       </c>
       <c r="F201">
         <v>36</v>
@@ -15048,14 +14865,13 @@
         <v>41</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>4</v>
-      </c>
-      <c r="E202" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E202" t="s">
+        <v>69</v>
       </c>
       <c r="F202">
         <v>12</v>
@@ -15120,14 +14936,13 @@
         <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E203" t="s">
+        <v>69</v>
       </c>
       <c r="F203">
         <v>12</v>
@@ -15192,14 +15007,13 @@
         <v>43</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>4</v>
-      </c>
-      <c r="E204" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E204" t="s">
+        <v>69</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -15264,14 +15078,13 @@
         <v>44</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>4</v>
-      </c>
-      <c r="E205" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E205" t="s">
+        <v>69</v>
       </c>
       <c r="F205">
         <v>12</v>
@@ -15336,14 +15149,13 @@
         <v>45</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>4</v>
-      </c>
-      <c r="E206" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E206" t="s">
+        <v>69</v>
       </c>
       <c r="F206">
         <v>12</v>
@@ -15408,14 +15220,13 @@
         <v>47</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>4</v>
-      </c>
-      <c r="E207" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E207" t="s">
+        <v>69</v>
       </c>
       <c r="F207">
         <v>12</v>
@@ -15485,9 +15296,8 @@
       <c r="D208" t="s">
         <v>46</v>
       </c>
-      <c r="E208" t="str">
-        <f t="shared" si="3"/>
-        <v>Catch22_36</v>
+      <c r="E208" t="s">
+        <v>68</v>
       </c>
       <c r="F208">
         <v>36</v>
@@ -15552,14 +15362,13 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
-      <c r="E209" t="str">
-        <f>D209&amp;"_"&amp;F209</f>
-        <v>RawData_12</v>
+      <c r="E209" t="s">
+        <v>73</v>
       </c>
       <c r="F209">
         <v>12</v>
@@ -15568,49 +15377,52 @@
         <v>65</v>
       </c>
       <c r="H209">
-        <v>799835261772126</v>
+        <v>174043376013186</v>
       </c>
       <c r="I209">
-        <v>36.363636363636303</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J209">
-        <v>-64.007146922898997</v>
+        <v>89.795330000000007</v>
+      </c>
+      <c r="K209">
+        <v>1.05253</v>
       </c>
       <c r="L209">
-        <v>7.0949999999999997E-3</v>
+        <v>4.5062378174302697E-2</v>
       </c>
       <c r="M209">
-        <v>7.0949999999999997E-3</v>
+        <v>6.7269460073646606E-2</v>
       </c>
       <c r="N209">
-        <v>7.0949999999999997E-3</v>
+        <v>9.7340333223643896E-2</v>
       </c>
       <c r="O209">
-        <v>7.0949999999999997E-3</v>
+        <v>-6.8317862374190394E-2</v>
       </c>
       <c r="P209">
-        <v>7.0949999999999997E-3</v>
+        <v>2.51549171134232E-2</v>
       </c>
       <c r="Q209">
-        <v>7.0949999999999997E-3</v>
+        <v>-1.8504983204099899E-2</v>
       </c>
       <c r="R209">
-        <v>7.0949999999999997E-3</v>
+        <v>5.7836789900897398E-3</v>
       </c>
       <c r="S209">
-        <v>7.0949999999999997E-3</v>
+        <v>5.63126409093819E-2</v>
       </c>
       <c r="T209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13801792046417</v>
       </c>
       <c r="U209">
-        <v>2.081521</v>
+        <v>5.6788780637508599E-2</v>
       </c>
       <c r="V209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.19250420247507</v>
       </c>
       <c r="W209">
-        <v>7.0949999999999997E-3</v>
+        <v>1.48686543289263E-2</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
@@ -15621,14 +15433,13 @@
         <v>50</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
       </c>
-      <c r="E210" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+      <c r="E210" t="s">
+        <v>73</v>
       </c>
       <c r="F210">
         <v>12</v>
@@ -15693,14 +15504,13 @@
         <v>51</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>4</v>
-      </c>
-      <c r="E211" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E211" t="s">
+        <v>69</v>
       </c>
       <c r="F211">
         <v>12</v>
@@ -15765,14 +15575,13 @@
         <v>52</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>4</v>
-      </c>
-      <c r="E212" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E212" t="s">
+        <v>69</v>
       </c>
       <c r="F212">
         <v>12</v>
@@ -15842,9 +15651,8 @@
       <c r="D213" t="s">
         <v>4</v>
       </c>
-      <c r="E213" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+      <c r="E213" t="s">
+        <v>73</v>
       </c>
       <c r="F213">
         <v>12</v>
@@ -15914,9 +15722,8 @@
       <c r="D214" t="s">
         <v>4</v>
       </c>
-      <c r="E214" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+      <c r="E214" t="s">
+        <v>73</v>
       </c>
       <c r="F214">
         <v>12</v>
@@ -15981,14 +15788,13 @@
         <v>55</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>4</v>
-      </c>
-      <c r="E215" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_12</v>
+        <v>46</v>
+      </c>
+      <c r="E215" t="s">
+        <v>69</v>
       </c>
       <c r="F215">
         <v>12</v>
@@ -16053,68 +15859,67 @@
         <v>56</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
       </c>
-      <c r="E216" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_84</v>
+      <c r="E216" t="s">
+        <v>72</v>
       </c>
       <c r="F216">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
         <v>65</v>
       </c>
       <c r="H216">
-        <v>1.14307924408113E+16</v>
+        <v>9696244743529110</v>
       </c>
       <c r="I216">
-        <v>18.181819999999998</v>
+        <v>9.0909099999999992</v>
       </c>
       <c r="J216">
-        <v>-74.928659999999994</v>
+        <v>19.51698</v>
       </c>
       <c r="K216">
-        <v>0.41781000000000001</v>
+        <v>0.42707000000000001</v>
       </c>
       <c r="L216">
-        <v>2.4990219215628802</v>
+        <v>2.9544100000000002</v>
       </c>
       <c r="M216">
-        <v>2.49366104324156</v>
+        <v>7.0936440000000003</v>
       </c>
       <c r="N216">
-        <v>3.4138005188299698</v>
+        <v>-2.6646830000000001</v>
       </c>
       <c r="O216">
-        <v>2.3632306185739802</v>
+        <v>-2.6861510000000002</v>
       </c>
       <c r="P216">
-        <v>1.90377330662944</v>
+        <v>-1.6490750000000001</v>
       </c>
       <c r="Q216">
-        <v>4.2196097663889596</v>
+        <v>0.35375699999999999</v>
       </c>
       <c r="R216">
-        <v>4.5013749448415297</v>
+        <v>2.3771E-2</v>
       </c>
       <c r="S216">
-        <v>3.9582981770852999</v>
+        <v>1.474453</v>
       </c>
       <c r="T216">
-        <v>2.1647516171198902</v>
+        <v>1.574284</v>
       </c>
       <c r="U216">
-        <v>1.9660358291175599</v>
+        <v>2.4465970000000001</v>
       </c>
       <c r="V216">
-        <v>3.1189707509802198</v>
+        <v>3.064279</v>
       </c>
       <c r="W216">
-        <v>2.3832032391766198</v>
+        <v>4.1113169999999997</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
@@ -16125,17 +15930,16 @@
         <v>57</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>4</v>
-      </c>
-      <c r="E217" t="str">
-        <f t="shared" si="3"/>
-        <v>RawData_24</v>
+        <v>46</v>
+      </c>
+      <c r="E217" t="s">
+        <v>69</v>
       </c>
       <c r="F217">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G217" t="s">
         <v>65</v>
@@ -16190,7 +15994,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W217"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="ALL" sheetId="11" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALL!$A$1:$W$217</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="74">
   <si>
     <t>etanolhidratado</t>
   </si>
@@ -567,24 +570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4641,13 +4627,14 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
       </c>
-      <c r="E58" t="s">
-        <v>71</v>
+      <c r="E58" t="str">
+        <f t="shared" ref="E58" si="0">D58&amp;"_"&amp;F58</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F58">
         <v>24</v>
@@ -4656,52 +4643,52 @@
         <v>65</v>
       </c>
       <c r="H58">
-        <v>1.7883736699393E+16</v>
+        <v>1.91208943330709E+16</v>
       </c>
       <c r="I58">
-        <v>63.636360000000003</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J58">
-        <v>23.08231</v>
+        <v>4.4676900000000002</v>
       </c>
       <c r="K58">
-        <v>1.2592000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="L58">
-        <v>9.3648579999999999</v>
+        <v>4.76391896568982</v>
       </c>
       <c r="M58">
-        <v>7.1887949999999998</v>
+        <v>6.8815188544535104</v>
       </c>
       <c r="N58">
-        <v>17.241683999999999</v>
+        <v>13.3171644905002</v>
       </c>
       <c r="O58">
-        <v>9.9349340000000002</v>
+        <v>13.3593618887807</v>
       </c>
       <c r="P58">
-        <v>6.8532640000000002</v>
+        <v>12.6160535301102</v>
       </c>
       <c r="Q58">
-        <v>-7.7993259999999998</v>
+        <v>17.954277429300799</v>
       </c>
       <c r="R58">
-        <v>3.9931100000000002</v>
+        <v>15.037785400889399</v>
       </c>
       <c r="S58">
-        <v>4.3563299999999998</v>
+        <v>13.5964398272249</v>
       </c>
       <c r="T58">
-        <v>1.472558</v>
+        <v>3.7815156825699798</v>
       </c>
       <c r="U58">
-        <v>5.861332</v>
+        <v>24.950397310421099</v>
       </c>
       <c r="V58">
-        <v>15.697592</v>
+        <v>7.1241963429868997</v>
       </c>
       <c r="W58">
-        <v>39.83381</v>
+        <v>8.2048444333811794</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5496,64 +5483,65 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ref="E70" si="1">D70&amp;"_"&amp;F70</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
       </c>
       <c r="H70">
-        <v>1409082123112030</v>
+        <v>1426095596604320</v>
       </c>
       <c r="I70">
-        <v>54.545450000000002</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J70">
-        <v>-29.812799999999999</v>
+        <v>4.2207400000000002</v>
       </c>
       <c r="K70">
-        <v>1.1342399999999999</v>
+        <v>0.77476</v>
       </c>
       <c r="L70">
-        <v>18.362546999999999</v>
+        <v>8.9671210000000006</v>
       </c>
       <c r="M70">
-        <v>2.9055749999999998</v>
+        <v>3.0900059999999998</v>
       </c>
       <c r="N70">
-        <v>4.7628320000000004</v>
+        <v>2.528708</v>
       </c>
       <c r="O70">
-        <v>-0.27858100000000002</v>
+        <v>10.832610000000001</v>
       </c>
       <c r="P70">
-        <v>3.7545489999999999</v>
+        <v>3.7998820000000002</v>
       </c>
       <c r="Q70">
-        <v>-0.27858100000000002</v>
+        <v>3.7173379999999998</v>
       </c>
       <c r="R70">
-        <v>18.238529</v>
+        <v>7.2887320000000004</v>
       </c>
       <c r="S70">
-        <v>19.887070999999999</v>
+        <v>12.301888999999999</v>
       </c>
       <c r="T70">
-        <v>38.036157000000003</v>
+        <v>12.929221999999999</v>
       </c>
       <c r="U70">
-        <v>14.937411000000001</v>
+        <v>13.220876000000001</v>
       </c>
       <c r="V70">
-        <v>0.23765900000000001</v>
+        <v>20.226089999999999</v>
       </c>
       <c r="W70">
-        <v>29.094707</v>
+        <v>11.520474999999999</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -5635,13 +5623,14 @@
         <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="E72" t="str">
+        <f>D72&amp;"_"&amp;F72</f>
+        <v>RawData_36</v>
       </c>
       <c r="F72">
         <v>36</v>
@@ -5650,52 +5639,52 @@
         <v>65</v>
       </c>
       <c r="H72">
-        <v>846471440862640</v>
+        <v>5761257970811370</v>
       </c>
       <c r="I72">
-        <v>45.454549999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J72">
-        <v>107.48063</v>
+        <v>-10.98025</v>
       </c>
       <c r="K72">
-        <v>1.6435299999999999</v>
+        <v>0.92029000000000005</v>
       </c>
       <c r="L72">
-        <v>-9.0073779999999992</v>
+        <v>63.890985000000001</v>
       </c>
       <c r="M72">
-        <v>-6.9176849999999996</v>
+        <v>27.645797000000002</v>
       </c>
       <c r="N72">
-        <v>-18.779765999999999</v>
+        <v>28.419529000000001</v>
       </c>
       <c r="O72">
-        <v>-11.773148000000001</v>
+        <v>36.229505000000003</v>
       </c>
       <c r="P72">
-        <v>-20.101189999999999</v>
+        <v>30.494178000000002</v>
       </c>
       <c r="Q72">
-        <v>7.8619000000000003</v>
+        <v>28.871023000000001</v>
       </c>
       <c r="R72">
-        <v>2.2554530000000002</v>
+        <v>15.351075</v>
       </c>
       <c r="S72">
-        <v>-3.3989999999999999E-2</v>
+        <v>18.423062000000002</v>
       </c>
       <c r="T72">
-        <v>-1.009692</v>
+        <v>9.1032510000000002</v>
       </c>
       <c r="U72">
-        <v>5.4821850000000003</v>
+        <v>8.3115609999999993</v>
       </c>
       <c r="V72">
-        <v>13.608976</v>
+        <v>24.665904999999999</v>
       </c>
       <c r="W72">
-        <v>16.222593</v>
+        <v>37.823692000000001</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -5848,13 +5837,14 @@
         <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="E75" t="str">
+        <f>D75&amp;"_"&amp;F75</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F75">
         <v>36</v>
@@ -5863,52 +5853,52 @@
         <v>65</v>
       </c>
       <c r="H75">
-        <v>1.04891</v>
+        <v>1.65541</v>
       </c>
       <c r="I75">
-        <v>72.727270000000004</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J75">
-        <v>31.714469999999999</v>
+        <v>63.304070000000003</v>
       </c>
       <c r="K75">
-        <v>0.85236999999999996</v>
+        <v>1.18431</v>
       </c>
       <c r="L75">
-        <v>10.56921</v>
+        <v>9.8710229999999992</v>
       </c>
       <c r="M75">
-        <v>9.9386109999999999</v>
+        <v>6.7966090000000001</v>
       </c>
       <c r="N75">
-        <v>-0.15098200000000001</v>
+        <v>2.558335</v>
       </c>
       <c r="O75">
-        <v>-0.15098200000000001</v>
+        <v>0.139016</v>
       </c>
       <c r="P75">
-        <v>0.22838700000000001</v>
+        <v>0.11015999999999999</v>
       </c>
       <c r="Q75">
-        <v>7.1296679999999997</v>
+        <v>2.7771189999999999</v>
       </c>
       <c r="R75">
-        <v>5.7443669999999996</v>
+        <v>6.1155299999999997</v>
       </c>
       <c r="S75">
-        <v>7.3677820000000001</v>
+        <v>1.6461939999999999</v>
       </c>
       <c r="T75">
-        <v>7.6169950000000002</v>
+        <v>5.0071180000000002</v>
       </c>
       <c r="U75">
-        <v>16.081154999999999</v>
+        <v>5.0071180000000002</v>
       </c>
       <c r="V75">
-        <v>0.31717499999999998</v>
+        <v>2.7771189999999999</v>
       </c>
       <c r="W75">
-        <v>17.001325999999999</v>
+        <v>1.0954729999999999</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6203,13 +6193,14 @@
         <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="E80" t="str">
+        <f>D80&amp;"_"&amp;F80</f>
+        <v>RawData_36</v>
       </c>
       <c r="F80">
         <v>36</v>
@@ -6218,52 +6209,52 @@
         <v>65</v>
       </c>
       <c r="H80">
-        <v>1529820799360060</v>
+        <v>1801682294728140</v>
       </c>
       <c r="I80">
-        <v>18.181819999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J80">
-        <v>87.846440000000001</v>
+        <v>48.725180000000002</v>
       </c>
       <c r="K80">
-        <v>0.99692000000000003</v>
+        <v>0.81691999999999998</v>
       </c>
       <c r="L80">
-        <v>0.68421165836027997</v>
+        <v>2.7969780000000002</v>
       </c>
       <c r="M80">
-        <v>0.89352394966308202</v>
+        <v>1.162506</v>
       </c>
       <c r="N80">
-        <v>0.56320163077669905</v>
+        <v>1.6909970000000001</v>
       </c>
       <c r="O80">
-        <v>-0.49394400778289599</v>
+        <v>1.8739250000000001</v>
       </c>
       <c r="P80">
-        <v>-0.73545258495982102</v>
+        <v>1.002936</v>
       </c>
       <c r="Q80">
-        <v>-0.90045717757369603</v>
+        <v>0.39985399999999999</v>
       </c>
       <c r="R80">
-        <v>-3.0316110290029501E-2</v>
+        <v>1.808508</v>
       </c>
       <c r="S80">
-        <v>1.0528837390186001</v>
+        <v>0.361425</v>
       </c>
       <c r="T80">
-        <v>-4.7785318758552997E-3</v>
+        <v>1.5578160000000001</v>
       </c>
       <c r="U80">
-        <v>-0.33706853448322199</v>
+        <v>0.65717199999999998</v>
       </c>
       <c r="V80">
-        <v>2.5848805624282001</v>
+        <v>1.2291510000000001</v>
       </c>
       <c r="W80">
-        <v>0.65839538743469905</v>
+        <v>2.060492</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -8830,67 +8821,68 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
-      <c r="E117" t="s">
-        <v>72</v>
+      <c r="E117" t="str">
+        <f>D117&amp;"_"&amp;F117</f>
+        <v>RawData_12</v>
       </c>
       <c r="F117">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
         <v>65</v>
       </c>
       <c r="H117">
-        <v>1.3228957387451101E+17</v>
+        <v>1.9427094395995002E+17</v>
       </c>
       <c r="I117">
-        <v>45.454549999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J117">
-        <v>85.984579999999994</v>
+        <v>-35.169919999999998</v>
       </c>
       <c r="K117">
-        <v>1.75387</v>
+        <v>0.66129000000000004</v>
       </c>
       <c r="L117">
-        <v>-3515.696289</v>
+        <v>766.06233299999997</v>
       </c>
       <c r="M117">
-        <v>-1981.1103519999999</v>
+        <v>374.76171799999997</v>
       </c>
       <c r="N117">
-        <v>-646.61425799999995</v>
+        <v>208.40535800000001</v>
       </c>
       <c r="O117">
-        <v>-2070.060547</v>
+        <v>814.36927700000001</v>
       </c>
       <c r="P117">
-        <v>2084.1899410000001</v>
+        <v>551.31263100000001</v>
       </c>
       <c r="Q117">
-        <v>352.49023399999999</v>
+        <v>517.64178000000004</v>
       </c>
       <c r="R117">
-        <v>824.08007799999996</v>
+        <v>1585.1382599999999</v>
       </c>
       <c r="S117">
-        <v>249.18554700000001</v>
+        <v>1494.2966289999999</v>
       </c>
       <c r="T117">
-        <v>2261.4975589999999</v>
+        <v>3791.049833</v>
       </c>
       <c r="U117">
-        <v>-1929.0517580000001</v>
+        <v>2351.775091</v>
       </c>
       <c r="V117">
-        <v>2721.1376949999999</v>
+        <v>2112.3208570000002</v>
       </c>
       <c r="W117">
-        <v>3389.1762699999999</v>
+        <v>2206.5881909999998</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
@@ -9114,67 +9106,68 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" ref="E121" si="2">D121&amp;"_"&amp;F121</f>
+        <v>RawData_12</v>
       </c>
       <c r="F121">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
         <v>65</v>
       </c>
       <c r="H121">
-        <v>5744621906473850</v>
+        <v>2.82062253608064E+16</v>
       </c>
       <c r="I121">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J121">
-        <v>51.621879999999997</v>
+        <v>13.204510000000001</v>
       </c>
       <c r="K121">
-        <v>0.61309000000000002</v>
+        <v>0.77051999999999998</v>
       </c>
       <c r="L121">
-        <v>366.94281755061701</v>
+        <v>873.33262100000002</v>
       </c>
       <c r="M121">
-        <v>181.73741659307001</v>
+        <v>373.02698500000002</v>
       </c>
       <c r="N121">
-        <v>165.85072973968499</v>
+        <v>205.29855000000001</v>
       </c>
       <c r="O121">
-        <v>337.61097336296399</v>
+        <v>474.84681</v>
       </c>
       <c r="P121">
-        <v>155.660872211266</v>
+        <v>262.59446300000002</v>
       </c>
       <c r="Q121">
-        <v>152.965746380289</v>
+        <v>287.087536</v>
       </c>
       <c r="R121">
-        <v>85.795325237302706</v>
+        <v>95.412638000000001</v>
       </c>
       <c r="S121">
-        <v>-2.9676775713799</v>
+        <v>207.852237</v>
       </c>
       <c r="T121">
-        <v>35.833799294205001</v>
+        <v>235.83931999999999</v>
       </c>
       <c r="U121">
-        <v>-15.306747621960101</v>
+        <v>75.156481999999997</v>
       </c>
       <c r="V121">
-        <v>166.174052866219</v>
+        <v>242.96820199999999</v>
       </c>
       <c r="W121">
-        <v>322.85889531173399</v>
+        <v>170.754133</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
@@ -9330,10 +9323,11 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>46</v>
-      </c>
-      <c r="E124" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="E124" t="str">
+        <f>D124&amp;"_"&amp;F124</f>
+        <v>RawData_12</v>
       </c>
       <c r="F124">
         <v>12</v>
@@ -9342,52 +9336,52 @@
         <v>65</v>
       </c>
       <c r="H124">
-        <v>2.80176892037846E+16</v>
+        <v>6.35888296810176E+16</v>
       </c>
       <c r="I124">
         <v>27.272729999999999</v>
       </c>
       <c r="J124">
-        <v>97.113600000000005</v>
+        <v>95.085880000000003</v>
       </c>
       <c r="K124">
-        <v>0.92356000000000005</v>
+        <v>0.95262999999999998</v>
       </c>
       <c r="L124">
-        <v>4.6343080174596301</v>
+        <v>25.575860728853598</v>
       </c>
       <c r="M124">
-        <v>-4.7774406944234498</v>
+        <v>30.1501115105705</v>
       </c>
       <c r="N124">
-        <v>-13.943978143629799</v>
+        <v>25.947043756233398</v>
       </c>
       <c r="O124">
-        <v>-7.3817526047027204</v>
+        <v>11.462400542097701</v>
       </c>
       <c r="P124">
-        <v>-20.223593183392399</v>
+        <v>11.8327039280392</v>
       </c>
       <c r="Q124">
-        <v>-10.898168972830099</v>
+        <v>20.3394716833091</v>
       </c>
       <c r="R124">
-        <v>4.6218986058897604</v>
+        <v>32.621615691548897</v>
       </c>
       <c r="S124">
-        <v>21.630066127039001</v>
+        <v>32.883182498637602</v>
       </c>
       <c r="T124">
-        <v>46.791730682000903</v>
+        <v>26.781638118087798</v>
       </c>
       <c r="U124">
-        <v>63.446783400650801</v>
+        <v>25.0730733115467</v>
       </c>
       <c r="V124">
-        <v>79.864932921417804</v>
+        <v>38.552753260220697</v>
       </c>
       <c r="W124">
-        <v>8.1729805503170905</v>
+        <v>11.505470933297801</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
@@ -10042,62 +10036,63 @@
       <c r="D134" t="s">
         <v>4</v>
       </c>
-      <c r="E134" t="s">
-        <v>72</v>
+      <c r="E134" t="str">
+        <f t="shared" ref="E134" si="3">D134&amp;"_"&amp;F134</f>
+        <v>RawData_24</v>
       </c>
       <c r="F134">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G134" t="s">
         <v>65</v>
       </c>
       <c r="H134">
-        <v>656809601232630</v>
+        <v>1143217900230920</v>
       </c>
       <c r="I134">
-        <v>45.454549999999998</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J134">
-        <v>11.03736</v>
+        <v>54.1935</v>
       </c>
       <c r="K134">
-        <v>1.13089</v>
+        <v>0.99385000000000001</v>
       </c>
       <c r="L134">
-        <v>13.7831967961302</v>
+        <v>7.4510580548049798</v>
       </c>
       <c r="M134">
-        <v>1.7500923413031799</v>
+        <v>3.0461444043753398</v>
       </c>
       <c r="N134">
-        <v>-6.3918637151773501</v>
+        <v>0.142073743594508</v>
       </c>
       <c r="O134">
-        <v>0.38470713248456401</v>
+        <v>2.4328019032346502</v>
       </c>
       <c r="P134">
-        <v>29.366326199554099</v>
+        <v>14.2922274796789</v>
       </c>
       <c r="Q134">
-        <v>31.8963688926465</v>
+        <v>14.0012458260397</v>
       </c>
       <c r="R134">
-        <v>35.2234438223403</v>
+        <v>15.8184905273837</v>
       </c>
       <c r="S134">
-        <v>33.937601582805399</v>
+        <v>15.7681636942553</v>
       </c>
       <c r="T134">
-        <v>22.975188243808699</v>
+        <v>11.396410736711299</v>
       </c>
       <c r="U134">
-        <v>43.2447939297112</v>
+        <v>18.053616163714999</v>
       </c>
       <c r="V134">
-        <v>30.3464176579579</v>
+        <v>15.1887914798744</v>
       </c>
       <c r="W134">
-        <v>-4.2882055320113999</v>
+        <v>1.98225095540341</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
@@ -10182,10 +10177,11 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" ref="E136" si="4">D136&amp;"_"&amp;F136</f>
+        <v>RawData_12</v>
       </c>
       <c r="F136">
         <v>12</v>
@@ -10194,52 +10190,52 @@
         <v>65</v>
       </c>
       <c r="H136">
-        <v>2.8150214183814E+16</v>
+        <v>4.1300915801412704E+16</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>-7.2880134327999998E+23</v>
+        <v>-1.10047746385999E+24</v>
       </c>
       <c r="K136">
-        <v>0.60655999999999999</v>
+        <v>0.88992000000000004</v>
       </c>
       <c r="L136">
-        <v>15.174284986718201</v>
+        <v>10.734066536320899</v>
       </c>
       <c r="M136">
-        <v>7.8274734293911301</v>
+        <v>5.5293556874180902</v>
       </c>
       <c r="N136">
-        <v>7.93647144358318</v>
+        <v>8.2291555198485309</v>
       </c>
       <c r="O136">
-        <v>6.5722091329306203</v>
+        <v>9.1026082748203496</v>
       </c>
       <c r="P136">
-        <v>13.1277330479874</v>
+        <v>15.106671834839201</v>
       </c>
       <c r="Q136">
-        <v>9.7624834293703202</v>
+        <v>13.4810997500142</v>
       </c>
       <c r="R136">
-        <v>4.43430510116126</v>
+        <v>10.2447020331393</v>
       </c>
       <c r="S136">
-        <v>4.4268046605185001</v>
+        <v>7.0778617336749603</v>
       </c>
       <c r="T136">
-        <v>2.1249461773279101</v>
+        <v>7.6239463189301802</v>
       </c>
       <c r="U136">
-        <v>-0.86276734524014498</v>
+        <v>5.4758639769369202</v>
       </c>
       <c r="V136">
-        <v>2.5569748719946301</v>
+        <v>10.9291015092479</v>
       </c>
       <c r="W136">
-        <v>-0.20078461347977</v>
+        <v>6.5133132135235696</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
@@ -15362,13 +15358,14 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
       </c>
-      <c r="E209" t="s">
-        <v>73</v>
+      <c r="E209" t="str">
+        <f>D209&amp;"_"&amp;F209</f>
+        <v>RawData_12</v>
       </c>
       <c r="F209">
         <v>12</v>
@@ -15377,52 +15374,52 @@
         <v>65</v>
       </c>
       <c r="H209">
-        <v>174043376013186</v>
+        <v>799834039621435</v>
       </c>
       <c r="I209">
-        <v>36.363639999999997</v>
+        <v>0</v>
       </c>
       <c r="J209">
-        <v>89.795330000000007</v>
+        <v>64.007230000000007</v>
       </c>
       <c r="K209">
-        <v>1.05253</v>
+        <v>1.3504700000000001</v>
       </c>
       <c r="L209">
-        <v>4.5062378174302697E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="M209">
-        <v>6.7269460073646606E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="N209">
-        <v>9.7340333223643896E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="O209">
-        <v>-6.8317862374190394E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="P209">
-        <v>2.51549171134232E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="Q209">
-        <v>-1.8504983204099899E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="R209">
-        <v>5.7836789900897398E-3</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="S209">
-        <v>5.63126409093819E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="T209">
-        <v>0.13801792046417</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="U209">
-        <v>5.6788780637508599E-2</v>
+        <v>2.081521</v>
       </c>
       <c r="V209">
-        <v>0.19250420247507</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="W209">
-        <v>1.48686543289263E-2</v>
+        <v>7.0949999999999997E-3</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
@@ -15859,13 +15856,14 @@
         <v>56</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
       </c>
-      <c r="E216" t="s">
-        <v>72</v>
+      <c r="E216" t="str">
+        <f>D216&amp;"_"&amp;F216</f>
+        <v>RawData_36</v>
       </c>
       <c r="F216">
         <v>36</v>
@@ -15874,52 +15872,52 @@
         <v>65</v>
       </c>
       <c r="H216">
-        <v>9696244743529110</v>
+        <v>2.23470865309937E+16</v>
       </c>
       <c r="I216">
         <v>9.0909099999999992</v>
       </c>
       <c r="J216">
-        <v>19.51698</v>
+        <v>-239.83318</v>
       </c>
       <c r="K216">
-        <v>0.42707000000000001</v>
+        <v>0.64697000000000005</v>
       </c>
       <c r="L216">
-        <v>2.9544100000000002</v>
+        <v>6.4352819999999999</v>
       </c>
       <c r="M216">
-        <v>7.0936440000000003</v>
+        <v>3.540232</v>
       </c>
       <c r="N216">
-        <v>-2.6646830000000001</v>
+        <v>4.6286870000000002</v>
       </c>
       <c r="O216">
-        <v>-2.6861510000000002</v>
+        <v>3.215039</v>
       </c>
       <c r="P216">
-        <v>-1.6490750000000001</v>
+        <v>7.4512530000000003</v>
       </c>
       <c r="Q216">
-        <v>0.35375699999999999</v>
+        <v>5.995266</v>
       </c>
       <c r="R216">
-        <v>2.3771E-2</v>
+        <v>4.8064179999999999</v>
       </c>
       <c r="S216">
-        <v>1.474453</v>
+        <v>7.0474040000000002</v>
       </c>
       <c r="T216">
-        <v>1.574284</v>
+        <v>5.2069979999999996</v>
       </c>
       <c r="U216">
-        <v>2.4465970000000001</v>
+        <v>5.2006649999999999</v>
       </c>
       <c r="V216">
-        <v>3.064279</v>
+        <v>9.9382999999999999</v>
       </c>
       <c r="W216">
-        <v>4.1113169999999997</v>
+        <v>4.501093</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
@@ -15994,6 +15992,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W217"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="70">
   <si>
     <t>etanolhidratado</t>
   </si>
@@ -233,22 +233,10 @@
     <t>MLP</t>
   </si>
   <si>
-    <t>Catch22_36</t>
+    <t>TsFeatures</t>
   </si>
   <si>
-    <t>Catch22_12</t>
-  </si>
-  <si>
-    <t>RawData_24</t>
-  </si>
-  <si>
-    <t>Catch22_24</t>
-  </si>
-  <si>
-    <t>RawData_36</t>
-  </si>
-  <si>
-    <t>RawData_12</t>
+    <t>TsCesium</t>
   </si>
 </sst>
 </file>
@@ -571,6 +559,20 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -656,8 +658,9 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
+      <c r="E2" t="str">
+        <f>D2&amp;"_"&amp;F2</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F2">
         <v>36</v>
@@ -727,8 +730,9 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
+      <c r="E3" t="str">
+        <f>D3&amp;"_"&amp;F3</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -793,13 +797,14 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="E4" t="str">
+        <f>D4&amp;"_"&amp;F4</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -808,52 +813,52 @@
         <v>65</v>
       </c>
       <c r="H4">
-        <v>0.15615000000000001</v>
+        <v>0.14262</v>
       </c>
       <c r="I4">
-        <v>90.909090000000006</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J4">
-        <v>15.86473</v>
+        <v>14.700749999999999</v>
       </c>
       <c r="K4">
-        <v>0.55725999999999998</v>
+        <v>0.51637</v>
       </c>
       <c r="L4">
-        <v>12407.222318033</v>
+        <v>13178.449219</v>
       </c>
       <c r="M4">
-        <v>12090.4236537591</v>
+        <v>13304.166015999999</v>
       </c>
       <c r="N4">
-        <v>12200.8827625627</v>
+        <v>13031.169921999999</v>
       </c>
       <c r="O4">
-        <v>12188.7570198879</v>
+        <v>12750.537109000001</v>
       </c>
       <c r="P4">
-        <v>12307.461489044499</v>
+        <v>12713.353515999999</v>
       </c>
       <c r="Q4">
-        <v>12875.190535341801</v>
+        <v>13026.393555000001</v>
       </c>
       <c r="R4">
-        <v>12634.0480964298</v>
+        <v>12096.298828000001</v>
       </c>
       <c r="S4">
-        <v>13074.943036808099</v>
+        <v>12072.972656</v>
       </c>
       <c r="T4">
-        <v>12628.8414769583</v>
+        <v>12114.375977</v>
       </c>
       <c r="U4">
-        <v>13089.5130952946</v>
+        <v>12115.219727</v>
       </c>
       <c r="V4">
-        <v>11392.929283773299</v>
+        <v>12113.755859000001</v>
       </c>
       <c r="W4">
-        <v>11685.595830623201</v>
+        <v>12114.599609000001</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -869,8 +874,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
-        <v>71</v>
+      <c r="E5" t="str">
+        <f>D5&amp;"_"&amp;F5</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -940,8 +946,9 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>72</v>
+      <c r="E6" t="str">
+        <f>D6&amp;"_"&amp;F6</f>
+        <v>RawData_36</v>
       </c>
       <c r="F6">
         <v>36</v>
@@ -1011,8 +1018,9 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>71</v>
+      <c r="E7" t="str">
+        <f>D7&amp;"_"&amp;F7</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F7">
         <v>24</v>
@@ -1082,8 +1090,9 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
+      <c r="E8" t="str">
+        <f>D8&amp;"_"&amp;F8</f>
+        <v>RawData_36</v>
       </c>
       <c r="F8">
         <v>36</v>
@@ -1153,8 +1162,9 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>69</v>
+      <c r="E9" t="str">
+        <f>D9&amp;"_"&amp;F9</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F9">
         <v>12</v>
@@ -1224,8 +1234,9 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>72</v>
+      <c r="E10" t="str">
+        <f>D10&amp;"_"&amp;F10</f>
+        <v>RawData_36</v>
       </c>
       <c r="F10">
         <v>36</v>
@@ -1295,8 +1306,9 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
+      <c r="E11" t="str">
+        <f>D11&amp;"_"&amp;F11</f>
+        <v>RawData_24</v>
       </c>
       <c r="F11">
         <v>24</v>
@@ -1366,8 +1378,9 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>72</v>
+      <c r="E12" t="str">
+        <f>D12&amp;"_"&amp;F12</f>
+        <v>RawData_36</v>
       </c>
       <c r="F12">
         <v>36</v>
@@ -1437,8 +1450,9 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>71</v>
+      <c r="E13" t="str">
+        <f>D13&amp;"_"&amp;F13</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F13">
         <v>24</v>
@@ -1508,8 +1522,9 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>72</v>
+      <c r="E14" t="str">
+        <f>D14&amp;"_"&amp;F14</f>
+        <v>RawData_36</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -1579,8 +1594,9 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
-        <v>70</v>
+      <c r="E15" t="str">
+        <f>D15&amp;"_"&amp;F15</f>
+        <v>RawData_24</v>
       </c>
       <c r="F15">
         <v>24</v>
@@ -1650,8 +1666,9 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
-        <v>68</v>
+      <c r="E16" t="str">
+        <f>D16&amp;"_"&amp;F16</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F16">
         <v>36</v>
@@ -1721,8 +1738,9 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
-        <v>72</v>
+      <c r="E17" t="str">
+        <f>D17&amp;"_"&amp;F17</f>
+        <v>RawData_36</v>
       </c>
       <c r="F17">
         <v>36</v>
@@ -1792,8 +1810,9 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>72</v>
+      <c r="E18" t="str">
+        <f>D18&amp;"_"&amp;F18</f>
+        <v>RawData_36</v>
       </c>
       <c r="F18">
         <v>36</v>
@@ -1863,8 +1882,9 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s">
-        <v>69</v>
+      <c r="E19" t="str">
+        <f>D19&amp;"_"&amp;F19</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1934,8 +1954,9 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
-        <v>68</v>
+      <c r="E20" t="str">
+        <f>D20&amp;"_"&amp;F20</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F20">
         <v>36</v>
@@ -2005,8 +2026,9 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
-        <v>68</v>
+      <c r="E21" t="str">
+        <f>D21&amp;"_"&amp;F21</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F21">
         <v>36</v>
@@ -2076,8 +2098,9 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
-        <v>72</v>
+      <c r="E22" t="str">
+        <f>D22&amp;"_"&amp;F22</f>
+        <v>RawData_36</v>
       </c>
       <c r="F22">
         <v>36</v>
@@ -2142,13 +2165,14 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="E23" t="str">
+        <f>D23&amp;"_"&amp;F23</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F23">
         <v>24</v>
@@ -2157,52 +2181,52 @@
         <v>65</v>
       </c>
       <c r="H23">
-        <v>0.22026000000000001</v>
+        <v>0.12825</v>
       </c>
       <c r="I23">
-        <v>36.363639999999997</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J23">
-        <v>20.05667</v>
+        <v>12.56537</v>
       </c>
       <c r="K23">
-        <v>0.71189000000000002</v>
+        <v>0.45523999999999998</v>
       </c>
       <c r="L23">
-        <v>180.42453599999999</v>
+        <v>251.03248300000001</v>
       </c>
       <c r="M23">
-        <v>151.852521</v>
+        <v>259.38375100000002</v>
       </c>
       <c r="N23">
-        <v>176.09196600000001</v>
+        <v>260.66867300000001</v>
       </c>
       <c r="O23">
-        <v>213.10827900000001</v>
+        <v>260.66867300000001</v>
       </c>
       <c r="P23">
-        <v>237.274675</v>
+        <v>260.66867300000001</v>
       </c>
       <c r="Q23">
-        <v>238.734241</v>
+        <v>259.26547299999999</v>
       </c>
       <c r="R23">
-        <v>234.795818</v>
+        <v>260.55039599999998</v>
       </c>
       <c r="S23">
-        <v>263.921584</v>
+        <v>260.55039599999998</v>
       </c>
       <c r="T23">
-        <v>306.12769800000001</v>
+        <v>260.55039599999998</v>
       </c>
       <c r="U23">
-        <v>298.84266600000001</v>
+        <v>260.55039599999998</v>
       </c>
       <c r="V23">
-        <v>292.22512999999998</v>
+        <v>256.77165600000001</v>
       </c>
       <c r="W23">
-        <v>246.61309600000001</v>
+        <v>255.48214400000001</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2218,8 +2242,9 @@
       <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="s">
-        <v>71</v>
+      <c r="E24" t="str">
+        <f>D24&amp;"_"&amp;F24</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F24">
         <v>24</v>
@@ -2289,8 +2314,9 @@
       <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" t="s">
-        <v>68</v>
+      <c r="E25" t="str">
+        <f>D25&amp;"_"&amp;F25</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F25">
         <v>36</v>
@@ -2360,8 +2386,9 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
-        <v>72</v>
+      <c r="E26" t="str">
+        <f>D26&amp;"_"&amp;F26</f>
+        <v>RawData_36</v>
       </c>
       <c r="F26">
         <v>36</v>
@@ -2431,8 +2458,9 @@
       <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>72</v>
+      <c r="E27" t="str">
+        <f>D27&amp;"_"&amp;F27</f>
+        <v>RawData_36</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -2502,8 +2530,9 @@
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>72</v>
+      <c r="E28" t="str">
+        <f>D28&amp;"_"&amp;F28</f>
+        <v>RawData_36</v>
       </c>
       <c r="F28">
         <v>36</v>
@@ -2573,8 +2602,9 @@
       <c r="D29" t="s">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
-        <v>70</v>
+      <c r="E29" t="str">
+        <f>D29&amp;"_"&amp;F29</f>
+        <v>RawData_24</v>
       </c>
       <c r="F29">
         <v>24</v>
@@ -2644,8 +2674,9 @@
       <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="s">
-        <v>68</v>
+      <c r="E30" t="str">
+        <f>D30&amp;"_"&amp;F30</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -2715,8 +2746,9 @@
       <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>70</v>
+      <c r="E31" t="str">
+        <f>D31&amp;"_"&amp;F31</f>
+        <v>RawData_24</v>
       </c>
       <c r="F31">
         <v>24</v>
@@ -2786,8 +2818,9 @@
       <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
-        <v>70</v>
+      <c r="E32" t="str">
+        <f>D32&amp;"_"&amp;F32</f>
+        <v>RawData_24</v>
       </c>
       <c r="F32">
         <v>24</v>
@@ -2857,8 +2890,9 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
-        <v>73</v>
+      <c r="E33" t="str">
+        <f>D33&amp;"_"&amp;F33</f>
+        <v>RawData_12</v>
       </c>
       <c r="F33">
         <v>12</v>
@@ -2928,8 +2962,9 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E34" t="s">
-        <v>73</v>
+      <c r="E34" t="str">
+        <f>D34&amp;"_"&amp;F34</f>
+        <v>RawData_12</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -2999,8 +3034,9 @@
       <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="E35" t="s">
-        <v>68</v>
+      <c r="E35" t="str">
+        <f>D35&amp;"_"&amp;F35</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F35">
         <v>36</v>
@@ -3070,8 +3106,9 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
-        <v>72</v>
+      <c r="E36" t="str">
+        <f>D36&amp;"_"&amp;F36</f>
+        <v>RawData_36</v>
       </c>
       <c r="F36">
         <v>36</v>
@@ -3141,8 +3178,9 @@
       <c r="D37" t="s">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
-        <v>70</v>
+      <c r="E37" t="str">
+        <f>D37&amp;"_"&amp;F37</f>
+        <v>RawData_24</v>
       </c>
       <c r="F37">
         <v>24</v>
@@ -3212,8 +3250,9 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
-        <v>72</v>
+      <c r="E38" t="str">
+        <f>D38&amp;"_"&amp;F38</f>
+        <v>RawData_36</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -3283,8 +3322,9 @@
       <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="E39" t="s">
-        <v>68</v>
+      <c r="E39" t="str">
+        <f>D39&amp;"_"&amp;F39</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F39">
         <v>36</v>
@@ -3354,8 +3394,9 @@
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
-        <v>70</v>
+      <c r="E40" t="str">
+        <f>D40&amp;"_"&amp;F40</f>
+        <v>RawData_24</v>
       </c>
       <c r="F40">
         <v>24</v>
@@ -3425,8 +3466,9 @@
       <c r="D41" t="s">
         <v>46</v>
       </c>
-      <c r="E41" t="s">
-        <v>68</v>
+      <c r="E41" t="str">
+        <f>D41&amp;"_"&amp;F41</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F41">
         <v>36</v>
@@ -3496,8 +3538,9 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
-        <v>72</v>
+      <c r="E42" t="str">
+        <f>D42&amp;"_"&amp;F42</f>
+        <v>RawData_36</v>
       </c>
       <c r="F42">
         <v>36</v>
@@ -3567,8 +3610,9 @@
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>70</v>
+      <c r="E43" t="str">
+        <f>D43&amp;"_"&amp;F43</f>
+        <v>RawData_24</v>
       </c>
       <c r="F43">
         <v>24</v>
@@ -3638,8 +3682,9 @@
       <c r="D44" t="s">
         <v>46</v>
       </c>
-      <c r="E44" t="s">
-        <v>71</v>
+      <c r="E44" t="str">
+        <f>D44&amp;"_"&amp;F44</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F44">
         <v>24</v>
@@ -3709,8 +3754,9 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
-        <v>70</v>
+      <c r="E45" t="str">
+        <f>D45&amp;"_"&amp;F45</f>
+        <v>RawData_24</v>
       </c>
       <c r="F45">
         <v>24</v>
@@ -3780,8 +3826,9 @@
       <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
-        <v>72</v>
+      <c r="E46" t="str">
+        <f>D46&amp;"_"&amp;F46</f>
+        <v>RawData_36</v>
       </c>
       <c r="F46">
         <v>36</v>
@@ -3851,8 +3898,9 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
-        <v>72</v>
+      <c r="E47" t="str">
+        <f>D47&amp;"_"&amp;F47</f>
+        <v>RawData_36</v>
       </c>
       <c r="F47">
         <v>36</v>
@@ -3922,8 +3970,9 @@
       <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
-        <v>70</v>
+      <c r="E48" t="str">
+        <f>D48&amp;"_"&amp;F48</f>
+        <v>RawData_24</v>
       </c>
       <c r="F48">
         <v>24</v>
@@ -3993,8 +4042,9 @@
       <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
-        <v>73</v>
+      <c r="E49" t="str">
+        <f>D49&amp;"_"&amp;F49</f>
+        <v>RawData_12</v>
       </c>
       <c r="F49">
         <v>12</v>
@@ -4064,8 +4114,9 @@
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
-        <v>70</v>
+      <c r="E50" t="str">
+        <f>D50&amp;"_"&amp;F50</f>
+        <v>RawData_24</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4135,8 +4186,9 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
-        <v>73</v>
+      <c r="E51" t="str">
+        <f>D51&amp;"_"&amp;F51</f>
+        <v>RawData_12</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -4206,8 +4258,9 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" t="s">
-        <v>73</v>
+      <c r="E52" t="str">
+        <f>D52&amp;"_"&amp;F52</f>
+        <v>RawData_12</v>
       </c>
       <c r="F52">
         <v>12</v>
@@ -4277,8 +4330,9 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
-        <v>70</v>
+      <c r="E53" t="str">
+        <f>D53&amp;"_"&amp;F53</f>
+        <v>RawData_24</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4348,8 +4402,9 @@
       <c r="D54" t="s">
         <v>46</v>
       </c>
-      <c r="E54" t="s">
-        <v>69</v>
+      <c r="E54" t="str">
+        <f>D54&amp;"_"&amp;F54</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F54">
         <v>12</v>
@@ -4419,8 +4474,9 @@
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" t="s">
-        <v>72</v>
+      <c r="E55" t="str">
+        <f>D55&amp;"_"&amp;F55</f>
+        <v>RawData_36</v>
       </c>
       <c r="F55">
         <v>36</v>
@@ -4490,8 +4546,9 @@
       <c r="D56" t="s">
         <v>46</v>
       </c>
-      <c r="E56" t="s">
-        <v>69</v>
+      <c r="E56" t="str">
+        <f>D56&amp;"_"&amp;F56</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -4561,8 +4618,9 @@
       <c r="D57" t="s">
         <v>46</v>
       </c>
-      <c r="E57" t="s">
-        <v>69</v>
+      <c r="E57" t="str">
+        <f>D57&amp;"_"&amp;F57</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F57">
         <v>12</v>
@@ -4627,68 +4685,68 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" ref="E58" si="0">D58&amp;"_"&amp;F58</f>
-        <v>Catch22_24</v>
+        <f>D58&amp;"_"&amp;F58</f>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F58">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>65</v>
       </c>
       <c r="H58">
-        <v>1.91208943330709E+16</v>
+        <v>4561392069588720</v>
       </c>
       <c r="I58">
-        <v>54.545450000000002</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J58">
-        <v>4.4676900000000002</v>
+        <v>84.08699</v>
       </c>
       <c r="K58">
-        <v>0.751</v>
+        <v>0.91010999999999997</v>
       </c>
       <c r="L58">
-        <v>4.76391896568982</v>
+        <v>3.9664820000000001</v>
       </c>
       <c r="M58">
-        <v>6.8815188544535104</v>
+        <v>2.4136150000000001</v>
       </c>
       <c r="N58">
-        <v>13.3171644905002</v>
+        <v>2.6832539999999998</v>
       </c>
       <c r="O58">
-        <v>13.3593618887807</v>
+        <v>2.4136150000000001</v>
       </c>
       <c r="P58">
-        <v>12.6160535301102</v>
+        <v>1.129548</v>
       </c>
       <c r="Q58">
-        <v>17.954277429300799</v>
+        <v>2.4136150000000001</v>
       </c>
       <c r="R58">
-        <v>15.037785400889399</v>
+        <v>0.97616700000000001</v>
       </c>
       <c r="S58">
-        <v>13.5964398272249</v>
+        <v>2.3485529999999999</v>
       </c>
       <c r="T58">
-        <v>3.7815156825699798</v>
+        <v>1.326875</v>
       </c>
       <c r="U58">
-        <v>24.950397310421099</v>
+        <v>1.6687479999999999</v>
       </c>
       <c r="V58">
-        <v>7.1241963429868997</v>
+        <v>1.0572360000000001</v>
       </c>
       <c r="W58">
-        <v>8.2048444333811794</v>
+        <v>1.1868080000000001</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -4704,8 +4762,9 @@
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
-        <v>72</v>
+      <c r="E59" t="str">
+        <f>D59&amp;"_"&amp;F59</f>
+        <v>RawData_36</v>
       </c>
       <c r="F59">
         <v>36</v>
@@ -4775,8 +4834,9 @@
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
-        <v>73</v>
+      <c r="E60" t="str">
+        <f>D60&amp;"_"&amp;F60</f>
+        <v>RawData_12</v>
       </c>
       <c r="F60">
         <v>12</v>
@@ -4846,8 +4906,9 @@
       <c r="D61" t="s">
         <v>46</v>
       </c>
-      <c r="E61" t="s">
-        <v>71</v>
+      <c r="E61" t="str">
+        <f>D61&amp;"_"&amp;F61</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F61">
         <v>24</v>
@@ -4917,8 +4978,9 @@
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
-        <v>73</v>
+      <c r="E62" t="str">
+        <f>D62&amp;"_"&amp;F62</f>
+        <v>RawData_12</v>
       </c>
       <c r="F62">
         <v>12</v>
@@ -4988,8 +5050,9 @@
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>73</v>
+      <c r="E63" t="str">
+        <f>D63&amp;"_"&amp;F63</f>
+        <v>RawData_12</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -5054,67 +5117,68 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E64" t="str">
+        <f>D64&amp;"_"&amp;F64</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F64">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
         <v>65</v>
       </c>
       <c r="H64">
-        <v>0.14566999999999999</v>
+        <v>0.12356</v>
       </c>
       <c r="I64">
-        <v>81.818179999999998</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J64">
-        <v>2.1340400000000002</v>
+        <v>12.70858</v>
       </c>
       <c r="K64">
-        <v>0.62505999999999995</v>
+        <v>0.56577999999999995</v>
       </c>
       <c r="L64">
-        <v>305.29903674661</v>
+        <v>280.15774499999998</v>
       </c>
       <c r="M64">
-        <v>249.28022480611401</v>
+        <v>262.71246300000001</v>
       </c>
       <c r="N64">
-        <v>232.93157006276201</v>
+        <v>204.76873800000001</v>
       </c>
       <c r="O64">
-        <v>225.89909243350201</v>
+        <v>280.00351000000001</v>
       </c>
       <c r="P64">
-        <v>244.88684473150499</v>
+        <v>205.151657</v>
       </c>
       <c r="Q64">
-        <v>240.89564819775299</v>
+        <v>262.48611499999998</v>
       </c>
       <c r="R64">
-        <v>236.93421262488101</v>
+        <v>255.69717399999999</v>
       </c>
       <c r="S64">
-        <v>220.22038050021899</v>
+        <v>198.803665</v>
       </c>
       <c r="T64">
-        <v>228.19230140880299</v>
+        <v>212.06475800000001</v>
       </c>
       <c r="U64">
-        <v>314.26044418480598</v>
+        <v>209.806961</v>
       </c>
       <c r="V64">
-        <v>345.71673268137101</v>
+        <v>209.93920900000001</v>
       </c>
       <c r="W64">
-        <v>285.03442913133301</v>
+        <v>209.806961</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5130,8 +5194,9 @@
       <c r="D65" t="s">
         <v>46</v>
       </c>
-      <c r="E65" t="s">
-        <v>68</v>
+      <c r="E65" t="str">
+        <f>D65&amp;"_"&amp;F65</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F65">
         <v>36</v>
@@ -5201,8 +5266,9 @@
       <c r="D66" t="s">
         <v>4</v>
       </c>
-      <c r="E66" t="s">
-        <v>70</v>
+      <c r="E66" t="str">
+        <f>D66&amp;"_"&amp;F66</f>
+        <v>RawData_24</v>
       </c>
       <c r="F66">
         <v>24</v>
@@ -5272,8 +5338,9 @@
       <c r="D67" t="s">
         <v>46</v>
       </c>
-      <c r="E67" t="s">
-        <v>68</v>
+      <c r="E67" t="str">
+        <f>D67&amp;"_"&amp;F67</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F67">
         <v>36</v>
@@ -5338,13 +5405,14 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E68" t="str">
+        <f>D68&amp;"_"&amp;F68</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F68">
         <v>24</v>
@@ -5353,52 +5421,52 @@
         <v>65</v>
       </c>
       <c r="H68">
-        <v>0.10946</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="I68">
         <v>45.454549999999998</v>
       </c>
       <c r="J68">
-        <v>7.2667000000000002</v>
+        <v>8.1732600000000009</v>
       </c>
       <c r="K68">
-        <v>0.42724000000000001</v>
+        <v>0.44159999999999999</v>
       </c>
       <c r="L68">
-        <v>357.80980299999999</v>
+        <v>394.89927899999998</v>
       </c>
       <c r="M68">
-        <v>377.91904099999999</v>
+        <v>378.125046</v>
       </c>
       <c r="N68">
-        <v>394.37190600000002</v>
+        <v>398.89522799999997</v>
       </c>
       <c r="O68">
-        <v>417.77386899999999</v>
+        <v>375.78238499999998</v>
       </c>
       <c r="P68">
-        <v>443.17362000000003</v>
+        <v>378.125046</v>
       </c>
       <c r="Q68">
-        <v>431.647065</v>
+        <v>378.46818500000001</v>
       </c>
       <c r="R68">
-        <v>419.19805100000002</v>
+        <v>370.47751399999999</v>
       </c>
       <c r="S68">
-        <v>368.02386799999999</v>
+        <v>357.77710300000001</v>
       </c>
       <c r="T68">
-        <v>355.05620299999998</v>
+        <v>367.40697499999999</v>
       </c>
       <c r="U68">
-        <v>360.54759999999999</v>
+        <v>390.05339099999998</v>
       </c>
       <c r="V68">
-        <v>319.37639300000001</v>
+        <v>369.235387</v>
       </c>
       <c r="W68">
-        <v>319.24757199999999</v>
+        <v>360.27998000000002</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5409,67 +5477,68 @@
         <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="E69" t="str">
+        <f>D69&amp;"_"&amp;F69</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F69">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
         <v>65</v>
       </c>
       <c r="H69">
-        <v>0.18293000000000001</v>
+        <v>9.6610000000000001E-2</v>
       </c>
       <c r="I69">
-        <v>54.545450000000002</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>-15.28253</v>
+        <v>0.65586</v>
       </c>
       <c r="K69">
-        <v>0.48920999999999998</v>
+        <v>0.27431</v>
       </c>
       <c r="L69">
-        <v>277.07966499999998</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="M69">
-        <v>283.50719400000003</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="N69">
-        <v>250.96886799999999</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="O69">
-        <v>263.31490100000002</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="P69">
-        <v>300.573577</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="Q69">
-        <v>305.452113</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="R69">
-        <v>271.75126</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="S69">
-        <v>256.51275099999998</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="T69">
-        <v>293.42993100000001</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="U69">
-        <v>264.64455299999997</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="V69">
-        <v>246.361592</v>
+        <v>236.47994700000001</v>
       </c>
       <c r="W69">
-        <v>279.44219099999998</v>
+        <v>236.47994700000001</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -5486,7 +5555,7 @@
         <v>46</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ref="E70" si="1">D70&amp;"_"&amp;F70</f>
+        <f>D70&amp;"_"&amp;F70</f>
         <v>Catch22_24</v>
       </c>
       <c r="F70">
@@ -5557,8 +5626,9 @@
       <c r="D71" t="s">
         <v>46</v>
       </c>
-      <c r="E71" t="s">
-        <v>71</v>
+      <c r="E71" t="str">
+        <f>D71&amp;"_"&amp;F71</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F71">
         <v>24</v>
@@ -5626,65 +5696,65 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E72" t="str">
         <f>D72&amp;"_"&amp;F72</f>
-        <v>RawData_36</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F72">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
         <v>65</v>
       </c>
       <c r="H72">
-        <v>5761257970811370</v>
+        <v>5593205400116110</v>
       </c>
       <c r="I72">
-        <v>54.545450000000002</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J72">
-        <v>-10.98025</v>
+        <v>-24.21518</v>
       </c>
       <c r="K72">
-        <v>0.92029000000000005</v>
+        <v>0.97570999999999997</v>
       </c>
       <c r="L72">
-        <v>63.890985000000001</v>
+        <v>42.671872999999998</v>
       </c>
       <c r="M72">
-        <v>27.645797000000002</v>
+        <v>34.967956000000001</v>
       </c>
       <c r="N72">
-        <v>28.419529000000001</v>
+        <v>31.733667000000001</v>
       </c>
       <c r="O72">
-        <v>36.229505000000003</v>
+        <v>45.052525000000003</v>
       </c>
       <c r="P72">
-        <v>30.494178000000002</v>
+        <v>11.151039000000001</v>
       </c>
       <c r="Q72">
-        <v>28.871023000000001</v>
+        <v>28.730923000000001</v>
       </c>
       <c r="R72">
-        <v>15.351075</v>
+        <v>14.903293</v>
       </c>
       <c r="S72">
-        <v>18.423062000000002</v>
+        <v>24.874718000000001</v>
       </c>
       <c r="T72">
-        <v>9.1032510000000002</v>
+        <v>29.180544999999999</v>
       </c>
       <c r="U72">
-        <v>8.3115609999999993</v>
+        <v>33.841638000000003</v>
       </c>
       <c r="V72">
-        <v>24.665904999999999</v>
+        <v>30.977913999999998</v>
       </c>
       <c r="W72">
-        <v>37.823692000000001</v>
+        <v>40.405704</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -5695,67 +5765,68 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E73" t="str">
+        <f>D73&amp;"_"&amp;F73</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F73">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
         <v>65</v>
       </c>
       <c r="H73">
-        <v>0.16889000000000001</v>
+        <v>0.15121999999999999</v>
       </c>
       <c r="I73">
-        <v>63.636360000000003</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>-3.93024</v>
+        <v>-4.1966200000000002</v>
       </c>
       <c r="K73">
-        <v>0.34276000000000001</v>
+        <v>0.29236000000000001</v>
       </c>
       <c r="L73">
-        <v>250.69456099999999</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="M73">
-        <v>248.696563</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="N73">
-        <v>247.417509</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="O73">
-        <v>243.82199700000001</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="P73">
-        <v>253.59989400000001</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="Q73">
-        <v>252.14765600000001</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="R73">
-        <v>277.43493799999999</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="S73">
-        <v>256.89123499999999</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="T73">
-        <v>262.05104299999999</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="U73">
-        <v>257.370002</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="V73">
-        <v>261.26950399999998</v>
+        <v>256.85405200000002</v>
       </c>
       <c r="W73">
-        <v>262.97382700000003</v>
+        <v>256.85405200000002</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -5771,8 +5842,9 @@
       <c r="D74" t="s">
         <v>46</v>
       </c>
-      <c r="E74" t="s">
-        <v>69</v>
+      <c r="E74" t="str">
+        <f>D74&amp;"_"&amp;F74</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F74">
         <v>12</v>
@@ -5914,8 +5986,9 @@
       <c r="D76" t="s">
         <v>46</v>
       </c>
-      <c r="E76" t="s">
-        <v>68</v>
+      <c r="E76" t="str">
+        <f>D76&amp;"_"&amp;F76</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F76">
         <v>36</v>
@@ -5985,8 +6058,9 @@
       <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E77" t="s">
-        <v>72</v>
+      <c r="E77" t="str">
+        <f>D77&amp;"_"&amp;F77</f>
+        <v>RawData_36</v>
       </c>
       <c r="F77">
         <v>36</v>
@@ -6054,10 +6128,11 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E78" t="str">
+        <f>D78&amp;"_"&amp;F78</f>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F78">
         <v>12</v>
@@ -6066,52 +6141,52 @@
         <v>65</v>
       </c>
       <c r="H78">
-        <v>0.21165999999999999</v>
+        <v>0.20215</v>
       </c>
       <c r="I78">
-        <v>81.818179999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J78">
-        <v>3.5518100000000001</v>
+        <v>11.09864</v>
       </c>
       <c r="K78">
-        <v>0.62673000000000001</v>
+        <v>0.64017999999999997</v>
       </c>
       <c r="L78">
-        <v>336.15075400000001</v>
+        <v>314.24678299999999</v>
       </c>
       <c r="M78">
-        <v>157.75175300000001</v>
+        <v>176.61620199999999</v>
       </c>
       <c r="N78">
-        <v>136.627306</v>
+        <v>184.702991</v>
       </c>
       <c r="O78">
-        <v>185.078351</v>
+        <v>143.35861199999999</v>
       </c>
       <c r="P78">
-        <v>117.67601999999999</v>
+        <v>146.711479</v>
       </c>
       <c r="Q78">
-        <v>117.67601999999999</v>
+        <v>127.080437</v>
       </c>
       <c r="R78">
-        <v>117.67601999999999</v>
+        <v>127.080437</v>
       </c>
       <c r="S78">
-        <v>238.557928</v>
+        <v>185.582932</v>
       </c>
       <c r="T78">
-        <v>307.63232099999999</v>
+        <v>219.02262099999999</v>
       </c>
       <c r="U78">
-        <v>352.472398</v>
+        <v>254.72739100000001</v>
       </c>
       <c r="V78">
-        <v>381.95018299999998</v>
+        <v>408.23414600000001</v>
       </c>
       <c r="W78">
-        <v>360.01372099999998</v>
+        <v>302.08111000000002</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6127,8 +6202,9 @@
       <c r="D79" t="s">
         <v>46</v>
       </c>
-      <c r="E79" t="s">
-        <v>71</v>
+      <c r="E79" t="str">
+        <f>D79&amp;"_"&amp;F79</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F79">
         <v>24</v>
@@ -6193,68 +6269,68 @@
         <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E80" t="str">
         <f>D80&amp;"_"&amp;F80</f>
-        <v>RawData_36</v>
+        <v>TsCesium_24</v>
       </c>
       <c r="F80">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
         <v>65</v>
       </c>
       <c r="H80">
-        <v>1801682294728140</v>
+        <v>1478224011691190</v>
       </c>
       <c r="I80">
-        <v>54.545450000000002</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>48.725180000000002</v>
+        <v>70.804029999999997</v>
       </c>
       <c r="K80">
-        <v>0.81691999999999998</v>
+        <v>0.89773999999999998</v>
       </c>
       <c r="L80">
-        <v>2.7969780000000002</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="M80">
-        <v>1.162506</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="N80">
-        <v>1.6909970000000001</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="O80">
-        <v>1.8739250000000001</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="P80">
-        <v>1.002936</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="Q80">
-        <v>0.39985399999999999</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="R80">
-        <v>1.808508</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="S80">
-        <v>0.361425</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="T80">
-        <v>1.5578160000000001</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="U80">
-        <v>0.65717199999999998</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="V80">
-        <v>1.2291510000000001</v>
+        <v>0.78775600000000001</v>
       </c>
       <c r="W80">
-        <v>2.060492</v>
+        <v>0.78775600000000001</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6270,8 +6346,9 @@
       <c r="D81" t="s">
         <v>46</v>
       </c>
-      <c r="E81" t="s">
-        <v>68</v>
+      <c r="E81" t="str">
+        <f>D81&amp;"_"&amp;F81</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F81">
         <v>36</v>
@@ -6341,8 +6418,9 @@
       <c r="D82" t="s">
         <v>46</v>
       </c>
-      <c r="E82" t="s">
-        <v>68</v>
+      <c r="E82" t="str">
+        <f>D82&amp;"_"&amp;F82</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F82">
         <v>36</v>
@@ -6412,8 +6490,9 @@
       <c r="D83" t="s">
         <v>4</v>
       </c>
-      <c r="E83" t="s">
-        <v>72</v>
+      <c r="E83" t="str">
+        <f>D83&amp;"_"&amp;F83</f>
+        <v>RawData_36</v>
       </c>
       <c r="F83">
         <v>36</v>
@@ -6483,8 +6562,9 @@
       <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="E84" t="s">
-        <v>72</v>
+      <c r="E84" t="str">
+        <f>D84&amp;"_"&amp;F84</f>
+        <v>RawData_36</v>
       </c>
       <c r="F84">
         <v>36</v>
@@ -6554,8 +6634,9 @@
       <c r="D85" t="s">
         <v>4</v>
       </c>
-      <c r="E85" t="s">
-        <v>73</v>
+      <c r="E85" t="str">
+        <f>D85&amp;"_"&amp;F85</f>
+        <v>RawData_12</v>
       </c>
       <c r="F85">
         <v>12</v>
@@ -6625,8 +6706,9 @@
       <c r="D86" t="s">
         <v>46</v>
       </c>
-      <c r="E86" t="s">
-        <v>68</v>
+      <c r="E86" t="str">
+        <f>D86&amp;"_"&amp;F86</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6696,8 +6778,9 @@
       <c r="D87" t="s">
         <v>46</v>
       </c>
-      <c r="E87" t="s">
-        <v>68</v>
+      <c r="E87" t="str">
+        <f>D87&amp;"_"&amp;F87</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6767,8 +6850,9 @@
       <c r="D88" t="s">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
-        <v>73</v>
+      <c r="E88" t="str">
+        <f>D88&amp;"_"&amp;F88</f>
+        <v>RawData_12</v>
       </c>
       <c r="F88">
         <v>12</v>
@@ -6838,8 +6922,9 @@
       <c r="D89" t="s">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
-        <v>73</v>
+      <c r="E89" t="str">
+        <f>D89&amp;"_"&amp;F89</f>
+        <v>RawData_12</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6909,8 +6994,9 @@
       <c r="D90" t="s">
         <v>4</v>
       </c>
-      <c r="E90" t="s">
-        <v>72</v>
+      <c r="E90" t="str">
+        <f>D90&amp;"_"&amp;F90</f>
+        <v>RawData_36</v>
       </c>
       <c r="F90">
         <v>36</v>
@@ -6980,8 +7066,9 @@
       <c r="D91" t="s">
         <v>4</v>
       </c>
-      <c r="E91" t="s">
-        <v>70</v>
+      <c r="E91" t="str">
+        <f>D91&amp;"_"&amp;F91</f>
+        <v>RawData_24</v>
       </c>
       <c r="F91">
         <v>24</v>
@@ -7051,8 +7138,9 @@
       <c r="D92" t="s">
         <v>4</v>
       </c>
-      <c r="E92" t="s">
-        <v>72</v>
+      <c r="E92" t="str">
+        <f>D92&amp;"_"&amp;F92</f>
+        <v>RawData_36</v>
       </c>
       <c r="F92">
         <v>36</v>
@@ -7117,67 +7205,68 @@
         <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" t="s">
         <v>68</v>
       </c>
+      <c r="E93" t="str">
+        <f>D93&amp;"_"&amp;F93</f>
+        <v>TsFeatures_12</v>
+      </c>
       <c r="F93">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
         <v>65</v>
       </c>
       <c r="H93">
-        <v>8.4229999999999999E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="I93">
-        <v>18.181819999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J93">
-        <v>4.5517799999999999</v>
+        <v>-4.1048</v>
       </c>
       <c r="K93">
-        <v>0.82667000000000002</v>
+        <v>0.58018000000000003</v>
       </c>
       <c r="L93">
-        <v>106804.04294299999</v>
+        <v>120748.992363</v>
       </c>
       <c r="M93">
-        <v>108980.47668199999</v>
+        <v>114205.778056</v>
       </c>
       <c r="N93">
-        <v>113632.567956</v>
+        <v>138108.72451900001</v>
       </c>
       <c r="O93">
-        <v>114830.282526</v>
+        <v>136724.08280900001</v>
       </c>
       <c r="P93">
-        <v>117986.370683</v>
+        <v>127260.717919</v>
       </c>
       <c r="Q93">
-        <v>109304.52552900001</v>
+        <v>124140.574167</v>
       </c>
       <c r="R93">
-        <v>112501.201676</v>
+        <v>124013.320733</v>
       </c>
       <c r="S93">
-        <v>111611.924776</v>
+        <v>122351.54957</v>
       </c>
       <c r="T93">
-        <v>111738.035989</v>
+        <v>119180.50764</v>
       </c>
       <c r="U93">
-        <v>118925.021051</v>
+        <v>118392.018174</v>
       </c>
       <c r="V93">
-        <v>114973.89877</v>
+        <v>114956.822849</v>
       </c>
       <c r="W93">
-        <v>116677.931113</v>
+        <v>121042.57166099999</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
@@ -7193,8 +7282,9 @@
       <c r="D94" t="s">
         <v>4</v>
       </c>
-      <c r="E94" t="s">
-        <v>73</v>
+      <c r="E94" t="str">
+        <f>D94&amp;"_"&amp;F94</f>
+        <v>RawData_12</v>
       </c>
       <c r="F94">
         <v>12</v>
@@ -7264,8 +7354,9 @@
       <c r="D95" t="s">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
-        <v>72</v>
+      <c r="E95" t="str">
+        <f>D95&amp;"_"&amp;F95</f>
+        <v>RawData_36</v>
       </c>
       <c r="F95">
         <v>36</v>
@@ -7335,8 +7426,9 @@
       <c r="D96" t="s">
         <v>4</v>
       </c>
-      <c r="E96" t="s">
-        <v>72</v>
+      <c r="E96" t="str">
+        <f>D96&amp;"_"&amp;F96</f>
+        <v>RawData_36</v>
       </c>
       <c r="F96">
         <v>36</v>
@@ -7406,8 +7498,9 @@
       <c r="D97" t="s">
         <v>4</v>
       </c>
-      <c r="E97" t="s">
-        <v>72</v>
+      <c r="E97" t="str">
+        <f>D97&amp;"_"&amp;F97</f>
+        <v>RawData_36</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -7477,8 +7570,9 @@
       <c r="D98" t="s">
         <v>4</v>
       </c>
-      <c r="E98" t="s">
-        <v>72</v>
+      <c r="E98" t="str">
+        <f>D98&amp;"_"&amp;F98</f>
+        <v>RawData_36</v>
       </c>
       <c r="F98">
         <v>36</v>
@@ -7548,8 +7642,9 @@
       <c r="D99" t="s">
         <v>4</v>
       </c>
-      <c r="E99" t="s">
-        <v>72</v>
+      <c r="E99" t="str">
+        <f>D99&amp;"_"&amp;F99</f>
+        <v>RawData_36</v>
       </c>
       <c r="F99">
         <v>36</v>
@@ -7619,8 +7714,9 @@
       <c r="D100" t="s">
         <v>4</v>
       </c>
-      <c r="E100" t="s">
-        <v>72</v>
+      <c r="E100" t="str">
+        <f>D100&amp;"_"&amp;F100</f>
+        <v>RawData_36</v>
       </c>
       <c r="F100">
         <v>36</v>
@@ -7685,13 +7781,14 @@
         <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E101" t="str">
+        <f>D101&amp;"_"&amp;F101</f>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F101">
         <v>12</v>
@@ -7700,52 +7797,52 @@
         <v>65</v>
       </c>
       <c r="H101">
-        <v>5.4100000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I101">
-        <v>90.909090000000006</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J101">
-        <v>-5.4006100000000004</v>
+        <v>-4.6866700000000003</v>
       </c>
       <c r="K101">
-        <v>0.96704000000000001</v>
+        <v>0.84953000000000001</v>
       </c>
       <c r="L101">
-        <v>79525.125612646894</v>
+        <v>78720.319012000007</v>
       </c>
       <c r="M101">
-        <v>78475.344656370304</v>
+        <v>76011.400993000003</v>
       </c>
       <c r="N101">
-        <v>83801.978057298897</v>
+        <v>87174.896405000007</v>
       </c>
       <c r="O101">
-        <v>85357.815609361496</v>
+        <v>85420.957725999993</v>
       </c>
       <c r="P101">
-        <v>87227.494048246197</v>
+        <v>85420.957725999993</v>
       </c>
       <c r="Q101">
-        <v>87622.681895864705</v>
+        <v>85996.883738999997</v>
       </c>
       <c r="R101">
-        <v>83237.947387051696</v>
+        <v>79753.030576999998</v>
       </c>
       <c r="S101">
-        <v>83867.262988425995</v>
+        <v>84020.560347999999</v>
       </c>
       <c r="T101">
-        <v>80379.993680575702</v>
+        <v>81789.555349999995</v>
       </c>
       <c r="U101">
-        <v>85377.823445067799</v>
+        <v>82144.379748000007</v>
       </c>
       <c r="V101">
-        <v>74304.855557612798</v>
+        <v>75087.260313000006</v>
       </c>
       <c r="W101">
-        <v>72387.123081976606</v>
+        <v>73376.528288999994</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
@@ -7761,8 +7858,9 @@
       <c r="D102" t="s">
         <v>4</v>
       </c>
-      <c r="E102" t="s">
-        <v>70</v>
+      <c r="E102" t="str">
+        <f>D102&amp;"_"&amp;F102</f>
+        <v>RawData_24</v>
       </c>
       <c r="F102">
         <v>24</v>
@@ -7832,8 +7930,9 @@
       <c r="D103" t="s">
         <v>4</v>
       </c>
-      <c r="E103" t="s">
-        <v>70</v>
+      <c r="E103" t="str">
+        <f>D103&amp;"_"&amp;F103</f>
+        <v>RawData_24</v>
       </c>
       <c r="F103">
         <v>24</v>
@@ -7903,8 +8002,9 @@
       <c r="D104" t="s">
         <v>46</v>
       </c>
-      <c r="E104" t="s">
-        <v>69</v>
+      <c r="E104" t="str">
+        <f>D104&amp;"_"&amp;F104</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F104">
         <v>12</v>
@@ -7974,8 +8074,9 @@
       <c r="D105" t="s">
         <v>4</v>
       </c>
-      <c r="E105" t="s">
-        <v>72</v>
+      <c r="E105" t="str">
+        <f>D105&amp;"_"&amp;F105</f>
+        <v>RawData_36</v>
       </c>
       <c r="F105">
         <v>36</v>
@@ -8045,8 +8146,9 @@
       <c r="D106" t="s">
         <v>4</v>
       </c>
-      <c r="E106" t="s">
-        <v>70</v>
+      <c r="E106" t="str">
+        <f>D106&amp;"_"&amp;F106</f>
+        <v>RawData_24</v>
       </c>
       <c r="F106">
         <v>24</v>
@@ -8116,8 +8218,9 @@
       <c r="D107" t="s">
         <v>4</v>
       </c>
-      <c r="E107" t="s">
-        <v>72</v>
+      <c r="E107" t="str">
+        <f>D107&amp;"_"&amp;F107</f>
+        <v>RawData_36</v>
       </c>
       <c r="F107">
         <v>36</v>
@@ -8187,8 +8290,9 @@
       <c r="D108" t="s">
         <v>4</v>
       </c>
-      <c r="E108" t="s">
-        <v>70</v>
+      <c r="E108" t="str">
+        <f>D108&amp;"_"&amp;F108</f>
+        <v>RawData_24</v>
       </c>
       <c r="F108">
         <v>24</v>
@@ -8258,8 +8362,9 @@
       <c r="D109" t="s">
         <v>4</v>
       </c>
-      <c r="E109" t="s">
-        <v>73</v>
+      <c r="E109" t="str">
+        <f>D109&amp;"_"&amp;F109</f>
+        <v>RawData_12</v>
       </c>
       <c r="F109">
         <v>12</v>
@@ -8329,8 +8434,9 @@
       <c r="D110" t="s">
         <v>46</v>
       </c>
-      <c r="E110" t="s">
-        <v>69</v>
+      <c r="E110" t="str">
+        <f>D110&amp;"_"&amp;F110</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F110">
         <v>12</v>
@@ -8400,8 +8506,9 @@
       <c r="D111" t="s">
         <v>4</v>
       </c>
-      <c r="E111" t="s">
-        <v>73</v>
+      <c r="E111" t="str">
+        <f>D111&amp;"_"&amp;F111</f>
+        <v>RawData_12</v>
       </c>
       <c r="F111">
         <v>12</v>
@@ -8471,8 +8578,9 @@
       <c r="D112" t="s">
         <v>4</v>
       </c>
-      <c r="E112" t="s">
-        <v>73</v>
+      <c r="E112" t="str">
+        <f>D112&amp;"_"&amp;F112</f>
+        <v>RawData_12</v>
       </c>
       <c r="F112">
         <v>12</v>
@@ -8542,8 +8650,9 @@
       <c r="D113" t="s">
         <v>46</v>
       </c>
-      <c r="E113" t="s">
-        <v>69</v>
+      <c r="E113" t="str">
+        <f>D113&amp;"_"&amp;F113</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F113">
         <v>12</v>
@@ -8613,8 +8722,9 @@
       <c r="D114" t="s">
         <v>4</v>
       </c>
-      <c r="E114" t="s">
-        <v>70</v>
+      <c r="E114" t="str">
+        <f>D114&amp;"_"&amp;F114</f>
+        <v>RawData_24</v>
       </c>
       <c r="F114">
         <v>24</v>
@@ -8679,13 +8789,14 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E115" t="str">
+        <f>D115&amp;"_"&amp;F115</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F115">
         <v>12</v>
@@ -8694,52 +8805,52 @@
         <v>65</v>
       </c>
       <c r="H115">
-        <v>0.24637000000000001</v>
+        <v>0.19017999999999999</v>
       </c>
       <c r="I115">
-        <v>63.636360000000003</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J115">
-        <v>24.834150000000001</v>
+        <v>18.267479999999999</v>
       </c>
       <c r="K115">
-        <v>0.67957999999999996</v>
+        <v>0.51420999999999994</v>
       </c>
       <c r="L115">
-        <v>73.174306068229996</v>
+        <v>61.47401</v>
       </c>
       <c r="M115">
-        <v>64.075073180675503</v>
+        <v>72.283405000000002</v>
       </c>
       <c r="N115">
-        <v>65.711534104481402</v>
+        <v>77.936515</v>
       </c>
       <c r="O115">
-        <v>67.052733801870204</v>
+        <v>101.365921</v>
       </c>
       <c r="P115">
-        <v>70.518594649557301</v>
+        <v>101.19865</v>
       </c>
       <c r="Q115">
-        <v>74.866519865900997</v>
+        <v>61.306739</v>
       </c>
       <c r="R115">
-        <v>76.120667760298204</v>
+        <v>69.409510999999995</v>
       </c>
       <c r="S115">
-        <v>85.969335183324105</v>
+        <v>63.124609999999997</v>
       </c>
       <c r="T115">
-        <v>84.383817343037904</v>
+        <v>68.944996000000003</v>
       </c>
       <c r="U115">
-        <v>76.218561598515606</v>
+        <v>103.016508</v>
       </c>
       <c r="V115">
-        <v>73.984957463722196</v>
+        <v>112.658794</v>
       </c>
       <c r="W115">
-        <v>65.846006764280801</v>
+        <v>61.899777</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
@@ -8750,13 +8861,14 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" t="s">
         <v>68</v>
+      </c>
+      <c r="E116" t="str">
+        <f>D116&amp;"_"&amp;F116</f>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F116">
         <v>36</v>
@@ -8765,52 +8877,52 @@
         <v>65</v>
       </c>
       <c r="H116">
-        <v>0.38841999999999999</v>
+        <v>0.22362000000000001</v>
       </c>
       <c r="I116">
-        <v>72.727270000000004</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>10.36412</v>
+        <v>25.043240000000001</v>
       </c>
       <c r="K116">
-        <v>0.79357999999999995</v>
+        <v>0.62912999999999997</v>
       </c>
       <c r="L116">
-        <v>30.768422258248101</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="M116">
-        <v>36.3493597775485</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="N116">
-        <v>23.536240646665298</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="O116">
-        <v>34.796908580537497</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="P116">
-        <v>28.764470991478799</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="Q116">
-        <v>31.103598247169799</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="R116">
-        <v>33.729937154636403</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="S116">
-        <v>28.8863054588073</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="T116">
-        <v>37.914196144347301</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="U116">
-        <v>31.458157135299299</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="V116">
-        <v>30.604197164932799</v>
+        <v>25.222760999999998</v>
       </c>
       <c r="W116">
-        <v>14.0352127620834</v>
+        <v>25.222760999999998</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
@@ -8821,14 +8933,14 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E117" t="str">
         <f>D117&amp;"_"&amp;F117</f>
-        <v>RawData_12</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -8837,52 +8949,52 @@
         <v>65</v>
       </c>
       <c r="H117">
-        <v>1.9427094395995002E+17</v>
+        <v>1.7418121918818099E+17</v>
       </c>
       <c r="I117">
-        <v>54.545450000000002</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J117">
-        <v>-35.169919999999998</v>
+        <v>10.615080000000001</v>
       </c>
       <c r="K117">
-        <v>0.66129000000000004</v>
+        <v>0.40733000000000003</v>
       </c>
       <c r="L117">
-        <v>766.06233299999997</v>
+        <v>342.433716</v>
       </c>
       <c r="M117">
-        <v>374.76171799999997</v>
+        <v>561.99432400000001</v>
       </c>
       <c r="N117">
-        <v>208.40535800000001</v>
+        <v>717.53265399999998</v>
       </c>
       <c r="O117">
-        <v>814.36927700000001</v>
+        <v>813.71252400000003</v>
       </c>
       <c r="P117">
-        <v>551.31263100000001</v>
+        <v>571.25762899999995</v>
       </c>
       <c r="Q117">
-        <v>517.64178000000004</v>
+        <v>464.11200000000002</v>
       </c>
       <c r="R117">
-        <v>1585.1382599999999</v>
+        <v>868.81225600000005</v>
       </c>
       <c r="S117">
-        <v>1494.2966289999999</v>
+        <v>1408.582764</v>
       </c>
       <c r="T117">
-        <v>3791.049833</v>
+        <v>1686.0960689999999</v>
       </c>
       <c r="U117">
-        <v>2351.775091</v>
+        <v>1601.9941409999999</v>
       </c>
       <c r="V117">
-        <v>2112.3208570000002</v>
+        <v>1036.2951660000001</v>
       </c>
       <c r="W117">
-        <v>2206.5881909999998</v>
+        <v>1019.273499</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
@@ -8898,8 +9010,9 @@
       <c r="D118" t="s">
         <v>4</v>
       </c>
-      <c r="E118" t="s">
-        <v>72</v>
+      <c r="E118" t="str">
+        <f>D118&amp;"_"&amp;F118</f>
+        <v>RawData_36</v>
       </c>
       <c r="F118">
         <v>36</v>
@@ -8969,8 +9082,9 @@
       <c r="D119" t="s">
         <v>46</v>
       </c>
-      <c r="E119" t="s">
-        <v>69</v>
+      <c r="E119" t="str">
+        <f>D119&amp;"_"&amp;F119</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F119">
         <v>12</v>
@@ -9035,13 +9149,14 @@
         <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E120" t="str">
+        <f>D120&amp;"_"&amp;F120</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F120">
         <v>24</v>
@@ -9050,52 +9165,52 @@
         <v>65</v>
       </c>
       <c r="H120">
-        <v>0.10866000000000001</v>
+        <v>9.7619999999999998E-2</v>
       </c>
       <c r="I120">
-        <v>63.636360000000003</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0.96989000000000003</v>
+        <v>0.81842000000000004</v>
       </c>
       <c r="K120">
-        <v>0.29912</v>
+        <v>0.26683000000000001</v>
       </c>
       <c r="L120">
-        <v>10326.352865065301</v>
+        <v>10234.593019</v>
       </c>
       <c r="M120">
-        <v>9467.9371402062607</v>
+        <v>10234.593019</v>
       </c>
       <c r="N120">
-        <v>10639.8798987554</v>
+        <v>10234.593019</v>
       </c>
       <c r="O120">
-        <v>10934.485527774401</v>
+        <v>10234.593019</v>
       </c>
       <c r="P120">
-        <v>11115.194058589601</v>
+        <v>10234.593019</v>
       </c>
       <c r="Q120">
-        <v>12140.5093247677</v>
+        <v>10234.593019</v>
       </c>
       <c r="R120">
-        <v>10875.597077579499</v>
+        <v>10234.593019</v>
       </c>
       <c r="S120">
-        <v>10429.5474082112</v>
+        <v>10234.593019</v>
       </c>
       <c r="T120">
-        <v>9588.7292985743807</v>
+        <v>10234.593019</v>
       </c>
       <c r="U120">
-        <v>9439.8523696162501</v>
+        <v>10234.593019</v>
       </c>
       <c r="V120">
-        <v>9445.9410680051806</v>
+        <v>10234.593019</v>
       </c>
       <c r="W120">
-        <v>8223.5257560774298</v>
+        <v>10234.593019</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
@@ -9112,7 +9227,7 @@
         <v>4</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" ref="E121" si="2">D121&amp;"_"&amp;F121</f>
+        <f>D121&amp;"_"&amp;F121</f>
         <v>RawData_12</v>
       </c>
       <c r="F121">
@@ -9178,13 +9293,14 @@
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E122" t="str">
+        <f>D122&amp;"_"&amp;F122</f>
+        <v>TsCesium_36</v>
       </c>
       <c r="F122">
         <v>36</v>
@@ -9193,52 +9309,52 @@
         <v>65</v>
       </c>
       <c r="H122">
-        <v>1.09671012609779E+16</v>
+        <v>2324641034058330</v>
       </c>
       <c r="I122">
-        <v>27.272729999999999</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>77.3964</v>
+        <v>95.260639999999995</v>
       </c>
       <c r="K122">
-        <v>0.73519000000000001</v>
+        <v>0.73699000000000003</v>
       </c>
       <c r="L122">
-        <v>4.7298929999999997</v>
+        <v>1.032348</v>
       </c>
       <c r="M122">
-        <v>4.6937699999999998</v>
+        <v>1.032348</v>
       </c>
       <c r="N122">
-        <v>10.080038</v>
+        <v>1.032348</v>
       </c>
       <c r="O122">
-        <v>4.4959490000000004</v>
+        <v>1.032348</v>
       </c>
       <c r="P122">
-        <v>5.1519300000000001</v>
+        <v>1.032348</v>
       </c>
       <c r="Q122">
-        <v>4.654509</v>
+        <v>1.032348</v>
       </c>
       <c r="R122">
-        <v>5.1047570000000002</v>
+        <v>1.032348</v>
       </c>
       <c r="S122">
-        <v>5.525093</v>
+        <v>1.032348</v>
       </c>
       <c r="T122">
-        <v>7.5825139999999998</v>
+        <v>1.032348</v>
       </c>
       <c r="U122">
-        <v>5.684787</v>
+        <v>1.032348</v>
       </c>
       <c r="V122">
-        <v>0.90282300000000004</v>
+        <v>1.032348</v>
       </c>
       <c r="W122">
-        <v>0.47725099999999998</v>
+        <v>1.032348</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
@@ -9249,67 +9365,68 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E123" t="str">
+        <f>D123&amp;"_"&amp;F123</f>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F123">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>65</v>
       </c>
       <c r="H123">
-        <v>3.6130000000000002E-2</v>
+        <v>3.2559999999999999E-2</v>
       </c>
       <c r="I123">
-        <v>45.454549999999998</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>-1.0323500000000001</v>
+        <v>-0.24839</v>
       </c>
       <c r="K123">
-        <v>0.60516000000000003</v>
+        <v>0.54679</v>
       </c>
       <c r="L123">
-        <v>62842.981352000003</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="M123">
-        <v>62584.451775000001</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="N123">
-        <v>61397.069644000003</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="O123">
-        <v>59746.361508000002</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="P123">
-        <v>59099.374238999997</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="Q123">
-        <v>59478.584666000002</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="R123">
-        <v>59911.281357</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="S123">
-        <v>61062.717134999999</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="T123">
-        <v>62498.050303999997</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="U123">
-        <v>64590.203362</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="V123">
-        <v>64691.983196000001</v>
+        <v>61529.612904000001</v>
       </c>
       <c r="W123">
-        <v>66226.373475999993</v>
+        <v>61529.612904000001</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
@@ -9320,14 +9437,14 @@
         <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E124" t="str">
         <f>D124&amp;"_"&amp;F124</f>
-        <v>RawData_12</v>
+        <v>TsCesium_12</v>
       </c>
       <c r="F124">
         <v>12</v>
@@ -9336,52 +9453,52 @@
         <v>65</v>
       </c>
       <c r="H124">
-        <v>6.35888296810176E+16</v>
+        <v>1.78195097392071E+16</v>
       </c>
       <c r="I124">
-        <v>27.272729999999999</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>95.085880000000003</v>
+        <v>98.804379999999995</v>
       </c>
       <c r="K124">
-        <v>0.95262999999999998</v>
+        <v>0.94908000000000003</v>
       </c>
       <c r="L124">
-        <v>25.575860728853598</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="M124">
-        <v>30.1501115105705</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="N124">
-        <v>25.947043756233398</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="O124">
-        <v>11.462400542097701</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="P124">
-        <v>11.8327039280392</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="Q124">
-        <v>20.3394716833091</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="R124">
-        <v>32.621615691548897</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="S124">
-        <v>32.883182498637602</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="T124">
-        <v>26.781638118087798</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="U124">
-        <v>25.0730733115467</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="V124">
-        <v>38.552753260220697</v>
+        <v>5.9350889999999996</v>
       </c>
       <c r="W124">
-        <v>11.505470933297801</v>
+        <v>5.9350889999999996</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
@@ -9392,13 +9509,14 @@
         <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E125" t="str">
+        <f>D125&amp;"_"&amp;F125</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F125">
         <v>12</v>
@@ -9407,52 +9525,52 @@
         <v>65</v>
       </c>
       <c r="H125">
-        <v>0.45025999999999999</v>
+        <v>0.42963000000000001</v>
       </c>
       <c r="I125">
-        <v>63.636360000000003</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>64.164550000000006</v>
+        <v>67.97372</v>
       </c>
       <c r="K125">
-        <v>0.96165999999999996</v>
+        <v>0.98260999999999998</v>
       </c>
       <c r="L125">
-        <v>121.459726</v>
+        <v>145.507521</v>
       </c>
       <c r="M125">
-        <v>103.221357</v>
+        <v>145.507521</v>
       </c>
       <c r="N125">
-        <v>115.178056</v>
+        <v>145.507521</v>
       </c>
       <c r="O125">
-        <v>148.10300799999999</v>
+        <v>145.507521</v>
       </c>
       <c r="P125">
-        <v>188.229375</v>
+        <v>145.507521</v>
       </c>
       <c r="Q125">
-        <v>145.402477</v>
+        <v>145.507521</v>
       </c>
       <c r="R125">
-        <v>163.96373500000001</v>
+        <v>145.507521</v>
       </c>
       <c r="S125">
-        <v>234.95051799999999</v>
+        <v>145.507521</v>
       </c>
       <c r="T125">
-        <v>185.73432</v>
+        <v>145.507521</v>
       </c>
       <c r="U125">
-        <v>156.26330799999999</v>
+        <v>145.507521</v>
       </c>
       <c r="V125">
-        <v>205.841534</v>
+        <v>145.507521</v>
       </c>
       <c r="W125">
-        <v>185.42121499999999</v>
+        <v>145.507521</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
@@ -9463,13 +9581,14 @@
         <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E126" t="str">
+        <f>D126&amp;"_"&amp;F126</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F126">
         <v>24</v>
@@ -9478,52 +9597,52 @@
         <v>65</v>
       </c>
       <c r="H126">
-        <v>1.28324852862125E+16</v>
+        <v>2362885977393930</v>
       </c>
       <c r="I126">
         <v>54.545450000000002</v>
       </c>
       <c r="J126">
-        <v>35.362470000000002</v>
+        <v>80.031149999999997</v>
       </c>
       <c r="K126">
-        <v>3.2826399999999998</v>
+        <v>3.0410300000000001</v>
       </c>
       <c r="L126">
-        <v>3.4237497713126501</v>
+        <v>4.6001190000000003</v>
       </c>
       <c r="M126">
-        <v>2.2835336343558099</v>
+        <v>1.306969</v>
       </c>
       <c r="N126">
-        <v>1.66216575808717</v>
+        <v>1.2977799999999999</v>
       </c>
       <c r="O126">
-        <v>3.2655982641838301</v>
+        <v>1.2895760000000001</v>
       </c>
       <c r="P126">
-        <v>5.5774527584720897</v>
+        <v>1.2895760000000001</v>
       </c>
       <c r="Q126">
-        <v>5.7284236338656296</v>
+        <v>1.2895760000000001</v>
       </c>
       <c r="R126">
-        <v>6.1985842846201296</v>
+        <v>1.2895760000000001</v>
       </c>
       <c r="S126">
-        <v>6.1814830511563299</v>
+        <v>1.2754700000000001</v>
       </c>
       <c r="T126">
-        <v>6.9325045524800402</v>
+        <v>1.3451200000000001</v>
       </c>
       <c r="U126">
-        <v>6.8173102080141197</v>
+        <v>2.4494720000000001</v>
       </c>
       <c r="V126">
-        <v>5.7206090114939698</v>
+        <v>2.7278389999999999</v>
       </c>
       <c r="W126">
-        <v>15.616363490946499</v>
+        <v>1.2814749999999999</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
@@ -9534,67 +9653,68 @@
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E127" t="str">
+        <f>D127&amp;"_"&amp;F127</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F127">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s">
         <v>65</v>
       </c>
       <c r="H127">
-        <v>8.3059999999999995E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="I127">
-        <v>54.545450000000002</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J127">
-        <v>-3.7139099999999998</v>
+        <v>4.6631299999999998</v>
       </c>
       <c r="K127">
-        <v>0.50826000000000005</v>
+        <v>0.52542999999999995</v>
       </c>
       <c r="L127">
-        <v>12503.263638435599</v>
+        <v>11112.125977</v>
       </c>
       <c r="M127">
-        <v>12752.976987296101</v>
+        <v>11112.125977</v>
       </c>
       <c r="N127">
-        <v>12086.9101887422</v>
+        <v>10956.295898</v>
       </c>
       <c r="O127">
-        <v>12410.133478895799</v>
+        <v>10704.392578000001</v>
       </c>
       <c r="P127">
-        <v>12524.243733572899</v>
+        <v>10704.392578000001</v>
       </c>
       <c r="Q127">
-        <v>12310.968552358399</v>
+        <v>10955.373046999999</v>
       </c>
       <c r="R127">
-        <v>11623.1691316217</v>
+        <v>11379.432617</v>
       </c>
       <c r="S127">
-        <v>12151.5677944376</v>
+        <v>10750.820312</v>
       </c>
       <c r="T127">
-        <v>11342.4717955215</v>
+        <v>10704.392578000001</v>
       </c>
       <c r="U127">
-        <v>11385.061091621301</v>
+        <v>10704.392578000001</v>
       </c>
       <c r="V127">
-        <v>11706.830397433099</v>
+        <v>11324.300781</v>
       </c>
       <c r="W127">
-        <v>10377.742857003201</v>
+        <v>11202.925781</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
@@ -9605,13 +9725,14 @@
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E128" t="str">
+        <f>D128&amp;"_"&amp;F128</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F128">
         <v>24</v>
@@ -9620,52 +9741,52 @@
         <v>65</v>
       </c>
       <c r="H128">
-        <v>6.86332257662614E+16</v>
+        <v>4363161628390380</v>
       </c>
       <c r="I128">
-        <v>54.545450000000002</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>77.724100000000007</v>
+        <v>99.407730000000001</v>
       </c>
       <c r="K128">
-        <v>1.1040700000000001</v>
+        <v>1.2714700000000001</v>
       </c>
       <c r="L128">
-        <v>341.03931999999998</v>
+        <v>11.625798</v>
       </c>
       <c r="M128">
-        <v>223.51939899999999</v>
+        <v>11.625798</v>
       </c>
       <c r="N128">
-        <v>141.544635</v>
+        <v>11.625798</v>
       </c>
       <c r="O128">
-        <v>684.66856700000005</v>
+        <v>11.625798</v>
       </c>
       <c r="P128">
-        <v>276.32023400000003</v>
+        <v>11.625798</v>
       </c>
       <c r="Q128">
-        <v>182.87565000000001</v>
+        <v>11.625798</v>
       </c>
       <c r="R128">
-        <v>714.87821699999995</v>
+        <v>11.625798</v>
       </c>
       <c r="S128">
-        <v>565.22695599999997</v>
+        <v>11.625798</v>
       </c>
       <c r="T128">
-        <v>959.658953</v>
+        <v>11.625798</v>
       </c>
       <c r="U128">
-        <v>598.36016400000005</v>
+        <v>11.625798</v>
       </c>
       <c r="V128">
-        <v>312.29267399999998</v>
+        <v>11.625798</v>
       </c>
       <c r="W128">
-        <v>246.71859799999999</v>
+        <v>11.625798</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
@@ -9681,8 +9802,9 @@
       <c r="D129" t="s">
         <v>46</v>
       </c>
-      <c r="E129" t="s">
-        <v>69</v>
+      <c r="E129" t="str">
+        <f>D129&amp;"_"&amp;F129</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F129">
         <v>12</v>
@@ -9752,8 +9874,9 @@
       <c r="D130" t="s">
         <v>46</v>
       </c>
-      <c r="E130" t="s">
-        <v>69</v>
+      <c r="E130" t="str">
+        <f>D130&amp;"_"&amp;F130</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F130">
         <v>12</v>
@@ -9823,8 +9946,9 @@
       <c r="D131" t="s">
         <v>4</v>
       </c>
-      <c r="E131" t="s">
-        <v>73</v>
+      <c r="E131" t="str">
+        <f>D131&amp;"_"&amp;F131</f>
+        <v>RawData_12</v>
       </c>
       <c r="F131">
         <v>12</v>
@@ -9889,13 +10013,14 @@
         <v>53</v>
       </c>
       <c r="C132" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E132" t="str">
+        <f>D132&amp;"_"&amp;F132</f>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F132">
         <v>12</v>
@@ -9904,52 +10029,52 @@
         <v>65</v>
       </c>
       <c r="H132">
-        <v>0.49642999999999998</v>
+        <v>0.47091</v>
       </c>
       <c r="I132">
-        <v>72.727270000000004</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J132">
-        <v>55.702770000000001</v>
+        <v>48.222369999999998</v>
       </c>
       <c r="K132">
-        <v>1.02112</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="L132">
-        <v>2835.7668709999998</v>
+        <v>3866.2877090000002</v>
       </c>
       <c r="M132">
-        <v>2464.773882</v>
+        <v>4620.8276889999997</v>
       </c>
       <c r="N132">
-        <v>2944.6067370000001</v>
+        <v>5968.3469530000002</v>
       </c>
       <c r="O132">
-        <v>4521.957735</v>
+        <v>4527.0742680000003</v>
       </c>
       <c r="P132">
-        <v>5442.031516</v>
+        <v>4638.379199</v>
       </c>
       <c r="Q132">
-        <v>3005.6720319999999</v>
+        <v>5989.1725139999999</v>
       </c>
       <c r="R132">
-        <v>6258.4645650000002</v>
+        <v>5166.4972120000002</v>
       </c>
       <c r="S132">
-        <v>7995.2324140000001</v>
+        <v>4556.683094</v>
       </c>
       <c r="T132">
-        <v>3683.1984560000001</v>
+        <v>4376.8568219999997</v>
       </c>
       <c r="U132">
-        <v>2715.1012249999999</v>
+        <v>5012.9130299999997</v>
       </c>
       <c r="V132">
-        <v>3364.998079</v>
+        <v>2916.0676669999998</v>
       </c>
       <c r="W132">
-        <v>3302.2725810000002</v>
+        <v>5090.8391570000003</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.3">
@@ -9965,8 +10090,9 @@
       <c r="D133" t="s">
         <v>46</v>
       </c>
-      <c r="E133" t="s">
-        <v>68</v>
+      <c r="E133" t="str">
+        <f>D133&amp;"_"&amp;F133</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F133">
         <v>36</v>
@@ -10037,7 +10163,7 @@
         <v>4</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" ref="E134" si="3">D134&amp;"_"&amp;F134</f>
+        <f>D134&amp;"_"&amp;F134</f>
         <v>RawData_24</v>
       </c>
       <c r="F134">
@@ -10106,64 +10232,65 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E135" t="str">
+        <f>D135&amp;"_"&amp;F135</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F135">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G135" t="s">
         <v>65</v>
       </c>
       <c r="H135">
-        <v>0.25022</v>
+        <v>0.19302</v>
       </c>
       <c r="I135">
         <v>63.636360000000003</v>
       </c>
       <c r="J135">
-        <v>-12.962719999999999</v>
+        <v>-10.36004</v>
       </c>
       <c r="K135">
-        <v>0.67262</v>
+        <v>0.51976</v>
       </c>
       <c r="L135">
-        <v>8881.5856999999996</v>
+        <v>10577.766905</v>
       </c>
       <c r="M135">
-        <v>7588.887264</v>
+        <v>9200.2546669999992</v>
       </c>
       <c r="N135">
-        <v>8937.3940860000002</v>
+        <v>9200.2546669999992</v>
       </c>
       <c r="O135">
-        <v>8795.6596690000006</v>
+        <v>9133.2161570000007</v>
       </c>
       <c r="P135">
-        <v>8313.4115010000005</v>
+        <v>9166.1805160000004</v>
       </c>
       <c r="Q135">
-        <v>10057.477177000001</v>
+        <v>8786.9621929999994</v>
       </c>
       <c r="R135">
-        <v>9947.7726010000006</v>
+        <v>8101.8759360000004</v>
       </c>
       <c r="S135">
-        <v>8958.9671510000007</v>
+        <v>7862.4032580000003</v>
       </c>
       <c r="T135">
-        <v>9913.0990459999994</v>
+        <v>8749.0451049999992</v>
       </c>
       <c r="U135">
-        <v>9622.7981940000009</v>
+        <v>8237.5993539999999</v>
       </c>
       <c r="V135">
-        <v>8229.6970880000008</v>
+        <v>8338.3851319999994</v>
       </c>
       <c r="W135">
-        <v>7996.4483259999997</v>
+        <v>7418.3545350000004</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.3">
@@ -10174,68 +10301,68 @@
         <v>57</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" ref="E136" si="4">D136&amp;"_"&amp;F136</f>
-        <v>RawData_12</v>
+        <f>D136&amp;"_"&amp;F136</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G136" t="s">
         <v>65</v>
       </c>
       <c r="H136">
-        <v>4.1300915801412704E+16</v>
+        <v>2.08943513919936E+16</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>-1.10047746385999E+24</v>
+        <v>-5.5673735999999897E+23</v>
       </c>
       <c r="K136">
-        <v>0.88992000000000004</v>
+        <v>0.45022000000000001</v>
       </c>
       <c r="L136">
-        <v>10.734066536320899</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="M136">
-        <v>5.5293556874180902</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="N136">
-        <v>8.2291555198485309</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="O136">
-        <v>9.1026082748203496</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="P136">
-        <v>15.106671834839201</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="Q136">
-        <v>13.4810997500142</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="R136">
-        <v>10.2447020331393</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="S136">
-        <v>7.0778617336749603</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="T136">
-        <v>7.6239463189301802</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="U136">
-        <v>5.4758639769369202</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="V136">
-        <v>10.9291015092479</v>
+        <v>4.6394780000000004</v>
       </c>
       <c r="W136">
-        <v>6.5133132135235696</v>
+        <v>4.6394780000000004</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
@@ -10251,8 +10378,9 @@
       <c r="D137" t="s">
         <v>4</v>
       </c>
-      <c r="E137" t="s">
-        <v>70</v>
+      <c r="E137" t="str">
+        <f>D137&amp;"_"&amp;F137</f>
+        <v>RawData_24</v>
       </c>
       <c r="F137">
         <v>24</v>
@@ -10322,8 +10450,9 @@
       <c r="D138" t="s">
         <v>4</v>
       </c>
-      <c r="E138" t="s">
-        <v>72</v>
+      <c r="E138" t="str">
+        <f>D138&amp;"_"&amp;F138</f>
+        <v>RawData_36</v>
       </c>
       <c r="F138">
         <v>36</v>
@@ -10393,8 +10522,9 @@
       <c r="D139" t="s">
         <v>4</v>
       </c>
-      <c r="E139" t="s">
-        <v>72</v>
+      <c r="E139" t="str">
+        <f>D139&amp;"_"&amp;F139</f>
+        <v>RawData_36</v>
       </c>
       <c r="F139">
         <v>36</v>
@@ -10464,8 +10594,9 @@
       <c r="D140" t="s">
         <v>4</v>
       </c>
-      <c r="E140" t="s">
-        <v>72</v>
+      <c r="E140" t="str">
+        <f>D140&amp;"_"&amp;F140</f>
+        <v>RawData_36</v>
       </c>
       <c r="F140">
         <v>36</v>
@@ -10535,8 +10666,9 @@
       <c r="D141" t="s">
         <v>4</v>
       </c>
-      <c r="E141" t="s">
-        <v>70</v>
+      <c r="E141" t="str">
+        <f>D141&amp;"_"&amp;F141</f>
+        <v>RawData_24</v>
       </c>
       <c r="F141">
         <v>24</v>
@@ -10606,8 +10738,9 @@
       <c r="D142" t="s">
         <v>4</v>
       </c>
-      <c r="E142" t="s">
-        <v>73</v>
+      <c r="E142" t="str">
+        <f>D142&amp;"_"&amp;F142</f>
+        <v>RawData_12</v>
       </c>
       <c r="F142">
         <v>12</v>
@@ -10677,8 +10810,9 @@
       <c r="D143" t="s">
         <v>4</v>
       </c>
-      <c r="E143" t="s">
-        <v>70</v>
+      <c r="E143" t="str">
+        <f>D143&amp;"_"&amp;F143</f>
+        <v>RawData_24</v>
       </c>
       <c r="F143">
         <v>24</v>
@@ -10748,8 +10882,9 @@
       <c r="D144" t="s">
         <v>46</v>
       </c>
-      <c r="E144" t="s">
-        <v>68</v>
+      <c r="E144" t="str">
+        <f>D144&amp;"_"&amp;F144</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F144">
         <v>36</v>
@@ -10819,8 +10954,9 @@
       <c r="D145" t="s">
         <v>4</v>
       </c>
-      <c r="E145" t="s">
-        <v>72</v>
+      <c r="E145" t="str">
+        <f>D145&amp;"_"&amp;F145</f>
+        <v>RawData_36</v>
       </c>
       <c r="F145">
         <v>36</v>
@@ -10890,8 +11026,9 @@
       <c r="D146" t="s">
         <v>4</v>
       </c>
-      <c r="E146" t="s">
-        <v>72</v>
+      <c r="E146" t="str">
+        <f>D146&amp;"_"&amp;F146</f>
+        <v>RawData_36</v>
       </c>
       <c r="F146">
         <v>36</v>
@@ -10961,8 +11098,9 @@
       <c r="D147" t="s">
         <v>4</v>
       </c>
-      <c r="E147" t="s">
-        <v>73</v>
+      <c r="E147" t="str">
+        <f>D147&amp;"_"&amp;F147</f>
+        <v>RawData_12</v>
       </c>
       <c r="F147">
         <v>12</v>
@@ -11032,8 +11170,9 @@
       <c r="D148" t="s">
         <v>46</v>
       </c>
-      <c r="E148" t="s">
-        <v>69</v>
+      <c r="E148" t="str">
+        <f>D148&amp;"_"&amp;F148</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F148">
         <v>12</v>
@@ -11103,8 +11242,9 @@
       <c r="D149" t="s">
         <v>4</v>
       </c>
-      <c r="E149" t="s">
-        <v>70</v>
+      <c r="E149" t="str">
+        <f>D149&amp;"_"&amp;F149</f>
+        <v>RawData_24</v>
       </c>
       <c r="F149">
         <v>24</v>
@@ -11174,8 +11314,9 @@
       <c r="D150" t="s">
         <v>4</v>
       </c>
-      <c r="E150" t="s">
-        <v>72</v>
+      <c r="E150" t="str">
+        <f>D150&amp;"_"&amp;F150</f>
+        <v>RawData_36</v>
       </c>
       <c r="F150">
         <v>36</v>
@@ -11245,8 +11386,9 @@
       <c r="D151" t="s">
         <v>4</v>
       </c>
-      <c r="E151" t="s">
-        <v>72</v>
+      <c r="E151" t="str">
+        <f>D151&amp;"_"&amp;F151</f>
+        <v>RawData_36</v>
       </c>
       <c r="F151">
         <v>36</v>
@@ -11316,8 +11458,9 @@
       <c r="D152" t="s">
         <v>4</v>
       </c>
-      <c r="E152" t="s">
-        <v>73</v>
+      <c r="E152" t="str">
+        <f>D152&amp;"_"&amp;F152</f>
+        <v>RawData_12</v>
       </c>
       <c r="F152">
         <v>12</v>
@@ -11387,8 +11530,9 @@
       <c r="D153" t="s">
         <v>4</v>
       </c>
-      <c r="E153" t="s">
-        <v>73</v>
+      <c r="E153" t="str">
+        <f>D153&amp;"_"&amp;F153</f>
+        <v>RawData_12</v>
       </c>
       <c r="F153">
         <v>12</v>
@@ -11458,8 +11602,9 @@
       <c r="D154" t="s">
         <v>46</v>
       </c>
-      <c r="E154" t="s">
-        <v>69</v>
+      <c r="E154" t="str">
+        <f>D154&amp;"_"&amp;F154</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F154">
         <v>12</v>
@@ -11524,13 +11669,14 @@
         <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" t="s">
         <v>69</v>
+      </c>
+      <c r="E155" t="str">
+        <f>D155&amp;"_"&amp;F155</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F155">
         <v>12</v>
@@ -11539,52 +11685,52 @@
         <v>65</v>
       </c>
       <c r="H155">
-        <v>6.8849999999999995E-2</v>
+        <v>6.012E-2</v>
       </c>
       <c r="I155">
-        <v>81.818179999999998</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J155">
-        <v>6.5869299999999997</v>
+        <v>5.4149700000000003</v>
       </c>
       <c r="K155">
-        <v>0.90610000000000002</v>
+        <v>0.80227999999999999</v>
       </c>
       <c r="L155">
-        <v>220894.27857018</v>
+        <v>206173.513057</v>
       </c>
       <c r="M155">
-        <v>212408.880833398</v>
+        <v>216719.549581</v>
       </c>
       <c r="N155">
-        <v>219051.95510070599</v>
+        <v>217798.079138</v>
       </c>
       <c r="O155">
-        <v>216488.995682654</v>
+        <v>213714.06758100001</v>
       </c>
       <c r="P155">
-        <v>224204.60342199399</v>
+        <v>224416.98283399999</v>
       </c>
       <c r="Q155">
-        <v>226103.58670032601</v>
+        <v>224416.98283399999</v>
       </c>
       <c r="R155">
-        <v>214120.56862626501</v>
+        <v>224416.98283399999</v>
       </c>
       <c r="S155">
-        <v>217477.213332274</v>
+        <v>224475.017689</v>
       </c>
       <c r="T155">
-        <v>206709.76320522101</v>
+        <v>213171.280104</v>
       </c>
       <c r="U155">
-        <v>218712.45498750301</v>
+        <v>211844.09565900001</v>
       </c>
       <c r="V155">
-        <v>207209.23435151501</v>
+        <v>224475.017689</v>
       </c>
       <c r="W155">
-        <v>192670.170618681</v>
+        <v>206749.34887399999</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
@@ -11600,8 +11746,9 @@
       <c r="D156" t="s">
         <v>4</v>
       </c>
-      <c r="E156" t="s">
-        <v>73</v>
+      <c r="E156" t="str">
+        <f>D156&amp;"_"&amp;F156</f>
+        <v>RawData_12</v>
       </c>
       <c r="F156">
         <v>12</v>
@@ -11671,8 +11818,9 @@
       <c r="D157" t="s">
         <v>4</v>
       </c>
-      <c r="E157" t="s">
-        <v>72</v>
+      <c r="E157" t="str">
+        <f>D157&amp;"_"&amp;F157</f>
+        <v>RawData_36</v>
       </c>
       <c r="F157">
         <v>36</v>
@@ -11737,67 +11885,68 @@
         <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E158" t="str">
+        <f>D158&amp;"_"&amp;F158</f>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F158">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
         <v>65</v>
       </c>
       <c r="H158">
-        <v>0.1976</v>
+        <v>0.18218000000000001</v>
       </c>
       <c r="I158">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J158">
-        <v>-17.788209999999999</v>
+        <v>-14.19772</v>
       </c>
       <c r="K158">
-        <v>0.65563000000000005</v>
+        <v>0.60065000000000002</v>
       </c>
       <c r="L158">
-        <v>20588.92755</v>
+        <v>22445.284361000002</v>
       </c>
       <c r="M158">
-        <v>22300.220583999999</v>
+        <v>22451.221421999999</v>
       </c>
       <c r="N158">
-        <v>22143.281967999999</v>
+        <v>22439.700826</v>
       </c>
       <c r="O158">
-        <v>22684.743968999999</v>
+        <v>22436.372786</v>
       </c>
       <c r="P158">
-        <v>22511.410277999999</v>
+        <v>22438.591799000002</v>
       </c>
       <c r="Q158">
-        <v>22663.372062999999</v>
+        <v>22437.587841</v>
       </c>
       <c r="R158">
-        <v>23272.999212999999</v>
+        <v>22437.748081999998</v>
       </c>
       <c r="S158">
-        <v>25717.500887999999</v>
+        <v>22438.904205999999</v>
       </c>
       <c r="T158">
-        <v>24303.859009</v>
+        <v>22437.945174</v>
       </c>
       <c r="U158">
-        <v>23939.255422999999</v>
+        <v>22437.945167999998</v>
       </c>
       <c r="V158">
-        <v>23456.029305</v>
+        <v>22437.945167999998</v>
       </c>
       <c r="W158">
-        <v>24161.933736999999</v>
+        <v>22437.939848000002</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
@@ -11813,8 +11962,9 @@
       <c r="D159" t="s">
         <v>4</v>
       </c>
-      <c r="E159" t="s">
-        <v>73</v>
+      <c r="E159" t="str">
+        <f>D159&amp;"_"&amp;F159</f>
+        <v>RawData_12</v>
       </c>
       <c r="F159">
         <v>12</v>
@@ -11884,8 +12034,9 @@
       <c r="D160" t="s">
         <v>4</v>
       </c>
-      <c r="E160" t="s">
-        <v>70</v>
+      <c r="E160" t="str">
+        <f>D160&amp;"_"&amp;F160</f>
+        <v>RawData_24</v>
       </c>
       <c r="F160">
         <v>24</v>
@@ -11955,8 +12106,9 @@
       <c r="D161" t="s">
         <v>4</v>
       </c>
-      <c r="E161" t="s">
-        <v>70</v>
+      <c r="E161" t="str">
+        <f>D161&amp;"_"&amp;F161</f>
+        <v>RawData_24</v>
       </c>
       <c r="F161">
         <v>24</v>
@@ -12026,8 +12178,9 @@
       <c r="D162" t="s">
         <v>4</v>
       </c>
-      <c r="E162" t="s">
-        <v>73</v>
+      <c r="E162" t="str">
+        <f>D162&amp;"_"&amp;F162</f>
+        <v>RawData_12</v>
       </c>
       <c r="F162">
         <v>12</v>
@@ -12097,8 +12250,9 @@
       <c r="D163" t="s">
         <v>46</v>
       </c>
-      <c r="E163" t="s">
-        <v>68</v>
+      <c r="E163" t="str">
+        <f>D163&amp;"_"&amp;F163</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F163">
         <v>36</v>
@@ -12168,8 +12322,9 @@
       <c r="D164" t="s">
         <v>4</v>
       </c>
-      <c r="E164" t="s">
-        <v>73</v>
+      <c r="E164" t="str">
+        <f>D164&amp;"_"&amp;F164</f>
+        <v>RawData_12</v>
       </c>
       <c r="F164">
         <v>12</v>
@@ -12239,8 +12394,9 @@
       <c r="D165" t="s">
         <v>46</v>
       </c>
-      <c r="E165" t="s">
-        <v>68</v>
+      <c r="E165" t="str">
+        <f>D165&amp;"_"&amp;F165</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F165">
         <v>36</v>
@@ -12310,8 +12466,9 @@
       <c r="D166" t="s">
         <v>4</v>
       </c>
-      <c r="E166" t="s">
-        <v>72</v>
+      <c r="E166" t="str">
+        <f>D166&amp;"_"&amp;F166</f>
+        <v>RawData_36</v>
       </c>
       <c r="F166">
         <v>36</v>
@@ -12376,67 +12533,68 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E167" t="str">
+        <f>D167&amp;"_"&amp;F167</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F167">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G167" t="s">
         <v>65</v>
       </c>
       <c r="H167">
-        <v>0.11477999999999999</v>
+        <v>0.11362999999999999</v>
       </c>
       <c r="I167">
         <v>72.727270000000004</v>
       </c>
       <c r="J167">
-        <v>7.3693200000000001</v>
+        <v>5.9379900000000001</v>
       </c>
       <c r="K167">
-        <v>0.48762</v>
+        <v>0.45282</v>
       </c>
       <c r="L167">
-        <v>352.54018157512098</v>
+        <v>394.18154399999997</v>
       </c>
       <c r="M167">
-        <v>350.13061355153599</v>
+        <v>374.00197500000002</v>
       </c>
       <c r="N167">
-        <v>355.91117169683099</v>
+        <v>379.06736100000001</v>
       </c>
       <c r="O167">
-        <v>332.62438980871099</v>
+        <v>370.04856000000001</v>
       </c>
       <c r="P167">
-        <v>391.41167038799398</v>
+        <v>365.13133599999998</v>
       </c>
       <c r="Q167">
-        <v>360.162724163875</v>
+        <v>366.15545400000002</v>
       </c>
       <c r="R167">
-        <v>327.08719691096798</v>
+        <v>358.294038</v>
       </c>
       <c r="S167">
-        <v>358.36278800135301</v>
+        <v>351.04689500000001</v>
       </c>
       <c r="T167">
-        <v>348.56150038604699</v>
+        <v>400.46027400000003</v>
       </c>
       <c r="U167">
-        <v>407.581985482297</v>
+        <v>286.26473800000002</v>
       </c>
       <c r="V167">
-        <v>372.12003237488</v>
+        <v>362.60226699999998</v>
       </c>
       <c r="W167">
-        <v>326.84110783986102</v>
+        <v>342.267109</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.3">
@@ -12452,8 +12610,9 @@
       <c r="D168" t="s">
         <v>4</v>
       </c>
-      <c r="E168" t="s">
-        <v>73</v>
+      <c r="E168" t="str">
+        <f>D168&amp;"_"&amp;F168</f>
+        <v>RawData_12</v>
       </c>
       <c r="F168">
         <v>12</v>
@@ -12521,10 +12680,11 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>4</v>
-      </c>
-      <c r="E169" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E169" t="str">
+        <f>D169&amp;"_"&amp;F169</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F169">
         <v>12</v>
@@ -12533,52 +12693,52 @@
         <v>65</v>
       </c>
       <c r="H169">
-        <v>5.1799999999999999E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="I169">
-        <v>45.454549999999998</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J169">
-        <v>-1.09076</v>
+        <v>3.5939999999999999</v>
       </c>
       <c r="K169">
-        <v>0.57199</v>
+        <v>0.52642999999999995</v>
       </c>
       <c r="L169">
-        <v>17196.514016000001</v>
+        <v>15375.61794</v>
       </c>
       <c r="M169">
-        <v>16191.727622</v>
+        <v>14780.715294</v>
       </c>
       <c r="N169">
-        <v>15390.591145</v>
+        <v>15560.531607999999</v>
       </c>
       <c r="O169">
-        <v>16452.328602000001</v>
+        <v>15829.944008</v>
       </c>
       <c r="P169">
-        <v>15747.751963000001</v>
+        <v>15786.431774000001</v>
       </c>
       <c r="Q169">
-        <v>15265.268024999999</v>
+        <v>15824.414085</v>
       </c>
       <c r="R169">
-        <v>15455.522971</v>
+        <v>15689.588555</v>
       </c>
       <c r="S169">
-        <v>15501.952366</v>
+        <v>15735.149372</v>
       </c>
       <c r="T169">
-        <v>15981.646086000001</v>
+        <v>15119.634937999999</v>
       </c>
       <c r="U169">
-        <v>16828.011405000001</v>
+        <v>15834.424284000001</v>
       </c>
       <c r="V169">
-        <v>18158.340104999999</v>
+        <v>15868.406951000001</v>
       </c>
       <c r="W169">
-        <v>18188.388382000001</v>
+        <v>15853.530957999999</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.3">
@@ -12589,13 +12749,14 @@
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>4</v>
-      </c>
-      <c r="E170" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E170" t="str">
+        <f>D170&amp;"_"&amp;F170</f>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F170">
         <v>12</v>
@@ -12604,52 +12765,52 @@
         <v>65</v>
       </c>
       <c r="H170">
-        <v>5.1020000000000003E-2</v>
+        <v>4.8649999999999999E-2</v>
       </c>
       <c r="I170">
-        <v>90.909090000000006</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J170">
-        <v>5.2082199999999998</v>
+        <v>1.6101000000000001</v>
       </c>
       <c r="K170">
-        <v>0.66869999999999996</v>
+        <v>0.60985</v>
       </c>
       <c r="L170">
-        <v>28090.013680697099</v>
+        <v>28567.403321000002</v>
       </c>
       <c r="M170">
-        <v>27106.904012760599</v>
+        <v>26505.148872000002</v>
       </c>
       <c r="N170">
-        <v>28793.0762839259</v>
+        <v>29258.603944999999</v>
       </c>
       <c r="O170">
-        <v>28355.0357530172</v>
+        <v>30446.957933000002</v>
       </c>
       <c r="P170">
-        <v>30162.278067256299</v>
+        <v>32215.690225999999</v>
       </c>
       <c r="Q170">
-        <v>29712.062760628301</v>
+        <v>30598.056859</v>
       </c>
       <c r="R170">
-        <v>28327.5816975536</v>
+        <v>30006.043937999999</v>
       </c>
       <c r="S170">
-        <v>28901.344598703701</v>
+        <v>28216.253429</v>
       </c>
       <c r="T170">
-        <v>27094.449034854999</v>
+        <v>27428.864785000002</v>
       </c>
       <c r="U170">
-        <v>28894.706278399</v>
+        <v>28922.906971</v>
       </c>
       <c r="V170">
-        <v>27939.871973239398</v>
+        <v>30112.711078</v>
       </c>
       <c r="W170">
-        <v>24959.090433986301</v>
+        <v>28900.402644000002</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.3">
@@ -12660,13 +12821,14 @@
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>4</v>
-      </c>
-      <c r="E171" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="E171" t="str">
+        <f>D171&amp;"_"&amp;F171</f>
+        <v>TsCesium_36</v>
       </c>
       <c r="F171">
         <v>36</v>
@@ -12675,52 +12837,52 @@
         <v>65</v>
       </c>
       <c r="H171">
-        <v>7.3440000000000005E-2</v>
+        <v>5.5460000000000002E-2</v>
       </c>
       <c r="I171">
-        <v>81.818179999999998</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>6.8017799999999999</v>
+        <v>4.6614699999999996</v>
       </c>
       <c r="K171">
-        <v>0.64844999999999997</v>
+        <v>0.49782999999999999</v>
       </c>
       <c r="L171">
-        <v>2666.573797</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="M171">
-        <v>2617.503314</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="N171">
-        <v>2421.114016</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="O171">
-        <v>2278.660124</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="P171">
-        <v>2358.3354509999999</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="Q171">
-        <v>2470.537425</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="R171">
-        <v>2366.1264150000002</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="S171">
-        <v>2550.9097940000001</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="T171">
-        <v>2630.1697290000002</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="U171">
-        <v>2587.3937900000001</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="V171">
-        <v>2651.0317399999999</v>
+        <v>2563.3494810000002</v>
       </c>
       <c r="W171">
-        <v>2471.2839949999998</v>
+        <v>2563.3494810000002</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.3">
@@ -12736,8 +12898,9 @@
       <c r="D172" t="s">
         <v>4</v>
       </c>
-      <c r="E172" t="s">
-        <v>70</v>
+      <c r="E172" t="str">
+        <f>D172&amp;"_"&amp;F172</f>
+        <v>RawData_24</v>
       </c>
       <c r="F172">
         <v>24</v>
@@ -12805,64 +12968,65 @@
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E173" t="str">
+        <f>D173&amp;"_"&amp;F173</f>
+        <v>TsCesium_12</v>
       </c>
       <c r="F173">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G173" t="s">
         <v>65</v>
       </c>
       <c r="H173">
-        <v>7.4039999999999995E-2</v>
+        <v>5.6910000000000002E-2</v>
       </c>
       <c r="I173">
-        <v>63.636360000000003</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J173">
-        <v>1.5475300000000001</v>
+        <v>-0.49597999999999998</v>
       </c>
       <c r="K173">
-        <v>0.42142000000000002</v>
+        <v>0.31147000000000002</v>
       </c>
       <c r="L173">
-        <v>2086.332476</v>
+        <v>2350.1318689999998</v>
       </c>
       <c r="M173">
-        <v>2290.4983480000001</v>
+        <v>2385.554736</v>
       </c>
       <c r="N173">
-        <v>2247.6289879999999</v>
+        <v>2215.3227619999998</v>
       </c>
       <c r="O173">
-        <v>2284.3328059999999</v>
+        <v>2358.5575060000001</v>
       </c>
       <c r="P173">
-        <v>2526.18003</v>
+        <v>2381.6964779999998</v>
       </c>
       <c r="Q173">
-        <v>2345.9368669999999</v>
+        <v>2363.044277</v>
       </c>
       <c r="R173">
-        <v>2347.0290660000001</v>
+        <v>2164.9588760000001</v>
       </c>
       <c r="S173">
-        <v>2303.8623109999999</v>
+        <v>2347.8300829999998</v>
       </c>
       <c r="T173">
-        <v>2278.8758200000002</v>
+        <v>2166.863773</v>
       </c>
       <c r="U173">
-        <v>2353.895822</v>
+        <v>2166.863773</v>
       </c>
       <c r="V173">
-        <v>2173.9702600000001</v>
+        <v>2338.357278</v>
       </c>
       <c r="W173">
-        <v>1861.531369</v>
+        <v>2423.3898119999999</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.3">
@@ -12873,67 +13037,68 @@
         <v>40</v>
       </c>
       <c r="C174" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="E174" t="str">
+        <f>D174&amp;"_"&amp;F174</f>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F174">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>65</v>
       </c>
       <c r="H174">
-        <v>0.10687000000000001</v>
+        <v>9.2789999999999997E-2</v>
       </c>
       <c r="I174">
-        <v>45.454549999999998</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>-5.46279</v>
+        <v>-1.8256300000000001</v>
       </c>
       <c r="K174">
-        <v>0.18379000000000001</v>
+        <v>0.16558</v>
       </c>
       <c r="L174">
-        <v>14209.122626</v>
+        <v>12887.233025</v>
       </c>
       <c r="M174">
-        <v>14683.371730999999</v>
+        <v>12887.233025</v>
       </c>
       <c r="N174">
-        <v>14486.992464999999</v>
+        <v>12887.233025</v>
       </c>
       <c r="O174">
-        <v>12370.0815</v>
+        <v>12887.233025</v>
       </c>
       <c r="P174">
-        <v>11400.634690999999</v>
+        <v>12887.233025</v>
       </c>
       <c r="Q174">
-        <v>11815.097673</v>
+        <v>12887.233025</v>
       </c>
       <c r="R174">
-        <v>13017.785296</v>
+        <v>12887.233025</v>
       </c>
       <c r="S174">
-        <v>14049.645210000001</v>
+        <v>12887.233025</v>
       </c>
       <c r="T174">
-        <v>13136.144149</v>
+        <v>12887.233025</v>
       </c>
       <c r="U174">
-        <v>14285.717239</v>
+        <v>12887.233025</v>
       </c>
       <c r="V174">
-        <v>13690.856239000001</v>
+        <v>12887.233025</v>
       </c>
       <c r="W174">
-        <v>13025.258175000001</v>
+        <v>12887.233025</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.3">
@@ -12944,13 +13109,14 @@
         <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>4</v>
-      </c>
-      <c r="E175" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="E175" t="str">
+        <f>D175&amp;"_"&amp;F175</f>
+        <v>TsCesium_36</v>
       </c>
       <c r="F175">
         <v>36</v>
@@ -12959,52 +13125,52 @@
         <v>65</v>
       </c>
       <c r="H175">
-        <v>0.18021999999999999</v>
+        <v>0.15833</v>
       </c>
       <c r="I175">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J175">
-        <v>-2.5490499999999998</v>
+        <v>12.545349999999999</v>
       </c>
       <c r="K175">
-        <v>1.00742</v>
+        <v>1.0376799999999999</v>
       </c>
       <c r="L175">
-        <v>2100.426594</v>
+        <v>1603.6893789999999</v>
       </c>
       <c r="M175">
-        <v>1979.554504</v>
+        <v>1571.4202660000001</v>
       </c>
       <c r="N175">
-        <v>1804.9138740000001</v>
+        <v>1603.6133159999999</v>
       </c>
       <c r="O175">
-        <v>1611.875374</v>
+        <v>1415.914274</v>
       </c>
       <c r="P175">
-        <v>1505.53999</v>
+        <v>1620.8737960000001</v>
       </c>
       <c r="Q175">
-        <v>1872.443945</v>
+        <v>1613.8852870000001</v>
       </c>
       <c r="R175">
-        <v>1470.686612</v>
+        <v>1400.395698</v>
       </c>
       <c r="S175">
-        <v>1860.719589</v>
+        <v>1650.689167</v>
       </c>
       <c r="T175">
-        <v>1915.444661</v>
+        <v>1642.179568</v>
       </c>
       <c r="U175">
-        <v>2106.3155059999999</v>
+        <v>1608.6929170000001</v>
       </c>
       <c r="V175">
-        <v>2283.5156419999998</v>
+        <v>1543.803631</v>
       </c>
       <c r="W175">
-        <v>1611.969885</v>
+        <v>1591.8612419999999</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
@@ -13020,8 +13186,9 @@
       <c r="D176" t="s">
         <v>4</v>
       </c>
-      <c r="E176" t="s">
-        <v>72</v>
+      <c r="E176" t="str">
+        <f>D176&amp;"_"&amp;F176</f>
+        <v>RawData_36</v>
       </c>
       <c r="F176">
         <v>36</v>
@@ -13086,13 +13253,14 @@
         <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>4</v>
-      </c>
-      <c r="E177" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E177" t="str">
+        <f>D177&amp;"_"&amp;F177</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F177">
         <v>24</v>
@@ -13101,52 +13269,52 @@
         <v>65</v>
       </c>
       <c r="H177">
-        <v>0.14097999999999999</v>
+        <v>0.12017</v>
       </c>
       <c r="I177">
-        <v>54.545450000000002</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J177">
-        <v>-12.32898</v>
+        <v>-9.9994499999999995</v>
       </c>
       <c r="K177">
-        <v>0.23713999999999999</v>
+        <v>0.19019</v>
       </c>
       <c r="L177">
-        <v>5749.8706119999997</v>
+        <v>6313.6572539999997</v>
       </c>
       <c r="M177">
-        <v>4789.2382690000004</v>
+        <v>6456.3215739999996</v>
       </c>
       <c r="N177">
-        <v>5093.5652049999999</v>
+        <v>6347.4758089999996</v>
       </c>
       <c r="O177">
-        <v>5624.8878539999996</v>
+        <v>6332.7480690000002</v>
       </c>
       <c r="P177">
-        <v>6725.5458840000001</v>
+        <v>6197.2527630000004</v>
       </c>
       <c r="Q177">
-        <v>6258.7723059999998</v>
+        <v>6359.1768810000003</v>
       </c>
       <c r="R177">
-        <v>6492.8773209999999</v>
+        <v>6418.9058660000001</v>
       </c>
       <c r="S177">
-        <v>7135.7838670000001</v>
+        <v>6357.3004010000004</v>
       </c>
       <c r="T177">
-        <v>7349.851216</v>
+        <v>6368.6799369999999</v>
       </c>
       <c r="U177">
-        <v>7811.3380070000003</v>
+        <v>6178.4050740000002</v>
       </c>
       <c r="V177">
-        <v>7660.1836169999997</v>
+        <v>6313.3409920000004</v>
       </c>
       <c r="W177">
-        <v>6935.474201</v>
+        <v>6374.2479249999997</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.3">
@@ -13157,67 +13325,68 @@
         <v>44</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>4</v>
-      </c>
-      <c r="E178" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E178" t="str">
+        <f>D178&amp;"_"&amp;F178</f>
+        <v>TsCesium_36</v>
       </c>
       <c r="F178">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>65</v>
       </c>
       <c r="H178">
-        <v>0.14391999999999999</v>
+        <v>0.11139</v>
       </c>
       <c r="I178">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J178">
-        <v>9.1938499999999994</v>
+        <v>9.5421600000000009</v>
       </c>
       <c r="K178">
-        <v>0.90149000000000001</v>
+        <v>0.73717999999999995</v>
       </c>
       <c r="L178">
-        <v>3618.3776640000001</v>
+        <v>3777.8338469999999</v>
       </c>
       <c r="M178">
-        <v>3629.7554359999999</v>
+        <v>3348.4113349999998</v>
       </c>
       <c r="N178">
-        <v>3612.5490380000001</v>
+        <v>3258.2686079999999</v>
       </c>
       <c r="O178">
-        <v>3325.3051449999998</v>
+        <v>3279.3806129999998</v>
       </c>
       <c r="P178">
-        <v>3643.2170270000001</v>
+        <v>3284.1259669999999</v>
       </c>
       <c r="Q178">
-        <v>3084.0209970000001</v>
+        <v>3361.2547650000001</v>
       </c>
       <c r="R178">
-        <v>3041.2530059999999</v>
+        <v>3279.3806129999998</v>
       </c>
       <c r="S178">
-        <v>3564.1951819999999</v>
+        <v>3725.3388629999999</v>
       </c>
       <c r="T178">
-        <v>3560.9422599999998</v>
+        <v>3582.6458790000001</v>
       </c>
       <c r="U178">
-        <v>3956.5132389999999</v>
+        <v>3563.2933760000001</v>
       </c>
       <c r="V178">
-        <v>3821.1178639999998</v>
+        <v>3760.3934389999999</v>
       </c>
       <c r="W178">
-        <v>3238.2244989999999</v>
+        <v>3713.6793309999998</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.3">
@@ -13233,8 +13402,9 @@
       <c r="D179" t="s">
         <v>4</v>
       </c>
-      <c r="E179" t="s">
-        <v>70</v>
+      <c r="E179" t="str">
+        <f>D179&amp;"_"&amp;F179</f>
+        <v>RawData_24</v>
       </c>
       <c r="F179">
         <v>24</v>
@@ -13304,8 +13474,9 @@
       <c r="D180" t="s">
         <v>4</v>
       </c>
-      <c r="E180" t="s">
-        <v>72</v>
+      <c r="E180" t="str">
+        <f>D180&amp;"_"&amp;F180</f>
+        <v>RawData_36</v>
       </c>
       <c r="F180">
         <v>36</v>
@@ -13370,67 +13541,68 @@
         <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>46</v>
-      </c>
-      <c r="E181" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E181" t="str">
+        <f>D181&amp;"_"&amp;F181</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F181">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G181" t="s">
         <v>65</v>
       </c>
       <c r="H181">
-        <v>0.16439000000000001</v>
+        <v>0.15823000000000001</v>
       </c>
       <c r="I181">
-        <v>81.818179999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J181">
-        <v>16.385570000000001</v>
+        <v>6.7403599999999999</v>
       </c>
       <c r="K181">
-        <v>0.33866000000000002</v>
+        <v>0.32557999999999998</v>
       </c>
       <c r="L181">
-        <v>4671.7442300000002</v>
+        <v>7096.0263670000004</v>
       </c>
       <c r="M181">
-        <v>4625.8274350000002</v>
+        <v>6944.9638670000004</v>
       </c>
       <c r="N181">
-        <v>5157.6969840000002</v>
+        <v>6944.6835940000001</v>
       </c>
       <c r="O181">
-        <v>5850.2753190000003</v>
+        <v>6946.1484380000002</v>
       </c>
       <c r="P181">
-        <v>5991.8521060000003</v>
+        <v>7017.595703</v>
       </c>
       <c r="Q181">
-        <v>6412.7560659999999</v>
+        <v>8344.1376949999994</v>
       </c>
       <c r="R181">
-        <v>6359.186471</v>
+        <v>6668.4956050000001</v>
       </c>
       <c r="S181">
-        <v>6392.6674679999996</v>
+        <v>6570.205078</v>
       </c>
       <c r="T181">
-        <v>7108.4433499999996</v>
+        <v>6233.5126950000003</v>
       </c>
       <c r="U181">
-        <v>7031.6762070000004</v>
+        <v>6182.3535160000001</v>
       </c>
       <c r="V181">
-        <v>7765.3883379999997</v>
+        <v>7715.6064450000003</v>
       </c>
       <c r="W181">
-        <v>7763.4751379999998</v>
+        <v>7133.8710940000001</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.3">
@@ -13441,67 +13613,68 @@
         <v>49</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E182" t="str">
+        <f>D182&amp;"_"&amp;F182</f>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F182">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>65</v>
       </c>
       <c r="H182">
-        <v>0.10786999999999999</v>
+        <v>8.5989999999999997E-2</v>
       </c>
       <c r="I182">
-        <v>81.818179999999998</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>11.7189</v>
+        <v>8.2729800000000004</v>
       </c>
       <c r="K182">
-        <v>0.91566000000000003</v>
+        <v>0.74287999999999998</v>
       </c>
       <c r="L182">
-        <v>52074.627559658999</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="M182">
-        <v>49387.4805086415</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="N182">
-        <v>51127.980084024901</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="O182">
-        <v>49770.807180767501</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="P182">
-        <v>54587.667464491802</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="Q182">
-        <v>53882.584896376298</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="R182">
-        <v>50918.170329205597</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="S182">
-        <v>51989.571408748903</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="T182">
-        <v>50925.4437665734</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="U182">
-        <v>54473.2808027184</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="V182">
-        <v>54605.042081780397</v>
+        <v>53856.085486000004</v>
       </c>
       <c r="W182">
-        <v>48251.739142575498</v>
+        <v>53856.085486000004</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.3">
@@ -13512,67 +13685,68 @@
         <v>50</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E183" t="str">
+        <f>D183&amp;"_"&amp;F183</f>
+        <v>TsCesium_36</v>
       </c>
       <c r="F183">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
         <v>65</v>
       </c>
       <c r="H183">
-        <v>8.5370000000000001E-2</v>
+        <v>8.3269999999999997E-2</v>
       </c>
       <c r="I183">
-        <v>81.818179999999998</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>-4.4813099999999997</v>
+        <v>6.5801999999999996</v>
       </c>
       <c r="K183">
-        <v>0.42677999999999999</v>
+        <v>0.46092</v>
       </c>
       <c r="L183">
-        <v>5587.5839056182404</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="M183">
-        <v>4650.3283762953397</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="N183">
-        <v>4803.82234744587</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="O183">
-        <v>4718.8741984635599</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="P183">
-        <v>6441.8876162103197</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="Q183">
-        <v>5707.2826942781703</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="R183">
-        <v>5006.0837266522904</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="S183">
-        <v>5510.5812748650496</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="T183">
-        <v>5930.9375763118096</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="U183">
-        <v>6115.2464484447401</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="V183">
-        <v>6723.2603979424202</v>
+        <v>4933.1898069999997</v>
       </c>
       <c r="W183">
-        <v>5011.8487387741097</v>
+        <v>4933.1898069999997</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.3">
@@ -13586,64 +13760,65 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E184" t="str">
+        <f>D184&amp;"_"&amp;F184</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F184">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G184" t="s">
         <v>65</v>
       </c>
       <c r="H184">
-        <v>7.1499999999999994E-2</v>
+        <v>5.2310000000000002E-2</v>
       </c>
       <c r="I184">
         <v>63.636360000000003</v>
       </c>
       <c r="J184">
-        <v>4.9670399999999999</v>
+        <v>-2.7957399999999999</v>
       </c>
       <c r="K184">
-        <v>0.51132</v>
+        <v>0.35391</v>
       </c>
       <c r="L184">
-        <v>1258.520158</v>
+        <v>1256.8271030000001</v>
       </c>
       <c r="M184">
-        <v>1298.7105710000001</v>
+        <v>1209.1866480000001</v>
       </c>
       <c r="N184">
-        <v>1210.3868660000001</v>
+        <v>1262.637506</v>
       </c>
       <c r="O184">
-        <v>1119.681063</v>
+        <v>1257.3626609999999</v>
       </c>
       <c r="P184">
-        <v>1147.867992</v>
+        <v>1240.4554410000001</v>
       </c>
       <c r="Q184">
-        <v>1181.5909320000001</v>
+        <v>1258.536805</v>
       </c>
       <c r="R184">
-        <v>1077.937968</v>
+        <v>1255.726073</v>
       </c>
       <c r="S184">
-        <v>1132.45553</v>
+        <v>1254.9102029999999</v>
       </c>
       <c r="T184">
-        <v>1070.689018</v>
+        <v>1276.432399</v>
       </c>
       <c r="U184">
-        <v>1002.291953</v>
+        <v>1223.062821</v>
       </c>
       <c r="V184">
-        <v>1093.961425</v>
+        <v>1230.218973</v>
       </c>
       <c r="W184">
-        <v>1194.2039259999999</v>
+        <v>1189.240961</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.3">
@@ -13659,8 +13834,9 @@
       <c r="D185" t="s">
         <v>4</v>
       </c>
-      <c r="E185" t="s">
-        <v>73</v>
+      <c r="E185" t="str">
+        <f>D185&amp;"_"&amp;F185</f>
+        <v>RawData_12</v>
       </c>
       <c r="F185">
         <v>12</v>
@@ -13725,13 +13901,14 @@
         <v>53</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E186" t="str">
+        <f>D186&amp;"_"&amp;F186</f>
+        <v>TsCesium_24</v>
       </c>
       <c r="F186">
         <v>24</v>
@@ -13740,52 +13917,52 @@
         <v>65</v>
       </c>
       <c r="H186">
-        <v>0.11377</v>
+        <v>9.8930000000000004E-2</v>
       </c>
       <c r="I186">
-        <v>72.727270000000004</v>
+        <v>0</v>
       </c>
       <c r="J186">
-        <v>-2.5137900000000002</v>
+        <v>5.7288800000000002</v>
       </c>
       <c r="K186">
-        <v>0.33117999999999997</v>
+        <v>0.31186000000000003</v>
       </c>
       <c r="L186">
-        <v>10167.6045601243</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="M186">
-        <v>8110.0891244590803</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="N186">
-        <v>8989.1933041622196</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="O186">
-        <v>7840.9576351661199</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="P186">
-        <v>10420.2498246742</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="Q186">
-        <v>10406.937441896</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="R186">
-        <v>9890.77025847396</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="S186">
-        <v>10856.2021087677</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="T186">
-        <v>10913.140346816201</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="U186">
-        <v>10438.3653256738</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="V186">
-        <v>9067.2472893181803</v>
+        <v>8688.5470690000002</v>
       </c>
       <c r="W186">
-        <v>6278.0877052817204</v>
+        <v>8688.5470690000002</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.3">
@@ -13801,8 +13978,9 @@
       <c r="D187" t="s">
         <v>46</v>
       </c>
-      <c r="E187" t="s">
-        <v>71</v>
+      <c r="E187" t="str">
+        <f>D187&amp;"_"&amp;F187</f>
+        <v>Catch22_24</v>
       </c>
       <c r="F187">
         <v>24</v>
@@ -13872,8 +14050,9 @@
       <c r="D188" t="s">
         <v>4</v>
       </c>
-      <c r="E188" t="s">
-        <v>70</v>
+      <c r="E188" t="str">
+        <f>D188&amp;"_"&amp;F188</f>
+        <v>RawData_24</v>
       </c>
       <c r="F188">
         <v>24</v>
@@ -13938,67 +14117,68 @@
         <v>56</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>46</v>
-      </c>
-      <c r="E189" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E189" t="str">
+        <f>D189&amp;"_"&amp;F189</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F189">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G189" t="s">
         <v>65</v>
       </c>
       <c r="H189">
-        <v>0.11691</v>
+        <v>8.0140000000000003E-2</v>
       </c>
       <c r="I189">
-        <v>81.818179999999998</v>
+        <v>9.0909099999999992</v>
       </c>
       <c r="J189">
-        <v>9.7288700000000006</v>
+        <v>6.1154700000000002</v>
       </c>
       <c r="K189">
-        <v>0.78952</v>
+        <v>0.54156000000000004</v>
       </c>
       <c r="L189">
-        <v>311803.43347686902</v>
+        <v>285928.44671599998</v>
       </c>
       <c r="M189">
-        <v>295250.08119249903</v>
+        <v>297905.249044</v>
       </c>
       <c r="N189">
-        <v>296367.48910035501</v>
+        <v>271950.51918300003</v>
       </c>
       <c r="O189">
-        <v>278149.23895161098</v>
+        <v>311687.025012</v>
       </c>
       <c r="P189">
-        <v>309102.081309275</v>
+        <v>293962.14391300001</v>
       </c>
       <c r="Q189">
-        <v>304035.02828994498</v>
+        <v>299938.74135000003</v>
       </c>
       <c r="R189">
-        <v>284758.00012401398</v>
+        <v>290125.13515300001</v>
       </c>
       <c r="S189">
-        <v>302475.99500344298</v>
+        <v>285986.027879</v>
       </c>
       <c r="T189">
-        <v>274900.68690340902</v>
+        <v>318257.04131300002</v>
       </c>
       <c r="U189">
-        <v>285840.01313806901</v>
+        <v>318257.04131300002</v>
       </c>
       <c r="V189">
-        <v>270362.365951046</v>
+        <v>318257.04131300002</v>
       </c>
       <c r="W189">
-        <v>226872.584824794</v>
+        <v>285356.97421299998</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
@@ -14009,67 +14189,68 @@
         <v>57</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E190" t="str">
+        <f>D190&amp;"_"&amp;F190</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F190">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G190" t="s">
         <v>65</v>
       </c>
       <c r="H190">
-        <v>0.15698000000000001</v>
+        <v>0.12712000000000001</v>
       </c>
       <c r="I190">
-        <v>63.636360000000003</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J190">
-        <v>13.30889</v>
+        <v>6.6457499999999996</v>
       </c>
       <c r="K190">
-        <v>0.81686999999999999</v>
+        <v>0.65414000000000005</v>
       </c>
       <c r="L190">
-        <v>730.86210670725302</v>
+        <v>740.56555200000003</v>
       </c>
       <c r="M190">
-        <v>666.88041733165301</v>
+        <v>781.07965100000001</v>
       </c>
       <c r="N190">
-        <v>669.29318555392501</v>
+        <v>781.07965100000001</v>
       </c>
       <c r="O190">
-        <v>641.92688758172903</v>
+        <v>781.07965100000001</v>
       </c>
       <c r="P190">
-        <v>771.68723332660102</v>
+        <v>707.646118</v>
       </c>
       <c r="Q190">
-        <v>699.92358443925195</v>
+        <v>754.30096400000002</v>
       </c>
       <c r="R190">
-        <v>701.164655415487</v>
+        <v>627.95568800000001</v>
       </c>
       <c r="S190">
-        <v>781.37580785717</v>
+        <v>830.46954300000004</v>
       </c>
       <c r="T190">
-        <v>760.34449055654898</v>
+        <v>815.47113000000002</v>
       </c>
       <c r="U190">
-        <v>856.31665517184194</v>
+        <v>829.78979500000003</v>
       </c>
       <c r="V190">
-        <v>727.72645622226298</v>
+        <v>800.55456500000003</v>
       </c>
       <c r="W190">
-        <v>612.64463019992604</v>
+        <v>832.70373500000005</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.3">
@@ -14085,8 +14266,9 @@
       <c r="D191" t="s">
         <v>46</v>
       </c>
-      <c r="E191" t="s">
-        <v>69</v>
+      <c r="E191" t="str">
+        <f>D191&amp;"_"&amp;F191</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F191">
         <v>12</v>
@@ -14156,8 +14338,9 @@
       <c r="D192" t="s">
         <v>46</v>
       </c>
-      <c r="E192" t="s">
-        <v>69</v>
+      <c r="E192" t="str">
+        <f>D192&amp;"_"&amp;F192</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F192">
         <v>12</v>
@@ -14227,8 +14410,9 @@
       <c r="D193" t="s">
         <v>46</v>
       </c>
-      <c r="E193" t="s">
-        <v>69</v>
+      <c r="E193" t="str">
+        <f>D193&amp;"_"&amp;F193</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F193">
         <v>12</v>
@@ -14298,8 +14482,9 @@
       <c r="D194" t="s">
         <v>46</v>
       </c>
-      <c r="E194" t="s">
-        <v>69</v>
+      <c r="E194" t="str">
+        <f>D194&amp;"_"&amp;F194</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F194">
         <v>12</v>
@@ -14364,67 +14549,68 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>4</v>
-      </c>
-      <c r="E195" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E195" t="str">
+        <f>D195&amp;"_"&amp;F195</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F195">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G195" t="s">
         <v>65</v>
       </c>
       <c r="H195">
-        <v>0.15422</v>
+        <v>0.10971</v>
       </c>
       <c r="I195">
-        <v>27.272729999999999</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J195">
-        <v>9.2263199999999994</v>
+        <v>-6.8312200000000001</v>
       </c>
       <c r="K195">
-        <v>0.59455999999999998</v>
+        <v>0.38020999999999999</v>
       </c>
       <c r="L195">
-        <v>378.89055327123498</v>
+        <v>468.06340799999998</v>
       </c>
       <c r="M195">
-        <v>330.79513690771898</v>
+        <v>439.30009200000001</v>
       </c>
       <c r="N195">
-        <v>366.24382598100601</v>
+        <v>420.73760499999997</v>
       </c>
       <c r="O195">
-        <v>406.389598500972</v>
+        <v>428.60111999999998</v>
       </c>
       <c r="P195">
-        <v>365.34174250899702</v>
+        <v>480.19471099999998</v>
       </c>
       <c r="Q195">
-        <v>422.22005502005402</v>
+        <v>459.28335800000002</v>
       </c>
       <c r="R195">
-        <v>367.48985834338498</v>
+        <v>458.44856199999998</v>
       </c>
       <c r="S195">
-        <v>382.19708315049598</v>
+        <v>457.80235800000003</v>
       </c>
       <c r="T195">
-        <v>377.04665152986303</v>
+        <v>455.21132499999999</v>
       </c>
       <c r="U195">
-        <v>386.37656562996301</v>
+        <v>452.91727200000003</v>
       </c>
       <c r="V195">
-        <v>415.21948419852998</v>
+        <v>431.86695900000001</v>
       </c>
       <c r="W195">
-        <v>376.78280724162403</v>
+        <v>431.86695900000001</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.3">
@@ -14440,8 +14626,9 @@
       <c r="D196" t="s">
         <v>46</v>
       </c>
-      <c r="E196" t="s">
-        <v>69</v>
+      <c r="E196" t="str">
+        <f>D196&amp;"_"&amp;F196</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F196">
         <v>12</v>
@@ -14511,8 +14698,9 @@
       <c r="D197" t="s">
         <v>46</v>
       </c>
-      <c r="E197" t="s">
-        <v>69</v>
+      <c r="E197" t="str">
+        <f>D197&amp;"_"&amp;F197</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F197">
         <v>12</v>
@@ -14582,8 +14770,9 @@
       <c r="D198" t="s">
         <v>4</v>
       </c>
-      <c r="E198" t="s">
-        <v>73</v>
+      <c r="E198" t="str">
+        <f>D198&amp;"_"&amp;F198</f>
+        <v>RawData_12</v>
       </c>
       <c r="F198">
         <v>12</v>
@@ -14653,8 +14842,9 @@
       <c r="D199" t="s">
         <v>46</v>
       </c>
-      <c r="E199" t="s">
-        <v>69</v>
+      <c r="E199" t="str">
+        <f>D199&amp;"_"&amp;F199</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F199">
         <v>12</v>
@@ -14724,8 +14914,9 @@
       <c r="D200" t="s">
         <v>46</v>
       </c>
-      <c r="E200" t="s">
-        <v>69</v>
+      <c r="E200" t="str">
+        <f>D200&amp;"_"&amp;F200</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F200">
         <v>12</v>
@@ -14790,67 +14981,68 @@
         <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
-      </c>
-      <c r="E201" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E201" t="str">
+        <f>D201&amp;"_"&amp;F201</f>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F201">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G201" t="s">
         <v>65</v>
       </c>
       <c r="H201">
-        <v>1.0042</v>
+        <v>0.87617</v>
       </c>
       <c r="I201">
-        <v>27.272729999999999</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J201">
-        <v>-91.761430000000004</v>
+        <v>-80.699160000000006</v>
       </c>
       <c r="K201">
-        <v>0.50844999999999996</v>
+        <v>0.44716</v>
       </c>
       <c r="L201">
-        <v>74.669928999999996</v>
+        <v>92.181837999999999</v>
       </c>
       <c r="M201">
-        <v>107.553253</v>
+        <v>92.181837999999999</v>
       </c>
       <c r="N201">
-        <v>72.180287000000007</v>
+        <v>92.181837999999999</v>
       </c>
       <c r="O201">
-        <v>78.954831999999996</v>
+        <v>91.490039999999993</v>
       </c>
       <c r="P201">
-        <v>98.764036000000004</v>
+        <v>75.130878999999993</v>
       </c>
       <c r="Q201">
-        <v>97.781481999999997</v>
+        <v>92.181837999999999</v>
       </c>
       <c r="R201">
-        <v>106.79344</v>
+        <v>92.181837999999999</v>
       </c>
       <c r="S201">
-        <v>88.932345999999995</v>
+        <v>89.548113000000001</v>
       </c>
       <c r="T201">
-        <v>120.72248999999999</v>
+        <v>89.849513999999999</v>
       </c>
       <c r="U201">
-        <v>101.858649</v>
+        <v>89.851850999999996</v>
       </c>
       <c r="V201">
-        <v>92.857000999999997</v>
+        <v>88.291567999999998</v>
       </c>
       <c r="W201">
-        <v>97.995144999999994</v>
+        <v>88.281863000000001</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.3">
@@ -14866,8 +15058,9 @@
       <c r="D202" t="s">
         <v>46</v>
       </c>
-      <c r="E202" t="s">
-        <v>69</v>
+      <c r="E202" t="str">
+        <f>D202&amp;"_"&amp;F202</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F202">
         <v>12</v>
@@ -14937,8 +15130,9 @@
       <c r="D203" t="s">
         <v>46</v>
       </c>
-      <c r="E203" t="s">
-        <v>69</v>
+      <c r="E203" t="str">
+        <f>D203&amp;"_"&amp;F203</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F203">
         <v>12</v>
@@ -15008,8 +15202,9 @@
       <c r="D204" t="s">
         <v>46</v>
       </c>
-      <c r="E204" t="s">
-        <v>69</v>
+      <c r="E204" t="str">
+        <f>D204&amp;"_"&amp;F204</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -15079,8 +15274,9 @@
       <c r="D205" t="s">
         <v>46</v>
       </c>
-      <c r="E205" t="s">
-        <v>69</v>
+      <c r="E205" t="str">
+        <f>D205&amp;"_"&amp;F205</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F205">
         <v>12</v>
@@ -15150,8 +15346,9 @@
       <c r="D206" t="s">
         <v>46</v>
       </c>
-      <c r="E206" t="s">
-        <v>69</v>
+      <c r="E206" t="str">
+        <f>D206&amp;"_"&amp;F206</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F206">
         <v>12</v>
@@ -15221,8 +15418,9 @@
       <c r="D207" t="s">
         <v>46</v>
       </c>
-      <c r="E207" t="s">
-        <v>69</v>
+      <c r="E207" t="str">
+        <f>D207&amp;"_"&amp;F207</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F207">
         <v>12</v>
@@ -15292,8 +15490,9 @@
       <c r="D208" t="s">
         <v>46</v>
       </c>
-      <c r="E208" t="s">
-        <v>68</v>
+      <c r="E208" t="str">
+        <f>D208&amp;"_"&amp;F208</f>
+        <v>Catch22_36</v>
       </c>
       <c r="F208">
         <v>36</v>
@@ -15358,14 +15557,14 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E209" t="str">
         <f>D209&amp;"_"&amp;F209</f>
-        <v>RawData_12</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F209">
         <v>12</v>
@@ -15374,52 +15573,52 @@
         <v>65</v>
       </c>
       <c r="H209">
-        <v>799834039621435</v>
+        <v>410093653768699</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J209">
-        <v>64.007230000000007</v>
+        <v>72.683030000000002</v>
       </c>
       <c r="K209">
-        <v>1.3504700000000001</v>
+        <v>1.09107</v>
       </c>
       <c r="L209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13658600000000001</v>
       </c>
       <c r="M209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13658000000000001</v>
       </c>
       <c r="N209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.136571</v>
       </c>
       <c r="O209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13656599999999999</v>
       </c>
       <c r="P209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.136571</v>
       </c>
       <c r="Q209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13657900000000001</v>
       </c>
       <c r="R209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13659199999999999</v>
       </c>
       <c r="S209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13659399999999999</v>
       </c>
       <c r="T209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13659299999999999</v>
       </c>
       <c r="U209">
-        <v>2.081521</v>
+        <v>0.136599</v>
       </c>
       <c r="V209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13659399999999999</v>
       </c>
       <c r="W209">
-        <v>7.0949999999999997E-3</v>
+        <v>0.13659299999999999</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
@@ -15435,8 +15634,9 @@
       <c r="D210" t="s">
         <v>4</v>
       </c>
-      <c r="E210" t="s">
-        <v>73</v>
+      <c r="E210" t="str">
+        <f>D210&amp;"_"&amp;F210</f>
+        <v>RawData_12</v>
       </c>
       <c r="F210">
         <v>12</v>
@@ -15506,8 +15706,9 @@
       <c r="D211" t="s">
         <v>46</v>
       </c>
-      <c r="E211" t="s">
-        <v>69</v>
+      <c r="E211" t="str">
+        <f>D211&amp;"_"&amp;F211</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F211">
         <v>12</v>
@@ -15577,8 +15778,9 @@
       <c r="D212" t="s">
         <v>46</v>
       </c>
-      <c r="E212" t="s">
-        <v>69</v>
+      <c r="E212" t="str">
+        <f>D212&amp;"_"&amp;F212</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F212">
         <v>12</v>
@@ -15643,67 +15845,68 @@
         <v>53</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>4</v>
-      </c>
-      <c r="E213" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="E213" t="str">
+        <f>D213&amp;"_"&amp;F213</f>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F213">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
         <v>65</v>
       </c>
       <c r="H213">
-        <v>0.30570999999999998</v>
+        <v>0.25135999999999997</v>
       </c>
       <c r="I213">
-        <v>63.636360000000003</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J213">
-        <v>-4.5130999999999997</v>
+        <v>7.7560700000000002</v>
       </c>
       <c r="K213">
-        <v>0.8901</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="L213">
-        <v>39.303040000000003</v>
+        <v>41.714336000000003</v>
       </c>
       <c r="M213">
-        <v>39.399456000000001</v>
+        <v>41.645764999999997</v>
       </c>
       <c r="N213">
-        <v>38.203814999999999</v>
+        <v>30.012435</v>
       </c>
       <c r="O213">
-        <v>35.269356000000002</v>
+        <v>31.752638999999999</v>
       </c>
       <c r="P213">
-        <v>35.940188999999997</v>
+        <v>37.820602000000001</v>
       </c>
       <c r="Q213">
-        <v>48.446280999999999</v>
+        <v>37.33717</v>
       </c>
       <c r="R213">
-        <v>35.722110999999998</v>
+        <v>40.364956999999997</v>
       </c>
       <c r="S213">
-        <v>42.591208999999999</v>
+        <v>32.121490999999999</v>
       </c>
       <c r="T213">
-        <v>46.995933999999998</v>
+        <v>37.632080999999999</v>
       </c>
       <c r="U213">
-        <v>45.724556</v>
+        <v>35.251719999999999</v>
       </c>
       <c r="V213">
-        <v>45.975887</v>
+        <v>42.248601000000001</v>
       </c>
       <c r="W213">
-        <v>56.452075999999998</v>
+        <v>42.248601000000001</v>
       </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.3">
@@ -15719,8 +15922,9 @@
       <c r="D214" t="s">
         <v>4</v>
       </c>
-      <c r="E214" t="s">
-        <v>73</v>
+      <c r="E214" t="str">
+        <f>D214&amp;"_"&amp;F214</f>
+        <v>RawData_12</v>
       </c>
       <c r="F214">
         <v>12</v>
@@ -15790,8 +15994,9 @@
       <c r="D215" t="s">
         <v>46</v>
       </c>
-      <c r="E215" t="s">
-        <v>69</v>
+      <c r="E215" t="str">
+        <f>D215&amp;"_"&amp;F215</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F215">
         <v>12</v>
@@ -15856,14 +16061,14 @@
         <v>56</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E216" t="str">
         <f>D216&amp;"_"&amp;F216</f>
-        <v>RawData_36</v>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F216">
         <v>36</v>
@@ -15872,52 +16077,52 @@
         <v>65</v>
       </c>
       <c r="H216">
-        <v>2.23470865309937E+16</v>
+        <v>6570556700349700</v>
       </c>
       <c r="I216">
-        <v>9.0909099999999992</v>
+        <v>0</v>
       </c>
       <c r="J216">
-        <v>-239.83318</v>
+        <v>-5.04488</v>
       </c>
       <c r="K216">
-        <v>0.64697000000000005</v>
+        <v>0.30934</v>
       </c>
       <c r="L216">
-        <v>6.4352819999999999</v>
+        <v>1.750748</v>
       </c>
       <c r="M216">
-        <v>3.540232</v>
+        <v>1.750748</v>
       </c>
       <c r="N216">
-        <v>4.6286870000000002</v>
+        <v>1.750748</v>
       </c>
       <c r="O216">
-        <v>3.215039</v>
+        <v>1.750748</v>
       </c>
       <c r="P216">
-        <v>7.4512530000000003</v>
+        <v>1.750748</v>
       </c>
       <c r="Q216">
-        <v>5.995266</v>
+        <v>1.750748</v>
       </c>
       <c r="R216">
-        <v>4.8064179999999999</v>
+        <v>1.750748</v>
       </c>
       <c r="S216">
-        <v>7.0474040000000002</v>
+        <v>1.750748</v>
       </c>
       <c r="T216">
-        <v>5.2069979999999996</v>
+        <v>1.750748</v>
       </c>
       <c r="U216">
-        <v>5.2006649999999999</v>
+        <v>1.750748</v>
       </c>
       <c r="V216">
-        <v>9.9382999999999999</v>
+        <v>1.750748</v>
       </c>
       <c r="W216">
-        <v>4.501093</v>
+        <v>1.750748</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
@@ -15933,8 +16138,9 @@
       <c r="D217" t="s">
         <v>46</v>
       </c>
-      <c r="E217" t="s">
-        <v>69</v>
+      <c r="E217" t="str">
+        <f>D217&amp;"_"&amp;F217</f>
+        <v>Catch22_12</v>
       </c>
       <c r="F217">
         <v>12</v>
@@ -15992,7 +16198,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W217"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="72">
   <si>
     <t>etanolhidratado</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>TsCesium</t>
+  </si>
+  <si>
+    <t>TsFel</t>
+  </si>
+  <si>
+    <t>TsFlex</t>
   </si>
 </sst>
 </file>
@@ -1085,14 +1091,14 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E8" t="str">
         <f>D8&amp;"_"&amp;F8</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F8">
         <v>36</v>
@@ -1101,52 +1107,52 @@
         <v>65</v>
       </c>
       <c r="H8">
-        <v>0.33885999999999999</v>
+        <v>0.21254000000000001</v>
       </c>
       <c r="I8">
-        <v>63.636360000000003</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J8">
-        <v>29.927240000000001</v>
+        <v>21.990549999999999</v>
       </c>
       <c r="K8">
-        <v>0.52925</v>
+        <v>0.41094000000000003</v>
       </c>
       <c r="L8">
-        <v>6207.8077839999996</v>
+        <v>9878.9648440000001</v>
       </c>
       <c r="M8">
-        <v>8215.0036579999996</v>
+        <v>9848.3134769999997</v>
       </c>
       <c r="N8">
-        <v>9133.6590080000005</v>
+        <v>10503.283203000001</v>
       </c>
       <c r="O8">
-        <v>8274.0812339999993</v>
+        <v>11433.619140999999</v>
       </c>
       <c r="P8">
-        <v>6779.3026579999996</v>
+        <v>16058.130859000001</v>
       </c>
       <c r="Q8">
-        <v>5466.149703</v>
+        <v>15753.203125</v>
       </c>
       <c r="R8">
-        <v>10221.045568</v>
+        <v>20629.583984000001</v>
       </c>
       <c r="S8">
-        <v>13580.688786000001</v>
+        <v>23230.46875</v>
       </c>
       <c r="T8">
-        <v>18941.552199999998</v>
+        <v>19932.738281000002</v>
       </c>
       <c r="U8">
-        <v>29111.584588999998</v>
+        <v>17147.654297000001</v>
       </c>
       <c r="V8">
-        <v>27776.898850000001</v>
+        <v>17496.984375</v>
       </c>
       <c r="W8">
-        <v>20529.952374</v>
+        <v>10926.938477</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1229,14 +1235,14 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E10" t="str">
         <f>D10&amp;"_"&amp;F10</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F10">
         <v>36</v>
@@ -1245,52 +1251,52 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>5.8619999999999998E-2</v>
+        <v>5.6809999999999999E-2</v>
       </c>
       <c r="I10">
         <v>81.818179999999998</v>
       </c>
       <c r="J10">
-        <v>1.8675299999999999</v>
+        <v>-4.0364899999999997</v>
       </c>
       <c r="K10">
-        <v>0.27221000000000001</v>
+        <v>0.24529000000000001</v>
       </c>
       <c r="L10">
-        <v>99532.541687000004</v>
+        <v>92633.035829999993</v>
       </c>
       <c r="M10">
-        <v>98493.444610000006</v>
+        <v>98237.332009000005</v>
       </c>
       <c r="N10">
-        <v>102553.20009899999</v>
+        <v>102980.43228199999</v>
       </c>
       <c r="O10">
-        <v>101565.091573</v>
+        <v>105631.66792399999</v>
       </c>
       <c r="P10">
-        <v>105311.78216800001</v>
+        <v>113263.554344</v>
       </c>
       <c r="Q10">
-        <v>109784.425789</v>
+        <v>121615.50821299999</v>
       </c>
       <c r="R10">
-        <v>119132.308402</v>
+        <v>131922.906816</v>
       </c>
       <c r="S10">
-        <v>121843.307543</v>
+        <v>140374.919524</v>
       </c>
       <c r="T10">
-        <v>127604.828811</v>
+        <v>146404.55883600001</v>
       </c>
       <c r="U10">
-        <v>143046.42473900001</v>
+        <v>155125.37222399999</v>
       </c>
       <c r="V10">
-        <v>145327.444885</v>
+        <v>152730.217232</v>
       </c>
       <c r="W10">
-        <v>151619.86718500001</v>
+        <v>150677.601841</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1736,65 +1742,65 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E17" t="str">
         <f>D17&amp;"_"&amp;F17</f>
-        <v>RawData_36</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F17">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>65</v>
       </c>
       <c r="H17">
-        <v>0.12898999999999999</v>
+        <v>0.12238</v>
       </c>
       <c r="I17">
-        <v>72.727270000000004</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J17">
-        <v>-0.67205000000000004</v>
+        <v>8.7729800000000004</v>
       </c>
       <c r="K17">
-        <v>0.30725000000000002</v>
+        <v>0.34908</v>
       </c>
       <c r="L17">
-        <v>16804.451236000001</v>
+        <v>14181.5915</v>
       </c>
       <c r="M17">
-        <v>21491.098439000001</v>
+        <v>15930.012787</v>
       </c>
       <c r="N17">
-        <v>10300.255730999999</v>
+        <v>16252.919421000001</v>
       </c>
       <c r="O17">
-        <v>10733.611339999999</v>
+        <v>17121.879551000002</v>
       </c>
       <c r="P17">
-        <v>15512.991330999999</v>
+        <v>17135.005837000001</v>
       </c>
       <c r="Q17">
-        <v>19206.036950999998</v>
+        <v>17114.003778999999</v>
       </c>
       <c r="R17">
-        <v>21110.878525</v>
+        <v>19206.333758000001</v>
       </c>
       <c r="S17">
-        <v>22867.377176999998</v>
+        <v>21576.940998999999</v>
       </c>
       <c r="T17">
-        <v>24755.010979999999</v>
+        <v>20463.831952</v>
       </c>
       <c r="U17">
-        <v>23073.343370999999</v>
+        <v>20125.173773999999</v>
       </c>
       <c r="V17">
-        <v>30176.689992</v>
+        <v>20650.225212000001</v>
       </c>
       <c r="W17">
-        <v>27500.143114999999</v>
+        <v>20925.877217000001</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -1805,14 +1811,14 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E18" t="str">
         <f>D18&amp;"_"&amp;F18</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F18">
         <v>36</v>
@@ -1821,52 +1827,52 @@
         <v>65</v>
       </c>
       <c r="H18">
-        <v>0.11859</v>
+        <v>0.10854</v>
       </c>
       <c r="I18">
         <v>54.545450000000002</v>
       </c>
       <c r="J18">
-        <v>-3.4169999999999998</v>
+        <v>4.6165099999999999</v>
       </c>
       <c r="K18">
-        <v>0.25933</v>
+        <v>0.24887999999999999</v>
       </c>
       <c r="L18">
-        <v>4677.698633</v>
+        <v>4938.2329099999997</v>
       </c>
       <c r="M18">
-        <v>5674.4377519999998</v>
+        <v>4788.0087890000004</v>
       </c>
       <c r="N18">
-        <v>3086.914996</v>
+        <v>3925.5629880000001</v>
       </c>
       <c r="O18">
-        <v>3744.6928320000002</v>
+        <v>3633.1508789999998</v>
       </c>
       <c r="P18">
-        <v>4487.8483230000002</v>
+        <v>4729.435547</v>
       </c>
       <c r="Q18">
-        <v>4911.1875209999998</v>
+        <v>5621.3862300000001</v>
       </c>
       <c r="R18">
-        <v>5378.2152830000005</v>
+        <v>5073.8315430000002</v>
       </c>
       <c r="S18">
-        <v>6732.7607520000001</v>
+        <v>4540.4936520000001</v>
       </c>
       <c r="T18">
-        <v>6958.7016160000003</v>
+        <v>5814.0126950000003</v>
       </c>
       <c r="U18">
-        <v>6443.9363469999998</v>
+        <v>6631.71875</v>
       </c>
       <c r="V18">
-        <v>7386.3986720000003</v>
+        <v>5918.8159180000002</v>
       </c>
       <c r="W18">
-        <v>7027.8835079999999</v>
+        <v>5729.4301759999998</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2021,14 +2027,14 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E21" t="str">
         <f>D21&amp;"_"&amp;F21</f>
-        <v>Catch22_36</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F21">
         <v>36</v>
@@ -2037,52 +2043,52 @@
         <v>65</v>
       </c>
       <c r="H21">
-        <v>0.125</v>
+        <v>0.11388</v>
       </c>
       <c r="I21">
-        <v>45.454549999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J21">
-        <v>6.9530799999999999</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="K21">
-        <v>0.39824999999999999</v>
+        <v>0.33928999999999998</v>
       </c>
       <c r="L21">
-        <v>5101.3646680766296</v>
+        <v>4923.4320989999997</v>
       </c>
       <c r="M21">
-        <v>4096.2558074948502</v>
+        <v>4025.9083110000001</v>
       </c>
       <c r="N21">
-        <v>4076.1907617361699</v>
+        <v>4496.0201500000003</v>
       </c>
       <c r="O21">
-        <v>3958.3322633191001</v>
+        <v>5063.9336540000004</v>
       </c>
       <c r="P21">
-        <v>4421.9179502946399</v>
+        <v>5050.0082920000004</v>
       </c>
       <c r="Q21">
-        <v>4099.9344527803396</v>
+        <v>4672.3416559999996</v>
       </c>
       <c r="R21">
-        <v>4147.5228773169702</v>
+        <v>4307.8803029999999</v>
       </c>
       <c r="S21">
-        <v>4353.5313347800102</v>
+        <v>4305.4269190000005</v>
       </c>
       <c r="T21">
-        <v>4384.54645983714</v>
+        <v>4414.1097749999999</v>
       </c>
       <c r="U21">
-        <v>5599.8932797170801</v>
+        <v>5210.4463649999998</v>
       </c>
       <c r="V21">
-        <v>5063.7582410735004</v>
+        <v>5604.9816879999998</v>
       </c>
       <c r="W21">
-        <v>4491.8361245105698</v>
+        <v>5687.1563800000004</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2093,14 +2099,14 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E22" t="str">
         <f>D22&amp;"_"&amp;F22</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F22">
         <v>36</v>
@@ -2109,52 +2115,52 @@
         <v>65</v>
       </c>
       <c r="H22">
-        <v>0.20326</v>
+        <v>0.16681000000000001</v>
       </c>
       <c r="I22">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J22">
-        <v>21.957000000000001</v>
+        <v>17.112159999999999</v>
       </c>
       <c r="K22">
-        <v>0.45352999999999999</v>
+        <v>0.35372999999999999</v>
       </c>
       <c r="L22">
-        <v>960.00832500000001</v>
+        <v>762.05194100000006</v>
       </c>
       <c r="M22">
-        <v>907.99305100000004</v>
+        <v>656.98559599999999</v>
       </c>
       <c r="N22">
-        <v>690.58547199999998</v>
+        <v>788.74755900000002</v>
       </c>
       <c r="O22">
-        <v>639.89976999999999</v>
+        <v>768.15332000000001</v>
       </c>
       <c r="P22">
-        <v>693.48764200000005</v>
+        <v>830.18914800000005</v>
       </c>
       <c r="Q22">
-        <v>789.04356800000005</v>
+        <v>846.18859899999995</v>
       </c>
       <c r="R22">
-        <v>880.97127499999999</v>
+        <v>1072.9570309999999</v>
       </c>
       <c r="S22">
-        <v>1190.2528930000001</v>
+        <v>990.50769000000003</v>
       </c>
       <c r="T22">
-        <v>1343.9139909999999</v>
+        <v>1325.1152340000001</v>
       </c>
       <c r="U22">
-        <v>1225.3675310000001</v>
+        <v>1444.8066409999999</v>
       </c>
       <c r="V22">
-        <v>1387.3290790000001</v>
+        <v>1585.612061</v>
       </c>
       <c r="W22">
-        <v>1149.9333859999999</v>
+        <v>1523.6547849999999</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2453,14 +2459,14 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E27" t="str">
         <f>D27&amp;"_"&amp;F27</f>
-        <v>RawData_36</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -2469,52 +2475,52 @@
         <v>65</v>
       </c>
       <c r="H27">
-        <v>6.3039999999999999E-2</v>
+        <v>4.2819999999999997E-2</v>
       </c>
       <c r="I27">
-        <v>72.727270000000004</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J27">
-        <v>-1.03834</v>
+        <v>0.49175000000000002</v>
       </c>
       <c r="K27">
-        <v>0.52203999999999995</v>
+        <v>0.32949000000000001</v>
       </c>
       <c r="L27">
-        <v>633395.82783299999</v>
+        <v>672411.0625</v>
       </c>
       <c r="M27">
-        <v>608844.86080899998</v>
+        <v>649317</v>
       </c>
       <c r="N27">
-        <v>611143.40270500001</v>
+        <v>667501.875</v>
       </c>
       <c r="O27">
-        <v>592070.66780499998</v>
+        <v>630924.75</v>
       </c>
       <c r="P27">
-        <v>613143.64392099995</v>
+        <v>678767.4375</v>
       </c>
       <c r="Q27">
-        <v>647966.223872</v>
+        <v>647352.625</v>
       </c>
       <c r="R27">
-        <v>691421.163695</v>
+        <v>693148.9375</v>
       </c>
       <c r="S27">
-        <v>728149.52595499996</v>
+        <v>723547.875</v>
       </c>
       <c r="T27">
-        <v>763816.18026199995</v>
+        <v>761109.375</v>
       </c>
       <c r="U27">
-        <v>879976.56914899999</v>
+        <v>836785.0625</v>
       </c>
       <c r="V27">
-        <v>904691.47540500003</v>
+        <v>800431.375</v>
       </c>
       <c r="W27">
-        <v>986858.05652900005</v>
+        <v>769013.4375</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2669,68 +2675,68 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E30" t="str">
         <f>D30&amp;"_"&amp;F30</f>
-        <v>Catch22_36</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F30">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
         <v>65</v>
       </c>
       <c r="H30">
-        <v>3.1140000000000001E-2</v>
+        <v>2.8989999999999998E-2</v>
       </c>
       <c r="I30">
-        <v>54.545450000000002</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J30">
-        <v>-1.32412</v>
+        <v>1.54562</v>
       </c>
       <c r="K30">
-        <v>0.37608999999999998</v>
+        <v>0.36554999999999999</v>
       </c>
       <c r="L30">
-        <v>45024.357414634302</v>
+        <v>40143.144530999998</v>
       </c>
       <c r="M30">
-        <v>42370.484224639396</v>
+        <v>38707.472655999998</v>
       </c>
       <c r="N30">
-        <v>41821.154123791101</v>
+        <v>42450.96875</v>
       </c>
       <c r="O30">
-        <v>40580.916416552303</v>
+        <v>40661</v>
       </c>
       <c r="P30">
-        <v>41573.277424428503</v>
+        <v>40899.238280999998</v>
       </c>
       <c r="Q30">
-        <v>40341.682106294902</v>
+        <v>42103.714844000002</v>
       </c>
       <c r="R30">
-        <v>41796.455705765999</v>
+        <v>41959.621094000002</v>
       </c>
       <c r="S30">
-        <v>43948.7320663477</v>
+        <v>43235.917969000002</v>
       </c>
       <c r="T30">
-        <v>42164.760067988398</v>
+        <v>42929.105469000002</v>
       </c>
       <c r="U30">
-        <v>48058.186742633297</v>
+        <v>42469.578125</v>
       </c>
       <c r="V30">
-        <v>44609.746563229899</v>
+        <v>42550.082030999998</v>
       </c>
       <c r="W30">
-        <v>38517.0730684019</v>
+        <v>38229.691405999998</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -2885,68 +2891,68 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E33" t="str">
         <f>D33&amp;"_"&amp;F33</f>
-        <v>RawData_12</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>65</v>
       </c>
       <c r="H33">
-        <v>4.0629999999999999E-2</v>
+        <v>3.8920000000000003E-2</v>
       </c>
       <c r="I33">
-        <v>54.545450000000002</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J33">
-        <v>3.5281899999999999</v>
+        <v>0.43845000000000001</v>
       </c>
       <c r="K33">
-        <v>0.46228999999999998</v>
+        <v>0.44185000000000002</v>
       </c>
       <c r="L33">
-        <v>185668.08512869399</v>
+        <v>197146.84758100001</v>
       </c>
       <c r="M33">
-        <v>179245.19198550301</v>
+        <v>182855.06164</v>
       </c>
       <c r="N33">
-        <v>178397.09119217901</v>
+        <v>201378.46908899999</v>
       </c>
       <c r="O33">
-        <v>185153.57952270401</v>
+        <v>196221.47042</v>
       </c>
       <c r="P33">
-        <v>185675.86196562799</v>
+        <v>192910.676844</v>
       </c>
       <c r="Q33">
-        <v>183511.03233210999</v>
+        <v>195800.719939</v>
       </c>
       <c r="R33">
-        <v>186610.188781537</v>
+        <v>195691.611894</v>
       </c>
       <c r="S33">
-        <v>191856.86476418699</v>
+        <v>195350.48369299999</v>
       </c>
       <c r="T33">
-        <v>178878.89314330599</v>
+        <v>191083.020185</v>
       </c>
       <c r="U33">
-        <v>215182.093062384</v>
+        <v>191242.826244</v>
       </c>
       <c r="V33">
-        <v>203263.87987888299</v>
+        <v>191336.10045100001</v>
       </c>
       <c r="W33">
-        <v>175928.42250110599</v>
+        <v>190395.41102500001</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -4253,14 +4259,14 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E52" t="str">
         <f>D52&amp;"_"&amp;F52</f>
-        <v>RawData_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F52">
         <v>12</v>
@@ -4269,52 +4275,52 @@
         <v>65</v>
       </c>
       <c r="H52">
-        <v>3.1350000000000003E-2</v>
+        <v>2.8660000000000001E-2</v>
       </c>
       <c r="I52">
-        <v>63.636360000000003</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J52">
-        <v>0.81899</v>
+        <v>-4.7289999999999999E-2</v>
       </c>
       <c r="K52">
-        <v>0.64134000000000002</v>
+        <v>0.59057000000000004</v>
       </c>
       <c r="L52">
-        <v>258194.08258053401</v>
+        <v>263729.6875</v>
       </c>
       <c r="M52">
-        <v>253434.58747785201</v>
+        <v>262681.96875</v>
       </c>
       <c r="N52">
-        <v>245085.017318108</v>
+        <v>250466.6875</v>
       </c>
       <c r="O52">
-        <v>243866.84388565901</v>
+        <v>247724.328125</v>
       </c>
       <c r="P52">
-        <v>251687.34000108001</v>
+        <v>251103.171875</v>
       </c>
       <c r="Q52">
-        <v>252479.08627895499</v>
+        <v>259932.0625</v>
       </c>
       <c r="R52">
-        <v>249546.07367659899</v>
+        <v>244611.75</v>
       </c>
       <c r="S52">
-        <v>260312.36719788201</v>
+        <v>247169.96875</v>
       </c>
       <c r="T52">
-        <v>253539.74466101901</v>
+        <v>262296.0625</v>
       </c>
       <c r="U52">
-        <v>284115.56905800401</v>
+        <v>282015.75</v>
       </c>
       <c r="V52">
-        <v>268817.23540865502</v>
+        <v>276408.90625</v>
       </c>
       <c r="W52">
-        <v>253876.92116069299</v>
+        <v>253672.28125</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4541,14 +4547,14 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E56" t="str">
         <f>D56&amp;"_"&amp;F56</f>
-        <v>Catch22_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -4557,52 +4563,52 @@
         <v>65</v>
       </c>
       <c r="H56">
-        <v>0.32736999999999999</v>
+        <v>0.30556</v>
       </c>
       <c r="I56">
-        <v>45.454549999999998</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J56">
-        <v>14.045920000000001</v>
+        <v>-2.3649800000000001</v>
       </c>
       <c r="K56">
-        <v>0.35770999999999997</v>
+        <v>0.31384000000000001</v>
       </c>
       <c r="L56">
-        <v>46.908580999999998</v>
+        <v>55.206211000000003</v>
       </c>
       <c r="M56">
-        <v>44.452187000000002</v>
+        <v>70.387421000000003</v>
       </c>
       <c r="N56">
-        <v>50.558912999999997</v>
+        <v>57.121029</v>
       </c>
       <c r="O56">
-        <v>51.007339999999999</v>
+        <v>56.824843999999999</v>
       </c>
       <c r="P56">
-        <v>49.971027999999997</v>
+        <v>58.454582000000002</v>
       </c>
       <c r="Q56">
-        <v>63.437747999999999</v>
+        <v>79.679946999999999</v>
       </c>
       <c r="R56">
-        <v>40.004500999999998</v>
+        <v>48.829109000000003</v>
       </c>
       <c r="S56">
-        <v>40.359667000000002</v>
+        <v>79.851280000000003</v>
       </c>
       <c r="T56">
-        <v>65.702443000000002</v>
+        <v>53.434455999999997</v>
       </c>
       <c r="U56">
-        <v>55.917724999999997</v>
+        <v>31.389251999999999</v>
       </c>
       <c r="V56">
-        <v>60.453211000000003</v>
+        <v>68.703445000000002</v>
       </c>
       <c r="W56">
-        <v>46.657845999999999</v>
+        <v>73.051659000000001</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -4901,14 +4907,14 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E61" t="str">
         <f>D61&amp;"_"&amp;F61</f>
-        <v>Catch22_24</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F61">
         <v>24</v>
@@ -4917,52 +4923,52 @@
         <v>65</v>
       </c>
       <c r="H61">
-        <v>0.17948</v>
+        <v>0.15332999999999999</v>
       </c>
       <c r="I61">
-        <v>63.636360000000003</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J61">
-        <v>13.928940000000001</v>
+        <v>8.3115799999999993</v>
       </c>
       <c r="K61">
-        <v>0.63073999999999997</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="L61">
-        <v>24.647659999999998</v>
+        <v>28.298518000000001</v>
       </c>
       <c r="M61">
-        <v>36.948543999999998</v>
+        <v>28.298518000000001</v>
       </c>
       <c r="N61">
-        <v>28.021336999999999</v>
+        <v>28.298518000000001</v>
       </c>
       <c r="O61">
-        <v>28.366893999999998</v>
+        <v>28.298518000000001</v>
       </c>
       <c r="P61">
-        <v>22.410323000000002</v>
+        <v>35.412889999999997</v>
       </c>
       <c r="Q61">
-        <v>31.563289999999999</v>
+        <v>35.412889999999997</v>
       </c>
       <c r="R61">
-        <v>31.455867000000001</v>
+        <v>35.169659000000003</v>
       </c>
       <c r="S61">
-        <v>32.634697000000003</v>
+        <v>35.071365</v>
       </c>
       <c r="T61">
-        <v>30.643778999999999</v>
+        <v>35.906396999999998</v>
       </c>
       <c r="U61">
-        <v>40.147404999999999</v>
+        <v>35.906396999999998</v>
       </c>
       <c r="V61">
-        <v>35.366599000000001</v>
+        <v>35.906396999999998</v>
       </c>
       <c r="W61">
-        <v>31.303286</v>
+        <v>35.906396999999998</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5045,68 +5051,68 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E63" t="str">
         <f>D63&amp;"_"&amp;F63</f>
-        <v>RawData_12</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>65</v>
       </c>
       <c r="H63">
-        <v>0.18537000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I63">
-        <v>54.545450000000002</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J63">
-        <v>13.131970000000001</v>
+        <v>18.710899999999999</v>
       </c>
       <c r="K63">
-        <v>0.56652999999999998</v>
+        <v>0.58375999999999995</v>
       </c>
       <c r="L63">
-        <v>36.8528558713164</v>
+        <v>31.075305</v>
       </c>
       <c r="M63">
-        <v>35.874779612984902</v>
+        <v>31.689755000000002</v>
       </c>
       <c r="N63">
-        <v>35.791124242137997</v>
+        <v>31.157143999999999</v>
       </c>
       <c r="O63">
-        <v>38.641030471850499</v>
+        <v>34.933751000000001</v>
       </c>
       <c r="P63">
-        <v>34.274391936255597</v>
+        <v>35.197921000000001</v>
       </c>
       <c r="Q63">
-        <v>39.2278406314893</v>
+        <v>38.369591999999997</v>
       </c>
       <c r="R63">
-        <v>38.836564401143399</v>
+        <v>31.483834999999999</v>
       </c>
       <c r="S63">
-        <v>36.443779051685901</v>
+        <v>34.636431999999999</v>
       </c>
       <c r="T63">
-        <v>33.4467753623805</v>
+        <v>37.029212999999999</v>
       </c>
       <c r="U63">
-        <v>32.6206457974912</v>
+        <v>33.037689999999998</v>
       </c>
       <c r="V63">
-        <v>36.725705280897799</v>
+        <v>34.006793999999999</v>
       </c>
       <c r="W63">
-        <v>35.293666463780198</v>
+        <v>33.537030000000001</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5189,68 +5195,68 @@
         <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E65" t="str">
         <f>D65&amp;"_"&amp;F65</f>
-        <v>Catch22_36</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F65">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
         <v>65</v>
       </c>
       <c r="H65">
-        <v>0.28089999999999998</v>
+        <v>0.25896000000000002</v>
       </c>
       <c r="I65">
-        <v>45.454549999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J65">
-        <v>11.73629</v>
+        <v>27.402899999999999</v>
       </c>
       <c r="K65">
-        <v>0.56254999999999999</v>
+        <v>0.70940999999999999</v>
       </c>
       <c r="L65">
-        <v>35.003393399857998</v>
+        <v>54.180855000000001</v>
       </c>
       <c r="M65">
-        <v>36.773241209889697</v>
+        <v>43.997543</v>
       </c>
       <c r="N65">
-        <v>53.615081221084502</v>
+        <v>49.382519000000002</v>
       </c>
       <c r="O65">
-        <v>64.657607530882302</v>
+        <v>42.001465000000003</v>
       </c>
       <c r="P65">
-        <v>51.327429062712397</v>
+        <v>40.443142000000002</v>
       </c>
       <c r="Q65">
-        <v>59.866848835004298</v>
+        <v>46.579884</v>
       </c>
       <c r="R65">
-        <v>66.760594116797094</v>
+        <v>23.380313999999998</v>
       </c>
       <c r="S65">
-        <v>62.925591073566203</v>
+        <v>42.891846000000001</v>
       </c>
       <c r="T65">
-        <v>53.6897535137768</v>
+        <v>44.166992</v>
       </c>
       <c r="U65">
-        <v>64.942177795722301</v>
+        <v>60.586933000000002</v>
       </c>
       <c r="V65">
-        <v>51.627391608032703</v>
+        <v>43.606934000000003</v>
       </c>
       <c r="W65">
-        <v>53.304824129371497</v>
+        <v>47.104323999999998</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5405,14 +5411,14 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E68" t="str">
         <f>D68&amp;"_"&amp;F68</f>
-        <v>TsCesium_24</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F68">
         <v>24</v>
@@ -5421,52 +5427,52 @@
         <v>65</v>
       </c>
       <c r="H68">
-        <v>0.10539999999999999</v>
+        <v>0.10444000000000001</v>
       </c>
       <c r="I68">
-        <v>45.454549999999998</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J68">
-        <v>8.1732600000000009</v>
+        <v>5.3744399999999999</v>
       </c>
       <c r="K68">
-        <v>0.44159999999999999</v>
+        <v>0.42312</v>
       </c>
       <c r="L68">
-        <v>394.89927899999998</v>
+        <v>374.73714200000001</v>
       </c>
       <c r="M68">
-        <v>378.125046</v>
+        <v>382.48477100000002</v>
       </c>
       <c r="N68">
-        <v>398.89522799999997</v>
+        <v>390.46100000000001</v>
       </c>
       <c r="O68">
-        <v>375.78238499999998</v>
+        <v>397.56273599999997</v>
       </c>
       <c r="P68">
-        <v>378.125046</v>
+        <v>401.66891500000003</v>
       </c>
       <c r="Q68">
-        <v>378.46818500000001</v>
+        <v>401.10618599999998</v>
       </c>
       <c r="R68">
-        <v>370.47751399999999</v>
+        <v>395.69635499999998</v>
       </c>
       <c r="S68">
-        <v>357.77710300000001</v>
+        <v>390.86004200000002</v>
       </c>
       <c r="T68">
-        <v>367.40697499999999</v>
+        <v>384.084093</v>
       </c>
       <c r="U68">
-        <v>390.05339099999998</v>
+        <v>381.06187899999998</v>
       </c>
       <c r="V68">
-        <v>369.235387</v>
+        <v>378.875832</v>
       </c>
       <c r="W68">
-        <v>360.27998000000002</v>
+        <v>378.67909500000002</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5549,68 +5555,68 @@
         <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E70" t="str">
         <f>D70&amp;"_"&amp;F70</f>
-        <v>Catch22_24</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F70">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
       </c>
       <c r="H70">
-        <v>1426095596604320</v>
+        <v>371492175462616</v>
       </c>
       <c r="I70">
-        <v>36.363639999999997</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J70">
-        <v>4.2207400000000002</v>
+        <v>-28.952629999999999</v>
       </c>
       <c r="K70">
-        <v>0.77476</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="L70">
-        <v>8.9671210000000006</v>
+        <v>8.7653359999999996</v>
       </c>
       <c r="M70">
-        <v>3.0900059999999998</v>
+        <v>13.442901000000001</v>
       </c>
       <c r="N70">
-        <v>2.528708</v>
+        <v>8.8053519999999992</v>
       </c>
       <c r="O70">
-        <v>10.832610000000001</v>
+        <v>13.946206</v>
       </c>
       <c r="P70">
-        <v>3.7998820000000002</v>
+        <v>0.98985400000000001</v>
       </c>
       <c r="Q70">
-        <v>3.7173379999999998</v>
+        <v>10.825837</v>
       </c>
       <c r="R70">
-        <v>7.2887320000000004</v>
+        <v>17.005839999999999</v>
       </c>
       <c r="S70">
-        <v>12.301888999999999</v>
+        <v>17.260227</v>
       </c>
       <c r="T70">
-        <v>12.929221999999999</v>
+        <v>16.923779</v>
       </c>
       <c r="U70">
-        <v>13.220876000000001</v>
+        <v>15.473845000000001</v>
       </c>
       <c r="V70">
-        <v>20.226089999999999</v>
+        <v>12.366534</v>
       </c>
       <c r="W70">
-        <v>11.520474999999999</v>
+        <v>12.862489999999999</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -5765,68 +5771,68 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E73" t="str">
         <f>D73&amp;"_"&amp;F73</f>
-        <v>TsFeatures_24</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F73">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
         <v>65</v>
       </c>
       <c r="H73">
-        <v>0.15121999999999999</v>
+        <v>0.14701</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J73">
-        <v>-4.1966200000000002</v>
+        <v>1.44567</v>
       </c>
       <c r="K73">
-        <v>0.29236000000000001</v>
+        <v>0.32063000000000003</v>
       </c>
       <c r="L73">
-        <v>256.85405200000002</v>
+        <v>276.36529000000002</v>
       </c>
       <c r="M73">
-        <v>256.85405200000002</v>
+        <v>241.36379400000001</v>
       </c>
       <c r="N73">
-        <v>256.85405200000002</v>
+        <v>238.30761100000001</v>
       </c>
       <c r="O73">
-        <v>256.85405200000002</v>
+        <v>232.19408000000001</v>
       </c>
       <c r="P73">
-        <v>256.85405200000002</v>
+        <v>267.937928</v>
       </c>
       <c r="Q73">
-        <v>256.85405200000002</v>
+        <v>262.91521299999999</v>
       </c>
       <c r="R73">
-        <v>256.85405200000002</v>
+        <v>228.788523</v>
       </c>
       <c r="S73">
-        <v>256.85405200000002</v>
+        <v>222.97327799999999</v>
       </c>
       <c r="T73">
-        <v>256.85405200000002</v>
+        <v>221.25857199999999</v>
       </c>
       <c r="U73">
-        <v>256.85405200000002</v>
+        <v>231.262136</v>
       </c>
       <c r="V73">
-        <v>256.85405200000002</v>
+        <v>258.19876799999997</v>
       </c>
       <c r="W73">
-        <v>256.85405200000002</v>
+        <v>233.77824100000001</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -5912,65 +5918,65 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E75" t="str">
         <f>D75&amp;"_"&amp;F75</f>
-        <v>Catch22_36</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F75">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
         <v>65</v>
       </c>
       <c r="H75">
-        <v>1.65541</v>
+        <v>1.42113</v>
       </c>
       <c r="I75">
-        <v>27.272729999999999</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J75">
-        <v>63.304070000000003</v>
+        <v>28.849810000000002</v>
       </c>
       <c r="K75">
-        <v>1.18431</v>
+        <v>0.72443000000000002</v>
       </c>
       <c r="L75">
-        <v>9.8710229999999992</v>
+        <v>10.358207</v>
       </c>
       <c r="M75">
-        <v>6.7966090000000001</v>
+        <v>6.0568150000000003</v>
       </c>
       <c r="N75">
-        <v>2.558335</v>
+        <v>2.7551260000000002</v>
       </c>
       <c r="O75">
-        <v>0.139016</v>
+        <v>2.7551260000000002</v>
       </c>
       <c r="P75">
-        <v>0.11015999999999999</v>
+        <v>5.2095710000000004</v>
       </c>
       <c r="Q75">
-        <v>2.7771189999999999</v>
+        <v>6.9707090000000003</v>
       </c>
       <c r="R75">
-        <v>6.1155299999999997</v>
+        <v>5.1554419999999999</v>
       </c>
       <c r="S75">
-        <v>1.6461939999999999</v>
+        <v>7.2095700000000003</v>
       </c>
       <c r="T75">
-        <v>5.0071180000000002</v>
+        <v>9.7099139999999995</v>
       </c>
       <c r="U75">
-        <v>5.0071180000000002</v>
+        <v>9.5862160000000003</v>
       </c>
       <c r="V75">
-        <v>2.7771189999999999</v>
+        <v>9.7669029999999992</v>
       </c>
       <c r="W75">
-        <v>1.0954729999999999</v>
+        <v>9.5862160000000003</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6053,14 +6059,14 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E77" t="str">
         <f>D77&amp;"_"&amp;F77</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F77">
         <v>36</v>
@@ -6069,52 +6075,52 @@
         <v>65</v>
       </c>
       <c r="H77">
-        <v>0.92156000000000005</v>
+        <v>0.64429000000000003</v>
       </c>
       <c r="I77">
-        <v>54.545450000000002</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J77">
-        <v>-66.606489999999994</v>
+        <v>17.90117</v>
       </c>
       <c r="K77">
-        <v>0.57672999999999996</v>
+        <v>0.47998000000000002</v>
       </c>
       <c r="L77">
-        <v>214.195403</v>
+        <v>111.188322</v>
       </c>
       <c r="M77">
-        <v>100.85053499999999</v>
+        <v>127.442624</v>
       </c>
       <c r="N77">
-        <v>165.23021800000001</v>
+        <v>138.16098</v>
       </c>
       <c r="O77">
-        <v>157.06709499999999</v>
+        <v>142.724468</v>
       </c>
       <c r="P77">
-        <v>87.767206000000002</v>
+        <v>98.665035000000003</v>
       </c>
       <c r="Q77">
-        <v>123.539862</v>
+        <v>89.518462999999997</v>
       </c>
       <c r="R77">
-        <v>248.11623399999999</v>
+        <v>41.819042000000003</v>
       </c>
       <c r="S77">
-        <v>145.71686299999999</v>
+        <v>5.3092790000000001</v>
       </c>
       <c r="T77">
-        <v>129.963232</v>
+        <v>26.314948000000001</v>
       </c>
       <c r="U77">
-        <v>144.885716</v>
+        <v>27.069248999999999</v>
       </c>
       <c r="V77">
-        <v>176.97139799999999</v>
+        <v>41.471837000000001</v>
       </c>
       <c r="W77">
-        <v>113.643277</v>
+        <v>41.219394000000001</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6197,14 +6203,14 @@
         <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E79" t="str">
         <f>D79&amp;"_"&amp;F79</f>
-        <v>Catch22_24</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F79">
         <v>24</v>
@@ -6213,52 +6219,52 @@
         <v>65</v>
       </c>
       <c r="H79">
-        <v>0.13331999999999999</v>
+        <v>0.10054</v>
       </c>
       <c r="I79">
-        <v>45.454549999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J79">
-        <v>2.7786300000000002</v>
+        <v>4.1819699999999997</v>
       </c>
       <c r="K79">
-        <v>0.43841999999999998</v>
+        <v>0.34556999999999999</v>
       </c>
       <c r="L79">
-        <v>125.459997</v>
+        <v>128.546571</v>
       </c>
       <c r="M79">
-        <v>117.91609</v>
+        <v>121.00685300000001</v>
       </c>
       <c r="N79">
-        <v>153.45420899999999</v>
+        <v>132.28962799999999</v>
       </c>
       <c r="O79">
-        <v>192.54317800000001</v>
+        <v>184.73715200000001</v>
       </c>
       <c r="P79">
-        <v>156.50474399999999</v>
+        <v>154.73500000000001</v>
       </c>
       <c r="Q79">
-        <v>139.28827200000001</v>
+        <v>143.598895</v>
       </c>
       <c r="R79">
-        <v>156.50474399999999</v>
+        <v>148.40480600000001</v>
       </c>
       <c r="S79">
-        <v>131.13272599999999</v>
+        <v>124.92390399999999</v>
       </c>
       <c r="T79">
-        <v>142.42368200000001</v>
+        <v>145.843175</v>
       </c>
       <c r="U79">
-        <v>142.42368200000001</v>
+        <v>144.627354</v>
       </c>
       <c r="V79">
-        <v>149.94458499999999</v>
+        <v>145.86245299999999</v>
       </c>
       <c r="W79">
-        <v>142.42368200000001</v>
+        <v>150.18320700000001</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6272,65 +6278,65 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E80" t="str">
         <f>D80&amp;"_"&amp;F80</f>
-        <v>TsCesium_24</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F80">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
         <v>65</v>
       </c>
       <c r="H80">
-        <v>1478224011691190</v>
+        <v>595486584229220</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J80">
-        <v>70.804029999999997</v>
+        <v>82.606840000000005</v>
       </c>
       <c r="K80">
-        <v>0.89773999999999998</v>
+        <v>0.86555000000000004</v>
       </c>
       <c r="L80">
-        <v>0.78775600000000001</v>
+        <v>0.35122399999999998</v>
       </c>
       <c r="M80">
-        <v>0.78775600000000001</v>
+        <v>0.258932</v>
       </c>
       <c r="N80">
-        <v>0.78775600000000001</v>
+        <v>0.13577500000000001</v>
       </c>
       <c r="O80">
-        <v>0.78775600000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="P80">
-        <v>0.78775600000000001</v>
+        <v>0.15728500000000001</v>
       </c>
       <c r="Q80">
-        <v>0.78775600000000001</v>
+        <v>1.2903E-2</v>
       </c>
       <c r="R80">
-        <v>0.78775600000000001</v>
+        <v>0.996278</v>
       </c>
       <c r="S80">
-        <v>0.78775600000000001</v>
+        <v>0.99577499999999997</v>
       </c>
       <c r="T80">
-        <v>0.78775600000000001</v>
+        <v>0.70103599999999999</v>
       </c>
       <c r="U80">
-        <v>0.78775600000000001</v>
+        <v>0.91361499999999995</v>
       </c>
       <c r="V80">
-        <v>0.78775600000000001</v>
+        <v>0.71794800000000003</v>
       </c>
       <c r="W80">
-        <v>0.78775600000000001</v>
+        <v>0.228986</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6485,68 +6491,68 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E83" t="str">
         <f>D83&amp;"_"&amp;F83</f>
-        <v>RawData_36</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F83">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
         <v>65</v>
       </c>
       <c r="H83">
-        <v>3.041E-2</v>
+        <v>2.5610000000000001E-2</v>
       </c>
       <c r="I83">
-        <v>72.727270000000004</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J83">
-        <v>-0.63258999999999999</v>
+        <v>1.1722999999999999</v>
       </c>
       <c r="K83">
-        <v>0.63866000000000001</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="L83">
-        <v>3316.8375378563201</v>
+        <v>3250.2495119999999</v>
       </c>
       <c r="M83">
-        <v>3246.7742174003401</v>
+        <v>2953.5373540000001</v>
       </c>
       <c r="N83">
-        <v>3285.8182555578101</v>
+        <v>3318.6484380000002</v>
       </c>
       <c r="O83">
-        <v>3192.9001269663099</v>
+        <v>3212.8720699999999</v>
       </c>
       <c r="P83">
-        <v>3249.68029270242</v>
+        <v>3223.8251949999999</v>
       </c>
       <c r="Q83">
-        <v>3203.3658752945798</v>
+        <v>3270.3808589999999</v>
       </c>
       <c r="R83">
-        <v>3127.61076281736</v>
+        <v>3145.48999</v>
       </c>
       <c r="S83">
-        <v>3235.9770435002602</v>
+        <v>3244.2697750000002</v>
       </c>
       <c r="T83">
-        <v>3209.9716277069801</v>
+        <v>3163.076172</v>
       </c>
       <c r="U83">
-        <v>3368.0747130670202</v>
+        <v>3275.624268</v>
       </c>
       <c r="V83">
-        <v>3137.683992877</v>
+        <v>2959.9001459999999</v>
       </c>
       <c r="W83">
-        <v>3140.16607427796</v>
+        <v>3002.6166990000002</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -6773,68 +6779,68 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E87" t="str">
         <f>D87&amp;"_"&amp;F87</f>
-        <v>Catch22_36</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F87">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
         <v>65</v>
       </c>
       <c r="H87">
-        <v>4.9349999999999998E-2</v>
+        <v>4.4830000000000002E-2</v>
       </c>
       <c r="I87">
-        <v>81.818179999999998</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J87">
-        <v>-3.7355700000000001</v>
+        <v>-2.2455699999999998</v>
       </c>
       <c r="K87">
-        <v>0.96440000000000003</v>
+        <v>0.87797000000000003</v>
       </c>
       <c r="L87">
-        <v>75793.540244190401</v>
+        <v>71951.021059999999</v>
       </c>
       <c r="M87">
-        <v>72726.764483641004</v>
+        <v>69090.185108000005</v>
       </c>
       <c r="N87">
-        <v>79243.525122193707</v>
+        <v>73154.208125999998</v>
       </c>
       <c r="O87">
-        <v>79386.100392287102</v>
+        <v>78396.764251999994</v>
       </c>
       <c r="P87">
-        <v>80867.212517525506</v>
+        <v>81166.615705000004</v>
       </c>
       <c r="Q87">
-        <v>81707.524987908095</v>
+        <v>77372.025276</v>
       </c>
       <c r="R87">
-        <v>75648.396745178601</v>
+        <v>75142.738752000005</v>
       </c>
       <c r="S87">
-        <v>73983.3100643363</v>
+        <v>73675.149153000006</v>
       </c>
       <c r="T87">
-        <v>71079.7111961255</v>
+        <v>73543.964351000002</v>
       </c>
       <c r="U87">
-        <v>74991.962653255294</v>
+        <v>70971.487846000004</v>
       </c>
       <c r="V87">
-        <v>69713.538752508699</v>
+        <v>70963.352339999998</v>
       </c>
       <c r="W87">
-        <v>67363.579097788897</v>
+        <v>74114.611883000005</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7712,65 +7718,65 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E100" t="str">
         <f>D100&amp;"_"&amp;F100</f>
-        <v>RawData_36</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F100">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
         <v>65</v>
       </c>
       <c r="H100">
-        <v>1.7389999999999999E-2</v>
+        <v>1.6289999999999999E-2</v>
       </c>
       <c r="I100">
         <v>90.909090000000006</v>
       </c>
       <c r="J100">
-        <v>1.2280500000000001</v>
+        <v>0.97562000000000004</v>
       </c>
       <c r="K100">
-        <v>0.57440999999999998</v>
+        <v>0.53239999999999998</v>
       </c>
       <c r="L100">
-        <v>84417.960938000004</v>
+        <v>84096.476561999996</v>
       </c>
       <c r="M100">
-        <v>82390.851561999996</v>
+        <v>80852.585938000004</v>
       </c>
       <c r="N100">
-        <v>88608.117188000004</v>
+        <v>87639.820311999996</v>
       </c>
       <c r="O100">
-        <v>92656.90625</v>
+        <v>92845.828125</v>
       </c>
       <c r="P100">
-        <v>89825.328125</v>
+        <v>92033.367188000004</v>
       </c>
       <c r="Q100">
-        <v>91453.4375</v>
+        <v>92188.546875</v>
       </c>
       <c r="R100">
-        <v>83463.765625</v>
+        <v>83989.75</v>
       </c>
       <c r="S100">
-        <v>84904.617188000004</v>
+        <v>85430.421875</v>
       </c>
       <c r="T100">
-        <v>83746.414061999996</v>
+        <v>82096.828125</v>
       </c>
       <c r="U100">
-        <v>77223.234375</v>
+        <v>80176.976561999996</v>
       </c>
       <c r="V100">
-        <v>77215.164061999996</v>
+        <v>78093.609375</v>
       </c>
       <c r="W100">
-        <v>75546.476561999996</v>
+        <v>74593.007811999996</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
@@ -8501,68 +8507,68 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E111" t="str">
         <f>D111&amp;"_"&amp;F111</f>
-        <v>RawData_12</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s">
         <v>65</v>
       </c>
       <c r="H111">
-        <v>0.48268</v>
+        <v>0.41696</v>
       </c>
       <c r="I111">
-        <v>54.545450000000002</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J111">
-        <v>8.7486099999999993</v>
+        <v>27.63298</v>
       </c>
       <c r="K111">
-        <v>0.94743999999999995</v>
+        <v>1.06793</v>
       </c>
       <c r="L111">
-        <v>27.615380999999999</v>
+        <v>17.141749999999998</v>
       </c>
       <c r="M111">
-        <v>36.151246999999998</v>
+        <v>21.181089</v>
       </c>
       <c r="N111">
-        <v>41.932004999999997</v>
+        <v>34.704937000000001</v>
       </c>
       <c r="O111">
-        <v>56.277306000000003</v>
+        <v>46.011325999999997</v>
       </c>
       <c r="P111">
-        <v>46.093214000000003</v>
+        <v>31.791654999999999</v>
       </c>
       <c r="Q111">
-        <v>42.552162000000003</v>
+        <v>38.159550000000003</v>
       </c>
       <c r="R111">
-        <v>65.542731000000003</v>
+        <v>56.213664999999999</v>
       </c>
       <c r="S111">
-        <v>69.884827999999999</v>
+        <v>39.981388000000003</v>
       </c>
       <c r="T111">
-        <v>56.341343000000002</v>
+        <v>43.209418999999997</v>
       </c>
       <c r="U111">
-        <v>54.890521</v>
+        <v>33.09346</v>
       </c>
       <c r="V111">
-        <v>28.642237999999999</v>
+        <v>33.890025999999999</v>
       </c>
       <c r="W111">
-        <v>23.218775999999998</v>
+        <v>40.119208999999998</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
@@ -8933,14 +8939,14 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E117" t="str">
         <f>D117&amp;"_"&amp;F117</f>
-        <v>TsFeatures_12</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -8949,52 +8955,52 @@
         <v>65</v>
       </c>
       <c r="H117">
-        <v>1.7418121918818099E+17</v>
+        <v>8.4257106462835696E+16</v>
       </c>
       <c r="I117">
-        <v>72.727270000000004</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J117">
-        <v>10.615080000000001</v>
+        <v>48.657510000000002</v>
       </c>
       <c r="K117">
-        <v>0.40733000000000003</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="L117">
-        <v>342.433716</v>
+        <v>878.22591</v>
       </c>
       <c r="M117">
-        <v>561.99432400000001</v>
+        <v>476.54276399999998</v>
       </c>
       <c r="N117">
-        <v>717.53265399999998</v>
+        <v>476.54276399999998</v>
       </c>
       <c r="O117">
-        <v>813.71252400000003</v>
+        <v>224.50603100000001</v>
       </c>
       <c r="P117">
-        <v>571.25762899999995</v>
+        <v>224.50603100000001</v>
       </c>
       <c r="Q117">
-        <v>464.11200000000002</v>
+        <v>224.50603100000001</v>
       </c>
       <c r="R117">
-        <v>868.81225600000005</v>
+        <v>224.50603100000001</v>
       </c>
       <c r="S117">
-        <v>1408.582764</v>
+        <v>224.50603100000001</v>
       </c>
       <c r="T117">
-        <v>1686.0960689999999</v>
+        <v>1695.863464</v>
       </c>
       <c r="U117">
-        <v>1601.9941409999999</v>
+        <v>966.91426300000001</v>
       </c>
       <c r="V117">
-        <v>1036.2951660000001</v>
+        <v>476.54276399999998</v>
       </c>
       <c r="W117">
-        <v>1019.273499</v>
+        <v>278.11288000000002</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
@@ -9221,14 +9227,14 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E121" t="str">
         <f>D121&amp;"_"&amp;F121</f>
-        <v>RawData_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F121">
         <v>12</v>
@@ -9237,52 +9243,52 @@
         <v>65</v>
       </c>
       <c r="H121">
-        <v>2.82062253608064E+16</v>
+        <v>2.56901573233868E+16</v>
       </c>
       <c r="I121">
-        <v>63.636360000000003</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J121">
-        <v>13.204510000000001</v>
+        <v>-54.342570000000002</v>
       </c>
       <c r="K121">
-        <v>0.77051999999999998</v>
+        <v>1.2385299999999999</v>
       </c>
       <c r="L121">
-        <v>873.33262100000002</v>
+        <v>1295.6223729999999</v>
       </c>
       <c r="M121">
-        <v>373.02698500000002</v>
+        <v>1031.5609469999999</v>
       </c>
       <c r="N121">
-        <v>205.29855000000001</v>
+        <v>727.28490799999997</v>
       </c>
       <c r="O121">
-        <v>474.84681</v>
+        <v>42.983947000000001</v>
       </c>
       <c r="P121">
-        <v>262.59446300000002</v>
+        <v>418.72522800000002</v>
       </c>
       <c r="Q121">
-        <v>287.087536</v>
+        <v>90.226028999999997</v>
       </c>
       <c r="R121">
-        <v>95.412638000000001</v>
+        <v>1046.4451529999999</v>
       </c>
       <c r="S121">
-        <v>207.852237</v>
+        <v>422.574364</v>
       </c>
       <c r="T121">
-        <v>235.83931999999999</v>
+        <v>351.56525699999997</v>
       </c>
       <c r="U121">
-        <v>75.156481999999997</v>
+        <v>68.452330000000003</v>
       </c>
       <c r="V121">
-        <v>242.96820199999999</v>
+        <v>533.45303000000001</v>
       </c>
       <c r="W121">
-        <v>170.754133</v>
+        <v>202.335992</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
@@ -9365,68 +9371,68 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D123" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E123" t="str">
         <f>D123&amp;"_"&amp;F123</f>
-        <v>TsFeatures_36</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F123">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
         <v>65</v>
       </c>
       <c r="H123">
-        <v>3.2559999999999999E-2</v>
+        <v>3.2340000000000001E-2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J123">
-        <v>-0.24839</v>
+        <v>0.31307000000000001</v>
       </c>
       <c r="K123">
-        <v>0.54679</v>
+        <v>0.54535999999999996</v>
       </c>
       <c r="L123">
-        <v>61529.612904000001</v>
+        <v>61547.289661000003</v>
       </c>
       <c r="M123">
-        <v>61529.612904000001</v>
+        <v>61661.695137000002</v>
       </c>
       <c r="N123">
-        <v>61529.612904000001</v>
+        <v>61224.262433999997</v>
       </c>
       <c r="O123">
-        <v>61529.612904000001</v>
+        <v>61426.154451000002</v>
       </c>
       <c r="P123">
-        <v>61529.612904000001</v>
+        <v>61318.478708000002</v>
       </c>
       <c r="Q123">
-        <v>61529.612904000001</v>
+        <v>61392.505781</v>
       </c>
       <c r="R123">
-        <v>61529.612904000001</v>
+        <v>61392.505781</v>
       </c>
       <c r="S123">
-        <v>61529.612904000001</v>
+        <v>61305.019240000001</v>
       </c>
       <c r="T123">
-        <v>61529.612904000001</v>
+        <v>61204.073232000002</v>
       </c>
       <c r="U123">
-        <v>61529.612904000001</v>
+        <v>60887.775738999997</v>
       </c>
       <c r="V123">
-        <v>61529.612904000001</v>
+        <v>60436.883567999997</v>
       </c>
       <c r="W123">
-        <v>61529.612904000001</v>
+        <v>60423.424099999997</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
@@ -9509,14 +9515,14 @@
         <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E125" t="str">
         <f>D125&amp;"_"&amp;F125</f>
-        <v>TsCesium_12</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F125">
         <v>12</v>
@@ -9525,52 +9531,52 @@
         <v>65</v>
       </c>
       <c r="H125">
-        <v>0.42963000000000001</v>
+        <v>0.40776000000000001</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J125">
-        <v>67.97372</v>
+        <v>67.171899999999994</v>
       </c>
       <c r="K125">
-        <v>0.98260999999999998</v>
+        <v>0.96791000000000005</v>
       </c>
       <c r="L125">
-        <v>145.507521</v>
+        <v>144.22494499999999</v>
       </c>
       <c r="M125">
-        <v>145.507521</v>
+        <v>140.95855700000001</v>
       </c>
       <c r="N125">
-        <v>145.507521</v>
+        <v>156.52932699999999</v>
       </c>
       <c r="O125">
-        <v>145.507521</v>
+        <v>153.30332899999999</v>
       </c>
       <c r="P125">
-        <v>145.507521</v>
+        <v>162.773529</v>
       </c>
       <c r="Q125">
-        <v>145.507521</v>
+        <v>156.12503100000001</v>
       </c>
       <c r="R125">
-        <v>145.507521</v>
+        <v>143.83853099999999</v>
       </c>
       <c r="S125">
-        <v>145.507521</v>
+        <v>163.16026299999999</v>
       </c>
       <c r="T125">
-        <v>145.507521</v>
+        <v>164.277771</v>
       </c>
       <c r="U125">
-        <v>145.507521</v>
+        <v>136.31646699999999</v>
       </c>
       <c r="V125">
-        <v>145.507521</v>
+        <v>148.03448499999999</v>
       </c>
       <c r="W125">
-        <v>145.507521</v>
+        <v>120.263565</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
@@ -10157,14 +10163,14 @@
         <v>55</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E134" t="str">
         <f>D134&amp;"_"&amp;F134</f>
-        <v>RawData_24</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F134">
         <v>24</v>
@@ -10173,52 +10179,52 @@
         <v>65</v>
       </c>
       <c r="H134">
-        <v>1143217900230920</v>
+        <v>968072383801332</v>
       </c>
       <c r="I134">
         <v>36.363639999999997</v>
       </c>
       <c r="J134">
-        <v>54.1935</v>
+        <v>87.83811</v>
       </c>
       <c r="K134">
-        <v>0.99385000000000001</v>
+        <v>1.4452700000000001</v>
       </c>
       <c r="L134">
-        <v>7.4510580548049798</v>
+        <v>2.478221</v>
       </c>
       <c r="M134">
-        <v>3.0461444043753398</v>
+        <v>2.5794630000000001</v>
       </c>
       <c r="N134">
-        <v>0.142073743594508</v>
+        <v>1.7696229999999999</v>
       </c>
       <c r="O134">
-        <v>2.4328019032346502</v>
+        <v>1.471271</v>
       </c>
       <c r="P134">
-        <v>14.2922274796789</v>
+        <v>1.2953589999999999</v>
       </c>
       <c r="Q134">
-        <v>14.0012458260397</v>
+        <v>9.7756999999999997E-2</v>
       </c>
       <c r="R134">
-        <v>15.8184905273837</v>
+        <v>3.9082270000000001</v>
       </c>
       <c r="S134">
-        <v>15.7681636942553</v>
+        <v>3.4397880000000001</v>
       </c>
       <c r="T134">
-        <v>11.396410736711299</v>
+        <v>3.5654750000000002</v>
       </c>
       <c r="U134">
-        <v>18.053616163714999</v>
+        <v>3.619043</v>
       </c>
       <c r="V134">
-        <v>15.1887914798744</v>
+        <v>3.7347220000000001</v>
       </c>
       <c r="W134">
-        <v>1.98225095540341</v>
+        <v>3.7884359999999999</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
@@ -10229,14 +10235,14 @@
         <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E135" t="str">
         <f>D135&amp;"_"&amp;F135</f>
-        <v>TsFeatures_24</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F135">
         <v>24</v>
@@ -10245,52 +10251,52 @@
         <v>65</v>
       </c>
       <c r="H135">
-        <v>0.19302</v>
+        <v>0.12424</v>
       </c>
       <c r="I135">
         <v>63.636360000000003</v>
       </c>
       <c r="J135">
-        <v>-10.36004</v>
+        <v>3.19116</v>
       </c>
       <c r="K135">
-        <v>0.51976</v>
+        <v>0.37584000000000001</v>
       </c>
       <c r="L135">
-        <v>10577.766905</v>
+        <v>9234.7795540000006</v>
       </c>
       <c r="M135">
-        <v>9200.2546669999992</v>
+        <v>8069.5836669999999</v>
       </c>
       <c r="N135">
-        <v>9200.2546669999992</v>
+        <v>8688.4892479999999</v>
       </c>
       <c r="O135">
-        <v>9133.2161570000007</v>
+        <v>8598.5580219999993</v>
       </c>
       <c r="P135">
-        <v>9166.1805160000004</v>
+        <v>8704.1294610000004</v>
       </c>
       <c r="Q135">
-        <v>8786.9621929999994</v>
+        <v>8305.3040230000006</v>
       </c>
       <c r="R135">
-        <v>8101.8759360000004</v>
+        <v>7532.2306259999996</v>
       </c>
       <c r="S135">
-        <v>7862.4032580000003</v>
+        <v>7635.5677489999998</v>
       </c>
       <c r="T135">
-        <v>8749.0451049999992</v>
+        <v>6582.0876710000002</v>
       </c>
       <c r="U135">
-        <v>8237.5993539999999</v>
+        <v>6557.5101930000001</v>
       </c>
       <c r="V135">
-        <v>8338.3851319999994</v>
+        <v>6155.8918599999997</v>
       </c>
       <c r="W135">
-        <v>7418.3545350000004</v>
+        <v>5843.087595</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.3">
@@ -10736,65 +10742,65 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E142" t="str">
         <f>D142&amp;"_"&amp;F142</f>
-        <v>RawData_12</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F142">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>65</v>
       </c>
       <c r="H142">
-        <v>5.654E-2</v>
+        <v>5.6070000000000002E-2</v>
       </c>
       <c r="I142">
-        <v>81.818179999999998</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J142">
-        <v>4.8735999999999997</v>
+        <v>-0.34451999999999999</v>
       </c>
       <c r="K142">
-        <v>0.82082999999999995</v>
+        <v>0.75383</v>
       </c>
       <c r="L142">
-        <v>88960.379757999995</v>
+        <v>90662.093752999994</v>
       </c>
       <c r="M142">
-        <v>81558.300187999994</v>
+        <v>90662.093752999994</v>
       </c>
       <c r="N142">
-        <v>85539.782292000004</v>
+        <v>90662.093752999994</v>
       </c>
       <c r="O142">
-        <v>91339.466375000004</v>
+        <v>90662.093752999994</v>
       </c>
       <c r="P142">
-        <v>94322.844433000006</v>
+        <v>87919.767376000003</v>
       </c>
       <c r="Q142">
-        <v>100686.45323299999</v>
+        <v>102392.797296</v>
       </c>
       <c r="R142">
-        <v>95423.061121000006</v>
+        <v>102392.797296</v>
       </c>
       <c r="S142">
-        <v>95501.235887999996</v>
+        <v>102392.797296</v>
       </c>
       <c r="T142">
-        <v>96398.603654000006</v>
+        <v>102152.647245</v>
       </c>
       <c r="U142">
-        <v>98273.655519000007</v>
+        <v>102152.647245</v>
       </c>
       <c r="V142">
-        <v>91115.367821000007</v>
+        <v>102152.647245</v>
       </c>
       <c r="W142">
-        <v>86584.939713999993</v>
+        <v>102152.647245</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
@@ -11093,68 +11099,68 @@
         <v>40</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E147" t="str">
         <f>D147&amp;"_"&amp;F147</f>
-        <v>RawData_12</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G147" t="s">
         <v>65</v>
       </c>
       <c r="H147">
-        <v>4.2549999999999998E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="I147">
-        <v>100</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J147">
-        <v>3.6300400000000002</v>
+        <v>0.45678000000000002</v>
       </c>
       <c r="K147">
-        <v>0.72618000000000005</v>
+        <v>0.52100999999999997</v>
       </c>
       <c r="L147">
-        <v>688462.90359700006</v>
+        <v>701778.11214600003</v>
       </c>
       <c r="M147">
-        <v>628840.17545600003</v>
+        <v>646188.78266200004</v>
       </c>
       <c r="N147">
-        <v>679306.55593100004</v>
+        <v>697565.39630100003</v>
       </c>
       <c r="O147">
-        <v>670092.53381399997</v>
+        <v>712383.05114999996</v>
       </c>
       <c r="P147">
-        <v>687318.16656399996</v>
+        <v>717437.41294199997</v>
       </c>
       <c r="Q147">
-        <v>721858.56783800002</v>
+        <v>787560.95920399996</v>
       </c>
       <c r="R147">
-        <v>686347.64020899998</v>
+        <v>700500.29030600004</v>
       </c>
       <c r="S147">
-        <v>704997.745214</v>
+        <v>714118.75381100003</v>
       </c>
       <c r="T147">
-        <v>652911.26708400005</v>
+        <v>678312.89257200004</v>
       </c>
       <c r="U147">
-        <v>626127.545285</v>
+        <v>594337.61882500001</v>
       </c>
       <c r="V147">
-        <v>580931.19770899997</v>
+        <v>580606.49739300006</v>
       </c>
       <c r="W147">
-        <v>561045.022994</v>
+        <v>617192.43594600004</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.3">
@@ -11165,14 +11171,14 @@
         <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E148" t="str">
         <f>D148&amp;"_"&amp;F148</f>
-        <v>Catch22_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F148">
         <v>12</v>
@@ -11181,52 +11187,52 @@
         <v>65</v>
       </c>
       <c r="H148">
-        <v>7.0370000000000002E-2</v>
+        <v>6.7629999999999996E-2</v>
       </c>
       <c r="I148">
-        <v>72.727270000000004</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J148">
-        <v>5.4685600000000001</v>
+        <v>4.3546199999999997</v>
       </c>
       <c r="K148">
-        <v>0.87158000000000002</v>
+        <v>0.80395000000000005</v>
       </c>
       <c r="L148">
-        <v>148628.373769</v>
+        <v>169657.171875</v>
       </c>
       <c r="M148">
-        <v>155084.302551</v>
+        <v>148989.640625</v>
       </c>
       <c r="N148">
-        <v>147414.99161999999</v>
+        <v>149622.171875</v>
       </c>
       <c r="O148">
-        <v>154253.28860199999</v>
+        <v>166913.921875</v>
       </c>
       <c r="P148">
-        <v>168138.40561300001</v>
+        <v>180019.734375</v>
       </c>
       <c r="Q148">
-        <v>179268.15302299999</v>
+        <v>184589.421875</v>
       </c>
       <c r="R148">
-        <v>177750.362788</v>
+        <v>179147.53125</v>
       </c>
       <c r="S148">
-        <v>170737.25873900001</v>
+        <v>177071.875</v>
       </c>
       <c r="T148">
-        <v>155004.089871</v>
+        <v>149885.125</v>
       </c>
       <c r="U148">
-        <v>145096.58520599999</v>
+        <v>139696.96875</v>
       </c>
       <c r="V148">
-        <v>147364.32819</v>
+        <v>138318.96875</v>
       </c>
       <c r="W148">
-        <v>166892.55529300001</v>
+        <v>154293.578125</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.3">
@@ -11237,68 +11243,68 @@
         <v>42</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E149" t="str">
         <f>D149&amp;"_"&amp;F149</f>
-        <v>RawData_24</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F149">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
         <v>65</v>
       </c>
       <c r="H149">
-        <v>6.7119999999999999E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="I149">
         <v>72.727270000000004</v>
       </c>
       <c r="J149">
-        <v>3.2686899999999999</v>
+        <v>3.4598900000000001</v>
       </c>
       <c r="K149">
-        <v>0.73431999999999997</v>
+        <v>0.63648000000000005</v>
       </c>
       <c r="L149">
-        <v>339911.25412</v>
+        <v>330030.36998399999</v>
       </c>
       <c r="M149">
-        <v>267657.67916</v>
+        <v>250428.74173899999</v>
       </c>
       <c r="N149">
-        <v>268248.64236300002</v>
+        <v>318618.434519</v>
       </c>
       <c r="O149">
-        <v>348900.495253</v>
+        <v>318147.392819</v>
       </c>
       <c r="P149">
-        <v>374909.64497800003</v>
+        <v>357535.51970200002</v>
       </c>
       <c r="Q149">
-        <v>348522.93397000001</v>
+        <v>371091.94316999998</v>
       </c>
       <c r="R149">
-        <v>324668.58166199998</v>
+        <v>305745.75391600002</v>
       </c>
       <c r="S149">
-        <v>343378.10318099998</v>
+        <v>333342.93814799999</v>
       </c>
       <c r="T149">
-        <v>280723.962826</v>
+        <v>289391.47853700002</v>
       </c>
       <c r="U149">
-        <v>259766.942602</v>
+        <v>286768.43341200001</v>
       </c>
       <c r="V149">
-        <v>327247.33034099999</v>
+        <v>324404.36090600002</v>
       </c>
       <c r="W149">
-        <v>357461.88434500003</v>
+        <v>348298.95795200003</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.3">
@@ -11309,14 +11315,14 @@
         <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E150" t="str">
         <f>D150&amp;"_"&amp;F150</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F150">
         <v>36</v>
@@ -11325,52 +11331,52 @@
         <v>65</v>
       </c>
       <c r="H150">
-        <v>3.4639999999999997E-2</v>
+        <v>3.032E-2</v>
       </c>
       <c r="I150">
-        <v>72.727270000000004</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J150">
-        <v>0.86829999999999996</v>
+        <v>0.23186000000000001</v>
       </c>
       <c r="K150">
-        <v>0.83635000000000004</v>
+        <v>0.72582999999999998</v>
       </c>
       <c r="L150">
-        <v>236212.67854270799</v>
+        <v>229575.28887700001</v>
       </c>
       <c r="M150">
-        <v>230888.91660212501</v>
+        <v>231153.57204500001</v>
       </c>
       <c r="N150">
-        <v>239789.50456775399</v>
+        <v>252135.618731</v>
       </c>
       <c r="O150">
-        <v>249503.90059954199</v>
+        <v>257231.45719099999</v>
       </c>
       <c r="P150">
-        <v>260654.583984953</v>
+        <v>264059.36863699998</v>
       </c>
       <c r="Q150">
-        <v>262701.55819532397</v>
+        <v>269119.73852499999</v>
       </c>
       <c r="R150">
-        <v>259945.18253044601</v>
+        <v>270592.72704299999</v>
       </c>
       <c r="S150">
-        <v>264789.57286558801</v>
+        <v>274739.30037299998</v>
       </c>
       <c r="T150">
-        <v>253977.38864903501</v>
+        <v>248772.14212599999</v>
       </c>
       <c r="U150">
-        <v>248920.91657889201</v>
+        <v>236457.88526499999</v>
       </c>
       <c r="V150">
-        <v>234281.12369825799</v>
+        <v>226452.168661</v>
       </c>
       <c r="W150">
-        <v>223219.449094165</v>
+        <v>223630.58653999999</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
@@ -11597,68 +11603,68 @@
         <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E154" t="str">
         <f>D154&amp;"_"&amp;F154</f>
-        <v>Catch22_12</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>65</v>
       </c>
       <c r="H154">
-        <v>4.956E-2</v>
+        <v>4.929E-2</v>
       </c>
       <c r="I154">
         <v>63.636360000000003</v>
       </c>
       <c r="J154">
-        <v>2.32219</v>
+        <v>2.28207</v>
       </c>
       <c r="K154">
-        <v>0.72404000000000002</v>
+        <v>0.70918000000000003</v>
       </c>
       <c r="L154">
-        <v>524839.99473000003</v>
+        <v>544934.08938899997</v>
       </c>
       <c r="M154">
-        <v>502793.67293900001</v>
+        <v>544934.08938899997</v>
       </c>
       <c r="N154">
-        <v>520689.44161099999</v>
+        <v>551955.98491600004</v>
       </c>
       <c r="O154">
-        <v>510485.883095</v>
+        <v>515944.17266500002</v>
       </c>
       <c r="P154">
-        <v>578334.70195100002</v>
+        <v>534903.97922400001</v>
       </c>
       <c r="Q154">
-        <v>540413.05743699998</v>
+        <v>533591.40848500002</v>
       </c>
       <c r="R154">
-        <v>557652.46572800004</v>
+        <v>519835.01895400003</v>
       </c>
       <c r="S154">
-        <v>560159.778055</v>
+        <v>512046.55159300001</v>
       </c>
       <c r="T154">
-        <v>509190.24791600002</v>
+        <v>512046.55159300001</v>
       </c>
       <c r="U154">
-        <v>509045.70999900001</v>
+        <v>519835.01895400003</v>
       </c>
       <c r="V154">
-        <v>512961.03454700002</v>
+        <v>534903.97922400001</v>
       </c>
       <c r="W154">
-        <v>529345.88433100004</v>
+        <v>533591.40848500002</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.3">
@@ -11669,14 +11675,14 @@
         <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E155" t="str">
         <f>D155&amp;"_"&amp;F155</f>
-        <v>TsCesium_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F155">
         <v>12</v>
@@ -11685,52 +11691,52 @@
         <v>65</v>
       </c>
       <c r="H155">
-        <v>6.012E-2</v>
+        <v>5.7779999999999998E-2</v>
       </c>
       <c r="I155">
-        <v>36.363639999999997</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J155">
-        <v>5.4149700000000003</v>
+        <v>4.8238599999999998</v>
       </c>
       <c r="K155">
-        <v>0.80227999999999999</v>
+        <v>0.76115999999999995</v>
       </c>
       <c r="L155">
-        <v>206173.513057</v>
+        <v>233870.22377700001</v>
       </c>
       <c r="M155">
-        <v>216719.549581</v>
+        <v>209490.969381</v>
       </c>
       <c r="N155">
-        <v>217798.079138</v>
+        <v>219371.05472300001</v>
       </c>
       <c r="O155">
-        <v>213714.06758100001</v>
+        <v>213416.90906800001</v>
       </c>
       <c r="P155">
-        <v>224416.98283399999</v>
+        <v>219815.22547</v>
       </c>
       <c r="Q155">
-        <v>224416.98283399999</v>
+        <v>223225.49796400001</v>
       </c>
       <c r="R155">
-        <v>224416.98283399999</v>
+        <v>200598.615234</v>
       </c>
       <c r="S155">
-        <v>224475.017689</v>
+        <v>224255.76203400001</v>
       </c>
       <c r="T155">
-        <v>213171.280104</v>
+        <v>222614.77414600001</v>
       </c>
       <c r="U155">
-        <v>211844.09565900001</v>
+        <v>215170.93262199999</v>
       </c>
       <c r="V155">
-        <v>224475.017689</v>
+        <v>225096.41061299999</v>
       </c>
       <c r="W155">
-        <v>206749.34887399999</v>
+        <v>217745.47304800001</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
@@ -12101,68 +12107,68 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E161" t="str">
         <f>D161&amp;"_"&amp;F161</f>
-        <v>RawData_24</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F161">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G161" t="s">
         <v>65</v>
       </c>
       <c r="H161">
-        <v>4.4949999999999997E-2</v>
+        <v>4.4940000000000001E-2</v>
       </c>
       <c r="I161">
-        <v>72.727270000000004</v>
+        <v>81.818179999999998</v>
       </c>
       <c r="J161">
-        <v>3.4903499999999998</v>
+        <v>-1.6362300000000001</v>
       </c>
       <c r="K161">
-        <v>0.93156000000000005</v>
+        <v>0.87497999999999998</v>
       </c>
       <c r="L161">
-        <v>31683.696134307102</v>
+        <v>30789.876383999999</v>
       </c>
       <c r="M161">
-        <v>29111.746492467901</v>
+        <v>30650.985797000001</v>
       </c>
       <c r="N161">
-        <v>30420.887120776701</v>
+        <v>33563.728686000002</v>
       </c>
       <c r="O161">
-        <v>27709.2536462682</v>
+        <v>30980.744042999999</v>
       </c>
       <c r="P161">
-        <v>27855.213761552401</v>
+        <v>32752.148270999998</v>
       </c>
       <c r="Q161">
-        <v>30251.465414238901</v>
+        <v>32788.634075000002</v>
       </c>
       <c r="R161">
-        <v>30873.0650107562</v>
+        <v>31322.319057000001</v>
       </c>
       <c r="S161">
-        <v>32548.567766107801</v>
+        <v>33094.700279999997</v>
       </c>
       <c r="T161">
-        <v>31970.436584307499</v>
+        <v>33787.434564000003</v>
       </c>
       <c r="U161">
-        <v>33480.593559782101</v>
+        <v>31764.957181000002</v>
       </c>
       <c r="V161">
-        <v>30965.643255238199</v>
+        <v>31295.074889</v>
       </c>
       <c r="W161">
-        <v>27629.237760268599</v>
+        <v>31071.387567999998</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.3">
@@ -12461,14 +12467,14 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E166" t="str">
         <f>D166&amp;"_"&amp;F166</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F166">
         <v>36</v>
@@ -12477,52 +12483,52 @@
         <v>65</v>
       </c>
       <c r="H166">
-        <v>0.13094</v>
+        <v>6.8449999999999997E-2</v>
       </c>
       <c r="I166">
-        <v>54.545450000000002</v>
+        <v>72.727270000000004</v>
       </c>
       <c r="J166">
-        <v>-9.6079699999999999</v>
+        <v>1.05732</v>
       </c>
       <c r="K166">
-        <v>0.24346000000000001</v>
+        <v>0.13507</v>
       </c>
       <c r="L166">
-        <v>8449.4765939999997</v>
+        <v>6193.1424290000004</v>
       </c>
       <c r="M166">
-        <v>8346.4019310000003</v>
+        <v>6193.1424290000004</v>
       </c>
       <c r="N166">
-        <v>7598.4292249999999</v>
+        <v>6403.0382390000004</v>
       </c>
       <c r="O166">
-        <v>7227.2804269999997</v>
+        <v>6654.5948550000003</v>
       </c>
       <c r="P166">
-        <v>7075.4914250000002</v>
+        <v>7220.9334259999996</v>
       </c>
       <c r="Q166">
-        <v>6805.5274390000004</v>
+        <v>6626.2268409999997</v>
       </c>
       <c r="R166">
-        <v>7151.5568450000001</v>
+        <v>6405.3765480000002</v>
       </c>
       <c r="S166">
-        <v>7152.1894259999999</v>
+        <v>6626.2268409999997</v>
       </c>
       <c r="T166">
-        <v>6781.4884320000001</v>
+        <v>6626.2268409999997</v>
       </c>
       <c r="U166">
-        <v>7250.5078590000003</v>
+        <v>7220.9334259999996</v>
       </c>
       <c r="V166">
-        <v>7086.3847949999999</v>
+        <v>6585.4341119999999</v>
       </c>
       <c r="W166">
-        <v>6533.7385340000001</v>
+        <v>6193.1424290000004</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.3">
@@ -12536,65 +12542,65 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E167" t="str">
         <f>D167&amp;"_"&amp;F167</f>
-        <v>TsCesium_12</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F167">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>65</v>
       </c>
       <c r="H167">
-        <v>0.11362999999999999</v>
+        <v>0.10244</v>
       </c>
       <c r="I167">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J167">
-        <v>5.9379900000000001</v>
+        <v>6.35555</v>
       </c>
       <c r="K167">
-        <v>0.45282</v>
+        <v>0.42725999999999997</v>
       </c>
       <c r="L167">
-        <v>394.18154399999997</v>
+        <v>381.77721000000003</v>
       </c>
       <c r="M167">
-        <v>374.00197500000002</v>
+        <v>380.87896799999999</v>
       </c>
       <c r="N167">
-        <v>379.06736100000001</v>
+        <v>368.21345700000001</v>
       </c>
       <c r="O167">
-        <v>370.04856000000001</v>
+        <v>350.72762499999999</v>
       </c>
       <c r="P167">
-        <v>365.13133599999998</v>
+        <v>344.93146000000002</v>
       </c>
       <c r="Q167">
-        <v>366.15545400000002</v>
+        <v>369.41241200000002</v>
       </c>
       <c r="R167">
-        <v>358.294038</v>
+        <v>363.90687800000001</v>
       </c>
       <c r="S167">
-        <v>351.04689500000001</v>
+        <v>353.19601499999999</v>
       </c>
       <c r="T167">
-        <v>400.46027400000003</v>
+        <v>358.009342</v>
       </c>
       <c r="U167">
-        <v>286.26473800000002</v>
+        <v>357.44431400000002</v>
       </c>
       <c r="V167">
-        <v>362.60226699999998</v>
+        <v>358.70275500000002</v>
       </c>
       <c r="W167">
-        <v>342.267109</v>
+        <v>343.012383</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.3">
@@ -12677,14 +12683,14 @@
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E169" t="str">
         <f>D169&amp;"_"&amp;F169</f>
-        <v>TsCesium_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F169">
         <v>12</v>
@@ -12693,52 +12699,52 @@
         <v>65</v>
       </c>
       <c r="H169">
-        <v>4.5100000000000001E-2</v>
+        <v>3.9609999999999999E-2</v>
       </c>
       <c r="I169">
         <v>72.727270000000004</v>
       </c>
       <c r="J169">
-        <v>3.5939999999999999</v>
+        <v>-2.4730500000000002</v>
       </c>
       <c r="K169">
-        <v>0.52642999999999995</v>
+        <v>0.42969000000000002</v>
       </c>
       <c r="L169">
-        <v>15375.61794</v>
+        <v>16653.544922000001</v>
       </c>
       <c r="M169">
-        <v>14780.715294</v>
+        <v>15412.833008</v>
       </c>
       <c r="N169">
-        <v>15560.531607999999</v>
+        <v>15356.529296999999</v>
       </c>
       <c r="O169">
-        <v>15829.944008</v>
+        <v>15625.707031</v>
       </c>
       <c r="P169">
-        <v>15786.431774000001</v>
+        <v>17368.058593999998</v>
       </c>
       <c r="Q169">
-        <v>15824.414085</v>
+        <v>16595.488281000002</v>
       </c>
       <c r="R169">
-        <v>15689.588555</v>
+        <v>15909.853515999999</v>
       </c>
       <c r="S169">
-        <v>15735.149372</v>
+        <v>16296.521484000001</v>
       </c>
       <c r="T169">
-        <v>15119.634937999999</v>
+        <v>16843.199218999998</v>
       </c>
       <c r="U169">
-        <v>15834.424284000001</v>
+        <v>18355.572265999999</v>
       </c>
       <c r="V169">
-        <v>15868.406951000001</v>
+        <v>18702.457031000002</v>
       </c>
       <c r="W169">
-        <v>15853.530957999999</v>
+        <v>15923.229492</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.3">
@@ -12896,65 +12902,65 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E172" t="str">
         <f>D172&amp;"_"&amp;F172</f>
-        <v>RawData_24</v>
+        <v>TsFlex_36</v>
       </c>
       <c r="F172">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>65</v>
       </c>
       <c r="H172">
-        <v>7.4130000000000001E-2</v>
+        <v>6.3250000000000001E-2</v>
       </c>
       <c r="I172">
-        <v>27.272729999999999</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J172">
-        <v>3.8081200000000002</v>
+        <v>-2.1270500000000001</v>
       </c>
       <c r="K172">
-        <v>0.2213</v>
+        <v>0.18060999999999999</v>
       </c>
       <c r="L172">
-        <v>4410.9721479999998</v>
+        <v>5084.3549819999998</v>
       </c>
       <c r="M172">
-        <v>4782.8529639999997</v>
+        <v>5084.5386870000002</v>
       </c>
       <c r="N172">
-        <v>4874.0291770000003</v>
+        <v>5084.2843640000001</v>
       </c>
       <c r="O172">
-        <v>4920.1889970000002</v>
+        <v>5084.1818190000004</v>
       </c>
       <c r="P172">
-        <v>4889.0858630000002</v>
+        <v>5083.7509309999996</v>
       </c>
       <c r="Q172">
-        <v>5462.4135530000003</v>
+        <v>5083.2569670000003</v>
       </c>
       <c r="R172">
-        <v>4839.7798629999998</v>
+        <v>5082.9656919999998</v>
       </c>
       <c r="S172">
-        <v>4921.8761260000001</v>
+        <v>5082.658907</v>
       </c>
       <c r="T172">
-        <v>4681.4179139999997</v>
+        <v>5082.3494629999996</v>
       </c>
       <c r="U172">
-        <v>4525.0736479999996</v>
+        <v>5082.0900270000002</v>
       </c>
       <c r="V172">
-        <v>4646.7785910000002</v>
+        <v>5081.8316969999996</v>
       </c>
       <c r="W172">
-        <v>4498.5809440000003</v>
+        <v>5081.7166509999997</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.3">
@@ -13109,68 +13115,68 @@
         <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E175" t="str">
         <f>D175&amp;"_"&amp;F175</f>
-        <v>TsCesium_36</v>
+        <v>TsFlex_24</v>
       </c>
       <c r="F175">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G175" t="s">
         <v>65</v>
       </c>
       <c r="H175">
-        <v>0.15833</v>
+        <v>0.15819</v>
       </c>
       <c r="I175">
-        <v>63.636360000000003</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J175">
-        <v>12.545349999999999</v>
+        <v>14.66995</v>
       </c>
       <c r="K175">
-        <v>1.0376799999999999</v>
+        <v>1.0389600000000001</v>
       </c>
       <c r="L175">
-        <v>1603.6893789999999</v>
+        <v>1568.2471559999999</v>
       </c>
       <c r="M175">
-        <v>1571.4202660000001</v>
+        <v>1451.911531</v>
       </c>
       <c r="N175">
-        <v>1603.6133159999999</v>
+        <v>1410.466412</v>
       </c>
       <c r="O175">
-        <v>1415.914274</v>
+        <v>1412.1046839999999</v>
       </c>
       <c r="P175">
-        <v>1620.8737960000001</v>
+        <v>1497.8051969999999</v>
       </c>
       <c r="Q175">
-        <v>1613.8852870000001</v>
+        <v>1378.200754</v>
       </c>
       <c r="R175">
-        <v>1400.395698</v>
+        <v>1533.190257</v>
       </c>
       <c r="S175">
-        <v>1650.689167</v>
+        <v>1527.118264</v>
       </c>
       <c r="T175">
-        <v>1642.179568</v>
+        <v>1509.702528</v>
       </c>
       <c r="U175">
-        <v>1608.6929170000001</v>
+        <v>1688.118608</v>
       </c>
       <c r="V175">
-        <v>1543.803631</v>
+        <v>1749.0205000000001</v>
       </c>
       <c r="W175">
-        <v>1591.8612419999999</v>
+        <v>1682.780368</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
@@ -13181,14 +13187,14 @@
         <v>42</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E176" t="str">
         <f>D176&amp;"_"&amp;F176</f>
-        <v>RawData_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F176">
         <v>36</v>
@@ -13197,52 +13203,52 @@
         <v>65</v>
       </c>
       <c r="H176">
-        <v>0.16461999999999999</v>
+        <v>0.16456000000000001</v>
       </c>
       <c r="I176">
-        <v>90.909090000000006</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J176">
-        <v>18.584330000000001</v>
+        <v>13.33841</v>
       </c>
       <c r="K176">
-        <v>0.90688000000000002</v>
+        <v>0.74653999999999998</v>
       </c>
       <c r="L176">
-        <v>6880.6399629999996</v>
+        <v>6901.4751999999999</v>
       </c>
       <c r="M176">
-        <v>5376.6034650000001</v>
+        <v>5035.1683400000002</v>
       </c>
       <c r="N176">
-        <v>4490.9792180000004</v>
+        <v>4342.0246399999996</v>
       </c>
       <c r="O176">
-        <v>3938.049939</v>
+        <v>3169.9957180000001</v>
       </c>
       <c r="P176">
-        <v>3329.868825</v>
+        <v>4342.0246399999996</v>
       </c>
       <c r="Q176">
-        <v>3408.6823880000002</v>
+        <v>3689.3250090000001</v>
       </c>
       <c r="R176">
-        <v>3700.3082920000002</v>
+        <v>3244.0025409999998</v>
       </c>
       <c r="S176">
-        <v>5152.7637340000001</v>
+        <v>4315.6756070000001</v>
       </c>
       <c r="T176">
-        <v>5755.3829640000004</v>
+        <v>6146.2218700000003</v>
       </c>
       <c r="U176">
-        <v>5788.3070079999998</v>
+        <v>6816.670196</v>
       </c>
       <c r="V176">
-        <v>5987.5777609999996</v>
+        <v>6655.5707949999996</v>
       </c>
       <c r="W176">
-        <v>4027.0969180000002</v>
+        <v>6904.7099539999999</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.3">
@@ -13541,14 +13547,14 @@
         <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E181" t="str">
         <f>D181&amp;"_"&amp;F181</f>
-        <v>TsFeatures_24</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F181">
         <v>24</v>
@@ -13557,52 +13563,52 @@
         <v>65</v>
       </c>
       <c r="H181">
-        <v>0.15823000000000001</v>
+        <v>0.11723</v>
       </c>
       <c r="I181">
-        <v>54.545450000000002</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J181">
-        <v>6.7403599999999999</v>
+        <v>-8.3823299999999996</v>
       </c>
       <c r="K181">
-        <v>0.32557999999999998</v>
+        <v>0.22355</v>
       </c>
       <c r="L181">
-        <v>7096.0263670000004</v>
+        <v>7187.7794640000002</v>
       </c>
       <c r="M181">
-        <v>6944.9638670000004</v>
+        <v>7124.9572500000004</v>
       </c>
       <c r="N181">
-        <v>6944.6835940000001</v>
+        <v>6870.4253740000004</v>
       </c>
       <c r="O181">
-        <v>6946.1484380000002</v>
+        <v>7148.0364229999996</v>
       </c>
       <c r="P181">
-        <v>7017.595703</v>
+        <v>7141.478024</v>
       </c>
       <c r="Q181">
-        <v>8344.1376949999994</v>
+        <v>7907.876953</v>
       </c>
       <c r="R181">
-        <v>6668.4956050000001</v>
+        <v>8205.2153400000007</v>
       </c>
       <c r="S181">
-        <v>6570.205078</v>
+        <v>8290.2665159999997</v>
       </c>
       <c r="T181">
-        <v>6233.5126950000003</v>
+        <v>8342.431106</v>
       </c>
       <c r="U181">
-        <v>6182.3535160000001</v>
+        <v>8555.4531950000001</v>
       </c>
       <c r="V181">
-        <v>7715.6064450000003</v>
+        <v>10408.533418000001</v>
       </c>
       <c r="W181">
-        <v>7133.8710940000001</v>
+        <v>10203.500119</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.3">
@@ -13688,11 +13694,11 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E183" t="str">
         <f>D183&amp;"_"&amp;F183</f>
-        <v>TsCesium_36</v>
+        <v>TsFel_36</v>
       </c>
       <c r="F183">
         <v>36</v>
@@ -13701,52 +13707,52 @@
         <v>65</v>
       </c>
       <c r="H183">
-        <v>8.3269999999999997E-2</v>
+        <v>7.281E-2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J183">
-        <v>6.5801999999999996</v>
+        <v>2.6367500000000001</v>
       </c>
       <c r="K183">
-        <v>0.46092</v>
+        <v>0.39428000000000002</v>
       </c>
       <c r="L183">
-        <v>4933.1898069999997</v>
+        <v>5150.9315180000003</v>
       </c>
       <c r="M183">
-        <v>4933.1898069999997</v>
+        <v>5150.4982389999996</v>
       </c>
       <c r="N183">
-        <v>4933.1898069999997</v>
+        <v>5147.6783320000004</v>
       </c>
       <c r="O183">
-        <v>4933.1898069999997</v>
+        <v>5145.0545249999996</v>
       </c>
       <c r="P183">
-        <v>4933.1898069999997</v>
+        <v>5142.4170649999996</v>
       </c>
       <c r="Q183">
-        <v>4933.1898069999997</v>
+        <v>5140.0976739999996</v>
       </c>
       <c r="R183">
-        <v>4933.1898069999997</v>
+        <v>5138.1027139999997</v>
       </c>
       <c r="S183">
-        <v>4933.1898069999997</v>
+        <v>5136.6482580000002</v>
       </c>
       <c r="T183">
-        <v>4933.1898069999997</v>
+        <v>5135.9380940000001</v>
       </c>
       <c r="U183">
-        <v>4933.1898069999997</v>
+        <v>5135.613096</v>
       </c>
       <c r="V183">
-        <v>4933.1898069999997</v>
+        <v>5136.1102360000004</v>
       </c>
       <c r="W183">
-        <v>4933.1898069999997</v>
+        <v>5138.0710200000003</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.3">

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="73">
   <si>
     <t>etanolhidratado</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>TsFlex</t>
+  </si>
+  <si>
+    <t>TsFresh</t>
   </si>
 </sst>
 </file>
@@ -1307,68 +1310,68 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E11" t="str">
         <f>D11&amp;"_"&amp;F11</f>
-        <v>RawData_24</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11">
-        <v>0.14626</v>
+        <v>0.13550999999999999</v>
       </c>
       <c r="I11">
-        <v>45.454549999999998</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J11">
-        <v>-9.6959599999999995</v>
+        <v>2.9564699999999999</v>
       </c>
       <c r="K11">
-        <v>0.28243000000000001</v>
+        <v>0.28882000000000002</v>
       </c>
       <c r="L11">
-        <v>3023.8235129999998</v>
+        <v>3022.9419050000001</v>
       </c>
       <c r="M11">
-        <v>3113.2767159999999</v>
+        <v>3193.7616170000001</v>
       </c>
       <c r="N11">
-        <v>3269.5555709999999</v>
+        <v>3193.7616170000001</v>
       </c>
       <c r="O11">
-        <v>3461.9477120000001</v>
+        <v>3193.7616170000001</v>
       </c>
       <c r="P11">
-        <v>3543.669911</v>
+        <v>3193.7616170000001</v>
       </c>
       <c r="Q11">
-        <v>3804.3892860000001</v>
+        <v>4598.2855259999997</v>
       </c>
       <c r="R11">
-        <v>4250.3678319999999</v>
+        <v>4103.0675440000005</v>
       </c>
       <c r="S11">
-        <v>4431.0452640000003</v>
+        <v>4526.6770649999999</v>
       </c>
       <c r="T11">
-        <v>5675.4229679999999</v>
+        <v>4526.6770649999999</v>
       </c>
       <c r="U11">
-        <v>6250.2488279999998</v>
+        <v>4311.8605440000001</v>
       </c>
       <c r="V11">
-        <v>6124.7042469999997</v>
+        <v>4281.5912340000004</v>
       </c>
       <c r="W11">
-        <v>5532.4852170000004</v>
+        <v>4281.5912340000004</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1379,68 +1382,68 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E12" t="str">
         <f>D12&amp;"_"&amp;F12</f>
-        <v>RawData_36</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
       </c>
       <c r="H12">
-        <v>0.10933</v>
+        <v>0.10371</v>
       </c>
       <c r="I12">
-        <v>63.636360000000003</v>
+        <v>54.545450000000002</v>
       </c>
       <c r="J12">
-        <v>-0.65227000000000002</v>
+        <v>6.8574400000000004</v>
       </c>
       <c r="K12">
-        <v>0.29807</v>
+        <v>0.32374000000000003</v>
       </c>
       <c r="L12">
-        <v>140624.34375</v>
+        <v>140177.34124800001</v>
       </c>
       <c r="M12">
-        <v>135974.609375</v>
+        <v>131297.292931</v>
       </c>
       <c r="N12">
-        <v>146945.625</v>
+        <v>126463.583333</v>
       </c>
       <c r="O12">
-        <v>166515.8125</v>
+        <v>149193.670992</v>
       </c>
       <c r="P12">
-        <v>152371</v>
+        <v>144188.741549</v>
       </c>
       <c r="Q12">
-        <v>182498.953125</v>
+        <v>151184.83172700001</v>
       </c>
       <c r="R12">
-        <v>174919.78125</v>
+        <v>177113.94088899999</v>
       </c>
       <c r="S12">
-        <v>199154.578125</v>
+        <v>161579.01423900001</v>
       </c>
       <c r="T12">
-        <v>185077.640625</v>
+        <v>188339.45040599999</v>
       </c>
       <c r="U12">
-        <v>197001.21875</v>
+        <v>176187.36891300001</v>
       </c>
       <c r="V12">
-        <v>192880.75</v>
+        <v>195235.814541</v>
       </c>
       <c r="W12">
-        <v>198634.25</v>
+        <v>176999.859624</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -2102,65 +2105,65 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" t="str">
         <f>D22&amp;"_"&amp;F22</f>
-        <v>TsFel_36</v>
+        <v>TsFresh_24</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
       </c>
       <c r="H22">
-        <v>0.16681000000000001</v>
+        <v>0.10951</v>
       </c>
       <c r="I22">
-        <v>63.636360000000003</v>
+        <v>36.363639999999997</v>
       </c>
       <c r="J22">
-        <v>17.112159999999999</v>
+        <v>7.5743999999999998</v>
       </c>
       <c r="K22">
-        <v>0.35372999999999999</v>
+        <v>0.22825000000000001</v>
       </c>
       <c r="L22">
-        <v>762.05194100000006</v>
+        <v>725.89679000000001</v>
       </c>
       <c r="M22">
-        <v>656.98559599999999</v>
+        <v>725.89679000000001</v>
       </c>
       <c r="N22">
-        <v>788.74755900000002</v>
+        <v>725.89679000000001</v>
       </c>
       <c r="O22">
-        <v>768.15332000000001</v>
+        <v>725.89679000000001</v>
       </c>
       <c r="P22">
-        <v>830.18914800000005</v>
+        <v>918.47100799999998</v>
       </c>
       <c r="Q22">
-        <v>846.18859899999995</v>
+        <v>999.63018799999998</v>
       </c>
       <c r="R22">
-        <v>1072.9570309999999</v>
+        <v>1289.782471</v>
       </c>
       <c r="S22">
-        <v>990.50769000000003</v>
+        <v>1476.9013669999999</v>
       </c>
       <c r="T22">
-        <v>1325.1152340000001</v>
+        <v>1631.5157469999999</v>
       </c>
       <c r="U22">
-        <v>1444.8066409999999</v>
+        <v>1598.2076420000001</v>
       </c>
       <c r="V22">
-        <v>1585.612061</v>
+        <v>1607.2258300000001</v>
       </c>
       <c r="W22">
-        <v>1523.6547849999999</v>
+        <v>1618.929443</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -3182,65 +3185,65 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E37" t="str">
         <f>D37&amp;"_"&amp;F37</f>
-        <v>RawData_24</v>
+        <v>TsFresh_36</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>65</v>
       </c>
       <c r="H37">
-        <v>5.6910000000000002E-2</v>
+        <v>4.206E-2</v>
       </c>
       <c r="I37">
-        <v>54.545450000000002</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J37">
-        <v>2.6678500000000001</v>
+        <v>-0.63507999999999998</v>
       </c>
       <c r="K37">
-        <v>0.38068999999999997</v>
+        <v>0.26518999999999998</v>
       </c>
       <c r="L37">
-        <v>133651.56877799999</v>
+        <v>139748.154194</v>
       </c>
       <c r="M37">
-        <v>132005.65618399999</v>
+        <v>137964.406697</v>
       </c>
       <c r="N37">
-        <v>130196.438546</v>
+        <v>138522.42543500001</v>
       </c>
       <c r="O37">
-        <v>128169.542401</v>
+        <v>139878.763997</v>
       </c>
       <c r="P37">
-        <v>131238.21357600001</v>
+        <v>137059.05037099999</v>
       </c>
       <c r="Q37">
-        <v>133112.38617799999</v>
+        <v>133079.69547199999</v>
       </c>
       <c r="R37">
-        <v>130074.37677800001</v>
+        <v>133271.06198299999</v>
       </c>
       <c r="S37">
-        <v>130834.59606</v>
+        <v>130533.074242</v>
       </c>
       <c r="T37">
-        <v>130883.679042</v>
+        <v>129684.482833</v>
       </c>
       <c r="U37">
-        <v>129187.81368399999</v>
+        <v>131827.42573300001</v>
       </c>
       <c r="V37">
-        <v>126812.007747</v>
+        <v>130409.242466</v>
       </c>
       <c r="W37">
-        <v>123512.23149599999</v>
+        <v>130627.758394</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -4550,65 +4553,65 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" t="str">
         <f>D56&amp;"_"&amp;F56</f>
-        <v>TsFel_12</v>
+        <v>TsFresh_36</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>65</v>
       </c>
       <c r="H56">
-        <v>0.30556</v>
+        <v>0.29047000000000001</v>
       </c>
       <c r="I56">
-        <v>72.727270000000004</v>
+        <v>63.636360000000003</v>
       </c>
       <c r="J56">
-        <v>-2.3649800000000001</v>
+        <v>16.61525</v>
       </c>
       <c r="K56">
-        <v>0.31384000000000001</v>
+        <v>0.30407000000000001</v>
       </c>
       <c r="L56">
-        <v>55.206211000000003</v>
+        <v>31.474858999999999</v>
       </c>
       <c r="M56">
-        <v>70.387421000000003</v>
+        <v>62.556083999999998</v>
       </c>
       <c r="N56">
-        <v>57.121029</v>
+        <v>47.167487999999999</v>
       </c>
       <c r="O56">
-        <v>56.824843999999999</v>
+        <v>47.719318000000001</v>
       </c>
       <c r="P56">
-        <v>58.454582000000002</v>
+        <v>50.623294999999999</v>
       </c>
       <c r="Q56">
-        <v>79.679946999999999</v>
+        <v>80.814209000000005</v>
       </c>
       <c r="R56">
-        <v>48.829109000000003</v>
+        <v>46.977665000000002</v>
       </c>
       <c r="S56">
-        <v>79.851280000000003</v>
+        <v>32.038040000000002</v>
       </c>
       <c r="T56">
-        <v>53.434455999999997</v>
+        <v>52.119320000000002</v>
       </c>
       <c r="U56">
-        <v>31.389251999999999</v>
+        <v>54.129035999999999</v>
       </c>
       <c r="V56">
-        <v>68.703445000000002</v>
+        <v>31.547187999999998</v>
       </c>
       <c r="W56">
-        <v>73.051659000000001</v>
+        <v>59.868285999999998</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -9299,14 +9302,14 @@
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E122" t="str">
         <f>D122&amp;"_"&amp;F122</f>
-        <v>TsCesium_36</v>
+        <v>Catch22_36</v>
       </c>
       <c r="F122">
         <v>36</v>
@@ -9315,52 +9318,52 @@
         <v>65</v>
       </c>
       <c r="H122">
-        <v>2324641034058330</v>
+        <v>1.09671012609779E+16</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J122">
-        <v>95.260639999999995</v>
+        <v>77.3964</v>
       </c>
       <c r="K122">
-        <v>0.73699000000000003</v>
+        <v>0.73519000000000001</v>
       </c>
       <c r="L122">
-        <v>1.032348</v>
+        <v>4.7298929999999997</v>
       </c>
       <c r="M122">
-        <v>1.032348</v>
+        <v>4.6937699999999998</v>
       </c>
       <c r="N122">
-        <v>1.032348</v>
+        <v>10.080038</v>
       </c>
       <c r="O122">
-        <v>1.032348</v>
+        <v>4.4959490000000004</v>
       </c>
       <c r="P122">
-        <v>1.032348</v>
+        <v>5.1519300000000001</v>
       </c>
       <c r="Q122">
-        <v>1.032348</v>
+        <v>4.654509</v>
       </c>
       <c r="R122">
-        <v>1.032348</v>
+        <v>5.1047570000000002</v>
       </c>
       <c r="S122">
-        <v>1.032348</v>
+        <v>5.525093</v>
       </c>
       <c r="T122">
-        <v>1.032348</v>
+        <v>7.5825139999999998</v>
       </c>
       <c r="U122">
-        <v>1.032348</v>
+        <v>5.684787</v>
       </c>
       <c r="V122">
-        <v>1.032348</v>
+        <v>0.90282300000000004</v>
       </c>
       <c r="W122">
-        <v>1.032348</v>
+        <v>0.47725099999999998</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
@@ -9446,11 +9449,11 @@
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E124" t="str">
         <f>D124&amp;"_"&amp;F124</f>
-        <v>TsCesium_12</v>
+        <v>TsFel_12</v>
       </c>
       <c r="F124">
         <v>12</v>
@@ -9459,52 +9462,52 @@
         <v>65</v>
       </c>
       <c r="H124">
-        <v>1.78195097392071E+16</v>
+        <v>2.87854351853824E+16</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>18.181819999999998</v>
       </c>
       <c r="J124">
-        <v>98.804379999999995</v>
+        <v>98.072789999999998</v>
       </c>
       <c r="K124">
-        <v>0.94908000000000003</v>
+        <v>0.95143999999999995</v>
       </c>
       <c r="L124">
-        <v>5.9350889999999996</v>
+        <v>9.5106289999999998</v>
       </c>
       <c r="M124">
-        <v>5.9350889999999996</v>
+        <v>9.5335940000000008</v>
       </c>
       <c r="N124">
-        <v>5.9350889999999996</v>
+        <v>9.5273979999999998</v>
       </c>
       <c r="O124">
-        <v>5.9350889999999996</v>
+        <v>9.5086189999999995</v>
       </c>
       <c r="P124">
-        <v>5.9350889999999996</v>
+        <v>9.6683850000000007</v>
       </c>
       <c r="Q124">
-        <v>5.9350889999999996</v>
+        <v>9.8652370000000005</v>
       </c>
       <c r="R124">
-        <v>5.9350889999999996</v>
+        <v>9.2764299999999995</v>
       </c>
       <c r="S124">
-        <v>5.9350889999999996</v>
+        <v>9.3525419999999997</v>
       </c>
       <c r="T124">
-        <v>5.9350889999999996</v>
+        <v>9.4578330000000008</v>
       </c>
       <c r="U124">
-        <v>5.9350889999999996</v>
+        <v>9.587377</v>
       </c>
       <c r="V124">
-        <v>5.9350889999999996</v>
+        <v>9.7027529999999995</v>
       </c>
       <c r="W124">
-        <v>5.9350889999999996</v>
+        <v>9.8095149999999993</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
@@ -9731,14 +9734,14 @@
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E128" t="str">
         <f>D128&amp;"_"&amp;F128</f>
-        <v>TsCesium_24</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F128">
         <v>24</v>
@@ -9747,52 +9750,52 @@
         <v>65</v>
       </c>
       <c r="H128">
-        <v>4363161628390380</v>
+        <v>4.67654363268104E+16</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J128">
-        <v>99.407730000000001</v>
+        <v>84.495630000000006</v>
       </c>
       <c r="K128">
-        <v>1.2714700000000001</v>
+        <v>1.17079</v>
       </c>
       <c r="L128">
-        <v>11.625798</v>
+        <v>812.15618900000004</v>
       </c>
       <c r="M128">
-        <v>11.625798</v>
+        <v>808.03241000000003</v>
       </c>
       <c r="N128">
-        <v>11.625798</v>
+        <v>578.06091300000003</v>
       </c>
       <c r="O128">
-        <v>11.625798</v>
+        <v>219.572845</v>
       </c>
       <c r="P128">
-        <v>11.625798</v>
+        <v>209.67147800000001</v>
       </c>
       <c r="Q128">
-        <v>11.625798</v>
+        <v>124.608154</v>
       </c>
       <c r="R128">
-        <v>11.625798</v>
+        <v>124.608154</v>
       </c>
       <c r="S128">
-        <v>11.625798</v>
+        <v>119.98687700000001</v>
       </c>
       <c r="T128">
-        <v>11.625798</v>
+        <v>205.05020099999999</v>
       </c>
       <c r="U128">
-        <v>11.625798</v>
+        <v>125.28106699999999</v>
       </c>
       <c r="V128">
-        <v>11.625798</v>
+        <v>119.98687700000001</v>
       </c>
       <c r="W128">
-        <v>11.625798</v>
+        <v>205.05020099999999</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
@@ -10310,65 +10313,65 @@
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E136" t="str">
         <f>D136&amp;"_"&amp;F136</f>
-        <v>TsCesium_24</v>
+        <v>TsFlex_12</v>
       </c>
       <c r="F136">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
         <v>65</v>
       </c>
       <c r="H136">
-        <v>2.08943513919936E+16</v>
+        <v>2.60642248072363E+16</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>-5.5673735999999897E+23</v>
+        <v>-6.9449046E+23</v>
       </c>
       <c r="K136">
-        <v>0.45022000000000001</v>
+        <v>0.56161000000000005</v>
       </c>
       <c r="L136">
-        <v>4.6394780000000004</v>
+        <v>5.2568650000000003</v>
       </c>
       <c r="M136">
-        <v>4.6394780000000004</v>
+        <v>5.2568650000000003</v>
       </c>
       <c r="N136">
-        <v>4.6394780000000004</v>
+        <v>5.5044690000000003</v>
       </c>
       <c r="O136">
-        <v>4.6394780000000004</v>
+        <v>5.7239259999999996</v>
       </c>
       <c r="P136">
-        <v>4.6394780000000004</v>
+        <v>6.2186950000000003</v>
       </c>
       <c r="Q136">
-        <v>4.6394780000000004</v>
+        <v>5.153308</v>
       </c>
       <c r="R136">
-        <v>4.6394780000000004</v>
+        <v>5.5201549999999999</v>
       </c>
       <c r="S136">
-        <v>4.6394780000000004</v>
+        <v>3.9612419999999999</v>
       </c>
       <c r="T136">
-        <v>4.6394780000000004</v>
+        <v>1.771965</v>
       </c>
       <c r="U136">
-        <v>4.6394780000000004</v>
+        <v>8.4129020000000008</v>
       </c>
       <c r="V136">
-        <v>4.6394780000000004</v>
+        <v>8.5474879999999995</v>
       </c>
       <c r="W136">
-        <v>4.6394780000000004</v>
+        <v>8.1211660000000006</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
@@ -10739,68 +10742,68 @@
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E142" t="str">
         <f>D142&amp;"_"&amp;F142</f>
-        <v>TsFlex_36</v>
+        <v>TsFresh_24</v>
       </c>
       <c r="F142">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G142" t="s">
         <v>65</v>
       </c>
       <c r="H142">
-        <v>5.6070000000000002E-2</v>
+        <v>4.8779999999999997E-2</v>
       </c>
       <c r="I142">
-        <v>18.181819999999998</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J142">
-        <v>-0.34451999999999999</v>
+        <v>-0.64751999999999998</v>
       </c>
       <c r="K142">
-        <v>0.75383</v>
+        <v>0.65078000000000003</v>
       </c>
       <c r="L142">
-        <v>90662.093752999994</v>
+        <v>93699.179688000004</v>
       </c>
       <c r="M142">
-        <v>90662.093752999994</v>
+        <v>93699.179688000004</v>
       </c>
       <c r="N142">
-        <v>90662.093752999994</v>
+        <v>93699.179688000004</v>
       </c>
       <c r="O142">
-        <v>90662.093752999994</v>
+        <v>93699.179688000004</v>
       </c>
       <c r="P142">
-        <v>87919.767376000003</v>
+        <v>93183.84375</v>
       </c>
       <c r="Q142">
-        <v>102392.797296</v>
+        <v>99703.742188000004</v>
       </c>
       <c r="R142">
-        <v>102392.797296</v>
+        <v>102174.609375</v>
       </c>
       <c r="S142">
-        <v>102392.797296</v>
+        <v>100293.648438</v>
       </c>
       <c r="T142">
-        <v>102152.647245</v>
+        <v>101352.265625</v>
       </c>
       <c r="U142">
-        <v>102152.647245</v>
+        <v>100572.625</v>
       </c>
       <c r="V142">
-        <v>102152.647245</v>
+        <v>99305.3125</v>
       </c>
       <c r="W142">
-        <v>102152.647245</v>
+        <v>98496.265625</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
@@ -11819,68 +11822,68 @@
         <v>51</v>
       </c>
       <c r="C157" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E157" t="str">
         <f>D157&amp;"_"&amp;F157</f>
-        <v>RawData_36</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F157">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G157" t="s">
         <v>65</v>
       </c>
       <c r="H157">
-        <v>6.3589999999999994E-2</v>
+        <v>6.2789999999999999E-2</v>
       </c>
       <c r="I157">
-        <v>54.545450000000002</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J157">
-        <v>2.1810299999999998</v>
+        <v>-4.96896</v>
       </c>
       <c r="K157">
-        <v>0.62629000000000001</v>
+        <v>0.58450999999999997</v>
       </c>
       <c r="L157">
-        <v>69432.253748999996</v>
+        <v>76069.647085999997</v>
       </c>
       <c r="M157">
-        <v>69691.016396000006</v>
+        <v>78601.326465999999</v>
       </c>
       <c r="N157">
-        <v>91773.142086000007</v>
+        <v>80546.643125000002</v>
       </c>
       <c r="O157">
-        <v>74249.101330999998</v>
+        <v>88007.461588999999</v>
       </c>
       <c r="P157">
-        <v>83245.394933000003</v>
+        <v>94875.455881000002</v>
       </c>
       <c r="Q157">
-        <v>80273.595587000003</v>
+        <v>88335.321846000006</v>
       </c>
       <c r="R157">
-        <v>80239.107493000003</v>
+        <v>79789.566766000004</v>
       </c>
       <c r="S157">
-        <v>79142.523874999999</v>
+        <v>75750.530497999993</v>
       </c>
       <c r="T157">
-        <v>72210.313899999994</v>
+        <v>80204.418585000007</v>
       </c>
       <c r="U157">
-        <v>63758.598579999998</v>
+        <v>76069.647085999997</v>
       </c>
       <c r="V157">
-        <v>71766.956644999998</v>
+        <v>76069.647085999997</v>
       </c>
       <c r="W157">
-        <v>68508.966016000006</v>
+        <v>76069.647085999997</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
@@ -11891,68 +11894,68 @@
         <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E158" t="str">
         <f>D158&amp;"_"&amp;F158</f>
-        <v>TsFeatures_12</v>
+        <v>TsFresh_36</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>65</v>
       </c>
       <c r="H158">
-        <v>0.18218000000000001</v>
+        <v>0.12605</v>
       </c>
       <c r="I158">
-        <v>63.636360000000003</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J158">
-        <v>-14.19772</v>
+        <v>-2.3269000000000002</v>
       </c>
       <c r="K158">
-        <v>0.60065000000000002</v>
+        <v>0.42862</v>
       </c>
       <c r="L158">
-        <v>22445.284361000002</v>
+        <v>19437.189763999999</v>
       </c>
       <c r="M158">
-        <v>22451.221421999999</v>
+        <v>18667.486810999999</v>
       </c>
       <c r="N158">
-        <v>22439.700826</v>
+        <v>21070.360397</v>
       </c>
       <c r="O158">
-        <v>22436.372786</v>
+        <v>20410.937042000001</v>
       </c>
       <c r="P158">
-        <v>22438.591799000002</v>
+        <v>20560.144848</v>
       </c>
       <c r="Q158">
-        <v>22437.587841</v>
+        <v>20247.597647999999</v>
       </c>
       <c r="R158">
-        <v>22437.748081999998</v>
+        <v>20068.707686000002</v>
       </c>
       <c r="S158">
-        <v>22438.904205999999</v>
+        <v>20381.173744</v>
       </c>
       <c r="T158">
-        <v>22437.945174</v>
+        <v>20209.436314999999</v>
       </c>
       <c r="U158">
-        <v>22437.945167999998</v>
+        <v>20280.123548</v>
       </c>
       <c r="V158">
-        <v>22437.945167999998</v>
+        <v>19762.089569</v>
       </c>
       <c r="W158">
-        <v>22437.939848000002</v>
+        <v>20190.668684</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
@@ -13115,68 +13118,68 @@
         <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D175" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E175" t="str">
         <f>D175&amp;"_"&amp;F175</f>
-        <v>TsFlex_24</v>
+        <v>TsFresh_36</v>
       </c>
       <c r="F175">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>65</v>
       </c>
       <c r="H175">
-        <v>0.15819</v>
+        <v>0.14191000000000001</v>
       </c>
       <c r="I175">
-        <v>36.363639999999997</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J175">
-        <v>14.66995</v>
+        <v>-0.73421000000000003</v>
       </c>
       <c r="K175">
-        <v>1.0389600000000001</v>
+        <v>0.77900999999999998</v>
       </c>
       <c r="L175">
-        <v>1568.2471559999999</v>
+        <v>1360.9064229999999</v>
       </c>
       <c r="M175">
-        <v>1451.911531</v>
+        <v>1360.9064229999999</v>
       </c>
       <c r="N175">
-        <v>1410.466412</v>
+        <v>1360.9064229999999</v>
       </c>
       <c r="O175">
-        <v>1412.1046839999999</v>
+        <v>1360.9064229999999</v>
       </c>
       <c r="P175">
-        <v>1497.8051969999999</v>
+        <v>1789.7002930000001</v>
       </c>
       <c r="Q175">
-        <v>1378.200754</v>
+        <v>1788.128888</v>
       </c>
       <c r="R175">
-        <v>1533.190257</v>
+        <v>2025.4447210000001</v>
       </c>
       <c r="S175">
-        <v>1527.118264</v>
+        <v>2082.59202</v>
       </c>
       <c r="T175">
-        <v>1509.702528</v>
+        <v>2155.7130040000002</v>
       </c>
       <c r="U175">
-        <v>1688.118608</v>
+        <v>2133.8597599999998</v>
       </c>
       <c r="V175">
-        <v>1749.0205000000001</v>
+        <v>2162.9873170000001</v>
       </c>
       <c r="W175">
-        <v>1682.780368</v>
+        <v>2149.8302389999999</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
@@ -13619,14 +13622,14 @@
         <v>49</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E182" t="str">
         <f>D182&amp;"_"&amp;F182</f>
-        <v>TsFeatures_36</v>
+        <v>TsFresh_36</v>
       </c>
       <c r="F182">
         <v>36</v>
@@ -13635,52 +13638,52 @@
         <v>65</v>
       </c>
       <c r="H182">
-        <v>8.5989999999999997E-2</v>
+        <v>8.2350000000000007E-2</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
-        <v>8.2729800000000004</v>
+        <v>-0.76044</v>
       </c>
       <c r="K182">
-        <v>0.74287999999999998</v>
+        <v>0.65919000000000005</v>
       </c>
       <c r="L182">
-        <v>53856.085486000004</v>
+        <v>57851.111940000003</v>
       </c>
       <c r="M182">
-        <v>53856.085486000004</v>
+        <v>57851.111940000003</v>
       </c>
       <c r="N182">
-        <v>53856.085486000004</v>
+        <v>57851.111940000003</v>
       </c>
       <c r="O182">
-        <v>53856.085486000004</v>
+        <v>57851.111940000003</v>
       </c>
       <c r="P182">
-        <v>53856.085486000004</v>
+        <v>57851.111940000003</v>
       </c>
       <c r="Q182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
       <c r="R182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
       <c r="S182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
       <c r="T182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
       <c r="U182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
       <c r="V182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
       <c r="W182">
-        <v>53856.085486000004</v>
+        <v>60094.778628</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.3">
@@ -14126,65 +14129,65 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E189" t="str">
         <f>D189&amp;"_"&amp;F189</f>
-        <v>TsFeatures_24</v>
+        <v>TsFresh_36</v>
       </c>
       <c r="F189">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
         <v>65</v>
       </c>
       <c r="H189">
-        <v>8.0140000000000003E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="I189">
-        <v>9.0909099999999992</v>
+        <v>45.454549999999998</v>
       </c>
       <c r="J189">
-        <v>6.1154700000000002</v>
+        <v>-0.13527</v>
       </c>
       <c r="K189">
-        <v>0.54156000000000004</v>
+        <v>0.33588000000000001</v>
       </c>
       <c r="L189">
-        <v>285928.44671599998</v>
+        <v>322113.68347300001</v>
       </c>
       <c r="M189">
-        <v>297905.249044</v>
+        <v>300054.06971499999</v>
       </c>
       <c r="N189">
-        <v>271950.51918300003</v>
+        <v>300054.06971499999</v>
       </c>
       <c r="O189">
-        <v>311687.025012</v>
+        <v>300054.06971499999</v>
       </c>
       <c r="P189">
-        <v>293962.14391300001</v>
+        <v>323918.76786000002</v>
       </c>
       <c r="Q189">
-        <v>299938.74135000003</v>
+        <v>340187.55852600001</v>
       </c>
       <c r="R189">
-        <v>290125.13515300001</v>
+        <v>340187.55852600001</v>
       </c>
       <c r="S189">
-        <v>285986.027879</v>
+        <v>322360.509296</v>
       </c>
       <c r="T189">
-        <v>318257.04131300002</v>
+        <v>321894.98300000001</v>
       </c>
       <c r="U189">
-        <v>318257.04131300002</v>
+        <v>309550.357128</v>
       </c>
       <c r="V189">
-        <v>318257.04131300002</v>
+        <v>330665.95782399998</v>
       </c>
       <c r="W189">
-        <v>285356.97421299998</v>
+        <v>304763.44358000002</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
@@ -16067,68 +16070,68 @@
         <v>56</v>
       </c>
       <c r="C216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D216" t="s">
         <v>68</v>
       </c>
       <c r="E216" t="str">
         <f>D216&amp;"_"&amp;F216</f>
-        <v>TsFeatures_36</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F216">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G216" t="s">
         <v>65</v>
       </c>
       <c r="H216">
-        <v>6570556700349700</v>
+        <v>1.98587021204836E+16</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>27.272729999999999</v>
       </c>
       <c r="J216">
-        <v>-5.04488</v>
+        <v>-217.45783</v>
       </c>
       <c r="K216">
-        <v>0.30934</v>
+        <v>0.56705000000000005</v>
       </c>
       <c r="L216">
-        <v>1.750748</v>
+        <v>4.7094589999999998</v>
       </c>
       <c r="M216">
-        <v>1.750748</v>
+        <v>5.0652629999999998</v>
       </c>
       <c r="N216">
-        <v>1.750748</v>
+        <v>3.5264069999999998</v>
       </c>
       <c r="O216">
-        <v>1.750748</v>
+        <v>4.6519000000000004</v>
       </c>
       <c r="P216">
-        <v>1.750748</v>
+        <v>4.0675780000000001</v>
       </c>
       <c r="Q216">
-        <v>1.750748</v>
+        <v>5.9566299999999996</v>
       </c>
       <c r="R216">
-        <v>1.750748</v>
+        <v>6.0520880000000004</v>
       </c>
       <c r="S216">
-        <v>1.750748</v>
+        <v>5.8022400000000003</v>
       </c>
       <c r="T216">
-        <v>1.750748</v>
+        <v>5.9254540000000002</v>
       </c>
       <c r="U216">
-        <v>1.750748</v>
+        <v>5.9254540000000002</v>
       </c>
       <c r="V216">
-        <v>1.750748</v>
+        <v>5.9538339999999996</v>
       </c>
       <c r="W216">
-        <v>1.750748</v>
+        <v>5.8552590000000002</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -2174,68 +2174,68 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23" t="str">
         <f>D23&amp;"_"&amp;F23</f>
-        <v>TsFeatures_24</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
       </c>
       <c r="H23">
-        <v>0.12825</v>
+        <v>0.12565951994968699</v>
       </c>
       <c r="I23">
-        <v>27.272729999999999</v>
+        <v>63.636363636363598</v>
       </c>
       <c r="J23">
-        <v>12.56537</v>
+        <v>12.706436298198</v>
       </c>
       <c r="K23">
-        <v>0.45523999999999998</v>
+        <v>0.45314536164767699</v>
       </c>
       <c r="L23">
-        <v>251.03248300000001</v>
+        <v>248.84007893620699</v>
       </c>
       <c r="M23">
-        <v>259.38375100000002</v>
+        <v>265.82970778248801</v>
       </c>
       <c r="N23">
-        <v>260.66867300000001</v>
+        <v>272.59483506551499</v>
       </c>
       <c r="O23">
-        <v>260.66867300000001</v>
+        <v>272.46317430382999</v>
       </c>
       <c r="P23">
-        <v>260.66867300000001</v>
+        <v>238.868801423647</v>
       </c>
       <c r="Q23">
-        <v>259.26547299999999</v>
+        <v>238.09375306516401</v>
       </c>
       <c r="R23">
-        <v>260.55039599999998</v>
+        <v>254.82707092152901</v>
       </c>
       <c r="S23">
-        <v>260.55039599999998</v>
+        <v>281.86785785592798</v>
       </c>
       <c r="T23">
-        <v>260.55039599999998</v>
+        <v>275.24669716290498</v>
       </c>
       <c r="U23">
-        <v>260.55039599999998</v>
+        <v>275.861610955039</v>
       </c>
       <c r="V23">
-        <v>256.77165600000001</v>
+        <v>254.68760201095901</v>
       </c>
       <c r="W23">
-        <v>255.48214400000001</v>
+        <v>221.95059496368</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -3329,65 +3329,65 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E39" t="str">
         <f>D39&amp;"_"&amp;F39</f>
-        <v>Catch22_36</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F39">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
         <v>65</v>
       </c>
       <c r="H39">
-        <v>4.8219999999999999E-2</v>
+        <v>4.4745772279473697E-2</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="J39">
-        <v>3.1988500000000002</v>
+        <v>3.5400436688033601</v>
       </c>
       <c r="K39">
-        <v>0.37136999999999998</v>
+        <v>0.36241674769006399</v>
       </c>
       <c r="L39">
-        <v>390127.97993115999</v>
+        <v>379641.74746305897</v>
       </c>
       <c r="M39">
-        <v>390116.54067628499</v>
+        <v>358994.13144126203</v>
       </c>
       <c r="N39">
-        <v>402313.60821524699</v>
+        <v>366889.48647630401</v>
       </c>
       <c r="O39">
-        <v>388785.26320392499</v>
+        <v>380668.05360943801</v>
       </c>
       <c r="P39">
-        <v>412506.61197928502</v>
+        <v>413430.82464888698</v>
       </c>
       <c r="Q39">
-        <v>384231.09398105898</v>
+        <v>401146.488390213</v>
       </c>
       <c r="R39">
-        <v>379239.53015988099</v>
+        <v>367669.32476410799</v>
       </c>
       <c r="S39">
-        <v>403280.15531497501</v>
+        <v>390412.01192197698</v>
       </c>
       <c r="T39">
-        <v>349869.06759414601</v>
+        <v>370238.22721341799</v>
       </c>
       <c r="U39">
-        <v>426011.03096280998</v>
+        <v>433873.82708570699</v>
       </c>
       <c r="V39">
-        <v>331240.20025924098</v>
+        <v>364572.40806334501</v>
       </c>
       <c r="W39">
-        <v>295456.08051241201</v>
+        <v>309591.894289875</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3974,14 +3974,14 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E48" t="str">
         <f>D48&amp;"_"&amp;F48</f>
-        <v>RawData_24</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F48">
         <v>24</v>
@@ -3990,52 +3990,52 @@
         <v>65</v>
       </c>
       <c r="H48">
-        <v>3.2759999999999997E-2</v>
+        <v>2.8598578627011002E-2</v>
       </c>
       <c r="I48">
-        <v>63.636360000000003</v>
+        <v>81.818181818181799</v>
       </c>
       <c r="J48">
-        <v>2.6602800000000002</v>
+        <v>2.12764320880602</v>
       </c>
       <c r="K48">
-        <v>0.41964000000000001</v>
+        <v>0.30911229387278299</v>
       </c>
       <c r="L48">
-        <v>53897.101562000003</v>
+        <v>53047.4157764505</v>
       </c>
       <c r="M48">
-        <v>50829.320312000003</v>
+        <v>50923.288648965397</v>
       </c>
       <c r="N48">
-        <v>54503.191405999998</v>
+        <v>51868.274080226402</v>
       </c>
       <c r="O48">
-        <v>55329.839844000002</v>
+        <v>53745.946839843004</v>
       </c>
       <c r="P48">
-        <v>56175.683594000002</v>
+        <v>55851.356725577301</v>
       </c>
       <c r="Q48">
-        <v>54676.84375</v>
+        <v>57133.477239726497</v>
       </c>
       <c r="R48">
-        <v>56765.15625</v>
+        <v>54352.311146595101</v>
       </c>
       <c r="S48">
-        <v>56848.242187999997</v>
+        <v>58764.011431067702</v>
       </c>
       <c r="T48">
-        <v>52992.359375</v>
+        <v>53916.596875907999</v>
       </c>
       <c r="U48">
-        <v>58309.882812000003</v>
+        <v>61038.963971735997</v>
       </c>
       <c r="V48">
-        <v>55686.632812000003</v>
+        <v>55758.723818664301</v>
       </c>
       <c r="W48">
-        <v>46883.417969000002</v>
+        <v>50069.948790961003</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4118,14 +4118,14 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E50" t="str">
         <f>D50&amp;"_"&amp;F50</f>
-        <v>RawData_24</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4134,52 +4134,52 @@
         <v>65</v>
       </c>
       <c r="H50">
-        <v>4.4540000000000003E-2</v>
+        <v>4.2626450676051503E-2</v>
       </c>
       <c r="I50">
-        <v>72.727270000000004</v>
+        <v>54.545454545454497</v>
       </c>
       <c r="J50">
-        <v>-0.95294999999999996</v>
+        <v>5.4248856858723299E-2</v>
       </c>
       <c r="K50">
-        <v>0.80252999999999997</v>
+        <v>0.78174947934285099</v>
       </c>
       <c r="L50">
-        <v>15938.966700999999</v>
+        <v>15374.3810206734</v>
       </c>
       <c r="M50">
-        <v>15785.707206999999</v>
+        <v>15113.574816116001</v>
       </c>
       <c r="N50">
-        <v>15611.040121</v>
+        <v>14487.5733489426</v>
       </c>
       <c r="O50">
-        <v>15108.417092</v>
+        <v>14611.219510480199</v>
       </c>
       <c r="P50">
-        <v>15295.548580000001</v>
+        <v>15194.225450620001</v>
       </c>
       <c r="Q50">
-        <v>15639.312596</v>
+        <v>15635.044573175301</v>
       </c>
       <c r="R50">
-        <v>15526.270557</v>
+        <v>16136.0136008425</v>
       </c>
       <c r="S50">
-        <v>15638.585472999999</v>
+        <v>16051.723506472399</v>
       </c>
       <c r="T50">
-        <v>15311.777636000001</v>
+        <v>15487.7273294316</v>
       </c>
       <c r="U50">
-        <v>15682.657117000001</v>
+        <v>16258.326036143701</v>
       </c>
       <c r="V50">
-        <v>14575.364817</v>
+        <v>14478.2942794917</v>
       </c>
       <c r="W50">
-        <v>14732.6626</v>
+        <v>14174.015084635799</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -5270,14 +5270,14 @@
         <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E66" t="str">
         <f>D66&amp;"_"&amp;F66</f>
-        <v>RawData_24</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F66">
         <v>24</v>
@@ -5286,52 +5286,52 @@
         <v>65</v>
       </c>
       <c r="H66">
-        <v>0.21678</v>
+        <v>0.21273545086550399</v>
       </c>
       <c r="I66">
-        <v>63.636360000000003</v>
+        <v>63.636363636363598</v>
       </c>
       <c r="J66">
-        <v>-12.07001</v>
+        <v>2.80707935179485</v>
       </c>
       <c r="K66">
-        <v>0.71958999999999995</v>
+        <v>0.86784509191323</v>
       </c>
       <c r="L66">
-        <v>299.42816199999999</v>
+        <v>279.90636220634298</v>
       </c>
       <c r="M66">
-        <v>308.59146099999998</v>
+        <v>283.19265842006098</v>
       </c>
       <c r="N66">
-        <v>312.56716899999998</v>
+        <v>295.86820045811999</v>
       </c>
       <c r="O66">
-        <v>352.13253800000001</v>
+        <v>287.68578089351502</v>
       </c>
       <c r="P66">
-        <v>349.24807700000002</v>
+        <v>299.135443909873</v>
       </c>
       <c r="Q66">
-        <v>398.71402</v>
+        <v>309.17166738679902</v>
       </c>
       <c r="R66">
-        <v>335.029785</v>
+        <v>299.32760529009897</v>
       </c>
       <c r="S66">
-        <v>345.39547700000003</v>
+        <v>226.26945518053401</v>
       </c>
       <c r="T66">
-        <v>254.91842700000001</v>
+        <v>193.07506401285701</v>
       </c>
       <c r="U66">
-        <v>232.110443</v>
+        <v>236.725681744551</v>
       </c>
       <c r="V66">
-        <v>308.85943600000002</v>
+        <v>273.36903378652897</v>
       </c>
       <c r="W66">
-        <v>253.539917</v>
+        <v>268.93132912354599</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -6425,65 +6425,65 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E82" t="str">
         <f>D82&amp;"_"&amp;F82</f>
-        <v>Catch22_36</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F82">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
         <v>65</v>
       </c>
       <c r="H82">
-        <v>0.23785000000000001</v>
+        <v>0.20354029719084701</v>
       </c>
       <c r="I82">
-        <v>81.818179999999998</v>
+        <v>81.818181818181799</v>
       </c>
       <c r="J82">
-        <v>-0.77188000000000001</v>
+        <v>7.6546880789510201</v>
       </c>
       <c r="K82">
-        <v>0.48698999999999998</v>
+        <v>0.50458748051038205</v>
       </c>
       <c r="L82">
-        <v>130.80203863666699</v>
+        <v>109.047155486604</v>
       </c>
       <c r="M82">
-        <v>97.072863746623398</v>
+        <v>72.522858211658203</v>
       </c>
       <c r="N82">
-        <v>101.58559485047</v>
+        <v>80.983460188170895</v>
       </c>
       <c r="O82">
-        <v>136.195463634737</v>
+        <v>121.96514525984701</v>
       </c>
       <c r="P82">
-        <v>139.516840119059</v>
+        <v>134.02557118944199</v>
       </c>
       <c r="Q82">
-        <v>141.84088960217201</v>
+        <v>137.05077390482001</v>
       </c>
       <c r="R82">
-        <v>129.69191370694901</v>
+        <v>124.573165541268</v>
       </c>
       <c r="S82">
-        <v>99.286425828664505</v>
+        <v>68.938371882082393</v>
       </c>
       <c r="T82">
-        <v>114.87903492845901</v>
+        <v>108.22059662087401</v>
       </c>
       <c r="U82">
-        <v>156.05245310636701</v>
+        <v>164.234689296325</v>
       </c>
       <c r="V82">
-        <v>145.037374280585</v>
+        <v>149.405153474668</v>
       </c>
       <c r="W82">
-        <v>123.299561778217</v>
+        <v>117.587035457566</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6926,14 +6926,14 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E89" t="str">
         <f>D89&amp;"_"&amp;F89</f>
-        <v>RawData_12</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F89">
         <v>12</v>
@@ -6942,52 +6942,52 @@
         <v>65</v>
       </c>
       <c r="H89">
-        <v>2.6040000000000001E-2</v>
+        <v>2.3361285550846201E-2</v>
       </c>
       <c r="I89">
-        <v>72.727270000000004</v>
+        <v>72.727272727272705</v>
       </c>
       <c r="J89">
-        <v>-0.85099000000000002</v>
+        <v>-0.79985431705955001</v>
       </c>
       <c r="K89">
-        <v>0.57709999999999995</v>
+        <v>0.51412406960712698</v>
       </c>
       <c r="L89">
-        <v>14872.944927</v>
+        <v>14738.5773572084</v>
       </c>
       <c r="M89">
-        <v>14605.062432000001</v>
+        <v>14457.151056139999</v>
       </c>
       <c r="N89">
-        <v>14859.547639</v>
+        <v>14747.829948385899</v>
       </c>
       <c r="O89">
-        <v>14776.512537000001</v>
+        <v>15116.864177733099</v>
       </c>
       <c r="P89">
-        <v>14920.451655000001</v>
+        <v>15317.2618311644</v>
       </c>
       <c r="Q89">
-        <v>15333.069562000001</v>
+        <v>15146.786546973201</v>
       </c>
       <c r="R89">
-        <v>14228.896278</v>
+        <v>14231.726707628801</v>
       </c>
       <c r="S89">
-        <v>14328.399406</v>
+        <v>14359.207911741099</v>
       </c>
       <c r="T89">
-        <v>13908.452422</v>
+        <v>14062.9050497715</v>
       </c>
       <c r="U89">
-        <v>15445.415077</v>
+        <v>15022.202926847</v>
       </c>
       <c r="V89">
-        <v>13347.286397</v>
+        <v>13209.1578104398</v>
       </c>
       <c r="W89">
-        <v>13400.514219999999</v>
+        <v>13528.647218964699</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7790,68 +7790,68 @@
         <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
         <v>68</v>
       </c>
       <c r="E101" t="str">
         <f>D101&amp;"_"&amp;F101</f>
-        <v>TsFeatures_12</v>
+        <v>TsFeatures_36</v>
       </c>
       <c r="F101">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>65</v>
       </c>
       <c r="H101">
-        <v>4.8000000000000001E-2</v>
+        <v>2.3147626315496401E-2</v>
       </c>
       <c r="I101">
-        <v>72.727270000000004</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="J101">
-        <v>-4.6866700000000003</v>
+        <v>9.3324395445438996E-2</v>
       </c>
       <c r="K101">
-        <v>0.84953000000000001</v>
+        <v>0.29713277668073301</v>
       </c>
       <c r="L101">
-        <v>78720.319012000007</v>
+        <v>75371.911185731195</v>
       </c>
       <c r="M101">
-        <v>76011.400993000003</v>
+        <v>76332.126319424395</v>
       </c>
       <c r="N101">
-        <v>87174.896405000007</v>
+        <v>81255.551021888503</v>
       </c>
       <c r="O101">
-        <v>85420.957725999993</v>
+        <v>82296.038330040203</v>
       </c>
       <c r="P101">
-        <v>85420.957725999993</v>
+        <v>85148.135739712103</v>
       </c>
       <c r="Q101">
-        <v>85996.883738999997</v>
+        <v>84605.940114619807</v>
       </c>
       <c r="R101">
-        <v>79753.030576999998</v>
+        <v>77250.284905236098</v>
       </c>
       <c r="S101">
-        <v>84020.560347999999</v>
+        <v>77741.663903159701</v>
       </c>
       <c r="T101">
-        <v>81789.555349999995</v>
+        <v>76485.980620202099</v>
       </c>
       <c r="U101">
-        <v>82144.379748000007</v>
+        <v>79697.573986004907</v>
       </c>
       <c r="V101">
-        <v>75087.260313000006</v>
+        <v>69033.118251492895</v>
       </c>
       <c r="W101">
-        <v>73376.528288999994</v>
+        <v>65183.704718357403</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
@@ -9017,65 +9017,65 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E118" t="str">
         <f>D118&amp;"_"&amp;F118</f>
-        <v>RawData_36</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F118">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
         <v>65</v>
       </c>
       <c r="H118">
-        <v>0.15909000000000001</v>
+        <v>0.143649708220878</v>
       </c>
       <c r="I118">
-        <v>27.272729999999999</v>
+        <v>45.454545454545404</v>
       </c>
       <c r="J118">
-        <v>12.13795</v>
+        <v>6.8958679036916202</v>
       </c>
       <c r="K118">
-        <v>0.70665999999999995</v>
+        <v>0.61291425145499401</v>
       </c>
       <c r="L118">
-        <v>4034.61720559793</v>
+        <v>4086.8494118634399</v>
       </c>
       <c r="M118">
-        <v>3898.37803692844</v>
+        <v>4294.1808008436101</v>
       </c>
       <c r="N118">
-        <v>3907.3318286917702</v>
+        <v>4319.1027028626004</v>
       </c>
       <c r="O118">
-        <v>3685.0530759242702</v>
+        <v>4169.8542379748096</v>
       </c>
       <c r="P118">
-        <v>4135.8253605897198</v>
+        <v>4346.0416011413599</v>
       </c>
       <c r="Q118">
-        <v>4394.8921641172501</v>
+        <v>5161.5216561297102</v>
       </c>
       <c r="R118">
-        <v>4346.4404896609303</v>
+        <v>5003.0730946539497</v>
       </c>
       <c r="S118">
-        <v>4430.1113362912001</v>
+        <v>4406.35242377546</v>
       </c>
       <c r="T118">
-        <v>4023.6665194642501</v>
+        <v>3822.5018587334298</v>
       </c>
       <c r="U118">
-        <v>4025.99149541726</v>
+        <v>3899.1628732067302</v>
       </c>
       <c r="V118">
-        <v>4080.14792636522</v>
+        <v>4396.8980877608001</v>
       </c>
       <c r="W118">
-        <v>3392.5900811503402</v>
+        <v>3334.49911019099</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.3">
@@ -10670,68 +10670,68 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E141" t="str">
         <f>D141&amp;"_"&amp;F141</f>
-        <v>RawData_24</v>
+        <v>TsFeatures_12</v>
       </c>
       <c r="F141">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G141" t="s">
         <v>65</v>
       </c>
       <c r="H141">
-        <v>5.3429999999999998E-2</v>
+        <v>3.6536271702050802E-2</v>
       </c>
       <c r="I141">
-        <v>90.909090000000006</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="J141">
-        <v>3.9929399999999999</v>
+        <v>2.2129389947003801</v>
       </c>
       <c r="K141">
-        <v>0.57938999999999996</v>
+        <v>0.39702803658935099</v>
       </c>
       <c r="L141">
-        <v>279530.73443800001</v>
+        <v>292611.35700906202</v>
       </c>
       <c r="M141">
-        <v>272465.55002000002</v>
+        <v>276542.97964432702</v>
       </c>
       <c r="N141">
-        <v>282244.77635499998</v>
+        <v>295621.93167631398</v>
       </c>
       <c r="O141">
-        <v>280296.21423899999</v>
+        <v>293262.38966592599</v>
       </c>
       <c r="P141">
-        <v>295367.72608599998</v>
+        <v>304894.11623029702</v>
       </c>
       <c r="Q141">
-        <v>312525.80322100001</v>
+        <v>316814.21513725398</v>
       </c>
       <c r="R141">
-        <v>293034.186957</v>
+        <v>287188.09368745098</v>
       </c>
       <c r="S141">
-        <v>300650.94001100003</v>
+        <v>287823.58627842902</v>
       </c>
       <c r="T141">
-        <v>282759.70643899997</v>
+        <v>294936.89965521602</v>
       </c>
       <c r="U141">
-        <v>272924.65838500002</v>
+        <v>296780.08824524598</v>
       </c>
       <c r="V141">
-        <v>263898.72801800002</v>
+        <v>263597.87751649</v>
       </c>
       <c r="W141">
-        <v>262197.62611100002</v>
+        <v>250821.26579058799</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.3">
@@ -10742,14 +10742,14 @@
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E142" t="str">
         <f>D142&amp;"_"&amp;F142</f>
-        <v>TsFresh_24</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F142">
         <v>24</v>
@@ -10758,52 +10758,52 @@
         <v>65</v>
       </c>
       <c r="H142">
-        <v>4.8779999999999997E-2</v>
+        <v>4.1672159732372198E-2</v>
       </c>
       <c r="I142">
-        <v>27.272729999999999</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="J142">
-        <v>-0.64751999999999998</v>
+        <v>1.94371385481857</v>
       </c>
       <c r="K142">
-        <v>0.65078000000000003</v>
+        <v>0.54308688349247602</v>
       </c>
       <c r="L142">
-        <v>93699.179688000004</v>
+        <v>88341.360087883004</v>
       </c>
       <c r="M142">
-        <v>93699.179688000004</v>
+        <v>87295.5442189717</v>
       </c>
       <c r="N142">
-        <v>93699.179688000004</v>
+        <v>90358.429009363797</v>
       </c>
       <c r="O142">
-        <v>93699.179688000004</v>
+        <v>94332.3528023541</v>
       </c>
       <c r="P142">
-        <v>93183.84375</v>
+        <v>99962.469369568498</v>
       </c>
       <c r="Q142">
-        <v>99703.742188000004</v>
+        <v>101377.69823019</v>
       </c>
       <c r="R142">
-        <v>102174.609375</v>
+        <v>99720.153987230398</v>
       </c>
       <c r="S142">
-        <v>100293.648438</v>
+        <v>100383.921898099</v>
       </c>
       <c r="T142">
-        <v>101352.265625</v>
+        <v>98112.748400727796</v>
       </c>
       <c r="U142">
-        <v>100572.625</v>
+        <v>99025.561731555499</v>
       </c>
       <c r="V142">
-        <v>99305.3125</v>
+        <v>95661.351593205007</v>
       </c>
       <c r="W142">
-        <v>98496.265625</v>
+        <v>85188.149153536797</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
@@ -11537,65 +11537,65 @@
         <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E153" t="str">
         <f>D153&amp;"_"&amp;F153</f>
-        <v>RawData_12</v>
+        <v>TsFeatures_24</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G153" t="s">
         <v>65</v>
       </c>
       <c r="H153">
-        <v>4.5490000000000003E-2</v>
+        <v>3.6879759588987503E-2</v>
       </c>
       <c r="I153">
-        <v>81.818179999999998</v>
+        <v>72.727272727272705</v>
       </c>
       <c r="J153">
-        <v>3.1436600000000001</v>
+        <v>-0.88876258584507495</v>
       </c>
       <c r="K153">
-        <v>0.80747000000000002</v>
+        <v>0.38789218175496198</v>
       </c>
       <c r="L153">
-        <v>50192.071911992804</v>
+        <v>52412.251492846997</v>
       </c>
       <c r="M153">
-        <v>49854.6173531022</v>
+        <v>53375.168523627697</v>
       </c>
       <c r="N153">
-        <v>51565.236857524404</v>
+        <v>54282.522825751897</v>
       </c>
       <c r="O153">
-        <v>52813.439461502603</v>
+        <v>56066.008903779199</v>
       </c>
       <c r="P153">
-        <v>56231.941397365801</v>
+        <v>59907.689011806899</v>
       </c>
       <c r="Q153">
-        <v>56588.377107028602</v>
+        <v>59406.533561039003</v>
       </c>
       <c r="R153">
-        <v>54903.131926684197</v>
+        <v>55022.965384377298</v>
       </c>
       <c r="S153">
-        <v>56252.241217373201</v>
+        <v>56540.4092571726</v>
       </c>
       <c r="T153">
-        <v>54599.606100803401</v>
+        <v>57006.991671563301</v>
       </c>
       <c r="U153">
-        <v>56036.2036509471</v>
+        <v>58225.5968943997</v>
       </c>
       <c r="V153">
-        <v>50030.903515296799</v>
+        <v>52170.486235401397</v>
       </c>
       <c r="W153">
-        <v>45803.452774493097</v>
+        <v>46886.1941906012</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.3">

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -281,8 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9590,14 +9591,14 @@
         <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E126" t="str">
         <f>D126&amp;"_"&amp;F126</f>
-        <v>TsFeatures_24</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F126">
         <v>24</v>
@@ -9606,52 +9607,52 @@
         <v>65</v>
       </c>
       <c r="H126">
-        <v>2362885977393930</v>
+        <v>1727212073207970</v>
       </c>
       <c r="I126">
-        <v>54.545450000000002</v>
+        <v>27.272727272727199</v>
       </c>
       <c r="J126">
-        <v>80.031149999999997</v>
+        <v>81.171535674605906</v>
       </c>
       <c r="K126">
-        <v>3.0410300000000001</v>
+        <v>2.0392853654725398</v>
       </c>
       <c r="L126">
-        <v>4.6001190000000003</v>
+        <v>3.0609645839058102</v>
       </c>
       <c r="M126">
-        <v>1.306969</v>
+        <v>2.8458664635259101</v>
       </c>
       <c r="N126">
-        <v>1.2977799999999999</v>
+        <v>2.8953993522780701</v>
       </c>
       <c r="O126">
-        <v>1.2895760000000001</v>
+        <v>2.3795656699659502</v>
       </c>
       <c r="P126">
-        <v>1.2895760000000001</v>
+        <v>2.5110011907241598</v>
       </c>
       <c r="Q126">
-        <v>1.2895760000000001</v>
+        <v>2.1692840466736198</v>
       </c>
       <c r="R126">
-        <v>1.2895760000000001</v>
+        <v>1.32948866041945</v>
       </c>
       <c r="S126">
-        <v>1.2754700000000001</v>
+        <v>1.18265457400568</v>
       </c>
       <c r="T126">
-        <v>1.3451200000000001</v>
+        <v>0.92896695520909101</v>
       </c>
       <c r="U126">
-        <v>2.4494720000000001</v>
+        <v>6.8036477792929803E-2</v>
       </c>
       <c r="V126">
-        <v>2.7278389999999999</v>
+        <v>6.2517916237147999E-3</v>
       </c>
       <c r="W126">
-        <v>1.2814749999999999</v>
+        <v>0.84052522648371797</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
@@ -9734,14 +9735,14 @@
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E128" t="str">
         <f>D128&amp;"_"&amp;F128</f>
-        <v>TsFeatures_24</v>
+        <v>TsFel_24</v>
       </c>
       <c r="F128">
         <v>24</v>
@@ -9749,53 +9750,53 @@
       <c r="G128" t="s">
         <v>65</v>
       </c>
-      <c r="H128">
-        <v>4.67654363268104E+16</v>
+      <c r="H128" s="1">
+        <v>3.9950537960575696E+16</v>
       </c>
       <c r="I128">
-        <v>45.454549999999998</v>
+        <v>45.454545454545404</v>
       </c>
       <c r="J128">
-        <v>84.495630000000006</v>
+        <v>87.655849436969902</v>
       </c>
       <c r="K128">
-        <v>1.17079</v>
+        <v>1.1827164495620399</v>
       </c>
       <c r="L128">
-        <v>812.15618900000004</v>
+        <v>488.55669201449302</v>
       </c>
       <c r="M128">
-        <v>808.03241000000003</v>
+        <v>438.79323567187998</v>
       </c>
       <c r="N128">
-        <v>578.06091300000003</v>
+        <v>385.34050544425202</v>
       </c>
       <c r="O128">
-        <v>219.572845</v>
+        <v>376.03749047432802</v>
       </c>
       <c r="P128">
-        <v>209.67147800000001</v>
+        <v>145.99962559005601</v>
       </c>
       <c r="Q128">
-        <v>124.608154</v>
+        <v>106.449617015982</v>
       </c>
       <c r="R128">
-        <v>124.608154</v>
+        <v>140.942980450275</v>
       </c>
       <c r="S128">
-        <v>119.98687700000001</v>
+        <v>161.64997863083599</v>
       </c>
       <c r="T128">
-        <v>205.05020099999999</v>
+        <v>165.33698611866899</v>
       </c>
       <c r="U128">
-        <v>125.28106699999999</v>
+        <v>169.89970269069099</v>
       </c>
       <c r="V128">
-        <v>119.98687700000001</v>
+        <v>166.19607647400801</v>
       </c>
       <c r="W128">
-        <v>205.05020099999999</v>
+        <v>162.47066233464699</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">

--- a/00-RANKING.xlsx
+++ b/00-RANKING.xlsx
@@ -807,68 +807,68 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" t="str">
         <f>D4&amp;"_"&amp;F4</f>
-        <v>TsFeatures_24</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>65</v>
       </c>
       <c r="H4">
-        <v>0.14262</v>
+        <v>0.13463447624409899</v>
       </c>
       <c r="I4">
-        <v>63.636360000000003</v>
+        <v>72.727272727272705</v>
       </c>
       <c r="J4">
-        <v>14.700749999999999</v>
+        <v>13.175443199953</v>
       </c>
       <c r="K4">
-        <v>0.51637</v>
+        <v>0.485100821293805</v>
       </c>
       <c r="L4">
-        <v>13178.449219</v>
+        <v>12054.106875236999</v>
       </c>
       <c r="M4">
-        <v>13304.166015999999</v>
+        <v>12123.6032604096</v>
       </c>
       <c r="N4">
-        <v>13031.169921999999</v>
+        <v>12239.9528701533</v>
       </c>
       <c r="O4">
-        <v>12750.537109000001</v>
+        <v>13152.4247033554</v>
       </c>
       <c r="P4">
-        <v>12713.353515999999</v>
+        <v>13848.800519357699</v>
       </c>
       <c r="Q4">
-        <v>13026.393555000001</v>
+        <v>13876.7048366286</v>
       </c>
       <c r="R4">
-        <v>12096.298828000001</v>
+        <v>13412.8548104522</v>
       </c>
       <c r="S4">
-        <v>12072.972656</v>
+        <v>14077.441701067401</v>
       </c>
       <c r="T4">
-        <v>12114.375977</v>
+        <v>12283.702476336701</v>
       </c>
       <c r="U4">
-        <v>12115.219727</v>
+        <v>12970.576841563799</v>
       </c>
       <c r="V4">
-        <v>12113.755859000001</v>
+        <v>11452.9854920176</v>
       </c>
       <c r="W4">
-        <v>12114.599609000001</v>
+        <v>11831.699689883801</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -2895,68 +2895,68 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="str">
         <f>D33&amp;"_"&amp;F33</f>
-        <v>TsFlex_36</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F33">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>65</v>
       </c>
       <c r="H33">
-        <v>3.8920000000000003E-2</v>
+        <v>3.8379309697019102E-2</v>
       </c>
       <c r="I33">
-        <v>81.818179999999998</v>
+        <v>54.545454545454497</v>
       </c>
       <c r="J33">
-        <v>0.43845000000000001</v>
+        <v>2.5753493920091</v>
       </c>
       <c r="K33">
-        <v>0.44185000000000002</v>
+        <v>0.43183623460242598</v>
       </c>
       <c r="L33">
-        <v>197146.84758100001</v>
+        <v>175105.44334098001</v>
       </c>
       <c r="M33">
-        <v>182855.06164</v>
+        <v>179590.233063833</v>
       </c>
       <c r="N33">
-        <v>201378.46908899999</v>
+        <v>184380.41552263801</v>
       </c>
       <c r="O33">
-        <v>196221.47042</v>
+        <v>197221.592526797</v>
       </c>
       <c r="P33">
-        <v>192910.676844</v>
+        <v>189669.98794063801</v>
       </c>
       <c r="Q33">
-        <v>195800.719939</v>
+        <v>175512.65857091299</v>
       </c>
       <c r="R33">
-        <v>195691.611894</v>
+        <v>179443.98183040199</v>
       </c>
       <c r="S33">
-        <v>195350.48369299999</v>
+        <v>192677.88978336501</v>
       </c>
       <c r="T33">
-        <v>191083.020185</v>
+        <v>188028.096733079</v>
       </c>
       <c r="U33">
-        <v>191242.826244</v>
+        <v>214218.78584905501</v>
       </c>
       <c r="V33">
-        <v>191336.10045100001</v>
+        <v>216809.843016214</v>
       </c>
       <c r="W33">
-        <v>190395.41102500001</v>
+        <v>178928.97384813</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -4194,65 +4194,65 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E51" t="str">
         <f>D51&amp;"_"&amp;F51</f>
-        <v>RawData_12</v>
+        <v>TsFresh_24</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
         <v>65</v>
       </c>
       <c r="H51">
-        <v>3.6249999999999998E-2</v>
+        <v>3.2059777644172498E-2</v>
       </c>
       <c r="I51">
-        <v>72.727270000000004</v>
+        <v>72.727272727272705</v>
       </c>
       <c r="J51">
-        <v>2.1145499999999999</v>
+        <v>1.2105501824517699</v>
       </c>
       <c r="K51">
-        <v>0.65793999999999997</v>
+        <v>0.34899983112474298</v>
       </c>
       <c r="L51">
-        <v>316129.54969108303</v>
+        <v>309286.88128580601</v>
       </c>
       <c r="M51">
-        <v>308108.03235114802</v>
+        <v>302190.25332841498</v>
       </c>
       <c r="N51">
-        <v>305505.84200394899</v>
+        <v>311111.80510018801</v>
       </c>
       <c r="O51">
-        <v>299456.10833015101</v>
+        <v>303328.60097500402</v>
       </c>
       <c r="P51">
-        <v>308813.50650450698</v>
+        <v>295738.627911093</v>
       </c>
       <c r="Q51">
-        <v>317361.522887923</v>
+        <v>295384.69348101201</v>
       </c>
       <c r="R51">
-        <v>307024.20678087301</v>
+        <v>302172.36855899502</v>
       </c>
       <c r="S51">
-        <v>325560.32514987898</v>
+        <v>339109.51050892798</v>
       </c>
       <c r="T51">
-        <v>310938.58274844999</v>
+        <v>326019.02972476499</v>
       </c>
       <c r="U51">
-        <v>347262.74745269399</v>
+        <v>374384.67475296097</v>
       </c>
       <c r="V51">
-        <v>318538.70813033299</v>
+        <v>331658.29243891599</v>
       </c>
       <c r="W51">
-        <v>290469.33297550702</v>
+        <v>299463.84802350699</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -9663,68 +9663,68 @@
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E127" t="str">
         <f>D127&amp;"_"&amp;F127</f>
-        <v>TsFeatures_24</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F127">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
         <v>65</v>
       </c>
       <c r="H127">
-        <v>7.8399999999999997E-2</v>
+        <v>7.7134602849846398E-2</v>
       </c>
       <c r="I127">
-        <v>45.454549999999998</v>
+        <v>81.818181818181799</v>
       </c>
       <c r="J127">
-        <v>4.6631299999999998</v>
+        <v>-1.9924094952270099</v>
       </c>
       <c r="K127">
-        <v>0.52542999999999995</v>
+        <v>0.47383287402471602</v>
       </c>
       <c r="L127">
-        <v>11112.125977</v>
+        <v>12924.398044224999</v>
       </c>
       <c r="M127">
-        <v>11112.125977</v>
+        <v>12828.251936348801</v>
       </c>
       <c r="N127">
-        <v>10956.295898</v>
+        <v>11500.6270029481</v>
       </c>
       <c r="O127">
-        <v>10704.392578000001</v>
+        <v>12230.1737464323</v>
       </c>
       <c r="P127">
-        <v>10704.392578000001</v>
+        <v>11689.4139489093</v>
       </c>
       <c r="Q127">
-        <v>10955.373046999999</v>
+        <v>12598.3421859177</v>
       </c>
       <c r="R127">
-        <v>11379.432617</v>
+        <v>11835.7799055545</v>
       </c>
       <c r="S127">
-        <v>10750.820312</v>
+        <v>11847.172435886499</v>
       </c>
       <c r="T127">
-        <v>10704.392578000001</v>
+        <v>11857.123557827001</v>
       </c>
       <c r="U127">
-        <v>10704.392578000001</v>
+        <v>10753.9888115102</v>
       </c>
       <c r="V127">
-        <v>11324.300781</v>
+        <v>11195.398378051499</v>
       </c>
       <c r="W127">
-        <v>11202.925781</v>
+        <v>9538.1633801722892</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
@@ -10746,65 +10746,65 @@
         <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E142" t="str">
         <f>D142&amp;"_"&amp;F142</f>
-        <v>TsFeatures_24</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F142">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
         <v>65</v>
       </c>
       <c r="H142">
-        <v>4.1672159732372198E-2</v>
+        <v>3.4191756632922399E-2</v>
       </c>
       <c r="I142">
-        <v>90.909090909090907</v>
+        <v>81.818181818181799</v>
       </c>
       <c r="J142">
-        <v>1.94371385481857</v>
+        <v>-0.55687812738352704</v>
       </c>
       <c r="K142">
-        <v>0.54308688349247602</v>
+        <v>0.45845309103058401</v>
       </c>
       <c r="L142">
-        <v>88341.360087883004</v>
+        <v>89832.971885282896</v>
       </c>
       <c r="M142">
-        <v>87295.5442189717</v>
+        <v>87630.227416654394</v>
       </c>
       <c r="N142">
-        <v>90358.429009363797</v>
+        <v>90774.958187384007</v>
       </c>
       <c r="O142">
-        <v>94332.3528023541</v>
+        <v>95890.1636320697</v>
       </c>
       <c r="P142">
-        <v>99962.469369568498</v>
+        <v>104224.703723217</v>
       </c>
       <c r="Q142">
-        <v>101377.69823019</v>
+        <v>106120.375593524</v>
       </c>
       <c r="R142">
-        <v>99720.153987230398</v>
+        <v>99751.369968004205</v>
       </c>
       <c r="S142">
-        <v>100383.921898099</v>
+        <v>103904.93535427</v>
       </c>
       <c r="T142">
-        <v>98112.748400727796</v>
+        <v>102934.320246106</v>
       </c>
       <c r="U142">
-        <v>99025.561731555499</v>
+        <v>102386.46652857499</v>
       </c>
       <c r="V142">
-        <v>95661.351593205007</v>
+        <v>95421.95905623</v>
       </c>
       <c r="W142">
-        <v>85188.149153536797</v>
+        <v>89952.983511576705</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
@@ -12183,14 +12183,14 @@
         <v>56</v>
       </c>
       <c r="C162" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E162" t="str">
         <f>D162&amp;"_"&amp;F162</f>
-        <v>RawData_12</v>
+        <v>TsFresh_12</v>
       </c>
       <c r="F162">
         <v>12</v>
@@ -12199,52 +12199,52 @@
         <v>65</v>
       </c>
       <c r="H162">
-        <v>5.0799999999999998E-2</v>
+        <v>4.2633739861844301E-2</v>
       </c>
       <c r="I162">
-        <v>63.636360000000003</v>
+        <v>63.636363636363598</v>
       </c>
       <c r="J162">
-        <v>4.1015699999999997</v>
+        <v>1.57979452732977</v>
       </c>
       <c r="K162">
-        <v>0.83160000000000001</v>
+        <v>0.67688012169719602</v>
       </c>
       <c r="L162">
-        <v>1156469.432736</v>
+        <v>1004482.77821804</v>
       </c>
       <c r="M162">
-        <v>1084379.6369109999</v>
+        <v>1072612.4051822701</v>
       </c>
       <c r="N162">
-        <v>1061698.391574</v>
+        <v>1167545.7600444001</v>
       </c>
       <c r="O162">
-        <v>1137368.357939</v>
+        <v>1185437.4555697399</v>
       </c>
       <c r="P162">
-        <v>1121525.4590970001</v>
+        <v>1220187.5023008699</v>
       </c>
       <c r="Q162">
-        <v>1177503.655207</v>
+        <v>1280431.96118941</v>
       </c>
       <c r="R162">
-        <v>1175456.994647</v>
+        <v>1178585.27981357</v>
       </c>
       <c r="S162">
-        <v>1149997.1818639999</v>
+        <v>1261075.2192462501</v>
       </c>
       <c r="T162">
-        <v>1124402.1548949999</v>
+        <v>1172038.0508177399</v>
       </c>
       <c r="U162">
-        <v>1064584.9014349999</v>
+        <v>1068901.68835104</v>
       </c>
       <c r="V162">
-        <v>975981.25557299994</v>
+        <v>972523.57659472898</v>
       </c>
       <c r="W162">
-        <v>898971.94682900002</v>
+        <v>889744.42948417005</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.3">
